--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="G2" t="n">
         <v>2.6</v>
@@ -676,7 +676,7 @@
         <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -685,34 +685,34 @@
         <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.97</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.92</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="V2" t="n">
         <v>1.51</v>
@@ -724,7 +724,7 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>22</v>
@@ -769,7 +769,7 @@
         <v>110</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
         <v>32</v>
@@ -805,10 +805,10 @@
         <v>2.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -829,25 +829,25 @@
         <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S3" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V3" t="n">
         <v>1.58</v>
@@ -856,10 +856,10 @@
         <v>1.56</v>
       </c>
       <c r="X3" t="n">
-        <v>22</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
         <v>19.5</v>
@@ -868,10 +868,10 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -889,7 +889,7 @@
         <v>16</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -1396,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
         <v>32</v>
       </c>
       <c r="Z7" t="n">
-        <v>660</v>
+        <v>65</v>
       </c>
       <c r="AA7" t="n">
         <v>200</v>
@@ -1417,7 +1417,7 @@
         <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AF7" t="n">
         <v>11</v>
@@ -1429,10 +1429,10 @@
         <v>21</v>
       </c>
       <c r="AI7" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AK7" t="n">
         <v>14.5</v>
@@ -1444,7 +1444,7 @@
         <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AO7" t="n">
         <v>75</v>
@@ -1477,22 +1477,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="G8" t="n">
         <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="I8" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J8" t="n">
         <v>3.35</v>
       </c>
       <c r="K8" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1507,10 +1507,10 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>4.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="U9" t="n">
         <v>1.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO9"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.58</v>
       </c>
       <c r="G2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="H2" t="n">
         <v>2.88</v>
@@ -685,13 +685,13 @@
         <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -718,7 +718,7 @@
         <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -838,7 +838,7 @@
         <v>1.83</v>
       </c>
       <c r="R3" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
         <v>3.05</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,17 +923,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Kapaz Ganja</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -949,100 +949,100 @@
         <v>1000</v>
       </c>
       <c r="J4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L4" t="n">
         <v>1.01</v>
       </c>
-      <c r="K4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T4" t="n">
         <v>1.01</v>
       </c>
-      <c r="R4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1058,17 +1058,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="G7" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H7" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="I7" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="K7" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R7" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AO7" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.7</v>
+        <v>1.53</v>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>1.55</v>
       </c>
       <c r="H8" t="n">
-        <v>1.92</v>
+        <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.14</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="K8" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,192 +1531,327 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K9" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F10" t="n">
         <v>2.04</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G10" t="n">
         <v>2.08</v>
       </c>
-      <c r="H9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="H10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I10" t="n">
         <v>4.5</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K9" t="n">
+      <c r="J10" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K10" t="n">
         <v>3.55</v>
       </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>1.1</v>
       </c>
-      <c r="N9" t="n">
+      <c r="N10" t="n">
         <v>2.98</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="O10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P10" t="n">
         <v>1.67</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q10" t="n">
         <v>2.42</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R10" t="n">
         <v>1.25</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S10" t="n">
         <v>4.8</v>
       </c>
-      <c r="T9" t="n">
+      <c r="T10" t="n">
         <v>2.1</v>
       </c>
-      <c r="U9" t="n">
+      <c r="U10" t="n">
         <v>1.84</v>
       </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0</v>
-      </c>
-      <c r="X9" t="n">
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Y10" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="Z10" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AA10" t="n">
         <v>130</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AB10" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AC10" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AD10" t="n">
         <v>19</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AE10" t="n">
         <v>75</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AF10" t="n">
         <v>11</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AG10" t="n">
         <v>11</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AH10" t="n">
         <v>24</v>
       </c>
-      <c r="AI9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ9" t="n">
+      <c r="AI10" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>27</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AK10" t="n">
         <v>26</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AL10" t="n">
         <v>55</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AM10" t="n">
         <v>200</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AN10" t="n">
         <v>22</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AO10" t="n">
         <v>120</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -820,7 +820,7 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
@@ -841,7 +841,7 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -961,13 +961,13 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q4" t="n">
         <v>1.32</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
       </c>
       <c r="I8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="I9" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="J9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K9" t="n">
         <v>4.8</v>
@@ -1642,7 +1642,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q9" t="n">
         <v>1.76</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="G10" t="n">
         <v>2.08</v>
@@ -1759,7 +1759,7 @@
         <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.55</v>
@@ -1774,25 +1774,25 @@
         <v>2.98</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="P10" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1807,7 +1807,7 @@
         <v>12.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA10" t="n">
         <v>130</v>
@@ -1837,7 +1837,7 @@
         <v>85</v>
       </c>
       <c r="AJ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK10" t="n">
         <v>26</v>
@@ -1849,7 +1849,7 @@
         <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO10" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -703,7 +703,7 @@
         <v>1.97</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>3.5</v>
@@ -715,22 +715,22 @@
         <v>2.16</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
         <v>1.61</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA2" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
@@ -745,25 +745,25 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH2" t="n">
         <v>18</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AI2" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
@@ -805,7 +805,7 @@
         <v>2.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -832,10 +832,10 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>1.43</v>
@@ -856,19 +856,19 @@
         <v>1.56</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -877,37 +877,37 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.04</v>
+        <v>4.5</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>1000</v>
+        <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>1.34</v>
+        <v>2.7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.32</v>
+        <v>2.02</v>
       </c>
       <c r="R4" t="n">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>3.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="5">
@@ -1480,7 +1480,7 @@
         <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="H8" t="n">
         <v>6.6</v>
@@ -1504,7 +1504,7 @@
         <v>5.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P8" t="n">
         <v>2.64</v>
@@ -1552,7 +1552,7 @@
         <v>26</v>
       </c>
       <c r="AE8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AF8" t="n">
         <v>11</v>
@@ -1564,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK8" t="n">
         <v>14.5</v>
@@ -1582,7 +1582,7 @@
         <v>5.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
@@ -1618,7 +1618,7 @@
         <v>4.3</v>
       </c>
       <c r="H9" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="I9" t="n">
         <v>2.08</v>
@@ -1627,7 +1627,7 @@
         <v>3.65</v>
       </c>
       <c r="K9" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>2.08</v>
       </c>
       <c r="H10" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="I10" t="n">
         <v>4.5</v>
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N10" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q10" t="n">
         <v>2.46</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S10" t="n">
         <v>4.9</v>
@@ -1792,7 +1792,7 @@
         <v>2.12</v>
       </c>
       <c r="U10" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1828,31 +1828,31 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH10" t="n">
         <v>24</v>
       </c>
       <c r="AI10" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AJ10" t="n">
         <v>26</v>
       </c>
       <c r="AK10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL10" t="n">
         <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AN10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO10" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
@@ -805,7 +805,7 @@
         <v>2.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -826,22 +826,22 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -859,7 +859,7 @@
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
         <v>24</v>
@@ -868,7 +868,7 @@
         <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -883,7 +883,7 @@
         <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
         <v>19.5</v>
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.5</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>2.7</v>
+        <v>3.45</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P4" t="n">
-        <v>1.58</v>
+        <v>1.84</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.02</v>
+        <v>1.94</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T4" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z4" t="n">
         <v>11.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AB4" t="n">
-        <v>18.5</v>
+        <v>25</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AD4" t="n">
         <v>12</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AH4" t="n">
         <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>19.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -1072,118 +1072,118 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="G5" t="n">
-        <v>1000</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>2.9</v>
       </c>
       <c r="I5" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="J5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="L5" t="n">
         <v>1.01</v>
       </c>
-      <c r="K5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.01</v>
       </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,17 +1193,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1219,106 +1219,106 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L6" t="n">
         <v>1.01</v>
       </c>
-      <c r="K6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.01</v>
       </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,17 +1328,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.04</v>
       </c>
       <c r="G8" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="H8" t="n">
-        <v>6.6</v>
+        <v>1.04</v>
       </c>
       <c r="I8" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2.64</v>
+        <v>1.24</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R8" t="n">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2.42</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,36 +1598,36 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.75</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.88</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="K9" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>1.24</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.76</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1723,135 +1723,540 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>Saudi Professional League</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>14:30:00</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Al-Taawoun Buraidah</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Al-Hilal</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N11" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K12" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F13" t="n">
         <v>2.06</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I10" t="n">
+      <c r="G13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="J13" t="n">
         <v>3.45</v>
       </c>
-      <c r="K10" t="n">
+      <c r="K13" t="n">
         <v>3.55</v>
       </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="n">
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O13" t="n">
         <v>1.49</v>
       </c>
-      <c r="P10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q10" t="n">
+      <c r="P13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q13" t="n">
         <v>2.46</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R13" t="n">
         <v>1.23</v>
       </c>
-      <c r="S10" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T10" t="n">
+      <c r="S13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.12</v>
       </c>
-      <c r="U10" t="n">
+      <c r="U13" t="n">
         <v>1.83</v>
       </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Y13" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="Z13" t="n">
         <v>30</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AA13" t="n">
         <v>130</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AB13" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AC13" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD10" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE10" t="n">
+      <c r="AD13" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE13" t="n">
         <v>75</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AF13" t="n">
         <v>11</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AG13" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AH13" t="n">
         <v>24</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AI13" t="n">
         <v>90</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AJ13" t="n">
         <v>26</v>
       </c>
-      <c r="AK10" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL10" t="n">
+      <c r="AK13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL13" t="n">
         <v>55</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AM13" t="n">
         <v>220</v>
       </c>
-      <c r="AN10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AO10" t="n">
+      <c r="AN13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO13" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO13"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -676,7 +676,7 @@
         <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -691,22 +691,22 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
@@ -718,7 +718,7 @@
         <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -805,10 +805,10 @@
         <v>2.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="I3" t="n">
         <v>2.7</v>
@@ -826,7 +826,7 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.28</v>
@@ -835,13 +835,13 @@
         <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -853,10 +853,10 @@
         <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>15.5</v>
@@ -943,88 +943,88 @@
         <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3.8</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.07</v>
       </c>
-      <c r="N4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.14</v>
-      </c>
       <c r="X4" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="I5" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
-        <v>2.46</v>
+        <v>2.7</v>
       </c>
       <c r="K5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="L5" t="n">
         <v>1.01</v>
@@ -1096,88 +1096,88 @@
         <v>1.13</v>
       </c>
       <c r="N5" t="n">
-        <v>2.06</v>
+        <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.5</v>
+        <v>7.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ5" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>85</v>
       </c>
-      <c r="AK5" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.02</v>
+        <v>1.32</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q6" t="n">
         <v>1.23</v>
@@ -1255,10 +1255,10 @@
         <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="W6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1354,106 +1354,106 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L7" t="n">
         <v>1.01</v>
       </c>
-      <c r="K7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.01</v>
       </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.04</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="H8" t="n">
-        <v>1.04</v>
+        <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1000</v>
+        <v>1.43</v>
       </c>
       <c r="J8" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="L8" t="n">
         <v>1.01</v>
       </c>
-      <c r="K8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>1.24</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="T8" t="n">
         <v>1.01</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.01</v>
+        <v>2.46</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1771,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.25</v>
+        <v>1.39</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.17</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.53</v>
+        <v>1.04</v>
       </c>
       <c r="G11" t="n">
-        <v>1.54</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
-        <v>6.4</v>
+        <v>1.04</v>
       </c>
       <c r="I11" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>1.01</v>
       </c>
       <c r="K11" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>5.8</v>
+        <v>1.01</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="AN11" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.75</v>
+        <v>1.53</v>
       </c>
       <c r="G12" t="n">
-        <v>4.3</v>
+        <v>1.55</v>
       </c>
       <c r="H12" t="n">
-        <v>1.88</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.08</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.65</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
-        <v>2.04</v>
+        <v>2.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,192 +2071,327 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G13" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="I13" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F14" t="n">
         <v>2.06</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G14" t="n">
         <v>2.1</v>
       </c>
-      <c r="H13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I13" t="n">
+      <c r="H14" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I14" t="n">
         <v>4.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="J14" t="n">
         <v>3.45</v>
       </c>
-      <c r="K13" t="n">
+      <c r="K14" t="n">
         <v>3.55</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
         <v>1.1</v>
       </c>
-      <c r="N13" t="n">
+      <c r="N14" t="n">
         <v>2.98</v>
       </c>
-      <c r="O13" t="n">
+      <c r="O14" t="n">
         <v>1.49</v>
       </c>
-      <c r="P13" t="n">
+      <c r="P14" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R13" t="n">
+      <c r="Q14" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R14" t="n">
         <v>1.23</v>
       </c>
-      <c r="S13" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T13" t="n">
+      <c r="S14" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T14" t="n">
         <v>2.12</v>
       </c>
-      <c r="U13" t="n">
+      <c r="U14" t="n">
         <v>1.83</v>
       </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z13" t="n">
+      <c r="Y14" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="n">
         <v>30</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AA14" t="n">
         <v>130</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AB14" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AC14" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AD14" t="n">
         <v>18</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AE14" t="n">
         <v>75</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AF14" t="n">
         <v>11</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AG14" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AH14" t="n">
         <v>24</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AI14" t="n">
         <v>90</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AJ14" t="n">
         <v>26</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AK14" t="n">
         <v>26</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AL14" t="n">
         <v>55</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AM14" t="n">
         <v>220</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AN14" t="n">
         <v>23</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AO14" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
         <v>2.86</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.74</v>
+        <v>2.76</v>
       </c>
       <c r="G3" t="n">
         <v>2.8</v>
@@ -811,7 +811,7 @@
         <v>2.64</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
         <v>3.75</v>
@@ -841,7 +841,7 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
         <v>1.67</v>
@@ -850,7 +850,7 @@
         <v>2.3</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="W3" t="n">
         <v>1.55</v>
@@ -859,16 +859,16 @@
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
         <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -880,13 +880,13 @@
         <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>46</v>
@@ -904,10 +904,10 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.2</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.24</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="R4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.18</v>
       </c>
-      <c r="S4" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.07</v>
-      </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1093,7 +1093,7 @@
         <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
         <v>2.24</v>
@@ -1102,10 +1102,10 @@
         <v>1.65</v>
       </c>
       <c r="P5" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.7</v>
+        <v>2.98</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
@@ -1120,10 +1120,10 @@
         <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="X5" t="n">
         <v>7.4</v>
@@ -1219,7 +1219,7 @@
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K6" t="n">
         <v>1000</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O6" t="n">
         <v>1.23</v>
       </c>
       <c r="P6" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q6" t="n">
         <v>1.23</v>
@@ -1249,10 +1249,10 @@
         <v>1.23</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1354,7 +1354,7 @@
         <v>1000</v>
       </c>
       <c r="J7" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K7" t="n">
         <v>1000</v>
@@ -1366,13 +1366,13 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="O7" t="n">
         <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="Q7" t="n">
         <v>1.25</v>
@@ -1384,10 +1384,10 @@
         <v>1.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.01</v>
@@ -1480,7 +1480,7 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H8" t="n">
         <v>1.35</v>
@@ -1498,10 +1498,10 @@
         <v>1.01</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
@@ -1513,76 +1513,76 @@
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>2.74</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>1.01</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.01</v>
+        <v>1.71</v>
       </c>
       <c r="V8" t="n">
         <v>3.25</v>
       </c>
       <c r="W8" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="X8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="Y8" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" t="n">
         <v>11</v>
       </c>
-      <c r="Z8" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB8" t="n">
+      <c r="AE8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI8" t="n">
         <v>46</v>
       </c>
-      <c r="AC8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="9">
@@ -1624,106 +1624,106 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1000</v>
+      </c>
+      <c r="L9" t="n">
         <v>1.01</v>
       </c>
-      <c r="K9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="G10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
         <v>3.8</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>17.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="T11" t="n">
         <v>1.04</v>
       </c>
-      <c r="G11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H11" t="n">
+      <c r="U11" t="n">
         <v>1.04</v>
       </c>
-      <c r="I11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="G12" t="n">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>7</v>
+        <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N12" t="n">
         <v>5.1</v>
       </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>5.8</v>
-      </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.42</v>
+        <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.73</v>
+        <v>1.47</v>
       </c>
       <c r="U12" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="X12" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="Y12" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z12" t="n">
         <v>32</v>
       </c>
-      <c r="Z12" t="n">
-        <v>65</v>
-      </c>
       <c r="AA12" t="n">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>11.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="AF12" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG12" t="n">
         <v>11</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>14.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AL12" t="n">
         <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AO12" t="n">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>3.75</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
-        <v>4.3</v>
+        <v>2.42</v>
       </c>
       <c r="H13" t="n">
-        <v>1.9</v>
+        <v>3.15</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.04</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,125 +2273,800 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>1.04</v>
       </c>
       <c r="G14" t="n">
-        <v>2.1</v>
+        <v>1000</v>
       </c>
       <c r="H14" t="n">
-        <v>4.3</v>
+        <v>1.04</v>
       </c>
       <c r="I14" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>1.03</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>1000</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>2.98</v>
+        <v>1.01</v>
       </c>
       <c r="O14" t="n">
-        <v>1.49</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>1.17</v>
       </c>
       <c r="R14" t="n">
         <v>1.23</v>
       </c>
       <c r="S14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>German 3 Liga</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Cottbus</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Jahn Regensburg</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K15" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Romanian Liga I</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Botosani</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H17" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
+      <c r="K17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>28</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>200</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>85</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I19" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S19" t="n">
         <v>4.9</v>
       </c>
-      <c r="T14" t="n">
+      <c r="T19" t="n">
         <v>2.12</v>
       </c>
-      <c r="U14" t="n">
+      <c r="U19" t="n">
         <v>1.83</v>
       </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y14" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z14" t="n">
+      <c r="Y19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z19" t="n">
         <v>30</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AA19" t="n">
         <v>130</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AB19" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AC19" t="n">
         <v>7.8</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AD19" t="n">
         <v>18</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE19" t="n">
         <v>75</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AF19" t="n">
         <v>11</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AG19" t="n">
         <v>11.5</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AH19" t="n">
         <v>24</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AI19" t="n">
         <v>90</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AJ19" t="n">
         <v>26</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AK19" t="n">
         <v>26</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AL19" t="n">
         <v>55</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM19" t="n">
         <v>220</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AN19" t="n">
         <v>23</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AO19" t="n">
         <v>130</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.82</v>
@@ -691,7 +691,7 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
@@ -700,19 +700,19 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -721,7 +721,7 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
         <v>12.5</v>
@@ -739,7 +739,7 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE2" t="n">
         <v>36</v>
@@ -748,7 +748,7 @@
         <v>18.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH2" t="n">
         <v>18</v>
@@ -763,7 +763,7 @@
         <v>32</v>
       </c>
       <c r="AL2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
         <v>110</v>
@@ -772,7 +772,7 @@
         <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -859,16 +859,16 @@
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AA3" t="n">
         <v>50</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -880,13 +880,13 @@
         <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI3" t="n">
         <v>46</v>
@@ -904,10 +904,10 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -967,7 +967,7 @@
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
@@ -1243,7 +1243,7 @@
         <v>1.23</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="S6" t="n">
         <v>1.23</v>
@@ -1486,7 +1486,7 @@
         <v>1.35</v>
       </c>
       <c r="I8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="J8" t="n">
         <v>4.8</v>
@@ -1516,7 +1516,7 @@
         <v>1.38</v>
       </c>
       <c r="S8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
         <v>2.14</v>
@@ -1636,13 +1636,13 @@
         <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O9" t="n">
         <v>1.01</v>
       </c>
       <c r="P9" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" t="n">
         <v>1.01</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,127 +1738,127 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.64</v>
+        <v>2.8</v>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>5.6</v>
+        <v>2.66</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>2.46</v>
       </c>
       <c r="K10" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.06</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>3.8</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.04</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>2.38</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1873,121 +1873,121 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.8</v>
+        <v>1.64</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>2.66</v>
+        <v>5.8</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>6.4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.25</v>
       </c>
-      <c r="L11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N11" t="n">
-        <v>1.4</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P11" t="n">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.62</v>
+        <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.12</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>2.62</v>
+        <v>3.85</v>
       </c>
       <c r="T11" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U11" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.38</v>
+        <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>1.35</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB11" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF11" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG11" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.06</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.95</v>
@@ -2029,13 +2029,13 @@
         <v>4.1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2059,7 +2059,7 @@
         <v>2.52</v>
       </c>
       <c r="T12" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="U12" t="n">
         <v>2.52</v>
@@ -2068,7 +2068,7 @@
         <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2080,7 +2080,7 @@
         <v>32</v>
       </c>
       <c r="AA12" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="n">
         <v>13.5</v>
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G13" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
@@ -2188,76 +2188,76 @@
         <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.01</v>
+        <v>1.62</v>
       </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.32</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA13" t="n">
         <v>65</v>
       </c>
       <c r="AB13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN13" t="n">
         <v>15</v>
       </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
@@ -2299,7 +2299,7 @@
         <v>1000</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K14" t="n">
         <v>1000</v>
@@ -2311,28 +2311,28 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="Q14" t="n">
         <v>1.17</v>
       </c>
       <c r="R14" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="S14" t="n">
         <v>1.17</v>
       </c>
       <c r="T14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V14" t="n">
         <v>1.01</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.78</v>
+        <v>2.72</v>
       </c>
       <c r="G15" t="n">
-        <v>1.93</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>3.35</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="G16" t="n">
-        <v>2.94</v>
+        <v>1.95</v>
       </c>
       <c r="H16" t="n">
-        <v>2.72</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>5.3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.6</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.52</v>
+        <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>1.54</v>
+        <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>6.6</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
-        <v>7.2</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.64</v>
+        <v>2.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R17" t="n">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="S17" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>1.73</v>
+        <v>1.41</v>
       </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>1.96</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X17" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="AA17" t="n">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="AB17" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>95</v>
       </c>
       <c r="AK17" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AL17" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,261 +2813,1611 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>4.3</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>1.91</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>2.08</v>
+        <v>15</v>
       </c>
       <c r="J18" t="n">
-        <v>3.65</v>
+        <v>7.8</v>
       </c>
       <c r="K18" t="n">
-        <v>4.7</v>
+        <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>2.04</v>
+        <v>4.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.76</v>
+        <v>1.21</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>FC Eindhoven</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Jong AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K19" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="W19" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X19" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Cambuur Leeuwarden</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>MVV Maastricht</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="X20" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>65</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Dutch Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>VVV Venlo</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>FC Dordrecht</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X21" t="n">
+        <v>32</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hungarian NB I</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>16:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Diosgyori</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Ferencvaros</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="G22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>FC Vaduz</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Aarau</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N23" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Swiss Challenge League</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:15:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Etoile Carouge</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Stade Lausanne-Ouchy</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G24" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K24" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N24" t="n">
+        <v>2</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>German Bundesliga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Dortmund</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mgladbach</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7</v>
+      </c>
+      <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N25" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W25" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="X25" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>190</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Italian Serie B</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>SSD Bari</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Catanzaro</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W26" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V27" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="W27" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>48</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="X28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B29" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C29" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F29" t="n">
         <v>2.06</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G29" t="n">
         <v>2.08</v>
       </c>
-      <c r="H19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I19" t="n">
+      <c r="H29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I29" t="n">
         <v>4.5</v>
       </c>
-      <c r="J19" t="n">
+      <c r="J29" t="n">
         <v>3.45</v>
       </c>
-      <c r="K19" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="K29" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N29" t="n">
         <v>2.98</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O29" t="n">
         <v>1.49</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P29" t="n">
         <v>1.64</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q29" t="n">
         <v>2.48</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R29" t="n">
         <v>1.23</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S29" t="n">
         <v>4.9</v>
       </c>
-      <c r="T19" t="n">
+      <c r="T29" t="n">
         <v>2.12</v>
       </c>
-      <c r="U19" t="n">
+      <c r="U29" t="n">
         <v>1.83</v>
       </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Y19" t="n">
+      <c r="V29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="X29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y29" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB19" t="n">
+      <c r="Z29" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB29" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC19" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AC29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD29" t="n">
         <v>18</v>
       </c>
-      <c r="AE19" t="n">
-        <v>75</v>
-      </c>
-      <c r="AF19" t="n">
+      <c r="AE29" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF29" t="n">
         <v>11</v>
       </c>
-      <c r="AG19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH19" t="n">
+      <c r="AG29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH29" t="n">
         <v>24</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AI29" t="n">
         <v>90</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AJ29" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK29" t="n">
         <v>26</v>
       </c>
-      <c r="AK19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL19" t="n">
+      <c r="AL29" t="n">
         <v>55</v>
       </c>
-      <c r="AM19" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN19" t="n">
+      <c r="AM29" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN29" t="n">
         <v>23</v>
       </c>
-      <c r="AO19" t="n">
-        <v>130</v>
+      <c r="AO29" t="n">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO29"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,16 +673,16 @@
         <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
         <v>1.41</v>
@@ -700,13 +700,13 @@
         <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.75</v>
@@ -727,7 +727,7 @@
         <v>12.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
         <v>50</v>
@@ -745,13 +745,13 @@
         <v>36</v>
       </c>
       <c r="AF2" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG2" t="n">
         <v>12.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI2" t="n">
         <v>46</v>
@@ -805,7 +805,7 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H3" t="n">
         <v>2.64</v>
@@ -814,7 +814,7 @@
         <v>2.68</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,19 +832,19 @@
         <v>1.28</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
         <v>2.3</v>
@@ -853,22 +853,22 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AA3" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -880,13 +880,13 @@
         <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AI3" t="n">
         <v>46</v>
@@ -895,7 +895,7 @@
         <v>50</v>
       </c>
       <c r="AK3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>46</v>
@@ -904,10 +904,10 @@
         <v>90</v>
       </c>
       <c r="AN3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AO3" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
@@ -1216,7 +1216,7 @@
         <v>1.04</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>870</v>
       </c>
       <c r="J6" t="n">
         <v>1.09</v>
@@ -1492,7 +1492,7 @@
         <v>4.8</v>
       </c>
       <c r="K8" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>1.01</v>
@@ -1897,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -2020,10 +2020,10 @@
         <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="I12" t="n">
         <v>4.1</v>
@@ -2035,7 +2035,7 @@
         <v>3.9</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
@@ -2056,7 +2056,7 @@
         <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T12" t="n">
         <v>1.57</v>
@@ -2068,7 +2068,7 @@
         <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2179,7 +2179,7 @@
         <v>4.5</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P13" t="n">
         <v>2.16</v>
@@ -2203,7 +2203,7 @@
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2215,7 +2215,7 @@
         <v>26</v>
       </c>
       <c r="AA13" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2311,13 +2311,13 @@
         <v>1.01</v>
       </c>
       <c r="N14" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="O14" t="n">
         <v>1.17</v>
       </c>
       <c r="P14" t="n">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="Q14" t="n">
         <v>1.17</v>
@@ -2398,7 +2398,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>2.7</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.88</v>
+        <v>5.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>3.75</v>
+        <v>5.2</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>3.55</v>
+        <v>2.38</v>
       </c>
       <c r="O15" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.73</v>
+        <v>1.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.12</v>
+        <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.53</v>
+        <v>1.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG15" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,121 +2548,121 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
-        <v>1.95</v>
+        <v>2.92</v>
       </c>
       <c r="H16" t="n">
-        <v>4</v>
+        <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>5.3</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="K16" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>2.44</v>
+        <v>3.55</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>2.34</v>
+        <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="R16" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>2.32</v>
+        <v>3.35</v>
       </c>
       <c r="T16" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U16" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>2.04</v>
+        <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AF16" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM16" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
@@ -2698,10 +2698,10 @@
         <v>4.1</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J17" t="n">
         <v>3.7</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.26</v>
+        <v>2.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
@@ -2734,16 +2734,16 @@
         <v>2.34</v>
       </c>
       <c r="T17" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="W17" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
         <v>1000</v>
@@ -2968,7 +2968,7 @@
         <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
@@ -2977,7 +2977,7 @@
         <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L19" t="n">
         <v>1.01</v>
@@ -3007,7 +3007,7 @@
         <v>1.54</v>
       </c>
       <c r="U19" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="V19" t="n">
         <v>1.42</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="G20" t="n">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I20" t="n">
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="L20" t="n">
         <v>1.2</v>
@@ -3121,37 +3121,37 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>3.1</v>
+        <v>6.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.92</v>
       </c>
       <c r="S20" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
         <v>65</v>
@@ -3169,7 +3169,7 @@
         <v>22</v>
       </c>
       <c r="AD20" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AE20" t="n">
         <v>1000</v>
@@ -3184,10 +3184,10 @@
         <v>34</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AK20" t="n">
         <v>20</v>
@@ -3271,7 +3271,7 @@
         <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.51</v>
@@ -3388,7 +3388,7 @@
         <v>1.01</v>
       </c>
       <c r="M22" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
         <v>2.86</v>
@@ -3409,10 +3409,10 @@
         <v>1.97</v>
       </c>
       <c r="T22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U22" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V22" t="n">
         <v>2.88</v>
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.72</v>
+        <v>2.42</v>
       </c>
       <c r="H23" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.8</v>
+        <v>3.35</v>
       </c>
       <c r="J23" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
         <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
         <v>2.32</v>
@@ -3538,22 +3538,22 @@
         <v>1.6</v>
       </c>
       <c r="R23" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>1.61</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U23" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V23" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="W23" t="n">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3655,13 +3655,13 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.28</v>
       </c>
       <c r="M24" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
         <v>1.26</v>
@@ -3673,16 +3673,16 @@
         <v>1.8</v>
       </c>
       <c r="R24" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="S24" t="n">
-        <v>1.81</v>
+        <v>2.18</v>
       </c>
       <c r="T24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U24" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V24" t="n">
         <v>1.87</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
         <v>6.4</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3802,13 +3802,13 @@
         <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
         <v>1.58</v>
       </c>
       <c r="R25" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
         <v>2.42</v>
@@ -3820,10 +3820,10 @@
         <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3835,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3907,10 +3907,10 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.94</v>
+        <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
         <v>2.62</v>
@@ -3952,7 +3952,7 @@
         <v>1.89</v>
       </c>
       <c r="U26" t="n">
-        <v>1.8</v>
+        <v>1.97</v>
       </c>
       <c r="V26" t="n">
         <v>1.54</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.76</v>
+        <v>2.82</v>
       </c>
       <c r="G27" t="n">
-        <v>2.96</v>
+        <v>4.1</v>
       </c>
       <c r="H27" t="n">
-        <v>2.82</v>
+        <v>2.28</v>
       </c>
       <c r="I27" t="n">
-        <v>3.05</v>
+        <v>2.88</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="K27" t="n">
-        <v>3.35</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>2.38</v>
       </c>
       <c r="O27" t="n">
-        <v>1.44</v>
+        <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.68</v>
+        <v>1.54</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="R27" t="n">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.76</v>
+        <v>1.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.95</v>
+        <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="W27" t="n">
-        <v>1.51</v>
+        <v>1.32</v>
       </c>
       <c r="X27" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,261 +4163,666 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="H28" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>2.08</v>
+        <v>2.5</v>
       </c>
       <c r="J28" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>5.5</v>
       </c>
       <c r="L28" t="n">
         <v>1.01</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>3.6</v>
+        <v>2.44</v>
       </c>
       <c r="O28" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="P28" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.76</v>
+        <v>2.06</v>
       </c>
       <c r="R28" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="S28" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T28" t="n">
-        <v>1.59</v>
+        <v>1.04</v>
       </c>
       <c r="U28" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="W28" t="n">
-        <v>1.31</v>
+        <v>1.24</v>
       </c>
       <c r="X28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD28" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="G29" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="H29" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="W29" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K30" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S30" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Spanish La Liga</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>17:00:00</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Valencia</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Mallorca</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F31" t="n">
         <v>2.06</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G31" t="n">
         <v>2.08</v>
       </c>
-      <c r="H29" t="n">
+      <c r="H31" t="n">
         <v>4.4</v>
       </c>
-      <c r="I29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J29" t="n">
+      <c r="I31" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J31" t="n">
         <v>3.45</v>
       </c>
-      <c r="K29" t="n">
+      <c r="K31" t="n">
         <v>3.5</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M29" t="n">
+      <c r="L31" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M31" t="n">
         <v>1.11</v>
       </c>
-      <c r="N29" t="n">
+      <c r="N31" t="n">
         <v>2.98</v>
       </c>
-      <c r="O29" t="n">
+      <c r="O31" t="n">
         <v>1.49</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="P31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T31" t="n">
         <v>2.12</v>
       </c>
-      <c r="U29" t="n">
+      <c r="U31" t="n">
         <v>1.83</v>
       </c>
-      <c r="V29" t="n">
+      <c r="V31" t="n">
         <v>1.28</v>
       </c>
-      <c r="W29" t="n">
+      <c r="W31" t="n">
         <v>1.93</v>
       </c>
-      <c r="X29" t="n">
+      <c r="X31" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Y31" t="n">
         <v>12.5</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="Z31" t="n">
         <v>29</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AA31" t="n">
         <v>120</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AB31" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC29" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
         <v>18</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AE31" t="n">
         <v>70</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AF31" t="n">
         <v>11</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AG31" t="n">
         <v>11</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AH31" t="n">
         <v>24</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AI31" t="n">
         <v>90</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AJ31" t="n">
         <v>25</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AK31" t="n">
         <v>26</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AL31" t="n">
         <v>55</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AM31" t="n">
         <v>170</v>
       </c>
-      <c r="AN29" t="n">
+      <c r="AN31" t="n">
         <v>23</v>
       </c>
-      <c r="AO29" t="n">
+      <c r="AO31" t="n">
         <v>110</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Estoril Praia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="G32" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S32" t="n">
+        <v>3</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V32" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X32" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -691,16 +691,16 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
@@ -841,13 +841,13 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T3" t="n">
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -940,7 +940,7 @@
         <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
         <v>1.72</v>
@@ -952,7 +952,7 @@
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -1021,7 +1021,7 @@
         <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1111,7 +1111,7 @@
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="T5" t="n">
         <v>2.26</v>
@@ -1885,7 +1885,7 @@
         <v>1.64</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
@@ -1918,7 +1918,7 @@
         <v>2.06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>3.85</v>
@@ -1978,7 +1978,7 @@
         <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
         <v>210</v>
@@ -1987,7 +1987,7 @@
         <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
@@ -2020,16 +2020,16 @@
         <v>2.04</v>
       </c>
       <c r="G12" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="H12" t="n">
         <v>3.9</v>
       </c>
       <c r="I12" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="K12" t="n">
         <v>3.9</v>
@@ -2056,7 +2056,7 @@
         <v>1.56</v>
       </c>
       <c r="S12" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T12" t="n">
         <v>1.57</v>
@@ -2068,7 +2068,7 @@
         <v>1.32</v>
       </c>
       <c r="W12" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="X12" t="n">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK12" t="n">
         <v>19.5</v>
@@ -2164,7 +2164,7 @@
         <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>3.8</v>
@@ -2188,7 +2188,7 @@
         <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
         <v>2.78</v>
@@ -2218,7 +2218,7 @@
         <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
         <v>9</v>
@@ -2458,13 +2458,13 @@
         <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
         <v>2.06</v>
       </c>
       <c r="T15" t="n">
-        <v>1.04</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
         <v>1.04</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="G16" t="n">
         <v>2.92</v>
@@ -2566,22 +2566,22 @@
         <v>2.68</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>110</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>3.55</v>
+        <v>1.1</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2590,79 +2590,79 @@
         <v>1.88</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S16" t="n">
-        <v>3.35</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
         <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF16" t="n">
         <v>19</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AG16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>42</v>
       </c>
-      <c r="AB16" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>60</v>
-      </c>
       <c r="AK16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL16" t="n">
         <v>40</v>
       </c>
-      <c r="AL16" t="n">
-        <v>55</v>
-      </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="H17" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
         <v>2.18</v>
@@ -2725,7 +2725,7 @@
         <v>2.26</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
         <v>1.44</v>
@@ -2860,7 +2860,7 @@
         <v>4.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="R18" t="n">
         <v>2.38</v>
@@ -2869,7 +2869,7 @@
         <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
@@ -3127,10 +3127,10 @@
         <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="R20" t="n">
         <v>1.92</v>
@@ -3139,10 +3139,10 @@
         <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="U20" t="n">
-        <v>1.04</v>
+        <v>1.97</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
@@ -3241,7 +3241,7 @@
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
         <v>3.9</v>
@@ -3262,22 +3262,22 @@
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="Q21" t="n">
         <v>1.54</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T21" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
         <v>1.43</v>
@@ -3286,7 +3286,7 @@
         <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="Y21" t="n">
         <v>23</v>
@@ -3322,22 +3322,22 @@
         <v>40</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
         <v>13.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22">
@@ -3541,7 +3541,7 @@
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
@@ -3646,10 +3646,10 @@
         <v>1.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="J24" t="n">
-        <v>3.45</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>4.8</v>
@@ -3685,7 +3685,7 @@
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G25" t="n">
         <v>1.54</v>
       </c>
-      <c r="G25" t="n">
-        <v>1.55</v>
-      </c>
       <c r="H25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
         <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.27</v>
@@ -3796,7 +3796,7 @@
         <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -3805,7 +3805,7 @@
         <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>1.67</v>
@@ -3820,10 +3820,10 @@
         <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W25" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3835,13 +3835,13 @@
         <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
         <v>25</v>
@@ -3850,7 +3850,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
         <v>10</v>
@@ -3922,7 +3922,7 @@
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -4042,22 +4042,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H27" t="n">
-        <v>2.28</v>
+        <v>2.02</v>
       </c>
       <c r="I27" t="n">
-        <v>2.88</v>
+        <v>2.76</v>
       </c>
       <c r="J27" t="n">
         <v>2.84</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
@@ -4066,7 +4066,7 @@
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
@@ -4081,7 +4081,7 @@
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4090,10 +4090,10 @@
         <v>1.04</v>
       </c>
       <c r="V27" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4180,16 +4180,16 @@
         <v>3.3</v>
       </c>
       <c r="G28" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
         <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>2.5</v>
+        <v>2.56</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="n">
         <v>5.5</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
@@ -4225,10 +4225,10 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W28" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="X28" t="n">
         <v>1000</v>
@@ -4315,10 +4315,10 @@
         <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="H29" t="n">
-        <v>2.86</v>
+        <v>2.82</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
@@ -4327,7 +4327,7 @@
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="L29" t="n">
         <v>1.51</v>
@@ -4381,7 +4381,7 @@
         <v>9.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AD29" t="n">
         <v>13.5</v>
@@ -4396,7 +4396,7 @@
         <v>13.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>60</v>
@@ -4405,7 +4405,7 @@
         <v>46</v>
       </c>
       <c r="AK29" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
@@ -4489,7 +4489,7 @@
         <v>2.92</v>
       </c>
       <c r="T30" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U30" t="n">
         <v>2.16</v>
@@ -4591,7 +4591,7 @@
         <v>4.4</v>
       </c>
       <c r="I31" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="J31" t="n">
         <v>3.45</v>
@@ -4609,10 +4609,10 @@
         <v>2.98</v>
       </c>
       <c r="O31" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="P31" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
         <v>2.46</v>
@@ -4627,7 +4627,7 @@
         <v>2.12</v>
       </c>
       <c r="U31" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
         <v>1.28</v>
@@ -4654,7 +4654,7 @@
         <v>7.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AE31" t="n">
         <v>70</v>
@@ -4729,7 +4729,7 @@
         <v>1.73</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
         <v>4.4</v>
@@ -4780,7 +4780,7 @@
         <v>11</v>
       </c>
       <c r="AA32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB32" t="n">
         <v>24</v>
@@ -4813,7 +4813,7 @@
         <v>75</v>
       </c>
       <c r="AL32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="n">
         <v>130</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -691,13 +691,13 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="O2" t="n">
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="Q2" t="n">
         <v>2</v>
@@ -709,7 +709,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -841,10 +841,10 @@
         <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
         <v>2.32</v>
@@ -1090,10 +1090,10 @@
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.55</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="N5" t="n">
         <v>2.24</v>
@@ -1123,13 +1123,13 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="X5" t="n">
         <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
@@ -1147,7 +1147,7 @@
         <v>16.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1522,7 +1522,7 @@
         <v>2.14</v>
       </c>
       <c r="U8" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
         <v>3.25</v>
@@ -1543,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AC8" t="n">
         <v>12.5</v>
@@ -1558,13 +1558,13 @@
         <v>130</v>
       </c>
       <c r="AG8" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI8" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AJ8" t="n">
         <v>560</v>
@@ -1900,7 +1900,7 @@
         <v>4.4</v>
       </c>
       <c r="L11" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
@@ -1942,7 +1942,7 @@
         <v>17.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AA11" t="n">
         <v>220</v>
@@ -1978,7 +1978,7 @@
         <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>210</v>
@@ -2092,10 +2092,10 @@
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2194,10 +2194,10 @@
         <v>2.78</v>
       </c>
       <c r="T13" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
@@ -2425,7 +2425,7 @@
         <v>1.79</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2458,7 +2458,7 @@
         <v>1.59</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S15" t="n">
         <v>2.06</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.62</v>
+        <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="H16" t="n">
         <v>2.68</v>
@@ -2572,97 +2572,97 @@
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>110</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
         <v>1.01</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.58</v>
+        <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W16" t="n">
         <v>1.52</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="n">
         <v>42</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO16" t="n">
         <v>30</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
         <v>1.97</v>
@@ -2704,19 +2704,19 @@
         <v>2.18</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>2.4</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
@@ -2728,76 +2728,76 @@
         <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S17" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.34</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.04</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z17" t="n">
         <v>18</v>
       </c>
-      <c r="Z17" t="n">
-        <v>21</v>
-      </c>
       <c r="AA17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF17" t="n">
         <v>36</v>
       </c>
-      <c r="AB17" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC17" t="n">
+      <c r="AG17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO17" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>95</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2869,7 +2869,7 @@
         <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
@@ -2893,10 +2893,10 @@
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AC18" t="n">
-        <v>27</v>
+        <v>980</v>
       </c>
       <c r="AD18" t="n">
         <v>55</v>
@@ -2905,25 +2905,25 @@
         <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AI18" t="n">
         <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>970</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM18" t="n">
         <v>90</v>
@@ -2968,7 +2968,7 @@
         <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I19" t="n">
         <v>3.4</v>
@@ -3016,58 +3016,58 @@
         <v>1.73</v>
       </c>
       <c r="X19" t="n">
-        <v>24</v>
+        <v>980</v>
       </c>
       <c r="Y19" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Z19" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
         <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>15</v>
+        <v>980</v>
       </c>
       <c r="AC19" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AD19" t="n">
-        <v>14.5</v>
+        <v>980</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG19" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH19" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AI19" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
         <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>12.5</v>
+        <v>980</v>
       </c>
       <c r="AO19" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
     </row>
     <row r="20">
@@ -3130,7 +3130,7 @@
         <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.31</v>
+        <v>1.36</v>
       </c>
       <c r="R20" t="n">
         <v>1.92</v>
@@ -3139,10 +3139,10 @@
         <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
@@ -3271,7 +3271,7 @@
         <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.24</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
         <v>1.52</v>
@@ -3319,7 +3319,7 @@
         <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
         <v>32</v>
@@ -3331,10 +3331,10 @@
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO21" t="n">
         <v>22</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="H22" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="I22" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="J22" t="n">
         <v>4.7</v>
@@ -3391,19 +3391,19 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>2.86</v>
+        <v>1.1</v>
       </c>
       <c r="O22" t="n">
         <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S22" t="n">
         <v>1.97</v>
@@ -3415,10 +3415,10 @@
         <v>1.04</v>
       </c>
       <c r="V22" t="n">
-        <v>2.88</v>
+        <v>2.78</v>
       </c>
       <c r="W22" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3541,7 +3541,7 @@
         <v>1.42</v>
       </c>
       <c r="S23" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
@@ -3646,10 +3646,10 @@
         <v>1.84</v>
       </c>
       <c r="I24" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>4.8</v>
@@ -3661,19 +3661,19 @@
         <v>1.05</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="O24" t="n">
         <v>1.26</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="S24" t="n">
         <v>2.18</v>
@@ -3685,7 +3685,7 @@
         <v>1.04</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W24" t="n">
         <v>1.22</v>
@@ -3784,13 +3784,13 @@
         <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K25" t="n">
         <v>5.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M25" t="n">
         <v>1.03</v>
@@ -3802,7 +3802,7 @@
         <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="Q25" t="n">
         <v>1.57</v>
@@ -3811,7 +3811,7 @@
         <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
         <v>1.73</v>
@@ -3820,10 +3820,10 @@
         <v>2.3</v>
       </c>
       <c r="V25" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3835,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3877,7 +3877,7 @@
         <v>5.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -3940,7 +3940,7 @@
         <v>1.69</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R26" t="n">
         <v>1.26</v>
@@ -3961,58 +3961,58 @@
         <v>1.45</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AB26" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AF26" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AG26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>60</v>
       </c>
-      <c r="AJ26" t="n">
-        <v>65</v>
-      </c>
       <c r="AK26" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AL26" t="n">
         <v>70</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27">
@@ -4045,13 +4045,13 @@
         <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
         <v>2.02</v>
       </c>
       <c r="I27" t="n">
-        <v>2.76</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
         <v>2.84</v>
@@ -4093,7 +4093,7 @@
         <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4201,7 +4201,7 @@
         <v>1.01</v>
       </c>
       <c r="N28" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
         <v>1.01</v>
@@ -4315,7 +4315,7 @@
         <v>2.7</v>
       </c>
       <c r="G29" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="H29" t="n">
         <v>2.82</v>
@@ -4330,7 +4330,7 @@
         <v>3.4</v>
       </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
@@ -4372,13 +4372,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AA29" t="n">
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC29" t="n">
         <v>7.6</v>
@@ -4402,10 +4402,10 @@
         <v>60</v>
       </c>
       <c r="AJ29" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
@@ -4414,10 +4414,10 @@
         <v>160</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO29" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
     </row>
     <row r="30">
@@ -4534,7 +4534,7 @@
         <v>18.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ30" t="n">
         <v>85</v>
@@ -4621,7 +4621,7 @@
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T31" t="n">
         <v>2.12</v>
@@ -4720,7 +4720,7 @@
         <v>5.3</v>
       </c>
       <c r="G32" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="H32" t="n">
         <v>1.69</v>
@@ -4729,7 +4729,7 @@
         <v>1.73</v>
       </c>
       <c r="J32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="K32" t="n">
         <v>4.4</v>
@@ -4747,7 +4747,7 @@
         <v>1.27</v>
       </c>
       <c r="P32" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="Q32" t="n">
         <v>1.8</v>
@@ -4759,7 +4759,7 @@
         <v>3</v>
       </c>
       <c r="T32" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U32" t="n">
         <v>2.06</v>
@@ -4795,7 +4795,7 @@
         <v>22</v>
       </c>
       <c r="AF32" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
         <v>26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -673,7 +673,7 @@
         <v>2.66</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
         <v>2.88</v>
@@ -691,10 +691,10 @@
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
         <v>1.97</v>
@@ -760,16 +760,16 @@
         <v>42</v>
       </c>
       <c r="AK2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AL2" t="n">
         <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AO2" t="n">
         <v>30</v>
@@ -805,10 +805,10 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I3" t="n">
         <v>2.68</v>
@@ -820,43 +820,43 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
         <v>15</v>
@@ -868,7 +868,7 @@
         <v>48</v>
       </c>
       <c r="AB3" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.4</v>
@@ -880,7 +880,7 @@
         <v>36</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG3" t="n">
         <v>15</v>
@@ -889,7 +889,7 @@
         <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ3" t="n">
         <v>50</v>
@@ -901,7 +901,7 @@
         <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN3" t="n">
         <v>25</v>
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
         <v>6.4</v>
@@ -946,13 +946,13 @@
         <v>1.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -961,31 +961,31 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.96</v>
+        <v>2.86</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.66</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S4" t="n">
         <v>4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
@@ -1000,16 +1000,16 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AB4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
         <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
         <v>24</v>
@@ -1018,10 +1018,10 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AI4" t="n">
         <v>60</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="G5" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
         <v>3.5</v>
@@ -1099,7 +1099,7 @@
         <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="P5" t="n">
         <v>1.41</v>
@@ -1123,13 +1123,13 @@
         <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
         <v>7.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
         <v>13</v>
@@ -1489,7 +1489,7 @@
         <v>1.42</v>
       </c>
       <c r="J8" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="K8" t="n">
         <v>5.6</v>
@@ -1513,7 +1513,7 @@
         <v>1.8</v>
       </c>
       <c r="R8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
         <v>3.05</v>
@@ -1525,7 +1525,7 @@
         <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="W8" t="n">
         <v>1.08</v>
@@ -1618,13 +1618,13 @@
         <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1645,7 +1645,7 @@
         <v>1.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
@@ -1663,7 +1663,7 @@
         <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.8</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.66</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.01</v>
@@ -1780,13 +1780,13 @@
         <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
         <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>1.05</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L11" t="n">
         <v>1.46</v>
@@ -1906,22 +1906,22 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="R11" t="n">
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="T11" t="n">
         <v>2.04</v>
@@ -1948,7 +1948,7 @@
         <v>220</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -1981,7 +1981,7 @@
         <v>980</v>
       </c>
       <c r="AM11" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>12.5</v>
@@ -2047,13 +2047,13 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q12" t="n">
         <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>2.56</v>
@@ -2092,7 +2092,7 @@
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
@@ -2116,7 +2116,7 @@
         <v>29</v>
       </c>
       <c r="AM12" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
         <v>11</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G13" t="n">
         <v>2.4</v>
@@ -2161,13 +2161,13 @@
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
         <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L13" t="n">
         <v>1.34</v>
@@ -2176,34 +2176,34 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
       </c>
       <c r="W13" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X13" t="n">
         <v>19.5</v>
@@ -2221,7 +2221,7 @@
         <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="G15" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2455,7 +2455,7 @@
         <v>2.38</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="R15" t="n">
         <v>1.43</v>
@@ -2470,10 +2470,10 @@
         <v>1.04</v>
       </c>
       <c r="V15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="X15" t="n">
         <v>1000</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="G16" t="n">
-        <v>3.1</v>
+        <v>2.96</v>
       </c>
       <c r="H16" t="n">
         <v>2.68</v>
@@ -2587,13 +2587,13 @@
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="Q16" t="n">
         <v>1.85</v>
       </c>
       <c r="R16" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
         <v>3.4</v>
@@ -2608,7 +2608,7 @@
         <v>1.53</v>
       </c>
       <c r="W16" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X16" t="n">
         <v>16.5</v>
@@ -2650,7 +2650,7 @@
         <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2695,61 +2695,61 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="I17" t="n">
         <v>2.18</v>
       </c>
       <c r="J17" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R17" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S17" t="n">
-        <v>2.38</v>
+        <v>2.62</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="W17" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
         <v>18</v>
@@ -2782,22 +2782,22 @@
         <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AK17" t="n">
         <v>48</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AN17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -2965,13 +2965,13 @@
         <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="J19" t="n">
         <v>3.8</v>
@@ -2986,7 +2986,7 @@
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O19" t="n">
         <v>1.19</v>
@@ -2998,10 +2998,10 @@
         <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="T19" t="n">
         <v>1.54</v>
@@ -3013,7 +3013,7 @@
         <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3103,7 +3103,7 @@
         <v>1.38</v>
       </c>
       <c r="H20" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I20" t="n">
         <v>11</v>
@@ -3115,7 +3115,7 @@
         <v>8</v>
       </c>
       <c r="L20" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3175,7 +3175,7 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
         <v>17</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="G21" t="n">
         <v>2.36</v>
@@ -3241,13 +3241,13 @@
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
         <v>3.9</v>
       </c>
       <c r="K21" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,28 +3256,28 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="T21" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
         <v>1.43</v>
@@ -3298,10 +3298,10 @@
         <v>60</v>
       </c>
       <c r="AB21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>17.5</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="G22" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="I22" t="n">
         <v>1.56</v>
@@ -3382,7 +3382,7 @@
         <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3397,13 +3397,13 @@
         <v>1.13</v>
       </c>
       <c r="P22" t="n">
-        <v>2.88</v>
+        <v>2.62</v>
       </c>
       <c r="Q22" t="n">
         <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.97</v>
@@ -3532,7 +3532,7 @@
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
         <v>1.6</v>
@@ -3637,13 +3637,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G24" t="n">
         <v>5.4</v>
       </c>
       <c r="H24" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="I24" t="n">
         <v>2.22</v>
@@ -3778,7 +3778,7 @@
         <v>1.54</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
@@ -3802,10 +3802,10 @@
         <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.68</v>
+        <v>2.64</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R25" t="n">
         <v>1.67</v>
@@ -3835,7 +3835,7 @@
         <v>65</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3910,10 +3910,10 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="I26" t="n">
         <v>2.84</v>
@@ -3922,7 +3922,7 @@
         <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
@@ -3949,7 +3949,7 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="U26" t="n">
         <v>1.97</v>
@@ -4186,7 +4186,7 @@
         <v>1.94</v>
       </c>
       <c r="I28" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="J28" t="n">
         <v>2.84</v>
@@ -4225,7 +4225,7 @@
         <v>1.04</v>
       </c>
       <c r="V28" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W28" t="n">
         <v>1.23</v>
@@ -4312,13 +4312,13 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="G29" t="n">
         <v>2.92</v>
       </c>
       <c r="H29" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="I29" t="n">
         <v>3.1</v>
@@ -4327,7 +4327,7 @@
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="L29" t="n">
         <v>1.5</v>
@@ -4336,7 +4336,7 @@
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O29" t="n">
         <v>1.45</v>
@@ -4348,16 +4348,16 @@
         <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S29" t="n">
         <v>4.4</v>
       </c>
       <c r="T29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="U29" t="n">
         <v>1.92</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.95</v>
       </c>
       <c r="V29" t="n">
         <v>1.47</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G30" t="n">
         <v>4.1</v>
@@ -4456,13 +4456,13 @@
         <v>1.93</v>
       </c>
       <c r="I30" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J30" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K30" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L30" t="n">
         <v>1.01</v>
@@ -4471,37 +4471,37 @@
         <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O30" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="R30" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W30" t="n">
         <v>1.32</v>
       </c>
       <c r="X30" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y30" t="n">
         <v>11</v>
@@ -4510,10 +4510,10 @@
         <v>14</v>
       </c>
       <c r="AA30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB30" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AC30" t="n">
         <v>9.4</v>
@@ -4540,7 +4540,7 @@
         <v>85</v>
       </c>
       <c r="AK30" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AL30" t="n">
         <v>55</v>
@@ -4549,10 +4549,10 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31">
@@ -4585,10 +4585,10 @@
         <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="I31" t="n">
         <v>4.5</v>
@@ -4615,13 +4615,13 @@
         <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R31" t="n">
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T31" t="n">
         <v>2.12</v>
@@ -4633,7 +4633,7 @@
         <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="X31" t="n">
         <v>9.800000000000001</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="G32" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="I32" t="n">
         <v>1.73</v>
       </c>
       <c r="J32" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
         <v>1.38</v>
@@ -4741,37 +4741,37 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="O32" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P32" t="n">
-        <v>2.08</v>
+        <v>1.99</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R32" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="U32" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V32" t="n">
         <v>2.36</v>
       </c>
       <c r="W32" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Y32" t="n">
         <v>9.4</v>
@@ -4804,25 +4804,25 @@
         <v>24</v>
       </c>
       <c r="AI32" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ32" t="n">
         <v>170</v>
       </c>
       <c r="AK32" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="n">
         <v>75</v>
       </c>
-      <c r="AL32" t="n">
-        <v>80</v>
-      </c>
       <c r="AM32" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN32" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
         <v>2.88</v>
@@ -697,19 +697,19 @@
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1.97</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2</v>
       </c>
       <c r="R2" t="n">
         <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -721,58 +721,58 @@
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB2" t="n">
         <v>11.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK2" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -841,13 +841,13 @@
         <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="T3" t="n">
         <v>1.66</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -871,7 +871,7 @@
         <v>14.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD3" t="n">
         <v>12.5</v>
@@ -889,7 +889,7 @@
         <v>18.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ3" t="n">
         <v>50</v>
@@ -904,10 +904,10 @@
         <v>85</v>
       </c>
       <c r="AN3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
@@ -940,22 +940,22 @@
         <v>5.1</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
         <v>1.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -964,7 +964,7 @@
         <v>2.86</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
         <v>1.62</v>
@@ -985,7 +985,7 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
@@ -1081,46 +1081,46 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K5" t="n">
         <v>3.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="M5" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N5" t="n">
         <v>2.24</v>
       </c>
       <c r="O5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="P5" t="n">
         <v>1.41</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.98</v>
+        <v>2.82</v>
       </c>
       <c r="R5" t="n">
         <v>1.14</v>
       </c>
       <c r="S5" t="n">
-        <v>6.4</v>
+        <v>1.05</v>
       </c>
       <c r="T5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="W5" t="n">
         <v>1.46</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -1519,7 +1519,7 @@
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1624,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>1.03</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
         <v>1000</v>
@@ -1645,7 +1645,7 @@
         <v>1.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
         <v>1.13</v>
@@ -1663,7 +1663,7 @@
         <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="X9" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
@@ -1897,7 +1897,7 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L11" t="n">
         <v>1.46</v>
@@ -1906,19 +1906,19 @@
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
         <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>3.75</v>
@@ -1933,7 +1933,7 @@
         <v>1.18</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1948,7 +1948,7 @@
         <v>220</v>
       </c>
       <c r="AB11" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
         <v>9.6</v>
@@ -1969,7 +1969,7 @@
         <v>26</v>
       </c>
       <c r="AI11" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ11" t="n">
         <v>17</v>
@@ -1978,16 +1978,16 @@
         <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AM11" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
         <v>12.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
@@ -2032,7 +2032,7 @@
         <v>3.6</v>
       </c>
       <c r="K12" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
         <v>1.32</v>
@@ -2050,7 +2050,7 @@
         <v>2.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="R12" t="n">
         <v>1.57</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="G13" t="n">
         <v>2.4</v>
@@ -2176,22 +2176,22 @@
         <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O13" t="n">
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="R13" t="n">
         <v>1.47</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="G15" t="n">
         <v>1.92</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I15" t="n">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K15" t="n">
-        <v>5.3</v>
+        <v>4.5</v>
       </c>
       <c r="L15" t="n">
         <v>1.01</v>
@@ -2446,88 +2446,88 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>2.38</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="S15" t="n">
-        <v>2.06</v>
+        <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>1.04</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
         <v>2.08</v>
       </c>
       <c r="X15" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16">
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="H16" t="n">
         <v>2.68</v>
@@ -2575,22 +2575,22 @@
         <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.01</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2605,7 +2605,7 @@
         <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
         <v>1.51</v>
@@ -2614,7 +2614,7 @@
         <v>16.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>22</v>
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC16" t="n">
         <v>9.6</v>
@@ -2641,16 +2641,16 @@
         <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
         <v>60</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
         <v>55</v>
@@ -2662,7 +2662,7 @@
         <v>36</v>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2695,16 +2695,16 @@
         <v>3.45</v>
       </c>
       <c r="G17" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="I17" t="n">
         <v>2.18</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
         <v>4.4</v>
@@ -2716,7 +2716,7 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.22</v>
@@ -2725,13 +2725,13 @@
         <v>2.22</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S17" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="T17" t="n">
         <v>1.61</v>
@@ -2740,10 +2740,10 @@
         <v>2.3</v>
       </c>
       <c r="V17" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="W17" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
         <v>25</v>
@@ -2845,7 +2845,7 @@
         <v>10.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="M18" t="n">
         <v>1.01</v>
@@ -2863,16 +2863,16 @@
         <v>1.2</v>
       </c>
       <c r="R18" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
         <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
         <v>1.07</v>
@@ -2965,22 +2965,22 @@
         <v>2.16</v>
       </c>
       <c r="G19" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="H19" t="n">
         <v>3</v>
       </c>
       <c r="I19" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -2992,13 +2992,13 @@
         <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q19" t="n">
         <v>1.54</v>
       </c>
       <c r="R19" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S19" t="n">
         <v>2.42</v>
@@ -3013,7 +3013,7 @@
         <v>1.42</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="X19" t="n">
         <v>980</v>
@@ -3097,37 +3097,37 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G20" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I20" t="n">
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="K20" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
         <v>1.36</v>
@@ -3139,67 +3139,67 @@
         <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.1</v>
       </c>
       <c r="W20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AB20" t="n">
-        <v>21</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AG20" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI20" t="n">
         <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AL20" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>3.65</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3241,10 +3241,10 @@
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J21" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3262,16 +3262,16 @@
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
         <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="S21" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
         <v>1.53</v>
@@ -3280,13 +3280,13 @@
         <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W21" t="n">
         <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y21" t="n">
         <v>23</v>
@@ -3310,7 +3310,7 @@
         <v>36</v>
       </c>
       <c r="AF21" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AG21" t="n">
         <v>14.5</v>
@@ -3325,7 +3325,7 @@
         <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
@@ -3337,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22">
@@ -3367,22 +3367,22 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="G22" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
         <v>1.42</v>
       </c>
       <c r="I22" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="J22" t="n">
         <v>4.7</v>
       </c>
       <c r="K22" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.01</v>
@@ -3391,34 +3391,34 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>1.1</v>
+        <v>3.45</v>
       </c>
       <c r="O22" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
         <v>2.62</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="S22" t="n">
-        <v>1.97</v>
+        <v>2.12</v>
       </c>
       <c r="T22" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>1.04</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="W22" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="X22" t="n">
         <v>1000</v>
@@ -3511,7 +3511,7 @@
         <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
         <v>3.75</v>
@@ -3526,19 +3526,19 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="O23" t="n">
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.08</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="S23" t="n">
         <v>2.06</v>
@@ -3640,13 +3640,13 @@
         <v>4</v>
       </c>
       <c r="G24" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="H24" t="n">
         <v>1.85</v>
       </c>
       <c r="I24" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
@@ -3655,49 +3655,49 @@
         <v>4.8</v>
       </c>
       <c r="L24" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.28</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.26</v>
-      </c>
       <c r="P24" t="n">
-        <v>1.88</v>
+        <v>1.97</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>2.18</v>
+        <v>3.05</v>
       </c>
       <c r="T24" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U24" t="n">
-        <v>1.04</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.81</v>
+        <v>1.86</v>
       </c>
       <c r="W24" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
         <v>1000</v>
@@ -3706,10 +3706,10 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="25">
@@ -3778,7 +3778,7 @@
         <v>1.54</v>
       </c>
       <c r="H25" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I25" t="n">
         <v>7</v>
@@ -3799,10 +3799,10 @@
         <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="Q25" t="n">
         <v>1.56</v>
@@ -3814,7 +3814,7 @@
         <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
         <v>2.3</v>
@@ -3832,7 +3832,7 @@
         <v>30</v>
       </c>
       <c r="Z25" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA25" t="n">
         <v>190</v>
@@ -3937,7 +3937,7 @@
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="Q26" t="n">
         <v>2.24</v>
@@ -4051,7 +4051,7 @@
         <v>2.02</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="J27" t="n">
         <v>2.84</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="G28" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="T28" t="n">
         <v>1.94</v>
       </c>
-      <c r="I28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.04</v>
-      </c>
       <c r="U28" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="W28" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AC28" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
@@ -4387,7 +4387,7 @@
         <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
         <v>18</v>
@@ -4447,7 +4447,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G30" t="n">
         <v>4.1</v>
@@ -4456,7 +4456,7 @@
         <v>1.93</v>
       </c>
       <c r="I30" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="J30" t="n">
         <v>3.75</v>
@@ -4465,7 +4465,7 @@
         <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4477,25 +4477,25 @@
         <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S30" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T30" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
       </c>
       <c r="V30" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="W30" t="n">
         <v>1.32</v>
@@ -4504,7 +4504,7 @@
         <v>20</v>
       </c>
       <c r="Y30" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="Z30" t="n">
         <v>14</v>
@@ -4516,7 +4516,7 @@
         <v>18.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4528,10 +4528,10 @@
         <v>34</v>
       </c>
       <c r="AG30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH30" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI30" t="n">
         <v>980</v>
@@ -4549,7 +4549,7 @@
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AO30" t="n">
         <v>12</v>
@@ -4600,13 +4600,13 @@
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
       </c>
       <c r="N31" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="O31" t="n">
         <v>1.48</v>
@@ -4636,7 +4636,7 @@
         <v>1.92</v>
       </c>
       <c r="X31" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y31" t="n">
         <v>12.5</v>
@@ -4717,22 +4717,22 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="G32" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H32" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="I32" t="n">
         <v>1.73</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L32" t="n">
         <v>1.38</v>
@@ -4741,46 +4741,46 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O32" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="R32" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S32" t="n">
         <v>3.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.04</v>
+        <v>1.98</v>
       </c>
       <c r="V32" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="W32" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X32" t="n">
         <v>19.5</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB32" t="n">
         <v>24</v>
@@ -4792,10 +4792,10 @@
         <v>10.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AG32" t="n">
         <v>26</v>
@@ -4810,10 +4810,10 @@
         <v>170</v>
       </c>
       <c r="AK32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL32" t="n">
         <v>80</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>75</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>
@@ -4822,7 +4822,7 @@
         <v>110</v>
       </c>
       <c r="AO32" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="G2" t="n">
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="I2" t="n">
         <v>2.88</v>
@@ -685,34 +685,34 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
         <v>3.55</v>
       </c>
       <c r="T2" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
@@ -805,16 +805,16 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -826,49 +826,49 @@
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="X3" t="n">
         <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Z3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AC3" t="n">
         <v>8.6</v>
@@ -877,37 +877,37 @@
         <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AJ3" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
         <v>46</v>
       </c>
       <c r="AM3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="G4" t="n">
         <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>3.35</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -961,22 +961,22 @@
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
         <v>2.06</v>
@@ -985,7 +985,7 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="W4" t="n">
         <v>1.18</v>
@@ -1000,7 +1000,7 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
         <v>18</v>
@@ -1072,70 +1072,70 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.68</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
-        <v>3.1</v>
+        <v>2.98</v>
       </c>
       <c r="L5" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="M5" t="n">
         <v>1.15</v>
       </c>
       <c r="N5" t="n">
-        <v>2.24</v>
+        <v>2.08</v>
       </c>
       <c r="O5" t="n">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="P5" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="R5" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="S5" t="n">
-        <v>1.05</v>
+        <v>7.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>2.4</v>
       </c>
       <c r="U5" t="n">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="V5" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="X5" t="n">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>7.6</v>
       </c>
       <c r="Z5" t="n">
         <v>21</v>
       </c>
       <c r="AA5" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AB5" t="n">
         <v>7.8</v>
@@ -1150,31 +1150,31 @@
         <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI5" t="n">
         <v>120</v>
       </c>
       <c r="AJ5" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
         <v>110</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G8" t="n">
         <v>13</v>
@@ -1489,7 +1489,7 @@
         <v>1.42</v>
       </c>
       <c r="J8" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="K8" t="n">
         <v>5.6</v>
@@ -1510,7 +1510,7 @@
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="R8" t="n">
         <v>1.39</v>
@@ -1519,7 +1519,7 @@
         <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="U8" t="n">
         <v>1.7</v>
@@ -1612,109 +1612,109 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>1.77</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>1.84</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="I9" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="P9" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.01</v>
+        <v>2.58</v>
       </c>
       <c r="R9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S9" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>2.38</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>1.17</v>
       </c>
       <c r="W9" t="n">
-        <v>1.12</v>
+        <v>2.18</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>6.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>2.78</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="H10" t="n">
-        <v>1.04</v>
+        <v>2.68</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J10" t="n">
-        <v>1.04</v>
+        <v>2.46</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,13 +1780,13 @@
         <v>1.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>2.62</v>
       </c>
       <c r="R10" t="n">
         <v>1.13</v>
       </c>
       <c r="S10" t="n">
-        <v>1.05</v>
+        <v>2.62</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.35</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
         <v>5.8</v>
@@ -1903,25 +1903,25 @@
         <v>1.46</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O11" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="T11" t="n">
         <v>2.04</v>
@@ -1930,10 +1930,10 @@
         <v>1.83</v>
       </c>
       <c r="V11" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X11" t="n">
         <v>14</v>
@@ -1951,7 +1951,7 @@
         <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
         <v>23</v>
@@ -1978,13 +1978,13 @@
         <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO11" t="n">
         <v>160</v>
@@ -2047,22 +2047,22 @@
         <v>1.21</v>
       </c>
       <c r="P12" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="S12" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="T12" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U12" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="V12" t="n">
         <v>1.32</v>
@@ -2071,10 +2071,10 @@
         <v>1.89</v>
       </c>
       <c r="X12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z12" t="n">
         <v>32</v>
@@ -2083,7 +2083,7 @@
         <v>80</v>
       </c>
       <c r="AB12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC12" t="n">
         <v>8.800000000000001</v>
@@ -2092,10 +2092,10 @@
         <v>16.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG12" t="n">
         <v>11</v>
@@ -2107,7 +2107,7 @@
         <v>44</v>
       </c>
       <c r="AJ12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK12" t="n">
         <v>19.5</v>
@@ -2161,10 +2161,10 @@
         <v>3.2</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
         <v>3.75</v>
@@ -2182,22 +2182,22 @@
         <v>1.23</v>
       </c>
       <c r="P13" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q13" t="n">
         <v>1.74</v>
       </c>
       <c r="R13" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T13" t="n">
         <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V13" t="n">
         <v>1.4</v>
@@ -2206,7 +2206,7 @@
         <v>1.71</v>
       </c>
       <c r="X13" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
         <v>16.5</v>
@@ -2218,10 +2218,10 @@
         <v>60</v>
       </c>
       <c r="AB13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AD13" t="n">
         <v>15.5</v>
@@ -2230,7 +2230,7 @@
         <v>36</v>
       </c>
       <c r="AF13" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AG13" t="n">
         <v>12.5</v>
@@ -2254,7 +2254,7 @@
         <v>70</v>
       </c>
       <c r="AN13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2425,16 +2425,16 @@
         <v>1.82</v>
       </c>
       <c r="G15" t="n">
-        <v>1.92</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
         <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
         <v>4.5</v>
@@ -2446,34 +2446,34 @@
         <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
         <v>2.56</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
         <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>27</v>
@@ -2485,7 +2485,7 @@
         <v>42</v>
       </c>
       <c r="AA15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>12.5</v>
@@ -2494,16 +2494,16 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
         <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>20</v>
@@ -2515,7 +2515,7 @@
         <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AO15" t="n">
         <v>44</v>
@@ -2560,19 +2560,19 @@
         <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="I16" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J16" t="n">
         <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.41</v>
@@ -2581,7 +2581,7 @@
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
         <v>1.32</v>
@@ -2590,7 +2590,7 @@
         <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2599,7 +2599,7 @@
         <v>3.4</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="U16" t="n">
         <v>2.12</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
         <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="I17" t="n">
         <v>2.18</v>
@@ -2731,10 +2731,10 @@
         <v>1.49</v>
       </c>
       <c r="S17" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="U17" t="n">
         <v>2.3</v>
@@ -2749,16 +2749,16 @@
         <v>25</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Z17" t="n">
         <v>18</v>
       </c>
       <c r="AA17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>11.5</v>
@@ -2767,7 +2767,7 @@
         <v>13.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF17" t="n">
         <v>36</v>
@@ -2782,7 +2782,7 @@
         <v>36</v>
       </c>
       <c r="AJ17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="n">
         <v>48</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="G18" t="n">
         <v>1.27</v>
@@ -2836,13 +2836,13 @@
         <v>9.199999999999999</v>
       </c>
       <c r="I18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>7.8</v>
       </c>
       <c r="K18" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="L18" t="n">
         <v>1.15</v>
@@ -2860,22 +2860,22 @@
         <v>4.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R18" t="n">
         <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="T18" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W18" t="n">
         <v>4.4</v>
@@ -2917,7 +2917,7 @@
         <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
         <v>1000</v>
@@ -2929,10 +2929,10 @@
         <v>90</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO18" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19">
@@ -2962,64 +2962,64 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="G19" t="n">
         <v>2.36</v>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="J19" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>5.2</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.58</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.54</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.66</v>
+        <v>2.46</v>
       </c>
       <c r="V19" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="W19" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X19" t="n">
-        <v>980</v>
+        <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
         <v>980</v>
@@ -3028,25 +3028,25 @@
         <v>55</v>
       </c>
       <c r="AB19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>980</v>
       </c>
       <c r="AF19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
         <v>980</v>
@@ -3061,10 +3061,10 @@
         <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>980</v>
@@ -3097,19 +3097,19 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G20" t="n">
         <v>1.36</v>
       </c>
       <c r="H20" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K20" t="n">
         <v>7.4</v>
@@ -3121,46 +3121,46 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="O20" t="n">
         <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="Q20" t="n">
         <v>1.36</v>
       </c>
       <c r="R20" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T20" t="n">
         <v>1.71</v>
       </c>
       <c r="U20" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V20" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Z20" t="n">
         <v>120</v>
       </c>
       <c r="AA20" t="n">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="AB20" t="n">
         <v>15.5</v>
@@ -3169,7 +3169,7 @@
         <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AE20" t="n">
         <v>140</v>
@@ -3241,10 +3241,10 @@
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K21" t="n">
         <v>4.4</v>
@@ -3256,28 +3256,28 @@
         <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
         <v>1.42</v>
@@ -3289,7 +3289,7 @@
         <v>26</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
         <v>32</v>
@@ -3304,7 +3304,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
         <v>36</v>
@@ -3325,10 +3325,10 @@
         <v>32</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AM21" t="n">
         <v>55</v>
@@ -3337,7 +3337,7 @@
         <v>13</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -3367,19 +3367,19 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="H22" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="I22" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="J22" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K22" t="n">
         <v>7.2</v>
@@ -3391,31 +3391,31 @@
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>3.45</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
         <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>2.62</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="T22" t="n">
         <v>1.66</v>
       </c>
       <c r="U22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
-        <v>2.82</v>
+        <v>2.96</v>
       </c>
       <c r="W22" t="n">
         <v>1.14</v>
@@ -3472,7 +3472,7 @@
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="23">
@@ -3538,10 +3538,10 @@
         <v>1.51</v>
       </c>
       <c r="R23" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="T23" t="n">
         <v>1.04</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
         <v>1.31</v>
@@ -3661,37 +3661,37 @@
         <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O24" t="n">
         <v>1.28</v>
       </c>
       <c r="P24" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.71</v>
       </c>
       <c r="R24" t="n">
         <v>1.38</v>
       </c>
       <c r="S24" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="V24" t="n">
-        <v>1.86</v>
+        <v>1.97</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
         <v>12</v>
@@ -3721,7 +3721,7 @@
         <v>22</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
         <v>6.6</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
+        <v>5</v>
+      </c>
+      <c r="K25" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.2</v>
       </c>
       <c r="L25" t="n">
         <v>1.26</v>
@@ -3805,7 +3805,7 @@
         <v>2.66</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
         <v>1.67</v>
@@ -3823,7 +3823,7 @@
         <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="X25" t="n">
         <v>27</v>
@@ -3835,7 +3835,7 @@
         <v>60</v>
       </c>
       <c r="AA25" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB25" t="n">
         <v>12</v>
@@ -3910,13 +3910,13 @@
         <v>3</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H26" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="I26" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="J26" t="n">
         <v>3.1</v>
@@ -3931,13 +3931,13 @@
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
         <v>1.42</v>
       </c>
       <c r="P26" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q26" t="n">
         <v>2.24</v>
@@ -3949,22 +3949,22 @@
         <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="W26" t="n">
         <v>1.45</v>
       </c>
       <c r="X26" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>17.5</v>
@@ -3982,7 +3982,7 @@
         <v>13</v>
       </c>
       <c r="AE26" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF26" t="n">
         <v>980</v>
@@ -3997,13 +3997,13 @@
         <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK26" t="n">
         <v>980</v>
       </c>
       <c r="AL26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
         <v>150</v>
@@ -4042,46 +4042,46 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.05</v>
+        <v>2.74</v>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H27" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="I27" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="J27" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="K27" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M27" t="n">
         <v>1.01</v>
       </c>
       <c r="N27" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="O27" t="n">
         <v>1.01</v>
       </c>
       <c r="P27" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="R27" t="n">
         <v>1.18</v>
       </c>
       <c r="S27" t="n">
-        <v>3.05</v>
+        <v>2.76</v>
       </c>
       <c r="T27" t="n">
         <v>1.04</v>
@@ -4093,7 +4093,7 @@
         <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="X27" t="n">
         <v>1000</v>
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G28" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="H28" t="n">
         <v>1.95</v>
       </c>
       <c r="I28" t="n">
-        <v>2.22</v>
+        <v>2.14</v>
       </c>
       <c r="J28" t="n">
-        <v>2.88</v>
+        <v>2.96</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="L28" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>2.98</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="U28" t="n">
-        <v>1.86</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.82</v>
+        <v>1.87</v>
       </c>
       <c r="W28" t="n">
         <v>1.25</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AD28" t="n">
         <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF28" t="n">
         <v>40</v>
       </c>
       <c r="AG28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AL28" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="AO28" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G29" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="H29" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
@@ -4330,13 +4330,13 @@
         <v>3.35</v>
       </c>
       <c r="L29" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O29" t="n">
         <v>1.45</v>
@@ -4348,7 +4348,7 @@
         <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
         <v>4.4</v>
@@ -4357,13 +4357,13 @@
         <v>1.93</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V29" t="n">
         <v>1.47</v>
       </c>
       <c r="W29" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X29" t="n">
         <v>10.5</v>
@@ -4393,7 +4393,7 @@
         <v>18</v>
       </c>
       <c r="AG29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4450,10 +4450,10 @@
         <v>3.8</v>
       </c>
       <c r="G30" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="I30" t="n">
         <v>2.04</v>
@@ -4465,7 +4465,7 @@
         <v>4.4</v>
       </c>
       <c r="L30" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
         <v>1.05</v>
@@ -4477,19 +4477,19 @@
         <v>1.24</v>
       </c>
       <c r="P30" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="R30" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="S30" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U30" t="n">
         <v>2.2</v>
@@ -4498,7 +4498,7 @@
         <v>1.96</v>
       </c>
       <c r="W30" t="n">
-        <v>1.32</v>
+        <v>1.29</v>
       </c>
       <c r="X30" t="n">
         <v>20</v>
@@ -4516,7 +4516,7 @@
         <v>18.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AD30" t="n">
         <v>11</v>
@@ -4552,7 +4552,7 @@
         <v>980</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
@@ -4585,10 +4585,10 @@
         <v>2.06</v>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H31" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="I31" t="n">
         <v>4.5</v>
@@ -4600,7 +4600,7 @@
         <v>3.5</v>
       </c>
       <c r="L31" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M31" t="n">
         <v>1.11</v>
@@ -4621,7 +4621,7 @@
         <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T31" t="n">
         <v>2.12</v>
@@ -4633,7 +4633,7 @@
         <v>1.28</v>
       </c>
       <c r="W31" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="X31" t="n">
         <v>9.6</v>
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="G32" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H32" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="I32" t="n">
         <v>1.73</v>
@@ -4741,34 +4741,34 @@
         <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O32" t="n">
         <v>1.28</v>
       </c>
       <c r="P32" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="R32" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S32" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="T32" t="n">
         <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="V32" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="W32" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="X32" t="n">
         <v>19.5</v>
@@ -4795,7 +4795,7 @@
         <v>21</v>
       </c>
       <c r="AF32" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG32" t="n">
         <v>26</v>
@@ -4810,10 +4810,10 @@
         <v>170</v>
       </c>
       <c r="AK32" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM32" t="n">
         <v>120</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,16 +703,16 @@
         <v>1.98</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
         <v>1.77</v>
       </c>
       <c r="U2" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -811,10 +811,10 @@
         <v>2.66</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="J3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
@@ -832,10 +832,10 @@
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
@@ -847,7 +847,7 @@
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
@@ -898,7 +898,7 @@
         <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
@@ -907,7 +907,7 @@
         <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -937,22 +937,22 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
         <v>1.46</v>
@@ -964,7 +964,7 @@
         <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
         <v>1.63</v>
@@ -979,19 +979,19 @@
         <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U4" t="n">
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
         <v>7.4</v>
@@ -1000,31 +1000,31 @@
         <v>10.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG4" t="n">
         <v>24</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>28</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,111 +1058,111 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>3.45</v>
+        <v>1000</v>
       </c>
       <c r="H5" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>1.91</v>
       </c>
       <c r="J5" t="n">
-        <v>2.6</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.98</v>
+        <v>7.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.61</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.15</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="V5" t="n">
         <v>2.08</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W5" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="X5" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
         <v>1000</v>
@@ -1174,16 +1174,16 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>09:10:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="I6" t="n">
-        <v>870</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.09</v>
+        <v>1.02</v>
       </c>
       <c r="K6" t="n">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1231,28 +1231,28 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="O6" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.36</v>
+        <v>1.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="R6" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
         <v>1.01</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.04</v>
+        <v>2.42</v>
       </c>
       <c r="G7" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="H7" t="n">
-        <v>1.04</v>
+        <v>2.28</v>
       </c>
       <c r="I7" t="n">
-        <v>1000</v>
+        <v>3.3</v>
       </c>
       <c r="J7" t="n">
-        <v>1.09</v>
+        <v>2.98</v>
       </c>
       <c r="K7" t="n">
-        <v>1000</v>
+        <v>6.8</v>
       </c>
       <c r="L7" t="n">
         <v>1.01</v>
@@ -1366,34 +1366,34 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>1.32</v>
+        <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>1.25</v>
+        <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>1.01</v>
+        <v>1.43</v>
       </c>
       <c r="W7" t="n">
-        <v>1.01</v>
+        <v>1.38</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>9.800000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="G8" t="n">
-        <v>13</v>
+        <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>1.35</v>
+        <v>2.7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.42</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>4.5</v>
+        <v>2.62</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>2.98</v>
       </c>
       <c r="L8" t="n">
-        <v>1.01</v>
+        <v>1.61</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.16</v>
       </c>
       <c r="N8" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.81</v>
+        <v>3.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>3.05</v>
+        <v>7.2</v>
       </c>
       <c r="T8" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="V8" t="n">
-        <v>3.3</v>
+        <v>1.48</v>
       </c>
       <c r="W8" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>21</v>
+        <v>6.6</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>7.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.199999999999999</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>12.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>16.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="AG8" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>560</v>
+        <v>90</v>
       </c>
       <c r="AK8" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AL8" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AO8" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,123 +1598,123 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>10:45:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Dhamk</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Al Ahli</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.77</v>
+        <v>1.04</v>
       </c>
       <c r="G9" t="n">
-        <v>1.84</v>
+        <v>1000</v>
       </c>
       <c r="H9" t="n">
-        <v>5.3</v>
+        <v>1.04</v>
       </c>
       <c r="I9" t="n">
-        <v>6.8</v>
+        <v>870</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>1.09</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
         <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>1.36</v>
       </c>
       <c r="O9" t="n">
-        <v>1.57</v>
+        <v>1.23</v>
       </c>
       <c r="P9" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.58</v>
+        <v>1.23</v>
       </c>
       <c r="R9" t="n">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="S9" t="n">
-        <v>3.45</v>
+        <v>1.23</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>2.18</v>
+        <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
         <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
         <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
         <v>1000</v>
@@ -1723,7 +1723,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,36 +1733,36 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Al-Quadisiya (KSA)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Al-Ettifaq</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.78</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="H10" t="n">
-        <v>2.68</v>
+        <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="J10" t="n">
-        <v>2.46</v>
+        <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,22 +1771,22 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>1.1</v>
+        <v>1.32</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="S10" t="n">
-        <v>2.62</v>
+        <v>1.25</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.38</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.66</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>13</v>
       </c>
       <c r="H11" t="n">
-        <v>5.8</v>
+        <v>1.35</v>
       </c>
       <c r="I11" t="n">
-        <v>6.4</v>
+        <v>1.4</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>4.8</v>
       </c>
       <c r="K11" t="n">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M11" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N11" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.08</v>
       </c>
-      <c r="N11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.36</v>
-      </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>8</v>
       </c>
       <c r="Z11" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB11" t="n">
         <v>980</v>
       </c>
-      <c r="AA11" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>12.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>120</v>
+        <v>17</v>
       </c>
       <c r="AF11" t="n">
-        <v>9.4</v>
+        <v>130</v>
       </c>
       <c r="AG11" t="n">
-        <v>10</v>
+        <v>980</v>
       </c>
       <c r="AH11" t="n">
-        <v>26</v>
+        <v>980</v>
       </c>
       <c r="AI11" t="n">
-        <v>110</v>
+        <v>980</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>560</v>
       </c>
       <c r="AK11" t="n">
-        <v>19.5</v>
+        <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>980</v>
+        <v>200</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="AN11" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>160</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="G12" t="n">
-        <v>2.12</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.9</v>
+        <v>6.2</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="L12" t="n">
-        <v>1.32</v>
+        <v>1.01</v>
       </c>
       <c r="M12" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S12" t="n">
         <v>1.05</v>
       </c>
-      <c r="N12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P12" t="n">
+      <c r="T12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.32</v>
       </c>
-      <c r="Q12" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.89</v>
-      </c>
       <c r="X12" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y12" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>6</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD12" t="n">
         <v>32</v>
       </c>
-      <c r="AA12" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AE12" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK12" t="n">
-        <v>19.5</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="AO12" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.26</v>
+        <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>2.68</v>
       </c>
       <c r="I13" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>2.46</v>
       </c>
       <c r="K13" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.34</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="P13" t="n">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.74</v>
+        <v>2.62</v>
       </c>
       <c r="R13" t="n">
-        <v>1.49</v>
+        <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="T13" t="n">
-        <v>1.6</v>
+        <v>1.04</v>
       </c>
       <c r="U13" t="n">
-        <v>2.4</v>
+        <v>1.04</v>
       </c>
       <c r="V13" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W13" t="n">
-        <v>1.71</v>
+        <v>1.35</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AD13" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AI13" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.04</v>
+        <v>1.66</v>
       </c>
       <c r="G14" t="n">
-        <v>1000</v>
+        <v>1.72</v>
       </c>
       <c r="H14" t="n">
-        <v>1.04</v>
+        <v>5.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>1.09</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>1000</v>
+        <v>4.3</v>
       </c>
       <c r="L14" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>1.36</v>
+        <v>3.4</v>
       </c>
       <c r="O14" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="P14" t="n">
-        <v>1.36</v>
+        <v>1.82</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.17</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="S14" t="n">
-        <v>1.17</v>
+        <v>3.9</v>
       </c>
       <c r="T14" t="n">
-        <v>1.04</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.04</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.01</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
-        <v>1.01</v>
+        <v>2.38</v>
       </c>
       <c r="X14" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA14" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AE14" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AG14" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM14" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.21</v>
       </c>
       <c r="P15" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>42</v>
       </c>
-      <c r="AA15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
         <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,90 +2543,90 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>2.4</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S16" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V16" t="n">
         <v>1.41</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P16" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U16" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V16" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W16" t="n">
-        <v>1.51</v>
+        <v>1.71</v>
       </c>
       <c r="X16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y16" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
         <v>13</v>
       </c>
-      <c r="Z16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
         <v>15</v>
@@ -2635,40 +2635,40 @@
         <v>36</v>
       </c>
       <c r="AF16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK16" t="n">
         <v>24</v>
       </c>
-      <c r="AG16" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>42</v>
-      </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="AM16" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Saudi Professional League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Al-Taawoun Buraidah</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Al-Hilal</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>1.04</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>1000</v>
       </c>
       <c r="H17" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="I17" t="n">
-        <v>2.18</v>
+        <v>1000</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>1.09</v>
       </c>
       <c r="K17" t="n">
-        <v>4.4</v>
+        <v>1000</v>
       </c>
       <c r="L17" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T17" t="n">
         <v>1.04</v>
       </c>
-      <c r="N17" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U17" t="n">
-        <v>2.3</v>
+        <v>1.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.85</v>
+        <v>1.01</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.01</v>
       </c>
       <c r="X17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.24</v>
+        <v>2.74</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>3.05</v>
       </c>
       <c r="H18" t="n">
-        <v>9.199999999999999</v>
+        <v>2.66</v>
       </c>
       <c r="I18" t="n">
-        <v>13</v>
+        <v>2.86</v>
       </c>
       <c r="J18" t="n">
-        <v>7.8</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
-        <v>9</v>
+        <v>3.7</v>
       </c>
       <c r="L18" t="n">
-        <v>1.15</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>9.800000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.32</v>
       </c>
       <c r="P18" t="n">
-        <v>4.4</v>
+        <v>1.86</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.23</v>
+        <v>1.96</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>1.33</v>
       </c>
       <c r="S18" t="n">
-        <v>1.58</v>
+        <v>3.4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V18" t="n">
-        <v>1.08</v>
+        <v>1.54</v>
       </c>
       <c r="W18" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="X18" t="n">
-        <v>85</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>90</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>170</v>
+        <v>22</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AC18" t="n">
-        <v>980</v>
+        <v>9.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL18" t="n">
         <v>55</v>
       </c>
-      <c r="AE18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>980</v>
-      </c>
       <c r="AM18" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="AO18" t="n">
-        <v>85</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.22</v>
+        <v>1.82</v>
       </c>
       <c r="G19" t="n">
-        <v>2.36</v>
+        <v>1.97</v>
       </c>
       <c r="H19" t="n">
-        <v>2.98</v>
+        <v>3.95</v>
       </c>
       <c r="I19" t="n">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.42</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="S19" t="n">
-        <v>2.58</v>
+        <v>2.52</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.28</v>
       </c>
       <c r="W19" t="n">
-        <v>1.74</v>
+        <v>2.02</v>
       </c>
       <c r="X19" t="n">
         <v>27</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI19" t="n">
         <v>55</v>
       </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>22</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AO19" t="n">
-        <v>980</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.28</v>
+        <v>3.45</v>
       </c>
       <c r="G20" t="n">
-        <v>1.36</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>1.97</v>
       </c>
       <c r="I20" t="n">
-        <v>12.5</v>
+        <v>2.18</v>
       </c>
       <c r="J20" t="n">
-        <v>6</v>
+        <v>3.4</v>
       </c>
       <c r="K20" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>7.8</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="n">
-        <v>3.3</v>
+        <v>2.24</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="R20" t="n">
-        <v>1.93</v>
+        <v>1.51</v>
       </c>
       <c r="S20" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="T20" t="n">
-        <v>1.71</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.08</v>
+        <v>1.85</v>
       </c>
       <c r="W20" t="n">
-        <v>3.8</v>
+        <v>1.32</v>
       </c>
       <c r="X20" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="Y20" t="n">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="Z20" t="n">
-        <v>120</v>
+        <v>18</v>
       </c>
       <c r="AA20" t="n">
-        <v>320</v>
+        <v>32</v>
       </c>
       <c r="AB20" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="AC20" t="n">
-        <v>17</v>
+        <v>11.5</v>
       </c>
       <c r="AD20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL20" t="n">
         <v>55</v>
       </c>
-      <c r="AE20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>980</v>
-      </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.65</v>
+        <v>40</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="G21" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>9</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N21" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.36</v>
       </c>
-      <c r="H21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="V21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="W21" t="n">
         <v>4.4</v>
       </c>
-      <c r="L21" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.73</v>
-      </c>
       <c r="X21" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>980</v>
       </c>
       <c r="AE21" t="n">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH21" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AN21" t="n">
-        <v>13</v>
+        <v>2.7</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,91 +3358,91 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>5.8</v>
+        <v>2.24</v>
       </c>
       <c r="G22" t="n">
-        <v>8.4</v>
+        <v>2.44</v>
       </c>
       <c r="H22" t="n">
-        <v>1.41</v>
+        <v>2.96</v>
       </c>
       <c r="I22" t="n">
-        <v>1.51</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>5.1</v>
+        <v>3.8</v>
       </c>
       <c r="K22" t="n">
-        <v>7.2</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N22" t="n">
-        <v>6.2</v>
+        <v>4.8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
       <c r="P22" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="Q22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.44</v>
       </c>
-      <c r="R22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.96</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.14</v>
+        <v>1.7</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
         <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA22" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB22" t="n">
         <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AD22" t="n">
         <v>1000</v>
       </c>
       <c r="AE22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF22" t="n">
         <v>1000</v>
@@ -3454,31 +3454,31 @@
         <v>1000</v>
       </c>
       <c r="AI22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL22" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN22" t="n">
         <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>4.9</v>
+        <v>980</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,123 +3488,123 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>1.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.42</v>
+        <v>1.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>14</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.21</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.12</v>
       </c>
       <c r="P23" t="n">
-        <v>2.08</v>
+        <v>3.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.51</v>
+        <v>1.36</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.96</v>
       </c>
       <c r="S23" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="T23" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U23" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V23" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="W23" t="n">
-        <v>1.7</v>
+        <v>4</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI23" t="n">
         <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM23" t="n">
         <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>3.5</v>
       </c>
       <c r="AO23" t="n">
         <v>1000</v>
@@ -3613,7 +3613,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>2.16</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>2.36</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82</v>
+        <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>2.12</v>
+        <v>3.35</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>3.85</v>
+        <v>5.3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="P24" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.71</v>
+        <v>1.56</v>
       </c>
       <c r="R24" t="n">
-        <v>1.38</v>
+        <v>1.61</v>
       </c>
       <c r="S24" t="n">
-        <v>3.1</v>
+        <v>2.36</v>
       </c>
       <c r="T24" t="n">
-        <v>1.74</v>
+        <v>1.52</v>
       </c>
       <c r="U24" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="V24" t="n">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="W24" t="n">
-        <v>1.24</v>
+        <v>1.73</v>
       </c>
       <c r="X24" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y24" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC24" t="n">
         <v>10.5</v>
       </c>
       <c r="AD24" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>22</v>
-      </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>5.8</v>
       </c>
       <c r="G25" t="n">
-        <v>1.55</v>
+        <v>8.4</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>1.41</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>1.51</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>7.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.26</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P25" t="n">
-        <v>2.66</v>
+        <v>2.82</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>2.08</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.66</v>
       </c>
       <c r="U25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>2.96</v>
       </c>
       <c r="W25" t="n">
-        <v>2.84</v>
+        <v>1.14</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H26" t="n">
         <v>3</v>
       </c>
-      <c r="G26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2.66</v>
-      </c>
       <c r="I26" t="n">
-        <v>2.82</v>
+        <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>2.32</v>
       </c>
       <c r="O26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R26" t="n">
         <v>1.42</v>
       </c>
-      <c r="P26" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.26</v>
-      </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>2.02</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.04</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
-        <v>1.55</v>
+        <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y26" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z26" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB26" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD26" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG26" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ26" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM26" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,105 +4028,105 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.74</v>
+        <v>4.1</v>
       </c>
       <c r="G27" t="n">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="H27" t="n">
-        <v>2.18</v>
+        <v>1.84</v>
       </c>
       <c r="I27" t="n">
-        <v>2.74</v>
+        <v>1.95</v>
       </c>
       <c r="J27" t="n">
-        <v>2.88</v>
+        <v>3.55</v>
       </c>
       <c r="K27" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L27" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M27" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>2.54</v>
+        <v>3.95</v>
       </c>
       <c r="O27" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="P27" t="n">
-        <v>1.58</v>
+        <v>2</v>
       </c>
       <c r="Q27" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S27" t="n">
+        <v>3</v>
+      </c>
+      <c r="T27" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="U27" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V27" t="n">
         <v>2.04</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W27" t="n">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC27" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF27" t="n">
         <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI27" t="n">
         <v>1000</v>
@@ -4147,13 +4147,13 @@
         <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I28" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
         <v>5.2</v>
       </c>
-      <c r="H28" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>6</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>1.73</v>
+        <v>2.68</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>1.56</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.89</v>
+        <v>1.72</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>2.32</v>
       </c>
       <c r="V28" t="n">
-        <v>1.87</v>
+        <v>1.17</v>
       </c>
       <c r="W28" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="X28" t="n">
+        <v>27</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>130</v>
-      </c>
       <c r="AK28" t="n">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="AL28" t="n">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN28" t="n">
-        <v>95</v>
+        <v>5.7</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,106 +4303,106 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.66</v>
+        <v>3.15</v>
       </c>
       <c r="G29" t="n">
-        <v>2.88</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.88</v>
+        <v>2.64</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="J29" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.2</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
         <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>2.94</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.45</v>
       </c>
-      <c r="P29" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X29" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB29" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y29" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>9.4</v>
-      </c>
       <c r="AC29" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE29" t="n">
         <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI29" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AK29" t="n">
         <v>980</v>
@@ -4411,19 +4411,19 @@
         <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AO29" t="n">
-        <v>980</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="H30" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="I30" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="Q30" t="n">
         <v>2.04</v>
       </c>
-      <c r="J30" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N30" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.72</v>
-      </c>
       <c r="R30" t="n">
-        <v>1.44</v>
+        <v>1.18</v>
       </c>
       <c r="S30" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="T30" t="n">
-        <v>1.65</v>
+        <v>1.04</v>
       </c>
       <c r="U30" t="n">
-        <v>2.2</v>
+        <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.96</v>
+        <v>1.54</v>
       </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="X30" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y30" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AA30" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB30" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD30" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE30" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AF30" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AH30" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ30" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL30" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO30" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,261 +4568,666 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.06</v>
+        <v>3.95</v>
       </c>
       <c r="G31" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="H31" t="n">
-        <v>4.4</v>
+        <v>2.02</v>
       </c>
       <c r="I31" t="n">
-        <v>4.5</v>
+        <v>2.22</v>
       </c>
       <c r="J31" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="L31" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="M31" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="O31" t="n">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="P31" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="S31" t="n">
-        <v>4.9</v>
+        <v>3.85</v>
       </c>
       <c r="T31" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="V31" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.28</v>
       </c>
-      <c r="W31" t="n">
-        <v>1.93</v>
-      </c>
       <c r="X31" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>12.5</v>
+        <v>8.6</v>
       </c>
       <c r="Z31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA31" t="n">
         <v>29</v>
       </c>
-      <c r="AA31" t="n">
-        <v>120</v>
-      </c>
       <c r="AB31" t="n">
-        <v>7.2</v>
+        <v>16.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>18.5</v>
+        <v>13</v>
       </c>
       <c r="AE31" t="n">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="AG31" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AH31" t="n">
         <v>24</v>
       </c>
       <c r="AI31" t="n">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="AK31" t="n">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AM31" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AO31" t="n">
-        <v>110</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Spanish Segunda Division</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>16:30:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="H32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I32" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>160</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>48</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>English National League</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Altrincham</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Rochdale</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T33" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X33" t="n">
+        <v>20</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G34" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>3</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="X34" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B35" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Estoril Praia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="F35" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L35" t="n">
         <v>1.38</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M35" t="n">
         <v>1.06</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N35" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O35" t="n">
         <v>1.28</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P35" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q32" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R32" t="n">
+      <c r="Q35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R35" t="n">
         <v>1.41</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S35" t="n">
         <v>3.15</v>
       </c>
-      <c r="T32" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="W32" t="n">
+      <c r="T35" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W35" t="n">
         <v>1.19</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X35" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE35" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y32" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC32" t="n">
+      <c r="AF35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AO35" t="n">
         <v>9.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>9.6</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,7 +673,7 @@
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.86</v>
+        <v>2.84</v>
       </c>
       <c r="I2" t="n">
         <v>2.88</v>
@@ -709,7 +709,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -805,7 +805,7 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -835,7 +835,7 @@
         <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
@@ -853,61 +853,61 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
         <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="G4" t="n">
         <v>6.2</v>
@@ -946,16 +946,16 @@
         <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -967,16 +967,16 @@
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="T4" t="n">
         <v>2.04</v>
@@ -985,7 +985,7 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -994,7 +994,7 @@
         <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
@@ -1003,22 +1003,22 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
         <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AH4" t="n">
         <v>26</v>
@@ -1072,67 +1072,67 @@
         </is>
       </c>
       <c r="F5" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K5" t="n">
         <v>5</v>
       </c>
-      <c r="G5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>7.6</v>
-      </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>1.68</v>
+        <v>2.88</v>
       </c>
       <c r="O5" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S5" t="n">
-        <v>1.86</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>2.08</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>1.76</v>
       </c>
       <c r="V5" t="n">
-        <v>2.08</v>
+        <v>2.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.03</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G6" t="n">
         <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="I6" t="n">
         <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="K6" t="n">
         <v>950</v>
@@ -1231,13 +1231,13 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="O6" t="n">
         <v>1.01</v>
       </c>
       <c r="P6" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q6" t="n">
         <v>1.01</v>
@@ -1246,19 +1246,19 @@
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W6" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1360,13 +1360,13 @@
         <v>6.8</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.87</v>
+        <v>2.9</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
@@ -1375,19 +1375,19 @@
         <v>1.87</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S7" t="n">
         <v>2.52</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.43</v>
@@ -1477,28 +1477,28 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="G8" t="n">
         <v>3.7</v>
       </c>
       <c r="H8" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="J8" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.98</v>
       </c>
       <c r="L8" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="M8" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="N8" t="n">
         <v>2.06</v>
@@ -1507,16 +1507,16 @@
         <v>1.75</v>
       </c>
       <c r="P8" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="R8" t="n">
         <v>1.11</v>
       </c>
       <c r="S8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="T8" t="n">
         <v>2.4</v>
@@ -1531,43 +1531,43 @@
         <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AA8" t="n">
         <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG8" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AJ8" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AK8" t="n">
         <v>85</v>
@@ -1579,10 +1579,10 @@
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>870</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>1.23</v>
@@ -1654,10 +1654,10 @@
         <v>1.23</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>1.01</v>
@@ -1666,58 +1666,58 @@
         <v>1.01</v>
       </c>
       <c r="X9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="G10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="H10" t="n">
         <v>1.04</v>
       </c>
       <c r="I10" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="J10" t="n">
         <v>1.09</v>
       </c>
       <c r="K10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1795,10 +1795,10 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="W10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>9.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="H11" t="n">
         <v>1.35</v>
       </c>
       <c r="I11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J11" t="n">
         <v>4.8</v>
@@ -1900,7 +1900,7 @@
         <v>5.6</v>
       </c>
       <c r="L11" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -1915,7 +1915,7 @@
         <v>2</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
         <v>1.39</v>
@@ -1927,61 +1927,61 @@
         <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V11" t="n">
         <v>3.5</v>
       </c>
       <c r="W11" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="AA11" t="n">
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AC11" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE11" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
         <v>130</v>
       </c>
       <c r="AG11" t="n">
-        <v>980</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI11" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="AK11" t="n">
         <v>250</v>
       </c>
       <c r="AL11" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AM11" t="n">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="H12" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I12" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="L12" t="n">
-        <v>1.01</v>
+        <v>1.52</v>
       </c>
       <c r="M12" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
         <v>2.14</v>
@@ -2050,37 +2050,37 @@
         <v>1.41</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R12" t="n">
         <v>1.14</v>
       </c>
       <c r="S12" t="n">
-        <v>1.05</v>
+        <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="U12" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="V12" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="W12" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="X12" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="Z12" t="n">
         <v>55</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AB12" t="n">
         <v>6</v>
@@ -2092,22 +2092,22 @@
         <v>32</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
         <v>38</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ12" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>32</v>
@@ -2116,10 +2116,10 @@
         <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN12" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO12" t="n">
         <v>1000</v>
@@ -2155,34 +2155,34 @@
         <v>2.78</v>
       </c>
       <c r="G13" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
         <v>2.68</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="J13" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K13" t="n">
         <v>3.25</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="P13" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q13" t="n">
         <v>2.62</v>
@@ -2191,52 +2191,52 @@
         <v>1.13</v>
       </c>
       <c r="S13" t="n">
-        <v>2.62</v>
+        <v>3.45</v>
       </c>
       <c r="T13" t="n">
-        <v>1.04</v>
+        <v>2.14</v>
       </c>
       <c r="U13" t="n">
-        <v>1.04</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W13" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2311,22 +2311,22 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S14" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
         <v>2.04</v>
@@ -2341,13 +2341,13 @@
         <v>2.38</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AA14" t="n">
         <v>220</v>
@@ -2356,43 +2356,43 @@
         <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD14" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AE14" t="n">
         <v>120</v>
       </c>
       <c r="AF14" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>2.06</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -2470,10 +2470,10 @@
         <v>2.48</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>20</v>
@@ -2506,7 +2506,7 @@
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>44</v>
@@ -2521,7 +2521,7 @@
         <v>29</v>
       </c>
       <c r="AM15" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.26</v>
       </c>
       <c r="G16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
         <v>3.6</v>
@@ -2584,16 +2584,16 @@
         <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P16" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
         <v>2.86</v>
@@ -2602,73 +2602,73 @@
         <v>1.6</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.34</v>
       </c>
       <c r="V16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
         <v>23</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AA16" t="n">
         <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>17</v>
+        <v>19.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AJ16" t="n">
         <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO16" t="n">
         <v>34</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Al-Taawoun Buraidah</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al-Hilal</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.04</v>
+        <v>2.74</v>
       </c>
       <c r="G17" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="H17" t="n">
-        <v>1.04</v>
+        <v>2.66</v>
       </c>
       <c r="I17" t="n">
-        <v>1000</v>
+        <v>2.88</v>
       </c>
       <c r="J17" t="n">
-        <v>1.09</v>
+        <v>3.25</v>
       </c>
       <c r="K17" t="n">
-        <v>1000</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.01</v>
+        <v>1.34</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N17" t="n">
-        <v>1.36</v>
+        <v>3.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P17" t="n">
-        <v>1.36</v>
+        <v>1.86</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.17</v>
+        <v>1.95</v>
       </c>
       <c r="R17" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>1.17</v>
+        <v>3.4</v>
       </c>
       <c r="T17" t="n">
-        <v>1.04</v>
+        <v>1.74</v>
       </c>
       <c r="U17" t="n">
-        <v>1.04</v>
+        <v>2.12</v>
       </c>
       <c r="V17" t="n">
-        <v>1.01</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>1.01</v>
+        <v>1.48</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,127 +2818,127 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.74</v>
+        <v>1.82</v>
       </c>
       <c r="G18" t="n">
-        <v>3.05</v>
+        <v>1.98</v>
       </c>
       <c r="H18" t="n">
-        <v>2.66</v>
+        <v>3.95</v>
       </c>
       <c r="I18" t="n">
-        <v>2.86</v>
+        <v>4.6</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="K18" t="n">
-        <v>3.7</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="n">
-        <v>1.86</v>
+        <v>2.34</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="R18" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="S18" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.34</v>
       </c>
       <c r="V18" t="n">
-        <v>1.54</v>
+        <v>1.28</v>
       </c>
       <c r="W18" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>28</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="Z18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.6</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE18" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>18.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.82</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>1.97</v>
+        <v>4.5</v>
       </c>
       <c r="H19" t="n">
-        <v>3.95</v>
+        <v>1.94</v>
       </c>
       <c r="I19" t="n">
-        <v>4.6</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.61</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="S19" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="W19" t="n">
         <v>1.28</v>
       </c>
-      <c r="W19" t="n">
-        <v>2.02</v>
-      </c>
       <c r="X19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD19" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE19" t="n">
         <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,126 +3083,126 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.45</v>
+        <v>1.23</v>
       </c>
       <c r="G20" t="n">
-        <v>4.1</v>
+        <v>1.27</v>
       </c>
       <c r="H20" t="n">
-        <v>1.97</v>
+        <v>10.5</v>
       </c>
       <c r="I20" t="n">
-        <v>2.18</v>
+        <v>15.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.4</v>
+        <v>7.6</v>
       </c>
       <c r="K20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P20" t="n">
         <v>4.4</v>
       </c>
-      <c r="L20" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N20" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.24</v>
-      </c>
       <c r="Q20" t="n">
-        <v>1.64</v>
+        <v>1.23</v>
       </c>
       <c r="R20" t="n">
-        <v>1.51</v>
+        <v>2.4</v>
       </c>
       <c r="S20" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
         <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="V20" t="n">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>1.32</v>
+        <v>4.4</v>
       </c>
       <c r="X20" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF20" t="n">
         <v>18</v>
       </c>
-      <c r="AA20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>36</v>
-      </c>
       <c r="AG20" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
-        <v>48</v>
+        <v>16.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>40</v>
+        <v>3.05</v>
       </c>
       <c r="AO20" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
@@ -3223,121 +3223,121 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.24</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>1.27</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>10.5</v>
+        <v>2.96</v>
       </c>
       <c r="I21" t="n">
-        <v>13.5</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>7.4</v>
+        <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>9</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>9.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>4.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>2.4</v>
+        <v>1.54</v>
       </c>
       <c r="S21" t="n">
-        <v>1.53</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="V21" t="n">
-        <v>1.08</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>4.4</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
-        <v>75</v>
+        <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="Z21" t="n">
-        <v>170</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="n">
         <v>980</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AF21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI21" t="n">
         <v>980</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AJ21" t="n">
         <v>980</v>
       </c>
-      <c r="AE21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AK21" t="n">
         <v>980</v>
       </c>
-      <c r="AI21" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.7</v>
+        <v>16.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>100</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22">
@@ -3358,121 +3358,121 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.24</v>
+        <v>1.26</v>
       </c>
       <c r="G22" t="n">
-        <v>2.44</v>
+        <v>1.32</v>
       </c>
       <c r="H22" t="n">
-        <v>2.96</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="P22" t="n">
         <v>3.25</v>
       </c>
-      <c r="J22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.42</v>
-      </c>
       <c r="Q22" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="R22" t="n">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
-        <v>2.6</v>
+        <v>1.88</v>
       </c>
       <c r="T22" t="n">
-        <v>1.58</v>
+        <v>1.73</v>
       </c>
       <c r="U22" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V22" t="n">
-        <v>1.44</v>
+        <v>1.06</v>
       </c>
       <c r="W22" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AA22" t="n">
-        <v>50</v>
+        <v>450</v>
       </c>
       <c r="AB22" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.6</v>
+        <v>21</v>
       </c>
       <c r="AD22" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE22" t="n">
-        <v>980</v>
+        <v>190</v>
       </c>
       <c r="AF22" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH22" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AK22" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL22" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>1000</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.26</v>
+        <v>2.18</v>
       </c>
       <c r="G23" t="n">
-        <v>1.32</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
-        <v>11</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>14</v>
+        <v>3.4</v>
       </c>
       <c r="J23" t="n">
-        <v>6.4</v>
+        <v>3.75</v>
       </c>
       <c r="K23" t="n">
-        <v>7.4</v>
+        <v>4.4</v>
       </c>
       <c r="L23" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="O23" t="n">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>3.3</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="R23" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="S23" t="n">
-        <v>1.9</v>
+        <v>2.24</v>
       </c>
       <c r="T23" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="W23" t="n">
         <v>1.74</v>
       </c>
-      <c r="U23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W23" t="n">
-        <v>4</v>
-      </c>
       <c r="X23" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="Y23" t="n">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="Z23" t="n">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="AA23" t="n">
-        <v>420</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD23" t="n">
         <v>17.5</v>
       </c>
-      <c r="AC23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>55</v>
-      </c>
       <c r="AE23" t="n">
-        <v>190</v>
+        <v>38</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>22</v>
       </c>
       <c r="AG23" t="n">
-        <v>12</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>980</v>
+        <v>18</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.16</v>
+        <v>5.8</v>
       </c>
       <c r="G24" t="n">
-        <v>2.36</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>1.41</v>
       </c>
       <c r="I24" t="n">
-        <v>3.35</v>
+        <v>1.55</v>
       </c>
       <c r="J24" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.48</v>
+        <v>2.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="T24" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="U24" t="n">
-        <v>2.52</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.42</v>
+        <v>2.7</v>
       </c>
       <c r="W24" t="n">
-        <v>1.73</v>
+        <v>1.12</v>
       </c>
       <c r="X24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>17.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="AF24" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL24" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM24" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>20</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,105 +3758,105 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="H25" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="I25" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>5.1</v>
+        <v>3.25</v>
       </c>
       <c r="K25" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>2.96</v>
+        <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3877,7 +3877,7 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.9</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
@@ -3907,19 +3907,19 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="G26" t="n">
-        <v>2.42</v>
+        <v>2.64</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>2.74</v>
       </c>
       <c r="I26" t="n">
         <v>3.3</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K26" t="n">
         <v>4.2</v>
@@ -3940,25 +3940,25 @@
         <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="R26" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T26" t="n">
-        <v>1.04</v>
+        <v>1.56</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>2.44</v>
       </c>
       <c r="V26" t="n">
         <v>1.43</v>
       </c>
       <c r="W26" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X26" t="n">
         <v>1000</v>
@@ -4018,7 +4018,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>4.1</v>
+        <v>1.53</v>
       </c>
       <c r="G27" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H27" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
         <v>5</v>
       </c>
-      <c r="H27" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K27" t="n">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="L27" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="O27" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P27" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.81</v>
+        <v>1.56</v>
       </c>
       <c r="R27" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="S27" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="T27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U27" t="n">
-        <v>2.12</v>
+        <v>2.32</v>
       </c>
       <c r="V27" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="W27" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y27" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB27" t="n">
         <v>12</v>
       </c>
-      <c r="Z27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>21</v>
-      </c>
       <c r="AC27" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AH27" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>5.8</v>
       </c>
       <c r="AO27" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>3.15</v>
       </c>
       <c r="G28" t="n">
-        <v>1.54</v>
+        <v>3.25</v>
       </c>
       <c r="H28" t="n">
-        <v>6.6</v>
+        <v>2.64</v>
       </c>
       <c r="I28" t="n">
-        <v>6.8</v>
+        <v>2.78</v>
       </c>
       <c r="J28" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K28" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.26</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.67</v>
-      </c>
       <c r="S28" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="T28" t="n">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="U28" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="V28" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="W28" t="n">
-        <v>2.84</v>
+        <v>1.45</v>
       </c>
       <c r="X28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA28" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AB28" t="n">
         <v>12</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
         <v>25</v>
       </c>
-      <c r="AE28" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>11</v>
-      </c>
       <c r="AG28" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH28" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>70</v>
       </c>
-      <c r="AJ28" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="AL28" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AM28" t="n">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="AN28" t="n">
-        <v>5.7</v>
+        <v>55</v>
       </c>
       <c r="AO28" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,121 +4303,121 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="G29" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="H29" t="n">
-        <v>2.64</v>
+        <v>2.34</v>
       </c>
       <c r="I29" t="n">
-        <v>2.78</v>
+        <v>2.68</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>2.92</v>
       </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="O29" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="P29" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>4.3</v>
+        <v>3.45</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V29" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W29" t="n">
-        <v>1.45</v>
+        <v>1.32</v>
       </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z29" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AA29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB29" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AC29" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AF29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AG29" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30">
@@ -4438,55 +4438,55 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="G30" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="I30" t="n">
-        <v>2.86</v>
+        <v>2.34</v>
       </c>
       <c r="J30" t="n">
         <v>2.88</v>
       </c>
       <c r="K30" t="n">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="L30" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O30" t="n">
         <v>1.37</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.01</v>
-      </c>
       <c r="P30" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S30" t="n">
-        <v>2.76</v>
+        <v>3.4</v>
       </c>
       <c r="T30" t="n">
         <v>1.04</v>
@@ -4495,70 +4495,70 @@
         <v>1.04</v>
       </c>
       <c r="V30" t="n">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="W30" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="X30" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y30" t="n">
         <v>1000</v>
       </c>
       <c r="Z30" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB30" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE30" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF30" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG30" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ30" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AK30" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AL30" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM30" t="n">
         <v>1000</v>
       </c>
       <c r="AN30" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AO30" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.95</v>
+        <v>2.74</v>
       </c>
       <c r="G31" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H31" t="n">
-        <v>2.02</v>
+        <v>2.94</v>
       </c>
       <c r="I31" t="n">
-        <v>2.22</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K31" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="L31" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>3.15</v>
+        <v>2.9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="P31" t="n">
-        <v>1.74</v>
+        <v>1.68</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="R31" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S31" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T31" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U31" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="W31" t="n">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="X31" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.6</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>14.5</v>
+        <v>19.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="AB31" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AF31" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="AG31" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AH31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO31" t="n">
         <v>55</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.74</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
-        <v>2.86</v>
+        <v>4.7</v>
       </c>
       <c r="H32" t="n">
-        <v>2.9</v>
+        <v>1.87</v>
       </c>
       <c r="I32" t="n">
-        <v>3</v>
+        <v>1.97</v>
       </c>
       <c r="J32" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="K32" t="n">
-        <v>3.3</v>
+        <v>4.3</v>
       </c>
       <c r="L32" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.34</v>
+        <v>1.7</v>
       </c>
       <c r="R32" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>4.6</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>1.9</v>
+        <v>2.18</v>
       </c>
       <c r="V32" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="W32" t="n">
-        <v>1.53</v>
+        <v>1.27</v>
       </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC32" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AD32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE32" t="n">
         <v>19.5</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AF32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
         <v>55</v>
       </c>
-      <c r="AB32" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>980</v>
-      </c>
       <c r="AL32" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>60</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>2.06</v>
       </c>
       <c r="G33" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
-        <v>1.87</v>
+        <v>4.3</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>4.5</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="K33" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="L33" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V33" t="n">
         <v>1.28</v>
       </c>
-      <c r="M33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W33" t="n">
-        <v>1.27</v>
+        <v>1.92</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="AB33" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD33" t="n">
         <v>18.5</v>
       </c>
-      <c r="AC33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF33" t="n">
         <v>11</v>
       </c>
-      <c r="AE33" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>980</v>
-      </c>
       <c r="AG33" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AI33" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AJ33" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AK33" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM33" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AO33" t="n">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,261 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.06</v>
+        <v>5.7</v>
       </c>
       <c r="G34" t="n">
-        <v>2.1</v>
+        <v>6.2</v>
       </c>
       <c r="H34" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K34" t="n">
         <v>4.3</v>
       </c>
-      <c r="I34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.5</v>
-      </c>
       <c r="L34" t="n">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="M34" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O34" t="n">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>2.04</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.48</v>
+        <v>1.85</v>
       </c>
       <c r="R34" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="S34" t="n">
-        <v>4.9</v>
+        <v>3.15</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>1.86</v>
       </c>
       <c r="U34" t="n">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="W34" t="n">
-        <v>1.92</v>
+        <v>1.19</v>
       </c>
       <c r="X34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO34" t="n">
         <v>9.6</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>25</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>9.4</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="H2" t="n">
         <v>2.84</v>
@@ -805,7 +805,7 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -817,7 +817,7 @@
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -847,13 +847,13 @@
         <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
@@ -943,10 +943,10 @@
         <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="J4" t="n">
         <v>3.25</v>
@@ -955,7 +955,7 @@
         <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
@@ -967,7 +967,7 @@
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="Q4" t="n">
         <v>2.24</v>
@@ -976,7 +976,7 @@
         <v>1.23</v>
       </c>
       <c r="S4" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="T4" t="n">
         <v>2.04</v>
@@ -985,7 +985,7 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="W4" t="n">
         <v>1.2</v>
@@ -1081,10 +1081,10 @@
         <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="J5" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -1093,7 +1093,7 @@
         <v>1.37</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
         <v>2.88</v>
@@ -1105,7 +1105,7 @@
         <v>1.71</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
         <v>1.28</v>
@@ -1114,13 +1114,13 @@
         <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V5" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="W5" t="n">
         <v>1.14</v>
@@ -1207,46 +1207,46 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.01</v>
+        <v>2.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1000</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>3.85</v>
       </c>
       <c r="J6" t="n">
-        <v>1.03</v>
+        <v>2.76</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M6" t="n">
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>1.28</v>
+        <v>2.22</v>
       </c>
       <c r="O6" t="n">
-        <v>1.01</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>1.28</v>
+        <v>1.46</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.01</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
         <v>1.18</v>
       </c>
       <c r="S6" t="n">
-        <v>1.05</v>
+        <v>2.68</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,64 +1255,64 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.02</v>
+        <v>1.35</v>
       </c>
       <c r="W6" t="n">
-        <v>1.02</v>
+        <v>1.48</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -1342,79 +1342,79 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.42</v>
+        <v>2.96</v>
       </c>
       <c r="G7" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H7" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="I7" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="K7" t="n">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.26</v>
       </c>
       <c r="P7" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="R7" t="n">
-        <v>1.35</v>
+        <v>1.42</v>
       </c>
       <c r="S7" t="n">
-        <v>2.52</v>
+        <v>2.66</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>2.26</v>
       </c>
       <c r="V7" t="n">
-        <v>1.43</v>
+        <v>1.64</v>
       </c>
       <c r="W7" t="n">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,10 +1423,10 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1447,7 +1447,7 @@
         <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -1492,10 +1492,10 @@
         <v>2.6</v>
       </c>
       <c r="K8" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="M8" t="n">
         <v>1.18</v>
@@ -1531,7 +1531,7 @@
         <v>1.37</v>
       </c>
       <c r="X8" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="Y8" t="n">
         <v>8.4</v>
@@ -1546,13 +1546,13 @@
         <v>9.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD8" t="n">
         <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AF8" t="n">
         <v>26</v>
@@ -1588,7 +1588,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Dhamk</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Ahli</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5.6</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="R9" t="n">
-        <v>1.23</v>
+        <v>1.39</v>
       </c>
       <c r="S9" t="n">
-        <v>1.23</v>
+        <v>3.05</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="V9" t="n">
-        <v>1.01</v>
+        <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>19.5</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Saudi Professional League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,123 +1733,123 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Al-Quadisiya (KSA)</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al-Ettifaq</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="H10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S10" t="n">
         <v>1.05</v>
       </c>
-      <c r="G10" t="n">
-        <v>44</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="I10" t="n">
-        <v>980</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="T10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="X10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>580</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD10" t="n">
         <v>32</v>
       </c>
-      <c r="L10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>1000</v>
-      </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>540</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
         <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AO10" t="n">
         <v>1000</v>
@@ -1858,7 +1858,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>2.78</v>
       </c>
       <c r="G11" t="n">
-        <v>14.5</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>1.35</v>
+        <v>2.68</v>
       </c>
       <c r="I11" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="P11" t="n">
         <v>1.39</v>
       </c>
-      <c r="J11" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2</v>
-      </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>2.62</v>
       </c>
       <c r="R11" t="n">
-        <v>1.39</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="T11" t="n">
         <v>2.14</v>
       </c>
       <c r="U11" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>3.5</v>
+        <v>1.38</v>
       </c>
       <c r="W11" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="X11" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>9.4</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>38</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>14.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>18.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
         <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="G12" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I12" t="n">
-        <v>7.8</v>
+        <v>6.4</v>
       </c>
       <c r="J12" t="n">
-        <v>3.35</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.52</v>
+        <v>1.46</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>2.14</v>
+        <v>3.25</v>
       </c>
       <c r="O12" t="n">
-        <v>1.56</v>
+        <v>1.39</v>
       </c>
       <c r="P12" t="n">
-        <v>1.41</v>
+        <v>1.79</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.56</v>
+        <v>2.12</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.29</v>
       </c>
       <c r="S12" t="n">
-        <v>4.8</v>
+        <v>3.95</v>
       </c>
       <c r="T12" t="n">
-        <v>2.34</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="W12" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="X12" t="n">
-        <v>8.800000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="Z12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AA12" t="n">
-        <v>580</v>
+        <v>220</v>
       </c>
       <c r="AB12" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AG12" t="n">
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>540</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>970</v>
+        <v>200</v>
       </c>
       <c r="AN12" t="n">
-        <v>27</v>
+        <v>15.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.78</v>
+        <v>2.06</v>
       </c>
       <c r="G13" t="n">
-        <v>3.75</v>
+        <v>2.08</v>
       </c>
       <c r="H13" t="n">
-        <v>2.68</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.48</v>
+        <v>3.65</v>
       </c>
       <c r="K13" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="M13" t="n">
-        <v>1.13</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>2.2</v>
+        <v>5.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.59</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.39</v>
+        <v>2.34</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.62</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.13</v>
+        <v>1.55</v>
       </c>
       <c r="S13" t="n">
-        <v>3.45</v>
+        <v>2.64</v>
       </c>
       <c r="T13" t="n">
-        <v>2.14</v>
+        <v>1.6</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="V13" t="n">
-        <v>1.39</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="X13" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="Z13" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AB13" t="n">
-        <v>9.800000000000001</v>
+        <v>13</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="AF13" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO13" t="n">
         <v>32</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.66</v>
+        <v>2.24</v>
       </c>
       <c r="G14" t="n">
-        <v>1.72</v>
+        <v>2.28</v>
       </c>
       <c r="H14" t="n">
-        <v>5.8</v>
+        <v>3.35</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>3.5</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.34</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>1.83</v>
+        <v>2.18</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="R14" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>2.86</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>2.36</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.4</v>
       </c>
       <c r="W14" t="n">
-        <v>2.38</v>
+        <v>1.78</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA14" t="n">
         <v>60</v>
       </c>
-      <c r="AA14" t="n">
-        <v>220</v>
-      </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>15</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK14" t="n">
         <v>28</v>
       </c>
-      <c r="AE14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH14" t="n">
+      <c r="AL14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AO14" t="n">
         <v>32</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.06</v>
+        <v>1.83</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="K15" t="n">
-        <v>3.8</v>
+        <v>4.6</v>
       </c>
       <c r="L15" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="S15" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="T15" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="U15" t="n">
-        <v>2.48</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
         <v>11</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.26</v>
+        <v>2.74</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>3.05</v>
       </c>
       <c r="H16" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.25</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="P16" t="n">
-        <v>2.18</v>
+        <v>1.86</v>
       </c>
       <c r="Q16" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T16" t="n">
         <v>1.74</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T16" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U16" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="V16" t="n">
-        <v>1.4</v>
+        <v>1.54</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="X16" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
-        <v>19.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AB16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD16" t="n">
         <v>15</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>15.5</v>
       </c>
       <c r="AE16" t="n">
         <v>38</v>
       </c>
       <c r="AF16" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AG16" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN16" t="n">
         <v>32</v>
       </c>
-      <c r="AK16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.74</v>
+        <v>3.35</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="H17" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="I17" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="O17" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>1.86</v>
+        <v>2.28</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.95</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.52</v>
       </c>
       <c r="S17" t="n">
-        <v>3.4</v>
+        <v>2.52</v>
       </c>
       <c r="T17" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>2.12</v>
+        <v>2.36</v>
       </c>
       <c r="V17" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="W17" t="n">
-        <v>1.48</v>
+        <v>1.28</v>
       </c>
       <c r="X17" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y17" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="Z17" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE17" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,123 +2813,123 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.82</v>
+        <v>1.23</v>
       </c>
       <c r="G18" t="n">
-        <v>1.98</v>
+        <v>1.27</v>
       </c>
       <c r="H18" t="n">
-        <v>3.95</v>
+        <v>10.5</v>
       </c>
       <c r="I18" t="n">
-        <v>4.6</v>
+        <v>15.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="K18" t="n">
-        <v>4.6</v>
+        <v>9.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.25</v>
+        <v>1.13</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N18" t="n">
-        <v>4.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.07</v>
       </c>
       <c r="P18" t="n">
-        <v>2.34</v>
+        <v>4.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.6</v>
+        <v>1.23</v>
       </c>
       <c r="R18" t="n">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>1.58</v>
       </c>
       <c r="T18" t="n">
         <v>1.6</v>
       </c>
       <c r="U18" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.28</v>
+        <v>1.07</v>
       </c>
       <c r="W18" t="n">
-        <v>2.02</v>
+        <v>4.4</v>
       </c>
       <c r="X18" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AG18" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AJ18" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AK18" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>11</v>
+        <v>3.05</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2938,7 +2938,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,72 +2948,72 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>2.24</v>
       </c>
       <c r="G19" t="n">
-        <v>4.5</v>
+        <v>2.4</v>
       </c>
       <c r="H19" t="n">
-        <v>1.94</v>
+        <v>2.98</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>3.25</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.85</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>4.6</v>
+        <v>5.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.24</v>
+        <v>2.48</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="R19" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="S19" t="n">
-        <v>2.6</v>
+        <v>2.38</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.53</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.58</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.45</v>
       </c>
       <c r="W19" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3022,10 +3022,10 @@
         <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB19" t="n">
         <v>1000</v>
@@ -3037,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF19" t="n">
         <v>1000</v>
@@ -3049,22 +3049,22 @@
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="G20" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="H20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
         <v>15.5</v>
       </c>
       <c r="J20" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="K20" t="n">
         <v>7.6</v>
       </c>
-      <c r="K20" t="n">
-        <v>9.4</v>
-      </c>
       <c r="L20" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>9.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="R20" t="n">
-        <v>2.4</v>
+        <v>1.94</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="U20" t="n">
-        <v>2.36</v>
+        <v>2.12</v>
       </c>
       <c r="V20" t="n">
         <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB20" t="n">
-        <v>27</v>
+        <v>17.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>180</v>
       </c>
       <c r="AF20" t="n">
-        <v>18</v>
+        <v>13.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK20" t="n">
         <v>16</v>
       </c>
-      <c r="AK20" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.05</v>
+        <v>3.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="J21" t="n">
         <v>3.75</v>
       </c>
       <c r="K21" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.42</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="R21" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
         <v>27</v>
       </c>
       <c r="Y21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA21" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="AC21" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF21" t="n">
         <v>22</v>
       </c>
       <c r="AG21" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN21" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.26</v>
+        <v>6.2</v>
       </c>
       <c r="G22" t="n">
-        <v>1.32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>1.43</v>
       </c>
       <c r="I22" t="n">
-        <v>16.5</v>
+        <v>1.53</v>
       </c>
       <c r="J22" t="n">
-        <v>6.4</v>
+        <v>4.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>2.82</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="S22" t="n">
-        <v>1.88</v>
+        <v>2.1</v>
       </c>
       <c r="T22" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="U22" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>1.06</v>
+        <v>2.88</v>
       </c>
       <c r="W22" t="n">
-        <v>4.1</v>
+        <v>1.13</v>
       </c>
       <c r="X22" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y22" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z22" t="n">
-        <v>160</v>
+        <v>14.5</v>
       </c>
       <c r="AA22" t="n">
-        <v>450</v>
+        <v>1000</v>
       </c>
       <c r="AB22" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC22" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD22" t="n">
-        <v>60</v>
+        <v>13.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AF22" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AG22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AK22" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.18</v>
+        <v>2.26</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.64</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="I23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K23" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="L23" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.3</v>
+        <v>2.34</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="R23" t="n">
-        <v>1.6</v>
+        <v>1.41</v>
       </c>
       <c r="S23" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="U23" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y23" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE23" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AI23" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ23" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AL23" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN23" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,105 +3623,105 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>5.8</v>
+        <v>4.1</v>
       </c>
       <c r="G24" t="n">
-        <v>9.199999999999999</v>
+        <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.41</v>
+        <v>1.83</v>
       </c>
       <c r="I24" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="K24" t="n">
-        <v>7.2</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.31</v>
       </c>
       <c r="M24" t="n">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>3.95</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="S24" t="n">
-        <v>2.08</v>
+        <v>3</v>
       </c>
       <c r="T24" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>2.7</v>
+        <v>2.04</v>
       </c>
       <c r="W24" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB24" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3742,13 +3742,13 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>1.54</v>
       </c>
       <c r="G25" t="n">
-        <v>5.5</v>
+        <v>1.55</v>
       </c>
       <c r="H25" t="n">
-        <v>1.83</v>
+        <v>6.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>6.8</v>
       </c>
       <c r="J25" t="n">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>5.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>6</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>2.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>2.42</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>2.04</v>
+        <v>1.17</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>2.84</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="Y25" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB25" t="n">
         <v>12</v>
       </c>
-      <c r="Z25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
       <c r="AC25" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG25" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AH25" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AI25" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK25" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL25" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM25" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN25" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO25" t="n">
-        <v>14.5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.22</v>
+        <v>3.15</v>
       </c>
       <c r="G26" t="n">
-        <v>2.64</v>
+        <v>3.25</v>
       </c>
       <c r="H26" t="n">
-        <v>2.74</v>
+        <v>2.62</v>
       </c>
       <c r="I26" t="n">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="J26" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.01</v>
       </c>
       <c r="M26" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.32</v>
+        <v>3.05</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.43</v>
       </c>
       <c r="P26" t="n">
-        <v>2.32</v>
+        <v>1.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>2.26</v>
       </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="S26" t="n">
-        <v>2.04</v>
+        <v>4.3</v>
       </c>
       <c r="T26" t="n">
-        <v>1.56</v>
+        <v>1.9</v>
       </c>
       <c r="U26" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="V26" t="n">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="W26" t="n">
-        <v>1.71</v>
+        <v>1.44</v>
       </c>
       <c r="X26" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y26" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC26" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH26" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ26" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK26" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO26" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.53</v>
+        <v>3.05</v>
       </c>
       <c r="G27" t="n">
-        <v>1.54</v>
+        <v>3.7</v>
       </c>
       <c r="H27" t="n">
-        <v>6.6</v>
+        <v>2.34</v>
       </c>
       <c r="I27" t="n">
-        <v>7</v>
+        <v>2.66</v>
       </c>
       <c r="J27" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
-        <v>5.2</v>
+        <v>3.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.27</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>6</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="P27" t="n">
-        <v>2.68</v>
+        <v>1.69</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.56</v>
+        <v>2.16</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>2.42</v>
+        <v>3.6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.72</v>
+        <v>1.86</v>
       </c>
       <c r="U27" t="n">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="V27" t="n">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="W27" t="n">
-        <v>2.84</v>
+        <v>1.37</v>
       </c>
       <c r="X27" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y27" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA27" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE27" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF27" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK27" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
         <v>3.15</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O28" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="V28" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W28" t="n">
-        <v>1.45</v>
+        <v>1.29</v>
       </c>
       <c r="X28" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
         <v>10.5</v>
       </c>
       <c r="Z28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG28" t="n">
         <v>21</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>16</v>
       </c>
       <c r="AH28" t="n">
         <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AL28" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AO28" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.96</v>
+        <v>2.64</v>
       </c>
       <c r="G29" t="n">
-        <v>4.1</v>
+        <v>2.82</v>
       </c>
       <c r="H29" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="I29" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N29" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q29" t="n">
         <v>2.34</v>
       </c>
-      <c r="I29" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K29" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P29" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>2</v>
-      </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="S29" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="T29" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="U29" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V29" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="W29" t="n">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="X29" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z29" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC29" t="n">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AF29" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG29" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AI29" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AK29" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AO29" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="G30" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I30" t="n">
         <v>1.98</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.34</v>
-      </c>
       <c r="J30" t="n">
-        <v>2.88</v>
+        <v>3.85</v>
       </c>
       <c r="K30" t="n">
         <v>4.3</v>
       </c>
       <c r="L30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N30" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.44</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.28</v>
-      </c>
       <c r="S30" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="T30" t="n">
-        <v>1.04</v>
+        <v>1.67</v>
       </c>
       <c r="U30" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="W30" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X30" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="Y30" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z30" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AB30" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AC30" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO30" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>24</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.74</v>
+        <v>2.08</v>
       </c>
       <c r="G31" t="n">
-        <v>2.8</v>
+        <v>2.12</v>
       </c>
       <c r="H31" t="n">
-        <v>2.94</v>
+        <v>4.2</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="J31" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K31" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L31" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M31" t="n">
         <v>1.1</v>
       </c>
       <c r="N31" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O31" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.34</v>
+        <v>2.46</v>
       </c>
       <c r="R31" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S31" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="T31" t="n">
-        <v>1.95</v>
+        <v>2.14</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="V31" t="n">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="W31" t="n">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="X31" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y31" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF31" t="n">
         <v>11</v>
       </c>
-      <c r="Z31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AG31" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>25</v>
       </c>
-      <c r="AI31" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>980</v>
-      </c>
       <c r="AK31" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN31" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,395 +4703,125 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J32" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N32" t="n">
         <v>4</v>
       </c>
-      <c r="G32" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H32" t="n">
+      <c r="O32" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P32" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="Q32" t="n">
         <v>1.87</v>
       </c>
-      <c r="I32" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.7</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S32" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="T32" t="n">
-        <v>1.69</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
-        <v>2.18</v>
+        <v>1.99</v>
       </c>
       <c r="V32" t="n">
-        <v>2.02</v>
+        <v>2.4</v>
       </c>
       <c r="W32" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="X32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB32" t="n">
         <v>23</v>
       </c>
-      <c r="Y32" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>19</v>
-      </c>
       <c r="AC32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD32" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AD32" t="n">
-        <v>11</v>
-      </c>
       <c r="AE32" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF32" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="n">
         <v>36</v>
       </c>
-      <c r="AG32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>980</v>
-      </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AK32" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AM32" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN32" t="n">
         <v>100</v>
       </c>
-      <c r="AN32" t="n">
-        <v>55</v>
-      </c>
       <c r="AO32" t="n">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Mallorca</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="G33" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="P33" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S33" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T33" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="V33" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="X33" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G34" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H34" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="I34" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N34" t="n">
-        <v>4</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S34" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>46</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO34" t="n">
         <v>9.6</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,7 +670,7 @@
         <v>2.62</v>
       </c>
       <c r="G2" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="H2" t="n">
         <v>2.84</v>
@@ -697,7 +697,7 @@
         <v>1.33</v>
       </c>
       <c r="P2" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="Q2" t="n">
         <v>1.98</v>
@@ -709,7 +709,7 @@
         <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="U2" t="n">
         <v>2.2</v>
@@ -805,7 +805,7 @@
         <v>2.76</v>
       </c>
       <c r="G3" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="H3" t="n">
         <v>2.66</v>
@@ -853,10 +853,10 @@
         <v>1.59</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.68</v>
       </c>
       <c r="I4" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q4" t="n">
         <v>2.24</v>
       </c>
       <c r="R4" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S4" t="n">
         <v>3.85</v>
       </c>
       <c r="T4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
@@ -1003,16 +1003,16 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
         <v>1000</v>
@@ -1021,10 +1021,10 @@
         <v>28</v>
       </c>
       <c r="AH4" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI4" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,81 +1058,81 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>KaPa</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.6</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>9.4</v>
+        <v>110</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>1.04</v>
       </c>
       <c r="I5" t="n">
-        <v>1.81</v>
+        <v>980</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>1.01</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.01</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>2.88</v>
+        <v>1.25</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.71</v>
+        <v>1.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>1.06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="S5" t="n">
-        <v>3.1</v>
+        <v>1.06</v>
       </c>
       <c r="T5" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="U5" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="V5" t="n">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
         <v>1000</v>
@@ -1141,7 +1141,7 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
         <v>1000</v>
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.34</v>
+        <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>9.4</v>
       </c>
       <c r="H6" t="n">
-        <v>2.72</v>
+        <v>1.57</v>
       </c>
       <c r="I6" t="n">
-        <v>3.85</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>2.76</v>
+        <v>3.45</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.22</v>
+        <v>2.88</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P6" t="n">
-        <v>1.46</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.26</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>2.68</v>
+        <v>3.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>1.35</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.48</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC6" t="n">
         <v>11</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>09:10:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.96</v>
+        <v>2.32</v>
       </c>
       <c r="G7" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.26</v>
+        <v>2.76</v>
       </c>
       <c r="I7" t="n">
-        <v>2.54</v>
+        <v>3.85</v>
       </c>
       <c r="J7" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>2.22</v>
       </c>
       <c r="O7" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.48</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="R7" t="n">
-        <v>1.42</v>
+        <v>1.18</v>
       </c>
       <c r="S7" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T7" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.64</v>
+        <v>1.35</v>
       </c>
       <c r="W7" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF7" t="n">
         <v>21</v>
       </c>
-      <c r="Y7" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG7" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,114 +1463,114 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="G8" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H8" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>3.05</v>
+        <v>2.96</v>
       </c>
       <c r="J8" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
-        <v>1.73</v>
+        <v>1.3</v>
       </c>
       <c r="M8" t="n">
-        <v>1.18</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>2.06</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
-        <v>1.75</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.35</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.3</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.11</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>7.6</v>
+        <v>2.94</v>
       </c>
       <c r="T8" t="n">
-        <v>2.4</v>
+        <v>1.63</v>
       </c>
       <c r="U8" t="n">
-        <v>1.57</v>
+        <v>2.3</v>
       </c>
       <c r="V8" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="W8" t="n">
-        <v>1.37</v>
+        <v>1.46</v>
       </c>
       <c r="X8" t="n">
-        <v>6.4</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>8.4</v>
+        <v>14.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AA8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>9.6</v>
+        <v>16.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>17.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
         <v>1000</v>
@@ -1582,13 +1582,13 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>10</v>
+        <v>3.2</v>
       </c>
       <c r="G9" t="n">
-        <v>14.5</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>1.35</v>
+        <v>2.66</v>
       </c>
       <c r="I9" t="n">
-        <v>1.39</v>
+        <v>3.05</v>
       </c>
       <c r="J9" t="n">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
       <c r="K9" t="n">
-        <v>5.6</v>
+        <v>2.96</v>
       </c>
       <c r="L9" t="n">
-        <v>1.3</v>
+        <v>1.73</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>3.9</v>
+        <v>2.06</v>
       </c>
       <c r="O9" t="n">
-        <v>1.28</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>1.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.81</v>
+        <v>3.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="S9" t="n">
-        <v>3.05</v>
+        <v>7.6</v>
       </c>
       <c r="T9" t="n">
-        <v>2.14</v>
+        <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.71</v>
+        <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>3.5</v>
+        <v>1.48</v>
       </c>
       <c r="W9" t="n">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
-        <v>21</v>
+        <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.199999999999999</v>
+        <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>9.4</v>
+        <v>20</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>38</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>14.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>19.5</v>
+        <v>60</v>
       </c>
       <c r="AF9" t="n">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
         <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ9" t="n">
-        <v>570</v>
+        <v>85</v>
       </c>
       <c r="AK9" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AL9" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.68</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>5.9</v>
+        <v>1.35</v>
       </c>
       <c r="I10" t="n">
-        <v>7.4</v>
+        <v>1.39</v>
       </c>
       <c r="J10" t="n">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.52</v>
+        <v>1.3</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T10" t="n">
         <v>2.14</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.34</v>
-      </c>
       <c r="U10" t="n">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>3.55</v>
       </c>
       <c r="W10" t="n">
-        <v>2.36</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y10" t="n">
         <v>9</v>
       </c>
-      <c r="Y10" t="n">
-        <v>15.5</v>
-      </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>580</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>5.9</v>
+        <v>38</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
-        <v>400</v>
+        <v>19.5</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.800000000000001</v>
+        <v>130</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>50</v>
       </c>
       <c r="AH10" t="n">
         <v>38</v>
       </c>
       <c r="AI10" t="n">
-        <v>540</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>570</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AM10" t="n">
-        <v>970</v>
+        <v>250</v>
       </c>
       <c r="AN10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.78</v>
+        <v>1.62</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>1.68</v>
       </c>
       <c r="H11" t="n">
-        <v>2.68</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>3.6</v>
+        <v>9.6</v>
       </c>
       <c r="J11" t="n">
-        <v>2.46</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="L11" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="M11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="V11" t="n">
         <v>1.13</v>
       </c>
-      <c r="N11" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="S11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.38</v>
-      </c>
       <c r="W11" t="n">
-        <v>1.36</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>490</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>300</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>350</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN11" t="n">
         <v>22</v>
       </c>
-      <c r="AA11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.66</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>1.72</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="n">
-        <v>5.8</v>
+        <v>2.7</v>
       </c>
       <c r="I12" t="n">
-        <v>6.4</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>2.42</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.2</v>
       </c>
       <c r="L12" t="n">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.14</v>
       </c>
       <c r="N12" t="n">
-        <v>3.25</v>
+        <v>2.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="P12" t="n">
-        <v>1.79</v>
+        <v>1.36</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.12</v>
+        <v>2.78</v>
       </c>
       <c r="R12" t="n">
-        <v>1.29</v>
+        <v>1.12</v>
       </c>
       <c r="S12" t="n">
-        <v>3.95</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.22</v>
       </c>
       <c r="U12" t="n">
-        <v>1.81</v>
+        <v>1.58</v>
       </c>
       <c r="V12" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>2.38</v>
+        <v>1.35</v>
       </c>
       <c r="X12" t="n">
-        <v>15.5</v>
+        <v>7.4</v>
       </c>
       <c r="Y12" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="AA12" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="AE12" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AF12" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH12" t="n">
         <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,126 +2138,126 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.06</v>
+        <v>1.66</v>
       </c>
       <c r="G13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="I13" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J13" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K13" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="S13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="T13" t="n">
         <v>2.08</v>
       </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K13" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P13" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.6</v>
-      </c>
       <c r="U13" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.19</v>
       </c>
       <c r="W13" t="n">
-        <v>1.92</v>
+        <v>2.38</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>15.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Z13" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>220</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH13" t="n">
         <v>32</v>
       </c>
-      <c r="AA13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF13" t="n">
+      <c r="AI13" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN13" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>11</v>
-      </c>
       <c r="AO13" t="n">
-        <v>32</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.24</v>
+        <v>2.06</v>
       </c>
       <c r="G14" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.65</v>
       </c>
       <c r="K14" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L14" t="n">
         <v>1.34</v>
@@ -2311,94 +2311,94 @@
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="R14" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.86</v>
+        <v>2.78</v>
       </c>
       <c r="T14" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V14" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="W14" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AB14" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH14" t="n">
         <v>15</v>
       </c>
-      <c r="AC14" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
+      <c r="AI14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK14" t="n">
         <v>19.5</v>
       </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>28</v>
-      </c>
       <c r="AL14" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AO14" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,126 +2408,126 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.83</v>
+        <v>2.14</v>
       </c>
       <c r="G15" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>3.55</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>3.75</v>
       </c>
       <c r="J15" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="L15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N15" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O15" t="n">
         <v>1.25</v>
       </c>
-      <c r="M15" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
       <c r="P15" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.52</v>
+        <v>2.88</v>
       </c>
       <c r="T15" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>2.02</v>
+        <v>1.84</v>
       </c>
       <c r="X15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z15" t="n">
         <v>28</v>
       </c>
-      <c r="Y15" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA15" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
         <v>14.5</v>
       </c>
       <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN15" t="n">
         <v>13</v>
       </c>
-      <c r="AH15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>11</v>
-      </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -2590,7 +2590,7 @@
         <v>1.86</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R16" t="n">
         <v>1.33</v>
@@ -2623,7 +2623,7 @@
         <v>50</v>
       </c>
       <c r="AB16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC16" t="n">
         <v>9.4</v>
@@ -2668,7 +2668,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,78 +2678,78 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.35</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>4.5</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.97</v>
+        <v>3.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>3.85</v>
       </c>
       <c r="J17" t="n">
-        <v>3.35</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
-        <v>5</v>
+        <v>4.3</v>
       </c>
       <c r="L17" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
         <v>1.21</v>
       </c>
       <c r="P17" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="R17" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S17" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="T17" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="V17" t="n">
-        <v>1.78</v>
+        <v>1.35</v>
       </c>
       <c r="W17" t="n">
-        <v>1.28</v>
+        <v>1.89</v>
       </c>
       <c r="X17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z17" t="n">
         <v>1000</v>
@@ -2758,34 +2758,34 @@
         <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
         <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI17" t="n">
         <v>1000</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>1000</v>
@@ -2794,16 +2794,16 @@
         <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,87 +2813,87 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.23</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>1.27</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>10.5</v>
+        <v>1.96</v>
       </c>
       <c r="I18" t="n">
-        <v>15.5</v>
+        <v>2.36</v>
       </c>
       <c r="J18" t="n">
-        <v>7.6</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>9.4</v>
+        <v>5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>9.800000000000001</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.23</v>
+        <v>1.62</v>
       </c>
       <c r="R18" t="n">
-        <v>2.4</v>
+        <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>1.58</v>
+        <v>2.54</v>
       </c>
       <c r="T18" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U18" t="n">
         <v>2.36</v>
       </c>
       <c r="V18" t="n">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
-        <v>4.4</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
       </c>
       <c r="Y18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>1000</v>
       </c>
       <c r="AB18" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC18" t="n">
         <v>1000</v>
@@ -2902,34 +2902,34 @@
         <v>1000</v>
       </c>
       <c r="AE18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF18" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
         <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
         <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.05</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
         <v>1000</v>
@@ -2953,82 +2953,82 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.24</v>
+        <v>1.23</v>
       </c>
       <c r="G19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="H19" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K19" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N19" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R19" t="n">
         <v>2.4</v>
       </c>
-      <c r="H19" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="I19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J19" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K19" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P19" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.6</v>
       </c>
-      <c r="S19" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.53</v>
-      </c>
       <c r="U19" t="n">
-        <v>2.58</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>1.71</v>
+        <v>4.4</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="Z19" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AA19" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC19" t="n">
         <v>1000</v>
@@ -3037,34 +3037,34 @@
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ19" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>980</v>
+        <v>16.5</v>
       </c>
       <c r="AL19" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM19" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>14</v>
+        <v>3.05</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.26</v>
+        <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>1.32</v>
+        <v>2.4</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>2.98</v>
       </c>
       <c r="I20" t="n">
-        <v>15.5</v>
+        <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>6.4</v>
+        <v>3.9</v>
       </c>
       <c r="K20" t="n">
-        <v>7.6</v>
+        <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N20" t="n">
-        <v>7.8</v>
+        <v>5.5</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="P20" t="n">
-        <v>3.3</v>
+        <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="R20" t="n">
-        <v>1.94</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>2.34</v>
       </c>
       <c r="T20" t="n">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.12</v>
+        <v>2.62</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>4.1</v>
+        <v>1.71</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z20" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AA20" t="n">
-        <v>430</v>
+        <v>980</v>
       </c>
       <c r="AB20" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM20" t="n">
         <v>60</v>
       </c>
-      <c r="AE20" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AN20" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>3.5</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.18</v>
+        <v>1.26</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>1.32</v>
       </c>
       <c r="H21" t="n">
-        <v>3.05</v>
+        <v>11.5</v>
       </c>
       <c r="I21" t="n">
-        <v>3.35</v>
+        <v>15.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="K21" t="n">
-        <v>4.4</v>
+        <v>7.6</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>7.8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="R21" t="n">
-        <v>1.61</v>
+        <v>1.94</v>
       </c>
       <c r="S21" t="n">
-        <v>2.34</v>
+        <v>1.89</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.52</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.43</v>
+        <v>1.07</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="X21" t="n">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="Z21" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH21" t="n">
         <v>32</v>
       </c>
-      <c r="AA21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>18</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>18</v>
-      </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="AK21" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AL21" t="n">
         <v>34</v>
       </c>
       <c r="AM21" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>6.2</v>
+        <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>8.800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="H22" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V22" t="n">
         <v>1.43</v>
       </c>
-      <c r="I22" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="J22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2.88</v>
-      </c>
       <c r="W22" t="n">
-        <v>1.13</v>
+        <v>1.74</v>
       </c>
       <c r="X22" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="Y22" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG22" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD22" t="n">
+      <c r="AH22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>36</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN22" t="n">
         <v>13.5</v>
       </c>
-      <c r="AE22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO22" t="n">
-        <v>5.6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,72 +3488,72 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.26</v>
+        <v>6.2</v>
       </c>
       <c r="G23" t="n">
-        <v>2.64</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>2.74</v>
+        <v>1.43</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>1.53</v>
       </c>
       <c r="J23" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>6.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>2.34</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P23" t="n">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="R23" t="n">
-        <v>1.41</v>
+        <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T23" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>2.88</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.13</v>
       </c>
       <c r="X23" t="n">
         <v>1000</v>
@@ -3562,7 +3562,7 @@
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3574,7 +3574,7 @@
         <v>1000</v>
       </c>
       <c r="AD23" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE23" t="n">
         <v>1000</v>
@@ -3607,7 +3607,7 @@
         <v>1000</v>
       </c>
       <c r="AO23" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="24">
@@ -3643,7 +3643,7 @@
         <v>5.5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="I24" t="n">
         <v>1.95</v>
@@ -3670,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R24" t="n">
         <v>1.39</v>
@@ -3748,7 +3748,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.54</v>
+        <v>2.26</v>
       </c>
       <c r="G25" t="n">
-        <v>1.55</v>
+        <v>2.64</v>
       </c>
       <c r="H25" t="n">
-        <v>6.6</v>
+        <v>2.74</v>
       </c>
       <c r="I25" t="n">
-        <v>6.8</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>5.1</v>
+        <v>4.2</v>
       </c>
       <c r="L25" t="n">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>2.34</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>2.68</v>
+        <v>2.32</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="R25" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="S25" t="n">
-        <v>2.42</v>
+        <v>2.06</v>
       </c>
       <c r="T25" t="n">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="U25" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>2.84</v>
+        <v>1.71</v>
       </c>
       <c r="X25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="Y25" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Z25" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AA25" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AB25" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AC25" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD25" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE25" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AF25" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AK25" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.15</v>
+        <v>1.53</v>
       </c>
       <c r="G26" t="n">
-        <v>3.25</v>
+        <v>1.54</v>
       </c>
       <c r="H26" t="n">
-        <v>2.62</v>
+        <v>6.4</v>
       </c>
       <c r="I26" t="n">
-        <v>2.78</v>
+        <v>6.8</v>
       </c>
       <c r="J26" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="L26" t="n">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>3.05</v>
+        <v>6</v>
       </c>
       <c r="O26" t="n">
-        <v>1.43</v>
+        <v>1.19</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.26</v>
+        <v>1.56</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.68</v>
       </c>
       <c r="S26" t="n">
-        <v>4.3</v>
+        <v>2.42</v>
       </c>
       <c r="T26" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="U26" t="n">
-        <v>1.96</v>
+        <v>2.32</v>
       </c>
       <c r="V26" t="n">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="W26" t="n">
-        <v>1.44</v>
+        <v>2.84</v>
       </c>
       <c r="X26" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Y26" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AE26" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="AF26" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG26" t="n">
-        <v>16.5</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI26" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AO26" t="n">
         <v>70</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N27" t="n">
         <v>3.05</v>
       </c>
-      <c r="G27" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K27" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N27" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O27" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="P27" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R27" t="n">
         <v>1.26</v>
       </c>
       <c r="S27" t="n">
-        <v>3.6</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="U27" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V27" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W27" t="n">
-        <v>1.37</v>
+        <v>1.44</v>
       </c>
       <c r="X27" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Y27" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AA27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB27" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD27" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF27" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AK27" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="G28" t="n">
-        <v>4.6</v>
+        <v>3.8</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>2.38</v>
       </c>
       <c r="I28" t="n">
-        <v>2.26</v>
+        <v>2.66</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>2.84</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="L28" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="O28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="W28" t="n">
         <v>1.37</v>
       </c>
-      <c r="P28" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S28" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W28" t="n">
-        <v>1.29</v>
-      </c>
       <c r="X28" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="Y28" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z28" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA28" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB28" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AE28" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF28" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG28" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AH28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>2.64</v>
+        <v>3.85</v>
       </c>
       <c r="G29" t="n">
-        <v>2.82</v>
+        <v>4.5</v>
       </c>
       <c r="H29" t="n">
-        <v>2.98</v>
+        <v>2.06</v>
       </c>
       <c r="I29" t="n">
-        <v>3.15</v>
+        <v>2.24</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="L29" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>2.9</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.46</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="R29" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V29" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="W29" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>30</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI29" t="n">
         <v>55</v>
       </c>
-      <c r="AB29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>65</v>
-      </c>
       <c r="AJ29" t="n">
-        <v>980</v>
+        <v>110</v>
       </c>
       <c r="AK29" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AM29" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="AO29" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="G30" t="n">
-        <v>4.5</v>
+        <v>2.76</v>
       </c>
       <c r="H30" t="n">
-        <v>1.88</v>
+        <v>3.05</v>
       </c>
       <c r="I30" t="n">
-        <v>1.98</v>
+        <v>3.25</v>
       </c>
       <c r="J30" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="K30" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.28</v>
+        <v>1.51</v>
       </c>
       <c r="M30" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="O30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.24</v>
       </c>
-      <c r="P30" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.44</v>
       </c>
-      <c r="S30" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2.02</v>
-      </c>
       <c r="W30" t="n">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="X30" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH30" t="n">
         <v>23</v>
       </c>
-      <c r="Y30" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI30" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>980</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>1000</v>
-      </c>
       <c r="AK30" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO30" t="n">
         <v>55</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>11.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,260 +4568,395 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="G31" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N31" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P31" t="n">
         <v>2.12</v>
       </c>
-      <c r="H31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="I31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N31" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P31" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q31" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="R31" t="n">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="S31" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="T31" t="n">
-        <v>2.14</v>
+        <v>1.68</v>
       </c>
       <c r="U31" t="n">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="V31" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W31" t="n">
         <v>1.29</v>
       </c>
-      <c r="W31" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X31" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AA31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM31" t="n">
         <v>100</v>
       </c>
-      <c r="AB31" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>170</v>
-      </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AO31" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W32" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X32" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B33" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C33" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>Estoril Praia</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F33" t="n">
         <v>5.7</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G33" t="n">
         <v>6.4</v>
       </c>
-      <c r="H32" t="n">
+      <c r="H33" t="n">
         <v>1.68</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I33" t="n">
         <v>1.71</v>
       </c>
-      <c r="J32" t="n">
+      <c r="J33" t="n">
         <v>4.1</v>
       </c>
-      <c r="K32" t="n">
+      <c r="K33" t="n">
         <v>4.4</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L33" t="n">
         <v>1.38</v>
       </c>
-      <c r="M32" t="n">
+      <c r="M33" t="n">
         <v>1.06</v>
       </c>
-      <c r="N32" t="n">
+      <c r="N33" t="n">
         <v>4</v>
       </c>
-      <c r="O32" t="n">
+      <c r="O33" t="n">
         <v>1.3</v>
       </c>
-      <c r="P32" t="n">
+      <c r="P33" t="n">
         <v>2.04</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="Q33" t="n">
         <v>1.87</v>
       </c>
-      <c r="R32" t="n">
+      <c r="R33" t="n">
         <v>1.4</v>
       </c>
-      <c r="S32" t="n">
+      <c r="S33" t="n">
         <v>3.25</v>
       </c>
-      <c r="T32" t="n">
+      <c r="T33" t="n">
         <v>1.87</v>
       </c>
-      <c r="U32" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="U33" t="n">
+        <v>2</v>
+      </c>
+      <c r="V33" t="n">
         <v>2.4</v>
       </c>
-      <c r="W32" t="n">
+      <c r="W33" t="n">
         <v>1.19</v>
       </c>
-      <c r="X32" t="n">
+      <c r="X33" t="n">
         <v>16.5</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Y33" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="Z33" t="n">
         <v>10</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AA33" t="n">
         <v>16.5</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AB33" t="n">
         <v>23</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AC33" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AD33" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AE33" t="n">
         <v>17.5</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AF33" t="n">
         <v>46</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AG33" t="n">
         <v>22</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AH33" t="n">
         <v>21</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AI33" t="n">
         <v>36</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AJ33" t="n">
         <v>160</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AK33" t="n">
         <v>85</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AL33" t="n">
         <v>100</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AM33" t="n">
         <v>120</v>
       </c>
-      <c r="AN32" t="n">
+      <c r="AN33" t="n">
         <v>100</v>
       </c>
-      <c r="AO32" t="n">
+      <c r="AO33" t="n">
         <v>9.6</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO33"/>
+  <dimension ref="A1:AO35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="G2" t="n">
         <v>2.64</v>
@@ -685,34 +685,34 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O2" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -724,7 +724,7 @@
         <v>14</v>
       </c>
       <c r="Y2" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -817,7 +817,7 @@
         <v>3.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.36</v>
@@ -835,7 +835,7 @@
         <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R3" t="n">
         <v>1.45</v>
@@ -844,7 +844,7 @@
         <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
         <v>2.38</v>
@@ -856,7 +856,7 @@
         <v>1.55</v>
       </c>
       <c r="X3" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
@@ -886,7 +886,7 @@
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
@@ -895,19 +895,19 @@
         <v>42</v>
       </c>
       <c r="AK3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO3" t="n">
         <v>21</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>19.5</v>
       </c>
     </row>
     <row r="4">
@@ -943,13 +943,13 @@
         <v>6.6</v>
       </c>
       <c r="H4" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
         <v>4.1</v>
@@ -967,7 +967,7 @@
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
         <v>2.24</v>
@@ -982,7 +982,7 @@
         <v>2.08</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
         <v>2.2</v>
@@ -1216,10 +1216,10 @@
         <v>1.57</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
         <v>5</v>
@@ -1240,13 +1240,13 @@
         <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
@@ -1255,7 +1255,7 @@
         <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="W6" t="n">
         <v>1.14</v>
@@ -1477,7 +1477,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="G8" t="n">
         <v>3.2</v>
@@ -1486,67 +1486,67 @@
         <v>2.58</v>
       </c>
       <c r="I8" t="n">
-        <v>2.96</v>
+        <v>2.88</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="L8" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.3</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.82</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>2.94</v>
+        <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Z8" t="n">
-        <v>980</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD8" t="n">
         <v>15.5</v>
@@ -1612,43 +1612,43 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H9" t="n">
-        <v>2.66</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="M9" t="n">
         <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="O9" t="n">
         <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
         <v>3.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="S9" t="n">
         <v>7.6</v>
@@ -1660,10 +1660,10 @@
         <v>1.57</v>
       </c>
       <c r="V9" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="X9" t="n">
         <v>6.4</v>
@@ -1672,22 +1672,22 @@
         <v>7.2</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
         <v>26</v>
@@ -1699,10 +1699,10 @@
         <v>38</v>
       </c>
       <c r="AI9" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AJ9" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
         <v>85</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1771,13 +1771,13 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.82</v>
@@ -1792,7 +1792,7 @@
         <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="V10" t="n">
         <v>3.55</v>
@@ -1882,46 +1882,46 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="I11" t="n">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="P11" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="R11" t="n">
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="T11" t="n">
         <v>2.44</v>
@@ -1930,34 +1930,34 @@
         <v>1.56</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y11" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>490</v>
+        <v>350</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
         <v>34</v>
       </c>
       <c r="AE11" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="AF11" t="n">
         <v>8.4</v>
@@ -1969,22 +1969,22 @@
         <v>36</v>
       </c>
       <c r="AI11" t="n">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>75</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>560</v>
       </c>
       <c r="AN11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO11" t="n">
         <v>650</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>3.8</v>
+        <v>3.05</v>
       </c>
       <c r="H12" t="n">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.42</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M12" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="R12" t="n">
         <v>1.14</v>
       </c>
-      <c r="N12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="O12" t="n">
+      <c r="S12" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.64</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.58</v>
       </c>
       <c r="V12" t="n">
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="X12" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2083,25 +2083,25 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
@@ -2152,10 +2152,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="G13" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="H13" t="n">
         <v>5.8</v>
@@ -2179,37 +2179,37 @@
         <v>3.2</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="T13" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V13" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W13" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="X13" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="Z13" t="n">
         <v>60</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="G14" t="n">
         <v>2.08</v>
@@ -2299,19 +2299,19 @@
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
       </c>
       <c r="L14" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
         <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
         <v>1.24</v>
@@ -2326,13 +2326,13 @@
         <v>1.51</v>
       </c>
       <c r="S14" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T14" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="U14" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V14" t="n">
         <v>1.31</v>
@@ -2353,7 +2353,7 @@
         <v>70</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC14" t="n">
         <v>8.6</v>
@@ -2362,7 +2362,7 @@
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -2371,10 +2371,10 @@
         <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
         <v>25</v>
@@ -2383,13 +2383,13 @@
         <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM14" t="n">
         <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO14" t="n">
         <v>36</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H15" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="I15" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
@@ -2455,13 +2455,13 @@
         <v>2.22</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
         <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
         <v>1.67</v>
@@ -2473,19 +2473,19 @@
         <v>1.37</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>28</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB15" t="n">
         <v>11.5</v>
@@ -2497,13 +2497,13 @@
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH15" t="n">
         <v>17</v>
@@ -2527,13 +2527,13 @@
         <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,127 +2548,127 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.74</v>
+        <v>2.02</v>
       </c>
       <c r="G16" t="n">
-        <v>3.05</v>
+        <v>2.1</v>
       </c>
       <c r="H16" t="n">
-        <v>2.66</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.84</v>
+        <v>3.85</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="K16" t="n">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.32</v>
+        <v>1.21</v>
       </c>
       <c r="P16" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.98</v>
+        <v>1.66</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.53</v>
       </c>
       <c r="S16" t="n">
-        <v>3.45</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="U16" t="n">
-        <v>2.12</v>
+        <v>2.42</v>
       </c>
       <c r="V16" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="W16" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="Y16" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB16" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z16" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>14</v>
-      </c>
       <c r="AC16" t="n">
-        <v>9.4</v>
+        <v>11.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AF16" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AG16" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH16" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ16" t="n">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="AK16" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,121 +2683,121 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2.78</v>
       </c>
       <c r="G17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.12</v>
       </c>
-      <c r="H17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="J17" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L17" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.42</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>16.5</v>
       </c>
       <c r="Y17" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z17" t="n">
         <v>21</v>
       </c>
-      <c r="Z17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB17" t="n">
         <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF17" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>15.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="AL17" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
@@ -2833,13 +2833,13 @@
         <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="I18" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -2851,7 +2851,7 @@
         <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="n">
         <v>1.21</v>
@@ -2860,22 +2860,22 @@
         <v>2.28</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="R18" t="n">
         <v>1.52</v>
       </c>
       <c r="S18" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="T18" t="n">
         <v>1.59</v>
       </c>
       <c r="U18" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -2965,7 +2965,7 @@
         <v>1.23</v>
       </c>
       <c r="G19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="H19" t="n">
         <v>10.5</v>
@@ -2974,10 +2974,10 @@
         <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K19" t="n">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="L19" t="n">
         <v>1.13</v>
@@ -2998,22 +2998,22 @@
         <v>1.23</v>
       </c>
       <c r="R19" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="S19" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="T19" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V19" t="n">
         <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
@@ -3064,7 +3064,7 @@
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3100,22 +3100,22 @@
         <v>2.24</v>
       </c>
       <c r="G20" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="H20" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3.25</v>
       </c>
       <c r="J20" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K20" t="n">
         <v>4.3</v>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
         <v>1.03</v>
@@ -3130,10 +3130,10 @@
         <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S20" t="n">
         <v>2.34</v>
@@ -3142,13 +3142,13 @@
         <v>1.52</v>
       </c>
       <c r="U20" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="V20" t="n">
         <v>1.45</v>
       </c>
       <c r="W20" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="G21" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H21" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="J21" t="n">
         <v>6.4</v>
@@ -3262,28 +3262,28 @@
         <v>1.12</v>
       </c>
       <c r="P21" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="R21" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="S21" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="T21" t="n">
         <v>1.73</v>
       </c>
       <c r="U21" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="V21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W21" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X21" t="n">
         <v>55</v>
@@ -3295,19 +3295,19 @@
         <v>150</v>
       </c>
       <c r="AA21" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AB21" t="n">
         <v>17.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD21" t="n">
         <v>60</v>
       </c>
       <c r="AE21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="n">
         <v>13.5</v>
@@ -3373,16 +3373,16 @@
         <v>2.36</v>
       </c>
       <c r="H22" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
         <v>3.35</v>
       </c>
       <c r="J22" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L22" t="n">
         <v>1.24</v>
@@ -3391,31 +3391,31 @@
         <v>1.03</v>
       </c>
       <c r="N22" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="Q22" t="n">
         <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S22" t="n">
-        <v>2.22</v>
+        <v>2.32</v>
       </c>
       <c r="T22" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="U22" t="n">
-        <v>2.52</v>
+        <v>2.6</v>
       </c>
       <c r="V22" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="W22" t="n">
         <v>1.74</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G23" t="n">
         <v>8.800000000000001</v>
@@ -3511,13 +3511,13 @@
         <v>1.43</v>
       </c>
       <c r="I23" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J23" t="n">
         <v>4.6</v>
       </c>
       <c r="K23" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="L23" t="n">
         <v>1.2</v>
@@ -3535,22 +3535,22 @@
         <v>2.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="R23" t="n">
         <v>1.73</v>
       </c>
       <c r="S23" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="T23" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="U23" t="n">
         <v>2.22</v>
       </c>
       <c r="V23" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W23" t="n">
         <v>1.13</v>
@@ -3562,7 +3562,7 @@
         <v>1000</v>
       </c>
       <c r="Z23" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA23" t="n">
         <v>1000</v>
@@ -3628,100 +3628,100 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.1</v>
+        <v>2.26</v>
       </c>
       <c r="G24" t="n">
-        <v>5.5</v>
+        <v>2.64</v>
       </c>
       <c r="H24" t="n">
-        <v>1.85</v>
+        <v>2.74</v>
       </c>
       <c r="I24" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J24" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="O24" t="n">
-        <v>1.27</v>
+        <v>1.19</v>
       </c>
       <c r="P24" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="R24" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="S24" t="n">
-        <v>3</v>
+        <v>2.06</v>
       </c>
       <c r="T24" t="n">
-        <v>1.72</v>
+        <v>1.56</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.44</v>
       </c>
       <c r="V24" t="n">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="X24" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z24" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AA24" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AB24" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE24" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25">
@@ -3763,100 +3763,100 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.26</v>
+        <v>4.1</v>
       </c>
       <c r="G25" t="n">
-        <v>2.64</v>
+        <v>5</v>
       </c>
       <c r="H25" t="n">
-        <v>2.74</v>
+        <v>1.85</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K25" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.27</v>
       </c>
       <c r="P25" t="n">
-        <v>2.32</v>
+        <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="R25" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="Z25" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AB25" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AC25" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>1000</v>
       </c>
       <c r="AG25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AH25" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
         <v>1000</v>
@@ -3877,13 +3877,13 @@
         <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,127 +3898,127 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>1.53</v>
+        <v>2.6</v>
       </c>
       <c r="G26" t="n">
-        <v>1.54</v>
+        <v>2.76</v>
       </c>
       <c r="H26" t="n">
-        <v>6.4</v>
+        <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>6.8</v>
+        <v>3.25</v>
       </c>
       <c r="J26" t="n">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>5.1</v>
+        <v>3.3</v>
       </c>
       <c r="L26" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>6</v>
+        <v>2.9</v>
       </c>
       <c r="O26" t="n">
-        <v>1.19</v>
+        <v>1.46</v>
       </c>
       <c r="P26" t="n">
-        <v>2.68</v>
+        <v>1.66</v>
       </c>
       <c r="Q26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.56</v>
       </c>
-      <c r="R26" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.84</v>
-      </c>
       <c r="X26" t="n">
-        <v>27</v>
+        <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL26" t="n">
         <v>60</v>
       </c>
-      <c r="AA26" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>27</v>
-      </c>
       <c r="AM26" t="n">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>5.8</v>
+        <v>40</v>
       </c>
       <c r="AO26" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.15</v>
+        <v>1.53</v>
       </c>
       <c r="G27" t="n">
-        <v>3.25</v>
+        <v>1.63</v>
       </c>
       <c r="H27" t="n">
-        <v>2.62</v>
+        <v>7</v>
       </c>
       <c r="I27" t="n">
-        <v>2.78</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J27" t="n">
-        <v>3.1</v>
+        <v>3.95</v>
       </c>
       <c r="K27" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="L27" t="n">
         <v>1.01</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.05</v>
+        <v>3.45</v>
       </c>
       <c r="O27" t="n">
-        <v>1.43</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="R27" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.9</v>
+        <v>2.04</v>
       </c>
       <c r="U27" t="n">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="V27" t="n">
-        <v>1.57</v>
+        <v>1.11</v>
       </c>
       <c r="W27" t="n">
-        <v>1.44</v>
+        <v>2.56</v>
       </c>
       <c r="X27" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC27" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA27" t="n">
+      <c r="AD27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>150</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL27" t="n">
         <v>55</v>
       </c>
-      <c r="AB27" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>60</v>
-      </c>
       <c r="AM27" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AN27" t="n">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F28" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G28" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H28" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I28" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J28" t="n">
         <v>3.2</v>
       </c>
-      <c r="G28" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="I28" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2.84</v>
-      </c>
       <c r="K28" t="n">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.45</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P28" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="R28" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S28" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="W28" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="X28" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AA28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AB28" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AE28" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF28" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AG28" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ28" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AK28" t="n">
         <v>1000</v>
       </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO28" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,97 +4303,97 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.85</v>
+        <v>3.05</v>
       </c>
       <c r="G29" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="H29" t="n">
-        <v>2.06</v>
+        <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>2.24</v>
+        <v>2.8</v>
       </c>
       <c r="J29" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="K29" t="n">
         <v>3.2</v>
       </c>
-      <c r="K29" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L29" t="n">
-        <v>1.45</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="R29" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>1.8</v>
+        <v>1.56</v>
       </c>
       <c r="W29" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="X29" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>15.5</v>
+        <v>21</v>
       </c>
       <c r="AA29" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE29" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="AF29" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AH29" t="n">
         <v>24</v>
@@ -4402,28 +4402,28 @@
         <v>55</v>
       </c>
       <c r="AJ29" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AK29" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL29" t="n">
         <v>60</v>
       </c>
-      <c r="AL29" t="n">
-        <v>85</v>
-      </c>
       <c r="AM29" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AN29" t="n">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="AO29" t="n">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.6</v>
+        <v>1.53</v>
       </c>
       <c r="G30" t="n">
-        <v>2.76</v>
+        <v>1.54</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>6.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.25</v>
+        <v>6.8</v>
       </c>
       <c r="J30" t="n">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="L30" t="n">
-        <v>1.51</v>
+        <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N30" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="O30" t="n">
-        <v>1.46</v>
+        <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>1.66</v>
+        <v>2.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.36</v>
+        <v>1.56</v>
       </c>
       <c r="R30" t="n">
-        <v>1.24</v>
+        <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="T30" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="U30" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="W30" t="n">
-        <v>1.56</v>
+        <v>2.84</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>27</v>
       </c>
       <c r="Y30" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB30" t="n">
         <v>12</v>
       </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
         <v>10</v>
       </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
+      <c r="AH30" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE30" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>980</v>
-      </c>
       <c r="AK30" t="n">
-        <v>980</v>
+        <v>14</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="AM30" t="n">
-        <v>170</v>
+        <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>40</v>
+        <v>5.6</v>
       </c>
       <c r="AO30" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I31" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="K31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P31" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R31" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S31" t="n">
         <v>4</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="J31" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S31" t="n">
-        <v>2.8</v>
-      </c>
       <c r="T31" t="n">
-        <v>1.68</v>
+        <v>1.83</v>
       </c>
       <c r="U31" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="V31" t="n">
-        <v>2.02</v>
+        <v>1.6</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA31" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE31" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF31" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG31" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI31" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ31" t="n">
         <v>1000</v>
       </c>
       <c r="AK31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM31" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN31" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO31" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,261 +4703,531 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>4</v>
       </c>
       <c r="G32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K32" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L32" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P32" t="n">
         <v>2.12</v>
       </c>
-      <c r="H32" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I32" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J32" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N32" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q32" t="n">
-        <v>2.46</v>
+        <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.23</v>
+        <v>1.44</v>
       </c>
       <c r="S32" t="n">
-        <v>4.9</v>
+        <v>2.8</v>
       </c>
       <c r="T32" t="n">
-        <v>2.14</v>
+        <v>1.69</v>
       </c>
       <c r="U32" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="V32" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W32" t="n">
         <v>1.29</v>
       </c>
-      <c r="W32" t="n">
-        <v>1.9</v>
-      </c>
       <c r="X32" t="n">
-        <v>10.5</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>28</v>
+        <v>13.5</v>
       </c>
       <c r="AA32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM32" t="n">
         <v>100</v>
       </c>
-      <c r="AB32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>170</v>
-      </c>
       <c r="AN32" t="n">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="AO32" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Spanish La Liga</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>17:00:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I33" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K33" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W33" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="X33" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Portuguese Primeira Liga</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>17:15:00</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>Estoril Praia</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H33" t="n">
+      <c r="F34" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="G34" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="H34" t="n">
         <v>1.68</v>
       </c>
-      <c r="I33" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="J33" t="n">
+      <c r="I34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="J34" t="n">
         <v>4.1</v>
       </c>
-      <c r="K33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L33" t="n">
+      <c r="K34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L34" t="n">
         <v>1.38</v>
       </c>
-      <c r="M33" t="n">
+      <c r="M34" t="n">
         <v>1.06</v>
       </c>
-      <c r="N33" t="n">
+      <c r="N34" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="S34" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T34" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X34" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>46</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>100</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Ecuadorian Serie A</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>El Nacional</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Delfin</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="n">
         <v>4</v>
       </c>
-      <c r="O33" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q33" t="n">
+      <c r="I35" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U35" t="n">
         <v>1.87</v>
       </c>
-      <c r="R33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U33" t="n">
+      <c r="V35" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="W35" t="n">
         <v>2</v>
       </c>
-      <c r="V33" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="X33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AF33" t="n">
+      <c r="X35" t="n">
+        <v>30</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z35" t="n">
         <v>46</v>
       </c>
-      <c r="AG33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>160</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL33" t="n">
+      <c r="AA35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>28</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM35" t="n">
         <v>100</v>
       </c>
-      <c r="AM33" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>100</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>9.6</v>
+      <c r="AN35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,25 +667,25 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="G2" t="n">
         <v>2.64</v>
       </c>
       <c r="H2" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
@@ -700,10 +700,10 @@
         <v>1.98</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="S2" t="n">
         <v>3.45</v>
@@ -715,16 +715,16 @@
         <v>2.22</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
         <v>1.6</v>
       </c>
       <c r="X2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z2" t="n">
         <v>20</v>
@@ -772,7 +772,7 @@
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.76</v>
+        <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="H3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.66</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.68</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -841,19 +841,19 @@
         <v>1.45</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V3" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -871,7 +871,7 @@
         <v>13.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -946,13 +946,13 @@
         <v>1.67</v>
       </c>
       <c r="I4" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
         <v>1.45</v>
@@ -967,7 +967,7 @@
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
         <v>2.24</v>
@@ -985,7 +985,7 @@
         <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="W4" t="n">
         <v>1.17</v>
@@ -1210,7 +1210,7 @@
         <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1.57</v>
@@ -1219,10 +1219,10 @@
         <v>1.8</v>
       </c>
       <c r="J6" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1231,13 +1231,13 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.88</v>
+        <v>2.66</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P6" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="Q6" t="n">
         <v>1.94</v>
@@ -1246,19 +1246,19 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="V6" t="n">
         <v>2.26</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,46 +1342,46 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.32</v>
+        <v>2.64</v>
       </c>
       <c r="G7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I7" t="n">
         <v>3.3</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="I7" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J7" t="n">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.22</v>
+        <v>2.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="R7" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="S7" t="n">
-        <v>2.68</v>
+        <v>5</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>1.44</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
         <v>10.5</v>
@@ -1405,7 +1405,7 @@
         <v>23</v>
       </c>
       <c r="AA7" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB7" t="n">
         <v>10.5</v>
@@ -1480,10 +1480,10 @@
         <v>2.74</v>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="I8" t="n">
         <v>2.88</v>
@@ -1495,7 +1495,7 @@
         <v>3.55</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1507,13 +1507,13 @@
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="Q8" t="n">
         <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
         <v>3.2</v>
@@ -1528,7 +1528,7 @@
         <v>1.53</v>
       </c>
       <c r="W8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1615,19 +1615,19 @@
         <v>3.35</v>
       </c>
       <c r="G9" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="I9" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J9" t="n">
         <v>2.62</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L9" t="n">
         <v>1.72</v>
@@ -1642,7 +1642,7 @@
         <v>1.75</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="Q9" t="n">
         <v>3.3</v>
@@ -1669,10 +1669,10 @@
         <v>6.4</v>
       </c>
       <c r="Y9" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AA9" t="n">
         <v>55</v>
@@ -1690,13 +1690,13 @@
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI9" t="n">
         <v>120</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1777,10 +1777,10 @@
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
         <v>1.39</v>
@@ -1792,7 +1792,7 @@
         <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>3.55</v>
@@ -1801,16 +1801,16 @@
         <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AB10" t="n">
         <v>38</v>
@@ -1819,7 +1819,7 @@
         <v>14.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
         <v>19.5</v>
@@ -1831,7 +1831,7 @@
         <v>50</v>
       </c>
       <c r="AH10" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
         <v>55</v>
@@ -1906,13 +1906,13 @@
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="P11" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="Q11" t="n">
         <v>2.66</v>
@@ -1921,10 +1921,10 @@
         <v>1.17</v>
       </c>
       <c r="S11" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U11" t="n">
         <v>1.56</v>
@@ -1936,7 +1936,7 @@
         <v>2.36</v>
       </c>
       <c r="X11" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
@@ -1948,7 +1948,7 @@
         <v>350</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="AC11" t="n">
         <v>9</v>
@@ -1960,7 +1960,7 @@
         <v>270</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.4</v>
+        <v>8</v>
       </c>
       <c r="AG11" t="n">
         <v>11.5</v>
@@ -1978,7 +1978,7 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM11" t="n">
         <v>560</v>
@@ -2020,7 +2020,7 @@
         <v>2.66</v>
       </c>
       <c r="G12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2029,7 +2029,7 @@
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
         <v>3.05</v>
@@ -2050,7 +2050,7 @@
         <v>1.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
         <v>1.14</v>
@@ -2059,7 +2059,7 @@
         <v>6.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
@@ -2068,7 +2068,7 @@
         <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>7</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G13" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="H13" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J13" t="n">
         <v>3.9</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L13" t="n">
         <v>1.46</v>
@@ -2176,88 +2176,88 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="U13" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="V13" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="W13" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>240</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK13" t="n">
         <v>19.5</v>
       </c>
-      <c r="Z13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>220</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG13" t="n">
+      <c r="AL13" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>210</v>
+      </c>
+      <c r="AN13" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH13" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>120</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>200</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AO13" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -2287,19 +2287,19 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="G14" t="n">
         <v>2.08</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="I14" t="n">
         <v>4.2</v>
       </c>
       <c r="J14" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
         <v>3.8</v>
@@ -2317,10 +2317,10 @@
         <v>1.24</v>
       </c>
       <c r="P14" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R14" t="n">
         <v>1.51</v>
@@ -2335,16 +2335,16 @@
         <v>2.42</v>
       </c>
       <c r="V14" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W14" t="n">
         <v>1.92</v>
       </c>
       <c r="X14" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
         <v>32</v>
@@ -2356,13 +2356,13 @@
         <v>12</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>16.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AF14" t="n">
         <v>14.5</v>
@@ -2377,16 +2377,16 @@
         <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AN14" t="n">
         <v>11.5</v>
@@ -2488,16 +2488,16 @@
         <v>65</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD15" t="n">
         <v>15</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF15" t="n">
         <v>15</v>
@@ -2515,7 +2515,7 @@
         <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>32</v>
@@ -2524,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
         <v>32</v>
@@ -2566,13 +2566,13 @@
         <v>3.6</v>
       </c>
       <c r="I16" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.85</v>
       </c>
-      <c r="J16" t="n">
-        <v>3.8</v>
-      </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L16" t="n">
         <v>1.26</v>
@@ -2599,7 +2599,7 @@
         <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.59</v>
+        <v>1.64</v>
       </c>
       <c r="U16" t="n">
         <v>2.42</v>
@@ -2692,13 +2692,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="G17" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="I17" t="n">
         <v>2.86</v>
@@ -2722,10 +2722,10 @@
         <v>1.33</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R17" t="n">
         <v>1.35</v>
@@ -2734,7 +2734,7 @@
         <v>3.5</v>
       </c>
       <c r="T17" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U17" t="n">
         <v>2.12</v>
@@ -2752,7 +2752,7 @@
         <v>13</v>
       </c>
       <c r="Z17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA17" t="n">
         <v>50</v>
@@ -2782,10 +2782,10 @@
         <v>55</v>
       </c>
       <c r="AJ17" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AK17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="n">
         <v>55</v>
@@ -2794,7 +2794,7 @@
         <v>120</v>
       </c>
       <c r="AN17" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO17" t="n">
         <v>30</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="I18" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.26</v>
@@ -2854,7 +2854,7 @@
         <v>4.8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
         <v>2.28</v>
@@ -2869,16 +2869,16 @@
         <v>2.56</v>
       </c>
       <c r="T18" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="U18" t="n">
         <v>2.38</v>
       </c>
       <c r="V18" t="n">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>10.5</v>
       </c>
       <c r="I19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J19" t="n">
         <v>7.8</v>
@@ -2986,31 +2986,31 @@
         <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
         <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q19" t="n">
         <v>1.23</v>
       </c>
       <c r="R19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="S19" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="T19" t="n">
         <v>1.61</v>
       </c>
       <c r="U19" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W19" t="n">
         <v>4.5</v>
@@ -3031,7 +3031,7 @@
         <v>27</v>
       </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
@@ -3043,10 +3043,10 @@
         <v>18</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI19" t="n">
         <v>100</v>
@@ -3055,7 +3055,7 @@
         <v>16</v>
       </c>
       <c r="AK19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL19" t="n">
         <v>32</v>
@@ -3130,13 +3130,13 @@
         <v>2.54</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="R20" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="S20" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="T20" t="n">
         <v>1.52</v>
@@ -3196,7 +3196,7 @@
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN20" t="n">
         <v>13.5</v>
@@ -3241,19 +3241,19 @@
         <v>11</v>
       </c>
       <c r="I21" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="J21" t="n">
         <v>6.4</v>
       </c>
       <c r="K21" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
         <v>7.8</v>
@@ -3265,7 +3265,7 @@
         <v>3.35</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="R21" t="n">
         <v>1.95</v>
@@ -3274,7 +3274,7 @@
         <v>1.9</v>
       </c>
       <c r="T21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U21" t="n">
         <v>2.14</v>
@@ -3370,7 +3370,7 @@
         <v>2.18</v>
       </c>
       <c r="G22" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H22" t="n">
         <v>3.1</v>
@@ -3382,10 +3382,10 @@
         <v>3.85</v>
       </c>
       <c r="K22" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M22" t="n">
         <v>1.03</v>
@@ -3397,22 +3397,22 @@
         <v>1.18</v>
       </c>
       <c r="P22" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="Q22" t="n">
         <v>1.55</v>
       </c>
       <c r="R22" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="T22" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U22" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="V22" t="n">
         <v>1.42</v>
@@ -3424,7 +3424,7 @@
         <v>27</v>
       </c>
       <c r="Y22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z22" t="n">
         <v>32</v>
@@ -3439,10 +3439,10 @@
         <v>12</v>
       </c>
       <c r="AD22" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE22" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF22" t="n">
         <v>22</v>
@@ -3457,7 +3457,7 @@
         <v>36</v>
       </c>
       <c r="AJ22" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AK22" t="n">
         <v>26</v>
@@ -3469,7 +3469,7 @@
         <v>60</v>
       </c>
       <c r="AN22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>24</v>
@@ -3535,7 +3535,7 @@
         <v>2.82</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="R23" t="n">
         <v>1.73</v>
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="G24" t="n">
-        <v>2.64</v>
+        <v>2.44</v>
       </c>
       <c r="H24" t="n">
-        <v>2.74</v>
+        <v>1.09</v>
       </c>
       <c r="I24" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J24" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="K24" t="n">
-        <v>4.2</v>
+        <v>980</v>
       </c>
       <c r="L24" t="n">
         <v>1.01</v>
@@ -3679,7 +3679,7 @@
         <v>2.06</v>
       </c>
       <c r="T24" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="U24" t="n">
         <v>2.44</v>
@@ -3772,25 +3772,25 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="G25" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H25" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="I25" t="n">
         <v>1.95</v>
       </c>
       <c r="J25" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="K25" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.06</v>
@@ -3805,16 +3805,16 @@
         <v>2</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="R25" t="n">
         <v>1.39</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T25" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U25" t="n">
         <v>2.1</v>
@@ -3823,7 +3823,7 @@
         <v>2.04</v>
       </c>
       <c r="W25" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="X25" t="n">
         <v>20</v>
@@ -3907,7 +3907,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="G26" t="n">
         <v>2.76</v>
@@ -3916,22 +3916,22 @@
         <v>3.05</v>
       </c>
       <c r="I26" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J26" t="n">
         <v>3.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="O26" t="n">
         <v>1.46</v>
@@ -3940,7 +3940,7 @@
         <v>1.66</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>2.38</v>
       </c>
       <c r="R26" t="n">
         <v>1.24</v>
@@ -3949,13 +3949,13 @@
         <v>4.6</v>
       </c>
       <c r="T26" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U26" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="V26" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W26" t="n">
         <v>1.56</v>
@@ -3964,34 +3964,34 @@
         <v>12.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AA26" t="n">
         <v>55</v>
       </c>
       <c r="AB26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>980</v>
       </c>
       <c r="AF26" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG26" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AI26" t="n">
         <v>65</v>
@@ -4000,16 +4000,16 @@
         <v>980</v>
       </c>
       <c r="AK26" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM26" t="n">
         <v>170</v>
       </c>
       <c r="AN26" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AO26" t="n">
         <v>60</v>
@@ -4045,67 +4045,67 @@
         <v>1.53</v>
       </c>
       <c r="G27" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="H27" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="I27" t="n">
-        <v>9.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J27" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="L27" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P27" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R27" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S27" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T27" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.79</v>
+        <v>1.81</v>
       </c>
       <c r="V27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="W27" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y27" t="n">
         <v>26</v>
       </c>
       <c r="Z27" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="n">
-        <v>320</v>
+        <v>290</v>
       </c>
       <c r="AB27" t="n">
         <v>8.800000000000001</v>
@@ -4114,10 +4114,10 @@
         <v>11.5</v>
       </c>
       <c r="AD27" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AE27" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF27" t="n">
         <v>10.5</v>
@@ -4126,10 +4126,10 @@
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI27" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AJ27" t="n">
         <v>17.5</v>
@@ -4138,16 +4138,16 @@
         <v>22</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AM27" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>240</v>
+        <v>210</v>
       </c>
     </row>
     <row r="28">
@@ -4183,37 +4183,37 @@
         <v>4.7</v>
       </c>
       <c r="H28" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I28" t="n">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="J28" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K28" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L28" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="M28" t="n">
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
         <v>1.74</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S28" t="n">
         <v>3.9</v>
@@ -4222,67 +4222,67 @@
         <v>1.87</v>
       </c>
       <c r="U28" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="V28" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="W28" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="X28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB28" t="n">
         <v>14.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14</v>
       </c>
       <c r="AC28" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AF28" t="n">
         <v>32</v>
       </c>
       <c r="AG28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH28" t="n">
         <v>21</v>
       </c>
-      <c r="AH28" t="n">
-        <v>24</v>
-      </c>
       <c r="AI28" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AK28" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AL28" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AM28" t="n">
         <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29">
@@ -4321,10 +4321,10 @@
         <v>2.66</v>
       </c>
       <c r="I29" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="J29" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
         <v>3.2</v>
@@ -4345,10 +4345,10 @@
         <v>1.7</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="R29" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S29" t="n">
         <v>4.3</v>
@@ -4357,7 +4357,7 @@
         <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V29" t="n">
         <v>1.56</v>
@@ -4369,7 +4369,7 @@
         <v>13</v>
       </c>
       <c r="Y29" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z29" t="n">
         <v>21</v>
@@ -4378,13 +4378,13 @@
         <v>55</v>
       </c>
       <c r="AB29" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC29" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD29" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE29" t="n">
         <v>42</v>
@@ -4393,7 +4393,7 @@
         <v>25</v>
       </c>
       <c r="AG29" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH29" t="n">
         <v>24</v>
@@ -4405,7 +4405,7 @@
         <v>70</v>
       </c>
       <c r="AK29" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
         <v>60</v>
@@ -4417,7 +4417,7 @@
         <v>55</v>
       </c>
       <c r="AO29" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -4447,28 +4447,28 @@
         </is>
       </c>
       <c r="F30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G30" t="n">
         <v>1.53</v>
       </c>
-      <c r="G30" t="n">
-        <v>1.54</v>
-      </c>
       <c r="H30" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I30" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
         <v>5</v>
       </c>
       <c r="K30" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L30" t="n">
         <v>1.27</v>
       </c>
       <c r="M30" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N30" t="n">
         <v>6</v>
@@ -4477,7 +4477,7 @@
         <v>1.18</v>
       </c>
       <c r="P30" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q30" t="n">
         <v>1.56</v>
@@ -4495,13 +4495,13 @@
         <v>2.3</v>
       </c>
       <c r="V30" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W30" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X30" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="Y30" t="n">
         <v>30</v>
@@ -4549,7 +4549,7 @@
         <v>85</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="AO30" t="n">
         <v>70</v>
@@ -4582,19 +4582,19 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G31" t="n">
-        <v>3.95</v>
+        <v>4.6</v>
       </c>
       <c r="H31" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="I31" t="n">
-        <v>2.64</v>
+        <v>2.78</v>
       </c>
       <c r="J31" t="n">
-        <v>2.92</v>
+        <v>2.74</v>
       </c>
       <c r="K31" t="n">
         <v>3.4</v>
@@ -4606,31 +4606,31 @@
         <v>1.08</v>
       </c>
       <c r="N31" t="n">
-        <v>3.05</v>
+        <v>2.72</v>
       </c>
       <c r="O31" t="n">
         <v>1.39</v>
       </c>
       <c r="P31" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="Q31" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="R31" t="n">
         <v>1.26</v>
       </c>
       <c r="S31" t="n">
-        <v>4</v>
+        <v>3.65</v>
       </c>
       <c r="T31" t="n">
-        <v>1.83</v>
+        <v>1.04</v>
       </c>
       <c r="U31" t="n">
-        <v>1.96</v>
+        <v>1.04</v>
       </c>
       <c r="V31" t="n">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="W31" t="n">
         <v>1.34</v>
@@ -4639,7 +4639,7 @@
         <v>1000</v>
       </c>
       <c r="Y31" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z31" t="n">
         <v>1000</v>
@@ -4729,10 +4729,10 @@
         <v>1.97</v>
       </c>
       <c r="J32" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K32" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L32" t="n">
         <v>1.28</v>
@@ -4741,22 +4741,22 @@
         <v>1.05</v>
       </c>
       <c r="N32" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O32" t="n">
         <v>1.24</v>
       </c>
       <c r="P32" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q32" t="n">
         <v>1.71</v>
       </c>
       <c r="R32" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S32" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T32" t="n">
         <v>1.69</v>
@@ -4771,7 +4771,7 @@
         <v>1.29</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
@@ -4786,7 +4786,7 @@
         <v>19</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD32" t="n">
         <v>11</v>
@@ -4801,7 +4801,7 @@
         <v>18.5</v>
       </c>
       <c r="AH32" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AI32" t="n">
         <v>980</v>
@@ -4819,7 +4819,7 @@
         <v>100</v>
       </c>
       <c r="AN32" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AO32" t="n">
         <v>11.5</v>
@@ -4855,7 +4855,7 @@
         <v>2.08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
         <v>4.3</v>
@@ -4870,13 +4870,13 @@
         <v>3.45</v>
       </c>
       <c r="L33" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>2.96</v>
+        <v>2.92</v>
       </c>
       <c r="O33" t="n">
         <v>1.49</v>
@@ -4885,19 +4885,19 @@
         <v>1.66</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R33" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="U33" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V33" t="n">
         <v>1.29</v>
@@ -4906,25 +4906,25 @@
         <v>1.9</v>
       </c>
       <c r="X33" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA33" t="n">
         <v>100</v>
       </c>
       <c r="AB33" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AC33" t="n">
         <v>7.4</v>
       </c>
       <c r="AD33" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AE33" t="n">
         <v>70</v>
@@ -4948,13 +4948,13 @@
         <v>26</v>
       </c>
       <c r="AL33" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM33" t="n">
         <v>170</v>
       </c>
       <c r="AN33" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO33" t="n">
         <v>100</v>
@@ -4987,22 +4987,22 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>5.6</v>
+        <v>6</v>
       </c>
       <c r="G34" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H34" t="n">
-        <v>1.68</v>
+        <v>1.62</v>
       </c>
       <c r="I34" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="J34" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K34" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="L34" t="n">
         <v>1.38</v>
@@ -5011,88 +5011,88 @@
         <v>1.06</v>
       </c>
       <c r="N34" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O34" t="n">
         <v>1.3</v>
       </c>
       <c r="P34" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S34" t="n">
         <v>3.3</v>
       </c>
       <c r="T34" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="U34" t="n">
         <v>1.98</v>
       </c>
       <c r="V34" t="n">
-        <v>2.38</v>
+        <v>2.52</v>
       </c>
       <c r="W34" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="X34" t="n">
         <v>15.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="Z34" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="AA34" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AE34" t="n">
         <v>17.5</v>
       </c>
       <c r="AF34" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH34" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI34" t="n">
         <v>36</v>
       </c>
       <c r="AJ34" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="AK34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL34" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM34" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN34" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AO34" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="35">
@@ -5122,112 +5122,112 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5.1</v>
       </c>
       <c r="J35" t="n">
         <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>6</v>
+        <v>4.7</v>
       </c>
       <c r="L35" t="n">
         <v>1.01</v>
       </c>
       <c r="M35" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N35" t="n">
-        <v>4</v>
+        <v>4.9</v>
       </c>
       <c r="O35" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.56</v>
       </c>
       <c r="S35" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="T35" t="n">
         <v>1.63</v>
       </c>
       <c r="U35" t="n">
-        <v>1.87</v>
+        <v>2.34</v>
       </c>
       <c r="V35" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="W35" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="X35" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y35" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Z35" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AA35" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB35" t="n">
         <v>14.5</v>
       </c>
       <c r="AC35" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AD35" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AE35" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF35" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG35" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AH35" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="AJ35" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AK35" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AL35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AO35" t="n">
         <v>38</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO35"/>
+  <dimension ref="A1:AO36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,76 +667,76 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.58</v>
+        <v>2.64</v>
       </c>
       <c r="G2" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="H2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2" t="n">
         <v>2.88</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.94</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
       </c>
       <c r="K2" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
         <v>1.78</v>
       </c>
       <c r="U2" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB2" t="n">
         <v>12</v>
       </c>
-      <c r="Z2" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
@@ -751,13 +751,13 @@
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
@@ -766,13 +766,13 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN2" t="n">
         <v>24</v>
       </c>
       <c r="AO2" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
@@ -805,13 +805,13 @@
         <v>2.78</v>
       </c>
       <c r="G3" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H3" t="n">
         <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -829,7 +829,7 @@
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P3" t="n">
         <v>2.14</v>
@@ -844,7 +844,7 @@
         <v>3.1</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U3" t="n">
         <v>2.36</v>
@@ -853,7 +853,7 @@
         <v>1.6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X3" t="n">
         <v>17.5</v>
@@ -865,7 +865,7 @@
         <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AB3" t="n">
         <v>13.5</v>
@@ -883,7 +883,7 @@
         <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -937,64 +937,64 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.6</v>
+        <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="H4" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="I4" t="n">
-        <v>1.77</v>
+        <v>1.87</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>2.92</v>
+        <v>2.86</v>
       </c>
       <c r="O4" t="n">
         <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="S4" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
         <v>10.5</v>
@@ -1003,28 +1003,28 @@
         <v>22</v>
       </c>
       <c r="AB4" t="n">
-        <v>17</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.05</v>
+        <v>1.53</v>
       </c>
       <c r="G5" t="n">
-        <v>110</v>
+        <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>1.04</v>
+        <v>3.95</v>
       </c>
       <c r="I5" t="n">
-        <v>980</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>1.01</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>32</v>
+        <v>7.4</v>
       </c>
       <c r="L5" t="n">
-        <v>1.01</v>
+        <v>1.16</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.25</v>
+        <v>1.02</v>
       </c>
       <c r="O5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>1.24</v>
+        <v>3.85</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.06</v>
+        <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>1.18</v>
+        <v>2.26</v>
       </c>
       <c r="S5" t="n">
-        <v>1.06</v>
+        <v>1.54</v>
       </c>
       <c r="T5" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="U5" t="n">
-        <v>1.01</v>
+        <v>3.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.02</v>
+        <v>1.26</v>
       </c>
       <c r="W5" t="n">
-        <v>1.02</v>
+        <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1216,13 +1216,13 @@
         <v>1.57</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>3.35</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>4.8</v>
       </c>
       <c r="L6" t="n">
         <v>1.37</v>
@@ -1234,13 +1234,13 @@
         <v>2.66</v>
       </c>
       <c r="O6" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
@@ -1249,28 +1249,28 @@
         <v>2.66</v>
       </c>
       <c r="T6" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="V6" t="n">
-        <v>2.26</v>
+        <v>2.42</v>
       </c>
       <c r="W6" t="n">
         <v>1.12</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>8.4</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>10.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1279,10 +1279,10 @@
         <v>11</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1312,7 +1312,7 @@
         <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.64</v>
+        <v>2.7</v>
       </c>
       <c r="G7" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="H7" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.3</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.35</v>
       </c>
       <c r="L7" t="n">
         <v>1.46</v>
@@ -1372,7 +1372,7 @@
         <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q7" t="n">
         <v>2.48</v>
@@ -1384,67 +1384,67 @@
         <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="U7" t="n">
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X7" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z7" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA7" t="n">
         <v>65</v>
       </c>
       <c r="AB7" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>55</v>
       </c>
-      <c r="AF7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>190</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>60</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>55</v>
       </c>
       <c r="AO7" t="n">
         <v>65</v>
@@ -1477,19 +1477,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.74</v>
+        <v>2.86</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>3.55</v>
@@ -1507,10 +1507,10 @@
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
@@ -1519,37 +1519,37 @@
         <v>3.2</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U8" t="n">
         <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W8" t="n">
         <v>1.44</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>90</v>
       </c>
       <c r="Y8" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="Z8" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB8" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AE8" t="n">
         <v>1000</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AH8" t="n">
-        <v>17.5</v>
+        <v>40</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
         <v>3.8</v>
@@ -1699,7 +1699,7 @@
         <v>36</v>
       </c>
       <c r="AI9" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>90</v>
@@ -1753,16 +1753,16 @@
         <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1771,19 +1771,19 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
         <v>3.05</v>
@@ -1795,19 +1795,19 @@
         <v>1.71</v>
       </c>
       <c r="V10" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X10" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Y10" t="n">
         <v>8</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>11.5</v>
@@ -1822,13 +1822,13 @@
         <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AF10" t="n">
         <v>130</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AH10" t="n">
         <v>34</v>
@@ -1837,22 +1837,22 @@
         <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="AK10" t="n">
         <v>250</v>
       </c>
       <c r="AL10" t="n">
-        <v>210</v>
+        <v>520</v>
       </c>
       <c r="AM10" t="n">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="11">
@@ -1894,7 +1894,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K11" t="n">
         <v>3.8</v>
@@ -1906,16 +1906,16 @@
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="O11" t="n">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="P11" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="R11" t="n">
         <v>1.17</v>
@@ -1924,10 +1924,10 @@
         <v>5.8</v>
       </c>
       <c r="T11" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="V11" t="n">
         <v>1.14</v>
@@ -1936,7 +1936,7 @@
         <v>2.36</v>
       </c>
       <c r="X11" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y11" t="n">
         <v>17</v>
@@ -1945,31 +1945,31 @@
         <v>65</v>
       </c>
       <c r="AA11" t="n">
-        <v>350</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
       </c>
       <c r="AG11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AI11" t="n">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="AJ11" t="n">
         <v>17.5</v>
@@ -1978,16 +1978,16 @@
         <v>26</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>460</v>
       </c>
       <c r="AM11" t="n">
-        <v>560</v>
+        <v>500</v>
       </c>
       <c r="AN11" t="n">
         <v>20</v>
       </c>
       <c r="AO11" t="n">
-        <v>650</v>
+        <v>560</v>
       </c>
     </row>
     <row r="12">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="H12" t="n">
         <v>3.15</v>
@@ -2059,16 +2059,16 @@
         <v>6.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="U12" t="n">
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
         <v>7</v>
@@ -2089,25 +2089,25 @@
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE12" t="n">
         <v>1000</v>
       </c>
       <c r="AF12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AI12" t="n">
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2128,7 +2128,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2143,127 +2143,127 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="G13" t="n">
-        <v>1.7</v>
+        <v>2.58</v>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>6.6</v>
+        <v>4.8</v>
       </c>
       <c r="J13" t="n">
-        <v>3.9</v>
+        <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>4.1</v>
+        <v>110</v>
       </c>
       <c r="L13" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N13" t="n">
-        <v>3.3</v>
+        <v>1.42</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.21</v>
       </c>
       <c r="P13" t="n">
-        <v>1.79</v>
+        <v>1.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.2</v>
+        <v>1.21</v>
       </c>
       <c r="R13" t="n">
-        <v>1.29</v>
+        <v>1.42</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>2.46</v>
       </c>
       <c r="T13" t="n">
-        <v>2.16</v>
+        <v>1.05</v>
       </c>
       <c r="U13" t="n">
-        <v>1.79</v>
+        <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="W13" t="n">
-        <v>2.42</v>
+        <v>1.63</v>
       </c>
       <c r="X13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Y13" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z13" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AA13" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="AD13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="AG13" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="AI13" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AL13" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AO13" t="n">
-        <v>180</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,126 +2273,126 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>2.08</v>
+        <v>1.7</v>
       </c>
       <c r="H14" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.95</v>
       </c>
-      <c r="I14" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L14" t="n">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="M14" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>4.8</v>
+        <v>3.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.24</v>
+        <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>2.28</v>
+        <v>1.76</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.73</v>
+        <v>2.24</v>
       </c>
       <c r="R14" t="n">
-        <v>1.51</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.64</v>
+        <v>2.16</v>
       </c>
       <c r="U14" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="W14" t="n">
         <v>2.42</v>
       </c>
-      <c r="V14" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.92</v>
-      </c>
       <c r="X14" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>70</v>
+        <v>220</v>
       </c>
       <c r="AB14" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AI14" t="n">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AK14" t="n">
         <v>19.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="AM14" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
@@ -2413,127 +2413,127 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="G15" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="J15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.75</v>
       </c>
-      <c r="K15" t="n">
-        <v>3.8</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="V15" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="W15" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI15" t="n">
         <v>46</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="G16" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I16" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="J16" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>4.1</v>
+        <v>3.75</v>
       </c>
       <c r="L16" t="n">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="R16" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.92</v>
       </c>
       <c r="T16" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="V16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="X16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="Y16" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AK16" t="n">
         <v>21</v>
       </c>
-      <c r="Z16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB16" t="n">
+      <c r="AL16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN16" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC16" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>11</v>
-      </c>
       <c r="AO16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2683,127 +2683,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.76</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>2.12</v>
       </c>
       <c r="H17" t="n">
-        <v>2.7</v>
+        <v>3.55</v>
       </c>
       <c r="I17" t="n">
-        <v>2.86</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.65</v>
+        <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="O17" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="P17" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.89</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W17" t="n">
-        <v>1.5</v>
-      </c>
       <c r="X17" t="n">
-        <v>16.5</v>
+        <v>26</v>
       </c>
       <c r="Y17" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z17" t="n">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>36</v>
+        <v>170</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AH17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK17" t="n">
         <v>20</v>
       </c>
-      <c r="AI17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>40</v>
-      </c>
       <c r="AL17" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="AO17" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F18" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="J18" t="n">
         <v>3.25</v>
       </c>
-      <c r="G18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="J18" t="n">
-        <v>3.75</v>
-      </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>4.8</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>2.28</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.63</v>
+        <v>1.98</v>
       </c>
       <c r="R18" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="W18" t="n">
         <v>1.52</v>
       </c>
-      <c r="S18" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="W18" t="n">
-        <v>1.36</v>
-      </c>
       <c r="X18" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AE18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF18" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,123 +2948,123 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.23</v>
+        <v>3.3</v>
       </c>
       <c r="G19" t="n">
-        <v>1.28</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5</v>
+        <v>2.04</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>7.8</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>4.3</v>
       </c>
       <c r="L19" t="n">
-        <v>1.13</v>
+        <v>1.26</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>11</v>
+        <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.07</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>4.5</v>
+        <v>2.28</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="R19" t="n">
-        <v>2.42</v>
+        <v>1.52</v>
       </c>
       <c r="S19" t="n">
-        <v>1.52</v>
+        <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.61</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
         <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.08</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>4.5</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>1000</v>
       </c>
       <c r="Y19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AA19" t="n">
         <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC19" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="AD19" t="n">
         <v>1000</v>
       </c>
       <c r="AE19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
         <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>3</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
         <v>1000</v>
@@ -3088,118 +3088,118 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.24</v>
+        <v>1.21</v>
       </c>
       <c r="G20" t="n">
-        <v>2.36</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I20" t="n">
-        <v>3.25</v>
+        <v>15.5</v>
       </c>
       <c r="J20" t="n">
-        <v>3.95</v>
+        <v>7.6</v>
       </c>
       <c r="K20" t="n">
-        <v>4.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.13</v>
       </c>
       <c r="M20" t="n">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>5.5</v>
+        <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>2.54</v>
+        <v>4.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.56</v>
+        <v>1.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.64</v>
+        <v>2.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.28</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.64</v>
+        <v>2.32</v>
       </c>
       <c r="V20" t="n">
-        <v>1.45</v>
+        <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>1.73</v>
+        <v>5</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Z20" t="n">
-        <v>980</v>
+        <v>170</v>
       </c>
       <c r="AA20" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>980</v>
+        <v>160</v>
       </c>
       <c r="AF20" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>980</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>980</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>13.5</v>
+        <v>2.82</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3223,118 +3223,118 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.27</v>
+        <v>2.24</v>
       </c>
       <c r="G21" t="n">
-        <v>1.31</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
-        <v>6.4</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
-        <v>7.4</v>
+        <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>7.8</v>
+        <v>5.3</v>
       </c>
       <c r="O21" t="n">
-        <v>1.12</v>
+        <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>3.35</v>
+        <v>2.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.37</v>
+        <v>1.58</v>
       </c>
       <c r="R21" t="n">
-        <v>1.95</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>1.9</v>
+        <v>2.36</v>
       </c>
       <c r="T21" t="n">
-        <v>1.75</v>
+        <v>1.54</v>
       </c>
       <c r="U21" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.08</v>
+        <v>1.46</v>
       </c>
       <c r="W21" t="n">
-        <v>4.2</v>
+        <v>1.73</v>
       </c>
       <c r="X21" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z21" t="n">
-        <v>150</v>
+        <v>980</v>
       </c>
       <c r="AA21" t="n">
-        <v>410</v>
+        <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>17.5</v>
+        <v>27</v>
       </c>
       <c r="AC21" t="n">
-        <v>20</v>
+        <v>13.5</v>
       </c>
       <c r="AD21" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH21" t="n">
         <v>60</v>
       </c>
-      <c r="AE21" t="n">
-        <v>170</v>
-      </c>
-      <c r="AF21" t="n">
+      <c r="AI21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>980</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN21" t="n">
         <v>13.5</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>16</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>3.5</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>2.18</v>
+        <v>1.28</v>
       </c>
       <c r="G22" t="n">
-        <v>2.34</v>
+        <v>1.32</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>3.35</v>
+        <v>13.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.85</v>
+        <v>6.4</v>
       </c>
       <c r="K22" t="n">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="L22" t="n">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="M22" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>5.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>2.54</v>
+        <v>3.3</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="T22" t="n">
-        <v>1.54</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.56</v>
+        <v>2.22</v>
       </c>
       <c r="V22" t="n">
-        <v>1.42</v>
+        <v>1.08</v>
       </c>
       <c r="W22" t="n">
-        <v>1.74</v>
+        <v>4.1</v>
       </c>
       <c r="X22" t="n">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="Y22" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>150</v>
       </c>
       <c r="AA22" t="n">
-        <v>55</v>
+        <v>410</v>
       </c>
       <c r="AB22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AC22" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>170</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>15.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>26</v>
       </c>
       <c r="AL22" t="n">
         <v>34</v>
       </c>
       <c r="AM22" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>13</v>
+        <v>3.45</v>
       </c>
       <c r="AO22" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>6</v>
+        <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>8.800000000000001</v>
+        <v>2.36</v>
       </c>
       <c r="H23" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I23" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K23" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S23" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="V23" t="n">
         <v>1.43</v>
       </c>
-      <c r="I23" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="J23" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K23" t="n">
-        <v>6</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.92</v>
-      </c>
       <c r="W23" t="n">
-        <v>1.13</v>
+        <v>1.74</v>
       </c>
       <c r="X23" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="Y23" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AA23" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AC23" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AF23" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL23" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AM23" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AN23" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AO23" t="n">
-        <v>5.6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,93 +3623,93 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.2</v>
+        <v>6.4</v>
       </c>
       <c r="G24" t="n">
-        <v>2.44</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1.09</v>
+        <v>1.43</v>
       </c>
       <c r="I24" t="n">
-        <v>3.4</v>
+        <v>1.52</v>
       </c>
       <c r="J24" t="n">
-        <v>3.5</v>
+        <v>4.6</v>
       </c>
       <c r="K24" t="n">
-        <v>980</v>
+        <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.01</v>
+        <v>1.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>2.34</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
-        <v>1.19</v>
+        <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.32</v>
+        <v>2.82</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.61</v>
+        <v>1.44</v>
       </c>
       <c r="R24" t="n">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="S24" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="T24" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="U24" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>1.43</v>
+        <v>2.92</v>
       </c>
       <c r="W24" t="n">
-        <v>1.7</v>
+        <v>1.13</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AA24" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AB24" t="n">
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD24" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3724,7 +3724,7 @@
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="25">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4.2</v>
+        <v>2.2</v>
       </c>
       <c r="G25" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="H25" t="n">
-        <v>1.87</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>1.95</v>
+        <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
         <v>4.1</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>3.95</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="S25" t="n">
-        <v>3.05</v>
+        <v>2.02</v>
       </c>
       <c r="T25" t="n">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>2.04</v>
+        <v>1.43</v>
       </c>
       <c r="W25" t="n">
-        <v>1.27</v>
+        <v>1.72</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="Z25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN25" t="n">
         <v>15</v>
       </c>
-      <c r="AA25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO25" t="n">
-        <v>14.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.66</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>2.76</v>
+        <v>4.9</v>
       </c>
       <c r="H26" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S26" t="n">
         <v>3.05</v>
       </c>
-      <c r="I26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N26" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="P26" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S26" t="n">
-        <v>4.6</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.96</v>
+        <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>1.45</v>
+        <v>2.04</v>
       </c>
       <c r="W26" t="n">
-        <v>1.56</v>
+        <v>1.27</v>
       </c>
       <c r="X26" t="n">
+        <v>90</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>22</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO26" t="n">
         <v>12.5</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>10</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>17</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.53</v>
+        <v>2.64</v>
       </c>
       <c r="G27" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K27" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N27" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="P27" t="n">
         <v>1.66</v>
       </c>
-      <c r="H27" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="Q27" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="S27" t="n">
         <v>4.6</v>
       </c>
-      <c r="L27" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N27" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.4</v>
-      </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U27" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="V27" t="n">
-        <v>1.13</v>
+        <v>1.45</v>
       </c>
       <c r="W27" t="n">
-        <v>2.5</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
-        <v>17</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>290</v>
+        <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC27" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="AE27" t="n">
-        <v>150</v>
+        <v>44</v>
       </c>
       <c r="AF27" t="n">
-        <v>10.5</v>
+        <v>16</v>
       </c>
       <c r="AG27" t="n">
         <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM27" t="n">
         <v>140</v>
       </c>
-      <c r="AJ27" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>190</v>
-      </c>
       <c r="AN27" t="n">
-        <v>11.5</v>
+        <v>36</v>
       </c>
       <c r="AO27" t="n">
-        <v>210</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>3.95</v>
+        <v>1.53</v>
       </c>
       <c r="G28" t="n">
-        <v>4.7</v>
+        <v>1.65</v>
       </c>
       <c r="H28" t="n">
-        <v>1.98</v>
+        <v>6.6</v>
       </c>
       <c r="I28" t="n">
-        <v>2.12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J28" t="n">
-        <v>3.25</v>
+        <v>3.9</v>
       </c>
       <c r="K28" t="n">
-        <v>3.75</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.15</v>
+        <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.08</v>
+        <v>1.94</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="V28" t="n">
-        <v>1.89</v>
+        <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>1.27</v>
+        <v>2.52</v>
       </c>
       <c r="X28" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>290</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD28" t="n">
+      <c r="AH28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN28" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE28" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.05</v>
+        <v>3.95</v>
       </c>
       <c r="G29" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H29" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J29" t="n">
         <v>3.25</v>
       </c>
-      <c r="H29" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I29" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.1</v>
-      </c>
       <c r="K29" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M29" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.43</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.28</v>
+        <v>2.08</v>
       </c>
       <c r="R29" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W29" t="n">
         <v>1.27</v>
       </c>
-      <c r="S29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.44</v>
-      </c>
       <c r="X29" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>21</v>
       </c>
-      <c r="AA29" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>24</v>
-      </c>
       <c r="AI29" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ29" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AK29" t="n">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AM29" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>3.05</v>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>3.25</v>
       </c>
       <c r="H30" t="n">
-        <v>6.6</v>
+        <v>2.66</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>2.78</v>
       </c>
       <c r="J30" t="n">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>5.1</v>
+        <v>3.15</v>
       </c>
       <c r="L30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R30" t="n">
         <v>1.27</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N30" t="n">
-        <v>6</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P30" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U30" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V30" t="n">
         <v>1.56</v>
       </c>
-      <c r="R30" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S30" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="T30" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U30" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.16</v>
-      </c>
       <c r="W30" t="n">
-        <v>2.88</v>
+        <v>1.44</v>
       </c>
       <c r="X30" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="Z30" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>180</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
         <v>12</v>
       </c>
       <c r="AC30" t="n">
-        <v>11.5</v>
+        <v>7</v>
       </c>
       <c r="AD30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF30" t="n">
         <v>25</v>
       </c>
-      <c r="AE30" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11</v>
-      </c>
       <c r="AG30" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AI30" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>70</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AK30" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>290</v>
       </c>
       <c r="AM30" t="n">
-        <v>85</v>
+        <v>580</v>
       </c>
       <c r="AN30" t="n">
-        <v>5.7</v>
+        <v>55</v>
       </c>
       <c r="AO30" t="n">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4573,127 +4573,127 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>3</v>
+        <v>1.53</v>
       </c>
       <c r="G31" t="n">
-        <v>4.6</v>
+        <v>1.54</v>
       </c>
       <c r="H31" t="n">
-        <v>2.22</v>
+        <v>6.6</v>
       </c>
       <c r="I31" t="n">
-        <v>2.78</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>2.74</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
-        <v>3.4</v>
+        <v>5.1</v>
       </c>
       <c r="L31" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="M31" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N31" t="n">
-        <v>2.72</v>
+        <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>1.58</v>
+        <v>2.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.26</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>3.65</v>
+        <v>2.4</v>
       </c>
       <c r="T31" t="n">
-        <v>1.04</v>
+        <v>1.73</v>
       </c>
       <c r="U31" t="n">
-        <v>1.04</v>
+        <v>2.3</v>
       </c>
       <c r="V31" t="n">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="X31" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="Y31" t="n">
+        <v>30</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>25</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF31" t="n">
         <v>11</v>
       </c>
-      <c r="Z31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="AH31" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ31" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM31" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>1000</v>
+        <v>5.7</v>
       </c>
       <c r="AO31" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
-        <v>1.88</v>
+        <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="J32" t="n">
-        <v>3.9</v>
+        <v>2.92</v>
       </c>
       <c r="K32" t="n">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.39</v>
       </c>
       <c r="M32" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="O32" t="n">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>2.14</v>
+        <v>1.67</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>2.82</v>
+        <v>3.65</v>
       </c>
       <c r="T32" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>2.2</v>
+        <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="W32" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="X32" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Y32" t="n">
         <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
       <c r="AA32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD32" t="n">
         <v>23</v>
       </c>
-      <c r="AB32" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>11</v>
-      </c>
       <c r="AE32" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="AH32" t="n">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="AI32" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ32" t="n">
         <v>1000</v>
       </c>
       <c r="AK32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AL32" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM32" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN32" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AO32" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>2.08</v>
+        <v>4.1</v>
       </c>
       <c r="G33" t="n">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="H33" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="J33" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
         <v>4.3</v>
       </c>
-      <c r="I33" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K33" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N33" t="n">
-        <v>2.92</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.49</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>1.66</v>
+        <v>2.16</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.48</v>
+        <v>1.71</v>
       </c>
       <c r="R33" t="n">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>2.82</v>
       </c>
       <c r="T33" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="V33" t="n">
-        <v>1.29</v>
+        <v>2.02</v>
       </c>
       <c r="W33" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="Y33" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z33" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="AA33" t="n">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="AB33" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
-        <v>7.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG33" t="n">
         <v>18</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AH33" t="n">
+        <v>18</v>
+      </c>
+      <c r="AI33" t="n">
         <v>70</v>
       </c>
-      <c r="AF33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>130</v>
+      </c>
+      <c r="AM33" t="n">
         <v>85</v>
       </c>
-      <c r="AJ33" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>170</v>
-      </c>
       <c r="AN33" t="n">
-        <v>23</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>100</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,261 +4973,396 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Estoril Praia</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>6</v>
+        <v>2.06</v>
       </c>
       <c r="G34" t="n">
-        <v>6.6</v>
+        <v>2.08</v>
       </c>
       <c r="H34" t="n">
-        <v>1.62</v>
+        <v>4.4</v>
       </c>
       <c r="I34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K34" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N34" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P34" t="n">
         <v>1.65</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N34" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2</v>
-      </c>
       <c r="Q34" t="n">
-        <v>1.9</v>
+        <v>2.52</v>
       </c>
       <c r="R34" t="n">
-        <v>1.39</v>
+        <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.94</v>
+        <v>2.2</v>
       </c>
       <c r="U34" t="n">
-        <v>1.98</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
-        <v>2.52</v>
+        <v>1.28</v>
       </c>
       <c r="W34" t="n">
-        <v>1.17</v>
+        <v>1.93</v>
       </c>
       <c r="X34" t="n">
-        <v>15.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.4</v>
+        <v>32</v>
       </c>
       <c r="AA34" t="n">
-        <v>15.5</v>
+        <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD34" t="n">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="AE34" t="n">
-        <v>17.5</v>
+        <v>70</v>
       </c>
       <c r="AF34" t="n">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="AG34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH34" t="n">
         <v>24</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN34" t="n">
         <v>22</v>
       </c>
-      <c r="AI34" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>110</v>
-      </c>
       <c r="AO34" t="n">
-        <v>9.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-12-19</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17:15:00</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Estoril Praia</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G35" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="J35" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N35" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="T35" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X35" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>85</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>95</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
           <t>Ecuadorian Serie A</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B36" t="inlineStr">
         <is>
           <t>2025-12-19</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="C36" t="inlineStr">
         <is>
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>El Nacional</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Delfin</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="G35" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="H35" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="J35" t="n">
+      <c r="F36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I36" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J36" t="n">
         <v>4</v>
       </c>
-      <c r="K35" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L35" t="n">
+      <c r="K36" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="L36" t="n">
         <v>1.01</v>
       </c>
-      <c r="M35" t="n">
+      <c r="M36" t="n">
         <v>1.03</v>
       </c>
-      <c r="N35" t="n">
+      <c r="N36" t="n">
         <v>4.9</v>
       </c>
-      <c r="O35" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="O36" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P36" t="n">
         <v>2.34</v>
       </c>
-      <c r="Q35" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="S35" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U35" t="n">
+      <c r="Q36" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U36" t="n">
         <v>2.34</v>
       </c>
-      <c r="V35" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W35" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="X35" t="n">
+      <c r="V36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="X36" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>150</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL36" t="n">
         <v>29</v>
       </c>
-      <c r="Y35" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>38</v>
+      <c r="AM36" t="n">
+        <v>330</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G2" t="n">
         <v>2.7</v>
@@ -676,7 +676,7 @@
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.65</v>
@@ -685,34 +685,34 @@
         <v>3.7</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.32</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R2" t="n">
         <v>1.38</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T2" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="U2" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -730,7 +730,7 @@
         <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="n">
         <v>12</v>
@@ -754,7 +754,7 @@
         <v>16.5</v>
       </c>
       <c r="AI2" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AJ2" t="n">
         <v>40</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="G3" t="n">
         <v>2.86</v>
@@ -811,7 +811,7 @@
         <v>2.62</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -829,25 +829,25 @@
         <v>4.4</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
         <v>2.14</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R3" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="V3" t="n">
         <v>1.6</v>
@@ -862,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AA3" t="n">
         <v>38</v>
@@ -874,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
@@ -883,7 +883,7 @@
         <v>19.5</v>
       </c>
       <c r="AG3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
         <v>16</v>
@@ -907,7 +907,7 @@
         <v>22</v>
       </c>
       <c r="AO3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="4">
@@ -940,16 +940,16 @@
         <v>4.9</v>
       </c>
       <c r="G4" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K4" t="n">
         <v>3.9</v>
@@ -958,13 +958,13 @@
         <v>1.46</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="P4" t="n">
         <v>1.62</v>
@@ -973,7 +973,7 @@
         <v>2.28</v>
       </c>
       <c r="R4" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
         <v>4.3</v>
@@ -985,10 +985,10 @@
         <v>1.75</v>
       </c>
       <c r="V4" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
@@ -1024,7 +1024,7 @@
         <v>48</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G5" t="n">
         <v>1.73</v>
       </c>
       <c r="H5" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="K5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
@@ -1102,13 +1102,13 @@
         <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q5" t="n">
         <v>1.21</v>
       </c>
       <c r="R5" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="S5" t="n">
         <v>1.54</v>
@@ -1120,13 +1120,13 @@
         <v>3.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
         <v>2.36</v>
       </c>
       <c r="X5" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1210,7 +1210,7 @@
         <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H6" t="n">
         <v>1.57</v>
@@ -1222,19 +1222,19 @@
         <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.66</v>
+        <v>2.94</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="P6" t="n">
         <v>1.85</v>
@@ -1246,19 +1246,19 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>2.66</v>
+        <v>3.75</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
       </c>
       <c r="U6" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="V6" t="n">
         <v>2.42</v>
       </c>
       <c r="W6" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1267,22 +1267,22 @@
         <v>29</v>
       </c>
       <c r="Z6" t="n">
-        <v>10.5</v>
+        <v>40</v>
       </c>
       <c r="AA6" t="n">
-        <v>180</v>
+        <v>900</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD6" t="n">
         <v>40</v>
       </c>
       <c r="AE6" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
         <v>3.05</v>
@@ -1354,13 +1354,13 @@
         <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
@@ -1384,16 +1384,16 @@
         <v>5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W7" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1405,7 +1405,7 @@
         <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB7" t="n">
         <v>9</v>
@@ -1417,7 +1417,7 @@
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="AF7" t="n">
         <v>18</v>
@@ -1438,7 +1438,7 @@
         <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1486,67 +1486,67 @@
         <v>2.56</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="J8" t="n">
         <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O8" t="n">
         <v>1.33</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.3</v>
-      </c>
       <c r="P8" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="S8" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="V8" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="Y8" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
         <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="AD8" t="n">
         <v>28</v>
@@ -1558,10 +1558,10 @@
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH8" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="AI8" t="n">
         <v>1000</v>
@@ -1612,19 +1612,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>2.92</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
         <v>2.98</v>
@@ -1651,19 +1651,19 @@
         <v>1.12</v>
       </c>
       <c r="S9" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="T9" t="n">
         <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
         <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="X9" t="n">
         <v>6.4</v>
@@ -1672,13 +1672,13 @@
         <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
@@ -1693,10 +1693,10 @@
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AH9" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -1753,7 +1753,7 @@
         <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
@@ -1762,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="L10" t="n">
         <v>1.3</v>
@@ -1780,16 +1780,16 @@
         <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S10" t="n">
         <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="U10" t="n">
         <v>1.71</v>
@@ -1813,10 +1813,10 @@
         <v>11.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD10" t="n">
         <v>12.5</v>
@@ -1885,10 +1885,10 @@
         <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="H11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I11" t="n">
         <v>8.199999999999999</v>
@@ -1897,49 +1897,49 @@
         <v>3.45</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L11" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="M11" t="n">
         <v>1.12</v>
       </c>
       <c r="N11" t="n">
-        <v>2.44</v>
+        <v>2.38</v>
       </c>
       <c r="O11" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="P11" t="n">
         <v>1.48</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.7</v>
+        <v>2.74</v>
       </c>
       <c r="R11" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="S11" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="T11" t="n">
         <v>2.74</v>
       </c>
       <c r="U11" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
         <v>1.14</v>
       </c>
       <c r="W11" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="X11" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z11" t="n">
         <v>65</v>
@@ -1948,7 +1948,7 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="AC11" t="n">
         <v>9.800000000000001</v>
@@ -1957,7 +1957,7 @@
         <v>36</v>
       </c>
       <c r="AE11" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AF11" t="n">
         <v>8</v>
@@ -1975,16 +1975,16 @@
         <v>17.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL11" t="n">
-        <v>460</v>
+        <v>190</v>
       </c>
       <c r="AM11" t="n">
         <v>500</v>
       </c>
       <c r="AN11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO11" t="n">
         <v>560</v>
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G12" t="n">
         <v>2.98</v>
@@ -2065,10 +2065,10 @@
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>7</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.76</v>
+        <v>1.9</v>
       </c>
       <c r="G13" t="n">
         <v>2.58</v>
@@ -2161,22 +2161,22 @@
         <v>2.96</v>
       </c>
       <c r="I13" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
         <v>3.55</v>
       </c>
       <c r="K13" t="n">
-        <v>110</v>
+        <v>10.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.01</v>
       </c>
       <c r="M13" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>1.42</v>
+        <v>2.26</v>
       </c>
       <c r="O13" t="n">
         <v>1.21</v>
@@ -2221,7 +2221,7 @@
         <v>1000</v>
       </c>
       <c r="AC13" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AD13" t="n">
         <v>1000</v>
@@ -2236,7 +2236,7 @@
         <v>1000</v>
       </c>
       <c r="AH13" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
@@ -2251,7 +2251,7 @@
         <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN13" t="n">
         <v>1000</v>
@@ -2293,7 +2293,7 @@
         <v>1.7</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
         <v>6.8</v>
@@ -2302,7 +2302,7 @@
         <v>3.9</v>
       </c>
       <c r="K14" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2317,10 +2317,10 @@
         <v>1.41</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R14" t="n">
         <v>1.28</v>
@@ -2338,7 +2338,7 @@
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="X14" t="n">
         <v>12</v>
@@ -2347,7 +2347,7 @@
         <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AA14" t="n">
         <v>220</v>
@@ -2356,13 +2356,13 @@
         <v>7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AD14" t="n">
         <v>25</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
@@ -2371,7 +2371,7 @@
         <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
         <v>130</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="G15" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2452,13 +2452,13 @@
         <v>1.24</v>
       </c>
       <c r="P15" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
         <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="S15" t="n">
         <v>2.78</v>
@@ -2467,13 +2467,13 @@
         <v>1.64</v>
       </c>
       <c r="U15" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V15" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="W15" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
         <v>18.5</v>
@@ -2482,22 +2482,22 @@
         <v>18.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA15" t="n">
-        <v>170</v>
+        <v>70</v>
       </c>
       <c r="AB15" t="n">
         <v>12</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
         <v>14.5</v>
@@ -2509,10 +2509,10 @@
         <v>15</v>
       </c>
       <c r="AI15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>19.5</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="G16" t="n">
         <v>2.18</v>
@@ -2572,7 +2572,7 @@
         <v>3.7</v>
       </c>
       <c r="K16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="L16" t="n">
         <v>1.34</v>
@@ -2590,10 +2590,10 @@
         <v>2.2</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="R16" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="S16" t="n">
         <v>2.92</v>
@@ -2602,7 +2602,7 @@
         <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>1.36</v>
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2695,16 +2695,16 @@
         <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="H17" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
@@ -2716,34 +2716,34 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.59</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="S17" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>1.66</v>
+        <v>1.59</v>
       </c>
       <c r="U17" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2779,13 +2779,13 @@
         <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>980</v>
       </c>
       <c r="AJ17" t="n">
         <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="AL17" t="n">
         <v>75</v>
@@ -2833,13 +2833,13 @@
         <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="I18" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2851,13 +2851,13 @@
         <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q18" t="n">
         <v>1.98</v>
@@ -2869,13 +2869,13 @@
         <v>3.5</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.73</v>
       </c>
       <c r="U18" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W18" t="n">
         <v>1.52</v>
@@ -2884,13 +2884,13 @@
         <v>16.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z18" t="n">
         <v>23</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AB18" t="n">
         <v>13.5</v>
@@ -2929,7 +2929,7 @@
         <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO18" t="n">
         <v>32</v>
@@ -2989,7 +2989,7 @@
         <v>4.8</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
         <v>2.28</v>
@@ -3004,7 +3004,7 @@
         <v>2.56</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="U19" t="n">
         <v>2.36</v>
@@ -3109,10 +3109,10 @@
         <v>15.5</v>
       </c>
       <c r="J20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="L20" t="n">
         <v>1.13</v>
@@ -3124,7 +3124,7 @@
         <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P20" t="n">
         <v>4.7</v>
@@ -3133,16 +3133,16 @@
         <v>1.2</v>
       </c>
       <c r="R20" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="S20" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="V20" t="n">
         <v>1.07</v>
@@ -3178,7 +3178,7 @@
         <v>17.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AH20" t="n">
         <v>1000</v>
@@ -3190,7 +3190,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AL20" t="n">
         <v>32</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -3253,7 +3253,7 @@
         <v>1.23</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
         <v>5.3</v>
@@ -3262,7 +3262,7 @@
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="Q21" t="n">
         <v>1.58</v>
@@ -3271,7 +3271,7 @@
         <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="T21" t="n">
         <v>1.54</v>
@@ -3280,7 +3280,7 @@
         <v>2.58</v>
       </c>
       <c r="V21" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="W21" t="n">
         <v>1.73</v>
@@ -3370,19 +3370,19 @@
         <v>1.28</v>
       </c>
       <c r="G22" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="H22" t="n">
         <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
         <v>6.4</v>
       </c>
       <c r="K22" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="L22" t="n">
         <v>1.17</v>
@@ -3403,10 +3403,10 @@
         <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="S22" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
@@ -3418,7 +3418,7 @@
         <v>1.08</v>
       </c>
       <c r="W22" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="X22" t="n">
         <v>50</v>
@@ -3505,10 +3505,10 @@
         <v>2.22</v>
       </c>
       <c r="G23" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
         <v>3.3</v>
@@ -3538,7 +3538,7 @@
         <v>1.56</v>
       </c>
       <c r="R23" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="S23" t="n">
         <v>2.36</v>
@@ -3649,7 +3649,7 @@
         <v>1.52</v>
       </c>
       <c r="J24" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
@@ -3712,7 +3712,7 @@
         <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>1000</v>
+        <v>970</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
@@ -3808,7 +3808,7 @@
         <v>1.6</v>
       </c>
       <c r="R25" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="S25" t="n">
         <v>2.02</v>
@@ -3820,7 +3820,7 @@
         <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="W25" t="n">
         <v>1.72</v>
@@ -3853,7 +3853,7 @@
         <v>22</v>
       </c>
       <c r="AG25" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH25" t="n">
         <v>18.5</v>
@@ -3910,19 +3910,19 @@
         <v>4.2</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="H26" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="I26" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
         <v>1.31</v>
@@ -3937,10 +3937,10 @@
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.81</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
         <v>1.39</v>
@@ -3955,13 +3955,13 @@
         <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="W26" t="n">
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
         <v>10.5</v>
@@ -4045,7 +4045,7 @@
         <v>2.64</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
@@ -4075,31 +4075,31 @@
         <v>1.66</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.38</v>
+        <v>2.42</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T27" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="V27" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="X27" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="Z27" t="n">
         <v>20</v>
@@ -4108,10 +4108,10 @@
         <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD27" t="n">
         <v>14</v>
@@ -4132,7 +4132,7 @@
         <v>65</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK27" t="n">
         <v>34</v>
@@ -4147,7 +4147,7 @@
         <v>36</v>
       </c>
       <c r="AO27" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28">
@@ -4177,16 +4177,16 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="G28" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="H28" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="J28" t="n">
         <v>3.9</v>
@@ -4195,7 +4195,7 @@
         <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
@@ -4204,85 +4204,85 @@
         <v>3.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P28" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R28" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S28" t="n">
         <v>3.4</v>
       </c>
       <c r="T28" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U28" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="V28" t="n">
         <v>1.13</v>
       </c>
       <c r="W28" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="X28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y28" t="n">
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>75</v>
+        <v>190</v>
       </c>
       <c r="AA28" t="n">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>11.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>540</v>
       </c>
       <c r="AF28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG28" t="n">
         <v>10.5</v>
       </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH28" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="AI28" t="n">
         <v>430</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN28" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AO28" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G29" t="n">
         <v>4.7</v>
@@ -4336,13 +4336,13 @@
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="Q29" t="n">
         <v>2.08</v>
@@ -4351,13 +4351,13 @@
         <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="T29" t="n">
         <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
         <v>1.83</v>
@@ -4369,10 +4369,10 @@
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
         <v>27</v>
@@ -4384,37 +4384,37 @@
         <v>8.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF29" t="n">
         <v>32</v>
       </c>
       <c r="AG29" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AL29" t="n">
-        <v>1000</v>
+        <v>380</v>
       </c>
       <c r="AM29" t="n">
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -4447,13 +4447,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="G30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H30" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="I30" t="n">
         <v>2.78</v>
@@ -4480,10 +4480,10 @@
         <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S30" t="n">
         <v>4.4</v>
@@ -4498,7 +4498,7 @@
         <v>1.56</v>
       </c>
       <c r="W30" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X30" t="n">
         <v>13</v>
@@ -4582,22 +4582,22 @@
         </is>
       </c>
       <c r="F31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G31" t="n">
         <v>1.53</v>
-      </c>
-      <c r="G31" t="n">
-        <v>1.54</v>
       </c>
       <c r="H31" t="n">
         <v>6.6</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="J31" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K31" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L31" t="n">
         <v>1.27</v>
@@ -4612,16 +4612,16 @@
         <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="Q31" t="n">
         <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="S31" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="T31" t="n">
         <v>1.73</v>
@@ -4633,7 +4633,7 @@
         <v>1.17</v>
       </c>
       <c r="W31" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="X31" t="n">
         <v>25</v>
@@ -4720,16 +4720,16 @@
         <v>3.3</v>
       </c>
       <c r="G32" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="H32" t="n">
         <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="J32" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="K32" t="n">
         <v>3.4</v>
@@ -4747,7 +4747,7 @@
         <v>1.39</v>
       </c>
       <c r="P32" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q32" t="n">
         <v>2.18</v>
@@ -4765,7 +4765,7 @@
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="W32" t="n">
         <v>1.34</v>
@@ -4786,10 +4786,10 @@
         <v>1000</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AD32" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AE32" t="n">
         <v>1000</v>
@@ -4798,7 +4798,7 @@
         <v>1000</v>
       </c>
       <c r="AG32" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AH32" t="n">
         <v>46</v>
@@ -4864,40 +4864,40 @@
         <v>1.97</v>
       </c>
       <c r="J33" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
         <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="R33" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="T33" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="V33" t="n">
         <v>2.02</v>
@@ -4906,10 +4906,10 @@
         <v>1.3</v>
       </c>
       <c r="X33" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z33" t="n">
         <v>13.5</v>
@@ -4933,10 +4933,10 @@
         <v>36</v>
       </c>
       <c r="AG33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AH33" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AI33" t="n">
         <v>70</v>
@@ -4951,7 +4951,7 @@
         <v>130</v>
       </c>
       <c r="AM33" t="n">
-        <v>85</v>
+        <v>200</v>
       </c>
       <c r="AN33" t="n">
         <v>980</v>
@@ -4990,13 +4990,13 @@
         <v>2.06</v>
       </c>
       <c r="G34" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="I34" t="n">
         <v>4.4</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.4</v>
@@ -5005,22 +5005,22 @@
         <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="O34" t="n">
         <v>1.5</v>
       </c>
       <c r="P34" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5029,25 +5029,25 @@
         <v>5</v>
       </c>
       <c r="T34" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="U34" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V34" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="X34" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA34" t="n">
         <v>110</v>
@@ -5131,13 +5131,13 @@
         <v>1.65</v>
       </c>
       <c r="I35" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="J35" t="n">
         <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
         <v>1.38</v>
@@ -5152,10 +5152,10 @@
         <v>1.28</v>
       </c>
       <c r="P35" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R35" t="n">
         <v>1.42</v>
@@ -5200,7 +5200,7 @@
         <v>16.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -5218,7 +5218,7 @@
         <v>85</v>
       </c>
       <c r="AL35" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AM35" t="n">
         <v>120</v>
@@ -5227,7 +5227,7 @@
         <v>95</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="36">
@@ -5263,10 +5263,10 @@
         <v>1.81</v>
       </c>
       <c r="H36" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="J36" t="n">
         <v>4</v>
@@ -5284,25 +5284,25 @@
         <v>4.9</v>
       </c>
       <c r="O36" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="S36" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T36" t="n">
         <v>1.66</v>
       </c>
       <c r="U36" t="n">
-        <v>2.34</v>
+        <v>2.26</v>
       </c>
       <c r="V36" t="n">
         <v>1.22</v>
@@ -5311,7 +5311,7 @@
         <v>2.24</v>
       </c>
       <c r="X36" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y36" t="n">
         <v>25</v>
@@ -5323,10 +5323,10 @@
         <v>110</v>
       </c>
       <c r="AB36" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC36" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
         <v>22</v>
@@ -5335,7 +5335,7 @@
         <v>150</v>
       </c>
       <c r="AF36" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AG36" t="n">
         <v>12</v>
@@ -5362,7 +5362,7 @@
         <v>7.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -676,10 +676,10 @@
         <v>2.8</v>
       </c>
       <c r="I2" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="K2" t="n">
         <v>3.7</v>
@@ -694,25 +694,25 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T2" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="V2" t="n">
         <v>1.53</v>
@@ -742,7 +742,7 @@
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="n">
         <v>17.5</v>
@@ -766,13 +766,13 @@
         <v>40</v>
       </c>
       <c r="AM2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO2" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
@@ -802,16 +802,16 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="G3" t="n">
-        <v>2.86</v>
+        <v>2.76</v>
       </c>
       <c r="H3" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.66</v>
+        <v>2.72</v>
       </c>
       <c r="J3" t="n">
         <v>3.7</v>
@@ -820,67 +820,67 @@
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>2.14</v>
+        <v>2.08</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.82</v>
+        <v>1.89</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="U3" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W3" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z3" t="n">
         <v>18</v>
       </c>
       <c r="AA3" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB3" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AE3" t="n">
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
@@ -904,10 +904,10 @@
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -937,73 +937,73 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="G4" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="I4" t="n">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="J4" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K4" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L4" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="O4" t="n">
         <v>1.43</v>
       </c>
       <c r="P4" t="n">
-        <v>1.62</v>
+        <v>1.68</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.06</v>
+        <v>2.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="V4" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="W4" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X4" t="n">
         <v>11.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>10.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB4" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
         <v>8.4</v>
@@ -1012,19 +1012,19 @@
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AH4" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="G5" t="n">
         <v>1.73</v>
@@ -1120,7 +1120,7 @@
         <v>3.15</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W5" t="n">
         <v>2.36</v>
@@ -1210,13 +1210,13 @@
         <v>5.6</v>
       </c>
       <c r="G6" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="I6" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="J6" t="n">
         <v>3.75</v>
@@ -1225,13 +1225,13 @@
         <v>4.4</v>
       </c>
       <c r="L6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>2.94</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
         <v>1.38</v>
@@ -1240,13 +1240,13 @@
         <v>1.85</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R6" t="n">
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
@@ -1255,19 +1255,19 @@
         <v>1.75</v>
       </c>
       <c r="V6" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="W6" t="n">
         <v>1.14</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1276,10 +1276,10 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="G7" t="n">
         <v>3.05</v>
@@ -1354,28 +1354,28 @@
         <v>3.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
       </c>
       <c r="L7" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="M7" t="n">
         <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="P7" t="n">
         <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="R7" t="n">
         <v>1.2</v>
@@ -1387,13 +1387,13 @@
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="X7" t="n">
         <v>9.4</v>
@@ -1417,10 +1417,10 @@
         <v>14.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="AF7" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AG7" t="n">
         <v>14</v>
@@ -1429,25 +1429,25 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AL7" t="n">
         <v>120</v>
       </c>
-      <c r="AL7" t="n">
-        <v>70</v>
-      </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
+        <v>55</v>
+      </c>
+      <c r="AO7" t="n">
         <v>60</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1483,91 +1483,91 @@
         <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.56</v>
+        <v>2.48</v>
       </c>
       <c r="I8" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="L8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="R8" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.73</v>
+        <v>1.66</v>
       </c>
       <c r="U8" t="n">
-        <v>2.12</v>
+        <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X8" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>20</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>25</v>
       </c>
-      <c r="Y8" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>29</v>
-      </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK8" t="n">
         <v>1000</v>
@@ -1582,7 +1582,7 @@
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -1612,40 +1612,40 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>3.45</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.56</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>2.84</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.18</v>
       </c>
       <c r="N9" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P9" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
@@ -1657,34 +1657,34 @@
         <v>2.44</v>
       </c>
       <c r="U9" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="V9" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="W9" t="n">
         <v>1.36</v>
       </c>
       <c r="X9" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
         <v>55</v>
@@ -1693,19 +1693,19 @@
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AK9" t="n">
-        <v>85</v>
+        <v>190</v>
       </c>
       <c r="AL9" t="n">
         <v>1000</v>
@@ -1717,7 +1717,7 @@
         <v>600</v>
       </c>
       <c r="AO9" t="n">
-        <v>80</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
@@ -1747,16 +1747,16 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="J10" t="n">
         <v>5</v>
@@ -1765,94 +1765,94 @@
         <v>5.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
         <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R10" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S10" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2.16</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="V10" t="n">
         <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AC10" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AI10" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AJ10" t="n">
-        <v>560</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
         <v>520</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>6.8</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11">
@@ -1885,58 +1885,58 @@
         <v>1.67</v>
       </c>
       <c r="G11" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="I11" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N11" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X11" t="n">
         <v>8.199999999999999</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X11" t="n">
-        <v>8.4</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
@@ -1948,46 +1948,46 @@
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE11" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI11" t="n">
-        <v>300</v>
+        <v>460</v>
       </c>
       <c r="AJ11" t="n">
         <v>17.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL11" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AM11" t="n">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="AN11" t="n">
         <v>21</v>
       </c>
       <c r="AO11" t="n">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12">
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="G12" t="n">
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
         <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="M12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="O12" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="P12" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="R12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.26</v>
+        <v>1.05</v>
       </c>
       <c r="U12" t="n">
-        <v>1.64</v>
+        <v>1.04</v>
       </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
         <v>1.5</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="Z12" t="n">
         <v>22</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>420</v>
+        <v>230</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2155,43 +2155,43 @@
         <v>1.9</v>
       </c>
       <c r="G13" t="n">
-        <v>2.58</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>2.96</v>
+        <v>3.65</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.55</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>10.5</v>
+        <v>4.7</v>
       </c>
       <c r="L13" t="n">
-        <v>1.01</v>
+        <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>2.26</v>
+        <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>1.42</v>
+        <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.21</v>
+        <v>1.68</v>
       </c>
       <c r="R13" t="n">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.46</v>
+        <v>2.74</v>
       </c>
       <c r="T13" t="n">
         <v>1.05</v>
@@ -2200,10 +2200,10 @@
         <v>1.01</v>
       </c>
       <c r="V13" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>1.63</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
         <v>1000</v>
@@ -2290,19 +2290,19 @@
         <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I14" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="J14" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.46</v>
@@ -2311,88 +2311,88 @@
         <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.86</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.26</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="T14" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
         <v>1.17</v>
       </c>
       <c r="W14" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z14" t="n">
         <v>55</v>
       </c>
       <c r="AA14" t="n">
-        <v>220</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC14" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI14" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
@@ -2422,112 +2422,112 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
       </c>
       <c r="L15" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>2.28</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="S15" t="n">
-        <v>2.78</v>
+        <v>2.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.46</v>
+        <v>2.34</v>
       </c>
       <c r="V15" t="n">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z15" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AE15" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG15" t="n">
         <v>11</v>
       </c>
       <c r="AH15" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2575,22 +2575,22 @@
         <v>3.8</v>
       </c>
       <c r="L16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
         <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.2</v>
+        <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="R16" t="n">
         <v>1.49</v>
@@ -2602,10 +2602,10 @@
         <v>1.67</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="V16" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
         <v>1.85</v>
@@ -2656,7 +2656,7 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>75</v>
+        <v>330</v>
       </c>
       <c r="AN16" t="n">
         <v>13.5</v>
@@ -2695,55 +2695,55 @@
         <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I17" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S17" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U17" t="n">
         <v>2.48</v>
       </c>
-      <c r="T17" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.46</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="W17" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H18" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="I18" t="n">
-        <v>2.98</v>
+        <v>2.94</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="O18" t="n">
         <v>1.33</v>
@@ -2860,25 +2860,25 @@
         <v>1.9</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="R18" t="n">
         <v>1.35</v>
       </c>
       <c r="S18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U18" t="n">
         <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X18" t="n">
         <v>16.5</v>
@@ -2920,7 +2920,7 @@
         <v>55</v>
       </c>
       <c r="AK18" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL18" t="n">
         <v>55</v>
@@ -2962,112 +2962,112 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="H19" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
         <v>1.58</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="X19" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y19" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AB19" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>42</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AK19" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AL19" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AN19" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
@@ -3103,19 +3103,19 @@
         <v>1.25</v>
       </c>
       <c r="H20" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="J20" t="n">
-        <v>7.8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="L20" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="M20" t="n">
         <v>1.01</v>
@@ -3130,13 +3130,13 @@
         <v>4.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="R20" t="n">
         <v>2.48</v>
       </c>
       <c r="S20" t="n">
-        <v>1.53</v>
+        <v>1.59</v>
       </c>
       <c r="T20" t="n">
         <v>1.63</v>
@@ -3166,7 +3166,7 @@
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
@@ -3175,19 +3175,19 @@
         <v>160</v>
       </c>
       <c r="AF20" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI20" t="n">
         <v>100</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="G21" t="n">
         <v>2.36</v>
@@ -3241,40 +3241,40 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="O21" t="n">
         <v>1.19</v>
       </c>
       <c r="P21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S21" t="n">
         <v>2.48</v>
       </c>
-      <c r="Q21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.38</v>
-      </c>
       <c r="T21" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="U21" t="n">
         <v>2.58</v>
@@ -3283,7 +3283,7 @@
         <v>1.45</v>
       </c>
       <c r="W21" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3367,13 +3367,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="G22" t="n">
         <v>1.31</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="I22" t="n">
         <v>13</v>
@@ -3385,7 +3385,7 @@
         <v>7.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
@@ -3403,22 +3403,22 @@
         <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="U22" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V22" t="n">
         <v>1.08</v>
       </c>
       <c r="W22" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="X22" t="n">
         <v>50</v>
@@ -3427,13 +3427,13 @@
         <v>150</v>
       </c>
       <c r="Z22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AA22" t="n">
         <v>410</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="AC22" t="n">
         <v>19</v>
@@ -3445,19 +3445,19 @@
         <v>170</v>
       </c>
       <c r="AF22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>15.5</v>
@@ -3517,37 +3517,37 @@
         <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="M23" t="n">
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.18</v>
       </c>
       <c r="P23" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="S23" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="T23" t="n">
         <v>1.58</v>
       </c>
       <c r="U23" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="V23" t="n">
         <v>1.43</v>
@@ -3562,13 +3562,13 @@
         <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA23" t="n">
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3577,7 +3577,7 @@
         <v>15</v>
       </c>
       <c r="AE23" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3589,19 +3589,19 @@
         <v>15.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ23" t="n">
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AN23" t="n">
         <v>12</v>
@@ -3646,37 +3646,37 @@
         <v>1.43</v>
       </c>
       <c r="I24" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="J24" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="O24" t="n">
         <v>1.15</v>
       </c>
       <c r="P24" t="n">
-        <v>2.82</v>
+        <v>2.9</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="R24" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="T24" t="n">
         <v>1.67</v>
@@ -3685,7 +3685,7 @@
         <v>2.22</v>
       </c>
       <c r="V24" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="W24" t="n">
         <v>1.13</v>
@@ -3712,7 +3712,7 @@
         <v>13.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>970</v>
+        <v>1000</v>
       </c>
       <c r="AF24" t="n">
         <v>1000</v>
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="G25" t="n">
         <v>2.4</v>
@@ -3784,73 +3784,73 @@
         <v>3.3</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="R25" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="S25" t="n">
-        <v>2.02</v>
+        <v>2.58</v>
       </c>
       <c r="T25" t="n">
         <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="V25" t="n">
         <v>1.44</v>
       </c>
       <c r="W25" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="Y25" t="n">
+        <v>18</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>130</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF25" t="n">
         <v>21</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>22</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
@@ -3865,7 +3865,7 @@
         <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>30</v>
@@ -3874,7 +3874,7 @@
         <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO25" t="n">
         <v>25</v>
@@ -3907,52 +3907,52 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="G26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="H26" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="I26" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="J26" t="n">
         <v>3.75</v>
       </c>
       <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
         <v>4.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>3.95</v>
       </c>
       <c r="O26" t="n">
         <v>1.27</v>
       </c>
       <c r="P26" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="R26" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>1.04</v>
       </c>
       <c r="V26" t="n">
         <v>2.02</v>
@@ -3961,40 +3961,40 @@
         <v>1.27</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="Y26" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AB26" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AC26" t="n">
-        <v>9.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AF26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG26" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AH26" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="AI26" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4012,7 +4012,7 @@
         <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>12.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="27">
@@ -4045,7 +4045,7 @@
         <v>2.64</v>
       </c>
       <c r="G27" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
@@ -4054,49 +4054,49 @@
         <v>3.25</v>
       </c>
       <c r="J27" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K27" t="n">
         <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="O27" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="P27" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="R27" t="n">
         <v>1.24</v>
       </c>
       <c r="S27" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="T27" t="n">
         <v>2.02</v>
       </c>
       <c r="U27" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>1.44</v>
       </c>
       <c r="W27" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="X27" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="Y27" t="n">
         <v>10.5</v>
@@ -4108,7 +4108,7 @@
         <v>60</v>
       </c>
       <c r="AB27" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC27" t="n">
         <v>7</v>
@@ -4138,10 +4138,10 @@
         <v>34</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM27" t="n">
-        <v>140</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
         <v>36</v>
@@ -4177,13 +4177,13 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G28" t="n">
         <v>1.64</v>
       </c>
       <c r="H28" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="I28" t="n">
         <v>8.4</v>
@@ -4195,31 +4195,31 @@
         <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="O28" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P28" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="R28" t="n">
         <v>1.33</v>
       </c>
       <c r="S28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T28" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U28" t="n">
         <v>1.83</v>
@@ -4237,10 +4237,10 @@
         <v>23</v>
       </c>
       <c r="Z28" t="n">
-        <v>190</v>
+        <v>70</v>
       </c>
       <c r="AA28" t="n">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="AB28" t="n">
         <v>7.8</v>
@@ -4261,7 +4261,7 @@
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI28" t="n">
         <v>430</v>
@@ -4270,16 +4270,16 @@
         <v>15.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL28" t="n">
         <v>42</v>
       </c>
       <c r="AM28" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AO28" t="n">
         <v>220</v>
@@ -4318,49 +4318,49 @@
         <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="I29" t="n">
-        <v>2.2</v>
+        <v>2.14</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K29" t="n">
         <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="R29" t="n">
         <v>1.28</v>
       </c>
       <c r="S29" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T29" t="n">
         <v>1.87</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V29" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4369,7 +4369,7 @@
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z29" t="n">
         <v>13</v>
@@ -4402,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK29" t="n">
         <v>160</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -4465,13 +4465,13 @@
         <v>3.15</v>
       </c>
       <c r="L30" t="n">
-        <v>1.01</v>
+        <v>1.5</v>
       </c>
       <c r="M30" t="n">
         <v>1.1</v>
       </c>
       <c r="N30" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="O30" t="n">
         <v>1.43</v>
@@ -4480,7 +4480,7 @@
         <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="R30" t="n">
         <v>1.26</v>
@@ -4531,7 +4531,7 @@
         <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AI30" t="n">
         <v>130</v>
@@ -4588,22 +4588,22 @@
         <v>1.53</v>
       </c>
       <c r="H31" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="J31" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K31" t="n">
         <v>5.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="M31" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N31" t="n">
         <v>6</v>
@@ -4618,10 +4618,10 @@
         <v>1.57</v>
       </c>
       <c r="R31" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="T31" t="n">
         <v>1.73</v>
@@ -4630,7 +4630,7 @@
         <v>2.3</v>
       </c>
       <c r="V31" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="W31" t="n">
         <v>2.88</v>
@@ -4639,13 +4639,13 @@
         <v>25</v>
       </c>
       <c r="Y31" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="Z31" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AA31" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4663,7 +4663,7 @@
         <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
         <v>19</v>
@@ -4684,7 +4684,7 @@
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AO31" t="n">
         <v>70</v>
@@ -4717,31 +4717,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="G32" t="n">
         <v>3.95</v>
       </c>
       <c r="H32" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="J32" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O32" t="n">
         <v>1.39</v>
@@ -4750,13 +4750,13 @@
         <v>1.69</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
         <v>1.26</v>
       </c>
       <c r="S32" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="T32" t="n">
         <v>1.84</v>
@@ -4765,10 +4765,10 @@
         <v>1.94</v>
       </c>
       <c r="V32" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X32" t="n">
         <v>23</v>
@@ -4777,7 +4777,7 @@
         <v>11</v>
       </c>
       <c r="Z32" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AA32" t="n">
         <v>1000</v>
@@ -4852,25 +4852,25 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="G33" t="n">
         <v>4.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="I33" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="J33" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
@@ -4879,19 +4879,19 @@
         <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
         <v>2.22</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="R33" t="n">
         <v>1.47</v>
       </c>
       <c r="S33" t="n">
-        <v>2.8</v>
+        <v>2.86</v>
       </c>
       <c r="T33" t="n">
         <v>1.66</v>
@@ -4912,7 +4912,7 @@
         <v>12</v>
       </c>
       <c r="Z33" t="n">
-        <v>13.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA33" t="n">
         <v>23</v>
@@ -4933,7 +4933,7 @@
         <v>36</v>
       </c>
       <c r="AG33" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH33" t="n">
         <v>17.5</v>
@@ -4954,7 +4954,7 @@
         <v>200</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AO33" t="n">
         <v>11.5</v>
@@ -5005,7 +5005,7 @@
         <v>3.45</v>
       </c>
       <c r="L34" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M34" t="n">
         <v>1.11</v>
@@ -5020,7 +5020,7 @@
         <v>1.66</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
@@ -5089,7 +5089,7 @@
         <v>170</v>
       </c>
       <c r="AN34" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO34" t="n">
         <v>100</v>
@@ -5122,13 +5122,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="G35" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="H35" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I35" t="n">
         <v>1.67</v>
@@ -5146,22 +5146,22 @@
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P35" t="n">
-        <v>2.1</v>
+        <v>2.06</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="R35" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="T35" t="n">
         <v>1.87</v>
@@ -5200,7 +5200,7 @@
         <v>16.5</v>
       </c>
       <c r="AF35" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -5227,7 +5227,7 @@
         <v>95</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="36">
@@ -5257,13 +5257,13 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G36" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="H36" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I36" t="n">
         <v>5.6</v>
@@ -5275,46 +5275,46 @@
         <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="M36" t="n">
         <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="O36" t="n">
         <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="R36" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S36" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T36" t="n">
         <v>1.66</v>
       </c>
       <c r="U36" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V36" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="W36" t="n">
         <v>2.26</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.24</v>
       </c>
       <c r="X36" t="n">
         <v>25</v>
       </c>
       <c r="Y36" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
         <v>44</v>
@@ -5350,7 +5350,7 @@
         <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AL36" t="n">
         <v>29</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -673,106 +673,106 @@
         <v>2.7</v>
       </c>
       <c r="H2" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="J2" t="n">
         <v>3.6</v>
       </c>
       <c r="K2" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L2" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>1.07</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S2" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>1.58</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AA2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB2" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD2" t="n">
         <v>12.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH2" t="n">
         <v>17.5</v>
       </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI2" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AJ2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK2" t="n">
         <v>29</v>
       </c>
       <c r="AL2" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AN2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -802,76 +802,76 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H3" t="n">
         <v>2.74</v>
       </c>
-      <c r="G3" t="n">
+      <c r="I3" t="n">
         <v>2.76</v>
       </c>
-      <c r="H3" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K3" t="n">
         <v>3.8</v>
       </c>
       <c r="L3" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.08</v>
+        <v>2.18</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.89</v>
+        <v>1.81</v>
       </c>
       <c r="R3" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="S3" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T3" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="U3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="V3" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="W3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="X3" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y3" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AA3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AB3" t="n">
         <v>13</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD3" t="n">
         <v>12</v>
@@ -880,31 +880,31 @@
         <v>27</v>
       </c>
       <c r="AF3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AG3" t="n">
         <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AL3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM3" t="n">
         <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AO3" t="n">
         <v>21</v>
@@ -937,40 +937,40 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>6.4</v>
+        <v>7.4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.77</v>
+        <v>1.69</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="J4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O4" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -979,49 +979,49 @@
         <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="W4" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="X4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y4" t="n">
         <v>7</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AA4" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AC4" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG4" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AH4" t="n">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="AI4" t="n">
         <v>130</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="G5" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="I5" t="n">
         <v>5.2</v>
       </c>
       <c r="J5" t="n">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="K5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L5" t="n">
         <v>1.15</v>
@@ -1096,25 +1096,25 @@
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>1.02</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
         <v>1.07</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="S5" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="T5" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="U5" t="n">
         <v>3.15</v>
@@ -1123,7 +1123,7 @@
         <v>1.24</v>
       </c>
       <c r="W5" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1156,7 +1156,7 @@
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AL5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.2</v>
+        <v>3.95</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1246,7 +1246,7 @@
         <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T6" t="n">
         <v>2.08</v>
@@ -1267,7 +1267,7 @@
         <v>13.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>19</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA6" t="n">
         <v>900</v>
@@ -1276,7 +1276,7 @@
         <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD6" t="n">
         <v>8.800000000000001</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.76</v>
+        <v>2.72</v>
       </c>
       <c r="G7" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="J7" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
@@ -1363,49 +1363,49 @@
         <v>1.56</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="n">
         <v>2.68</v>
       </c>
       <c r="O7" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P7" t="n">
         <v>1.55</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="T7" t="n">
         <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="V7" t="n">
         <v>1.47</v>
       </c>
       <c r="W7" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X7" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB7" t="n">
         <v>9</v>
@@ -1414,10 +1414,10 @@
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE7" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AF7" t="n">
         <v>18.5</v>
@@ -1429,25 +1429,25 @@
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
         <v>55</v>
       </c>
       <c r="AK7" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AL7" t="n">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
+        <v>600</v>
+      </c>
+      <c r="AO7" t="n">
         <v>55</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1477,40 +1477,40 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H8" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I8" t="n">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="R8" t="n">
         <v>1.4</v>
@@ -1519,67 +1519,67 @@
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U8" t="n">
         <v>2.24</v>
       </c>
       <c r="V8" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W8" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X8" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB8" t="n">
         <v>20</v>
       </c>
-      <c r="Z8" t="n">
-        <v>42</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>27</v>
-      </c>
       <c r="AC8" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD8" t="n">
         <v>13</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AF8" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AG8" t="n">
-        <v>14.5</v>
+        <v>23</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AJ8" t="n">
         <v>200</v>
       </c>
       <c r="AK8" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AO8" t="n">
         <v>42</v>
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="G9" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="I9" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="J9" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="L9" t="n">
         <v>1.75</v>
@@ -1639,7 +1639,7 @@
         <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
@@ -1654,16 +1654,16 @@
         <v>7.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="U9" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="W9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
         <v>6.6</v>
@@ -1672,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
         <v>55</v>
@@ -1693,13 +1693,13 @@
         <v>25</v>
       </c>
       <c r="AG9" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
       </c>
       <c r="AI9" t="n">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="AJ9" t="n">
         <v>110</v>
@@ -1714,10 +1714,10 @@
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>600</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>19.5</v>
+        <v>11.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="I10" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K10" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P10" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>2.18</v>
       </c>
       <c r="U10" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V10" t="n">
         <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AB10" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AG10" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AH10" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="AK10" t="n">
-        <v>1000</v>
+        <v>230</v>
       </c>
       <c r="AL10" t="n">
         <v>520</v>
       </c>
       <c r="AM10" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AN10" t="n">
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>29</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="11">
@@ -1888,46 +1888,46 @@
         <v>1.71</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="I11" t="n">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
         <v>3.5</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="M11" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>2.42</v>
+        <v>2.26</v>
       </c>
       <c r="O11" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="U11" t="n">
         <v>1.45</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S11" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.47</v>
       </c>
       <c r="V11" t="n">
         <v>1.13</v>
@@ -1936,58 +1936,58 @@
         <v>2.4</v>
       </c>
       <c r="X11" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Y11" t="n">
         <v>16.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD11" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE11" t="n">
-        <v>230</v>
+        <v>280</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AI11" t="n">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="AJ11" t="n">
         <v>17.5</v>
       </c>
       <c r="AK11" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AM11" t="n">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AO11" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2023,25 +2023,25 @@
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I12" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="K12" t="n">
         <v>3.05</v>
       </c>
       <c r="L12" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="N12" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="O12" t="n">
         <v>1.68</v>
@@ -2050,28 +2050,28 @@
         <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="R12" t="n">
         <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="T12" t="n">
-        <v>1.05</v>
+        <v>2.32</v>
       </c>
       <c r="U12" t="n">
-        <v>1.04</v>
+        <v>1.64</v>
       </c>
       <c r="V12" t="n">
         <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="X12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>8.6</v>
@@ -2083,7 +2083,7 @@
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2152,112 +2152,112 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.9</v>
+        <v>1.94</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="H13" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
         <v>4.3</v>
       </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="K13" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>4.8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P13" t="n">
         <v>2.3</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="T13" t="n">
         <v>1.68</v>
       </c>
-      <c r="R13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.05</v>
-      </c>
       <c r="U13" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="X13" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="Y13" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
         <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>980</v>
+        <v>9.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AE13" t="n">
         <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
         <v>1000</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AK13" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
       <c r="AM13" t="n">
         <v>580</v>
       </c>
       <c r="AN13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO13" t="n">
-        <v>260</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14">
@@ -2287,112 +2287,112 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="G14" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="H14" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.46</v>
+        <v>1.53</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="P14" t="n">
-        <v>1.86</v>
+        <v>1.71</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="W14" t="n">
-        <v>2.46</v>
+        <v>2.3</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA14" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AB14" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="AD14" t="n">
         <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>260</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ14" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>18.5</v>
+        <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>580</v>
       </c>
       <c r="AN14" t="n">
-        <v>11.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>140</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
@@ -2425,16 +2425,16 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="H15" t="n">
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K15" t="n">
         <v>3.75</v>
@@ -2443,28 +2443,28 @@
         <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
         <v>4.7</v>
       </c>
       <c r="O15" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="S15" t="n">
-        <v>2.9</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="U15" t="n">
         <v>2.34</v>
@@ -2473,46 +2473,46 @@
         <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="X15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB15" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AF15" t="n">
         <v>13.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
       <c r="AJ15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK15" t="n">
         <v>19.5</v>
@@ -2521,13 +2521,13 @@
         <v>32</v>
       </c>
       <c r="AM15" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16">
@@ -2563,13 +2563,13 @@
         <v>2.18</v>
       </c>
       <c r="H16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J16" t="n">
         <v>3.75</v>
-      </c>
-      <c r="J16" t="n">
-        <v>3.7</v>
       </c>
       <c r="K16" t="n">
         <v>3.8</v>
@@ -2590,19 +2590,19 @@
         <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="S16" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="T16" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="V16" t="n">
         <v>1.37</v>
@@ -2611,13 +2611,13 @@
         <v>1.85</v>
       </c>
       <c r="X16" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y16" t="n">
         <v>17</v>
       </c>
-      <c r="Y16" t="n">
-        <v>16.5</v>
-      </c>
       <c r="Z16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
         <v>15</v>
@@ -2644,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AJ16" t="n">
         <v>27</v>
@@ -2656,13 +2656,13 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>330</v>
+        <v>200</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
@@ -2692,52 +2692,52 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
         <v>2.08</v>
       </c>
       <c r="H17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I17" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="J17" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="S17" t="n">
         <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="U17" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
         <v>1.34</v>
@@ -2755,31 +2755,31 @@
         <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB17" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE17" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
         <v>15.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
         <v>18.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AJ17" t="n">
         <v>26</v>
@@ -2791,7 +2791,7 @@
         <v>75</v>
       </c>
       <c r="AM17" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
         <v>11</v>
@@ -2830,13 +2830,13 @@
         <v>2.76</v>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>2.82</v>
+        <v>2.78</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J18" t="n">
         <v>3.3</v>
@@ -2851,88 +2851,88 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P18" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S18" t="n">
         <v>3.6</v>
       </c>
       <c r="T18" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V18" t="n">
         <v>1.52</v>
       </c>
       <c r="W18" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="X18" t="n">
-        <v>16.5</v>
+        <v>13.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>23</v>
+        <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>48</v>
+        <v>240</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AE18" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AF18" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AI18" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AJ18" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AK18" t="n">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="AL18" t="n">
-        <v>55</v>
+        <v>160</v>
       </c>
       <c r="AM18" t="n">
-        <v>110</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -2962,19 +2962,19 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G19" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="H19" t="n">
         <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="J19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
         <v>4.2</v>
@@ -2989,49 +2989,49 @@
         <v>4.9</v>
       </c>
       <c r="O19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P19" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="R19" t="n">
         <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="T19" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="U19" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V19" t="n">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="W19" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="X19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
@@ -3043,7 +3043,7 @@
         <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
@@ -3061,13 +3061,13 @@
         <v>160</v>
       </c>
       <c r="AM19" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN19" t="n">
         <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="20">
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="G20" t="n">
         <v>1.25</v>
@@ -3106,7 +3106,7 @@
         <v>11.5</v>
       </c>
       <c r="I20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J20" t="n">
         <v>8.199999999999999</v>
@@ -3124,43 +3124,43 @@
         <v>12</v>
       </c>
       <c r="O20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P20" t="n">
         <v>4.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="R20" t="n">
         <v>2.48</v>
       </c>
       <c r="S20" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="T20" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="U20" t="n">
-        <v>2.38</v>
+        <v>2.34</v>
       </c>
       <c r="V20" t="n">
         <v>1.07</v>
       </c>
       <c r="W20" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="Z20" t="n">
         <v>170</v>
       </c>
       <c r="AA20" t="n">
-        <v>1000</v>
+        <v>430</v>
       </c>
       <c r="AB20" t="n">
         <v>1000</v>
@@ -3199,7 +3199,7 @@
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,16 +3232,16 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.26</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.36</v>
+        <v>2.44</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2.86</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3250,7 +3250,7 @@
         <v>4.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -3259,13 +3259,13 @@
         <v>5.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
         <v>2.56</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
         <v>1.62</v>
@@ -3274,16 +3274,16 @@
         <v>2.48</v>
       </c>
       <c r="T21" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="U21" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3304,10 +3304,10 @@
         <v>13.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AE21" t="n">
-        <v>80</v>
+        <v>980</v>
       </c>
       <c r="AF21" t="n">
         <v>1000</v>
@@ -3325,7 +3325,7 @@
         <v>980</v>
       </c>
       <c r="AK21" t="n">
-        <v>980</v>
+        <v>65</v>
       </c>
       <c r="AL21" t="n">
         <v>980</v>
@@ -3334,7 +3334,7 @@
         <v>580</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,16 +3367,16 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="G22" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="H22" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="I22" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="J22" t="n">
         <v>6.4</v>
@@ -3403,22 +3403,22 @@
         <v>1.4</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="S22" t="n">
         <v>2</v>
       </c>
       <c r="T22" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V22" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="X22" t="n">
         <v>50</v>
@@ -3427,13 +3427,13 @@
         <v>150</v>
       </c>
       <c r="Z22" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AA22" t="n">
-        <v>410</v>
+        <v>340</v>
       </c>
       <c r="AB22" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AC22" t="n">
         <v>19</v>
@@ -3442,34 +3442,34 @@
         <v>50</v>
       </c>
       <c r="AE22" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AF22" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AG22" t="n">
         <v>13</v>
       </c>
       <c r="AH22" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AI22" t="n">
         <v>1000</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AK22" t="n">
         <v>15.5</v>
       </c>
       <c r="AL22" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="G23" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H23" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I23" t="n">
         <v>3.3</v>
@@ -3526,22 +3526,22 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="R23" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="S23" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T23" t="n">
         <v>1.58</v>
@@ -3553,7 +3553,7 @@
         <v>1.43</v>
       </c>
       <c r="W23" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="X23" t="n">
         <v>26</v>
@@ -3568,7 +3568,7 @@
         <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AC23" t="n">
         <v>10.5</v>
@@ -3583,7 +3583,7 @@
         <v>21</v>
       </c>
       <c r="AG23" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH23" t="n">
         <v>15.5</v>
@@ -3595,7 +3595,7 @@
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -3637,25 +3637,25 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="G24" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="I24" t="n">
         <v>1.49</v>
       </c>
       <c r="J24" t="n">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="K24" t="n">
         <v>6</v>
       </c>
       <c r="L24" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="M24" t="n">
         <v>1.02</v>
@@ -3664,52 +3664,52 @@
         <v>6.4</v>
       </c>
       <c r="O24" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="R24" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="U24" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
         <v>3</v>
       </c>
       <c r="W24" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z24" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="n">
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AD24" t="n">
-        <v>13.5</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>1000</v>
@@ -3718,13 +3718,13 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
       </c>
       <c r="AI24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25">
@@ -3772,22 +3772,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="G25" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I25" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J25" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="L25" t="n">
         <v>1.31</v>
@@ -3796,7 +3796,7 @@
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
@@ -3811,73 +3811,73 @@
         <v>1.56</v>
       </c>
       <c r="S25" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="T25" t="n">
         <v>1.6</v>
       </c>
       <c r="U25" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="W25" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="X25" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z25" t="n">
         <v>24</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>18</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
       </c>
       <c r="AB25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF25" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AI25" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AJ25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL25" t="n">
         <v>32</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>30</v>
       </c>
       <c r="AM25" t="n">
         <v>65</v>
       </c>
       <c r="AN25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
@@ -3907,28 +3907,28 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="G26" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H26" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="I26" t="n">
-        <v>1.97</v>
+        <v>1.88</v>
       </c>
       <c r="J26" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K26" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L26" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
         <v>4.2</v>
@@ -3940,61 +3940,61 @@
         <v>2.06</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="R26" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>1.04</v>
+        <v>2.08</v>
       </c>
       <c r="V26" t="n">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="W26" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="Y26" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z26" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AA26" t="n">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="AB26" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AC26" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="AF26" t="n">
+        <v>980</v>
+      </c>
+      <c r="AG26" t="n">
         <v>100</v>
       </c>
-      <c r="AG26" t="n">
-        <v>28</v>
-      </c>
       <c r="AH26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI26" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4009,10 +4009,10 @@
         <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>1000</v>
+        <v>260</v>
       </c>
       <c r="AO26" t="n">
-        <v>17.5</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,34 +4042,34 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="G27" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="H27" t="n">
         <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="J27" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K27" t="n">
         <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M27" t="n">
         <v>1.11</v>
       </c>
       <c r="N27" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="O27" t="n">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
       <c r="P27" t="n">
         <v>1.65</v>
@@ -4078,34 +4078,34 @@
         <v>2.44</v>
       </c>
       <c r="R27" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="S27" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T27" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
         <v>1.91</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="X27" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z27" t="n">
         <v>20</v>
       </c>
       <c r="AA27" t="n">
-        <v>60</v>
+        <v>150</v>
       </c>
       <c r="AB27" t="n">
         <v>8.800000000000001</v>
@@ -4114,40 +4114,40 @@
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AE27" t="n">
-        <v>44</v>
+        <v>980</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AI27" t="n">
-        <v>65</v>
+        <v>380</v>
       </c>
       <c r="AJ27" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AK27" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AL27" t="n">
-        <v>60</v>
+        <v>290</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AO27" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G28" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="H28" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="I28" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="J28" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K28" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="L28" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N28" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R28" t="n">
         <v>1.42</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.33</v>
-      </c>
       <c r="S28" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="T28" t="n">
-        <v>1.99</v>
+        <v>1.86</v>
       </c>
       <c r="U28" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="W28" t="n">
         <v>2.56</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="Y28" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z28" t="n">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="AA28" t="n">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="AB28" t="n">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>540</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI28" t="n">
         <v>430</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AL28" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AO28" t="n">
-        <v>220</v>
+        <v>170</v>
       </c>
     </row>
     <row r="29">
@@ -4318,7 +4318,7 @@
         <v>4.7</v>
       </c>
       <c r="H29" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="I29" t="n">
         <v>2.14</v>
@@ -4330,7 +4330,7 @@
         <v>3.7</v>
       </c>
       <c r="L29" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="M29" t="n">
         <v>1.08</v>
@@ -4342,25 +4342,25 @@
         <v>1.37</v>
       </c>
       <c r="P29" t="n">
-        <v>1.74</v>
+        <v>1.86</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R29" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S29" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="U29" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V29" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="W29" t="n">
         <v>1.27</v>
@@ -4369,13 +4369,13 @@
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AA29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB29" t="n">
         <v>14.5</v>
@@ -4390,7 +4390,7 @@
         <v>25</v>
       </c>
       <c r="AF29" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
         <v>18</v>
@@ -4405,7 +4405,7 @@
         <v>900</v>
       </c>
       <c r="AK29" t="n">
-        <v>160</v>
+        <v>65</v>
       </c>
       <c r="AL29" t="n">
         <v>380</v>
@@ -4414,7 +4414,7 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AO29" t="n">
         <v>19</v>
@@ -4480,19 +4480,19 @@
         <v>1.7</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="R30" t="n">
         <v>1.26</v>
       </c>
       <c r="S30" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U30" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V30" t="n">
         <v>1.56</v>
@@ -4501,7 +4501,7 @@
         <v>1.45</v>
       </c>
       <c r="X30" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y30" t="n">
         <v>10.5</v>
@@ -4543,7 +4543,7 @@
         <v>48</v>
       </c>
       <c r="AL30" t="n">
-        <v>290</v>
+        <v>150</v>
       </c>
       <c r="AM30" t="n">
         <v>580</v>
@@ -4582,25 +4582,25 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="G31" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H31" t="n">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K31" t="n">
         <v>5</v>
       </c>
-      <c r="K31" t="n">
-        <v>5.2</v>
-      </c>
       <c r="L31" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="n">
         <v>1.03</v>
@@ -4612,40 +4612,40 @@
         <v>1.18</v>
       </c>
       <c r="P31" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="R31" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="S31" t="n">
         <v>2.42</v>
       </c>
       <c r="T31" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="U31" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V31" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="W31" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="X31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z31" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="AB31" t="n">
         <v>12</v>
@@ -4654,25 +4654,25 @@
         <v>11.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF31" t="n">
         <v>11</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AH31" t="n">
         <v>19</v>
       </c>
       <c r="AI31" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ31" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AK31" t="n">
         <v>14</v>
@@ -4684,10 +4684,10 @@
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.6</v>
+        <v>5.9</v>
       </c>
       <c r="AO31" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
@@ -4717,43 +4717,43 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="G32" t="n">
         <v>3.95</v>
       </c>
       <c r="H32" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="I32" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K32" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
       </c>
       <c r="N32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>1.69</v>
+        <v>1.81</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="R32" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
         <v>4</v>
@@ -4762,10 +4762,10 @@
         <v>1.84</v>
       </c>
       <c r="U32" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="W32" t="n">
         <v>1.35</v>
@@ -4792,7 +4792,7 @@
         <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
@@ -4801,7 +4801,7 @@
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
@@ -4855,13 +4855,13 @@
         <v>4</v>
       </c>
       <c r="G33" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="H33" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="J33" t="n">
         <v>3.95</v>
@@ -4876,13 +4876,13 @@
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P33" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="Q33" t="n">
         <v>1.74</v>
@@ -4894,7 +4894,7 @@
         <v>2.86</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="U33" t="n">
         <v>2.28</v>
@@ -4903,19 +4903,19 @@
         <v>2.02</v>
       </c>
       <c r="W33" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="X33" t="n">
         <v>19.5</v>
       </c>
       <c r="Y33" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z33" t="n">
-        <v>16.5</v>
+        <v>14</v>
       </c>
       <c r="AA33" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB33" t="n">
         <v>19</v>
@@ -4927,7 +4927,7 @@
         <v>11</v>
       </c>
       <c r="AE33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
         <v>36</v>
@@ -4945,19 +4945,19 @@
         <v>1000</v>
       </c>
       <c r="AK33" t="n">
-        <v>200</v>
+        <v>980</v>
       </c>
       <c r="AL33" t="n">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="AM33" t="n">
         <v>200</v>
       </c>
       <c r="AN33" t="n">
-        <v>46</v>
+        <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -4987,7 +4987,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="G34" t="n">
         <v>2.1</v>
@@ -5011,22 +5011,22 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
       <c r="O34" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P34" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T34" t="n">
         <v>2.12</v>
@@ -5038,10 +5038,10 @@
         <v>1.29</v>
       </c>
       <c r="W34" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="X34" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y34" t="n">
         <v>12.5</v>
@@ -5053,10 +5053,10 @@
         <v>110</v>
       </c>
       <c r="AB34" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
         <v>17.5</v>
@@ -5071,7 +5071,7 @@
         <v>11</v>
       </c>
       <c r="AH34" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI34" t="n">
         <v>85</v>
@@ -5122,25 +5122,25 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="H35" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="I35" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="J35" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="K35" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L35" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
@@ -5149,31 +5149,31 @@
         <v>4.1</v>
       </c>
       <c r="O35" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="R35" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S35" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="U35" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="X35" t="n">
         <v>21</v>
@@ -5182,25 +5182,25 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AA35" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD35" t="n">
         <v>9.6</v>
       </c>
       <c r="AE35" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF35" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AG35" t="n">
         <v>23</v>
@@ -5209,13 +5209,13 @@
         <v>22</v>
       </c>
       <c r="AI35" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AJ35" t="n">
         <v>180</v>
       </c>
       <c r="AK35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AL35" t="n">
         <v>85</v>
@@ -5224,10 +5224,10 @@
         <v>120</v>
       </c>
       <c r="AN35" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="36">
@@ -5257,10 +5257,10 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G36" t="n">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="H36" t="n">
         <v>4.8</v>
@@ -5269,97 +5269,97 @@
         <v>5.6</v>
       </c>
       <c r="J36" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="K36" t="n">
         <v>4.8</v>
       </c>
       <c r="L36" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.44</v>
+        <v>2.64</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.61</v>
+        <v>1.56</v>
       </c>
       <c r="R36" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="S36" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="T36" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="U36" t="n">
-        <v>2.28</v>
+        <v>2.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W36" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="X36" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y36" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="Z36" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA36" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AB36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC36" t="n">
         <v>12</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>10.5</v>
       </c>
       <c r="AD36" t="n">
         <v>22</v>
       </c>
       <c r="AE36" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="AF36" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH36" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>130</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>19</v>
       </c>
-      <c r="AI36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>21</v>
-      </c>
       <c r="AK36" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AM36" t="n">
         <v>330</v>
       </c>
       <c r="AN36" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="AO36" t="n">
         <v>48</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.66</v>
+        <v>3.5</v>
       </c>
       <c r="G2" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H2" t="n">
-        <v>2.82</v>
+        <v>2.68</v>
       </c>
       <c r="I2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K2" t="n">
         <v>2.86</v>
       </c>
-      <c r="J2" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3.65</v>
-      </c>
       <c r="L2" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="S2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.45</v>
       </c>
-      <c r="M2" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.18</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.56</v>
       </c>
       <c r="W2" t="n">
-        <v>1.58</v>
+        <v>1.39</v>
       </c>
       <c r="X2" t="n">
-        <v>14.5</v>
+        <v>5.7</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="Z2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="AD2" t="n">
-        <v>12.5</v>
+        <v>17</v>
       </c>
       <c r="AE2" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AF2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.5</v>
+        <v>19.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>17.5</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="AK2" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AL2" t="n">
-        <v>42</v>
+        <v>230</v>
       </c>
       <c r="AM2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AO2" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,88 +802,88 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G3" t="n">
-        <v>2.68</v>
+        <v>2.62</v>
       </c>
       <c r="H3" t="n">
-        <v>2.74</v>
+        <v>2.84</v>
       </c>
       <c r="I3" t="n">
-        <v>2.76</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K3" t="n">
         <v>3.75</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.8</v>
       </c>
       <c r="L3" t="n">
         <v>1.38</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O3" t="n">
         <v>1.27</v>
       </c>
       <c r="P3" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="R3" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="S3" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U3" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V3" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="W3" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="X3" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y3" t="n">
         <v>13</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AB3" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AF3" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH3" t="n">
         <v>15.5</v>
@@ -892,22 +892,22 @@
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="AK3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL3" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -940,88 +940,88 @@
         <v>6</v>
       </c>
       <c r="G4" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K4" t="n">
         <v>3.6</v>
       </c>
-      <c r="K4" t="n">
-        <v>3.95</v>
-      </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="P4" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.24</v>
+        <v>2.38</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S4" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="V4" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="W4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AD4" t="n">
         <v>11.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="AF4" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="AG4" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AI4" t="n">
         <v>130</v>
@@ -1042,7 +1042,7 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="5">
@@ -1072,61 +1072,61 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="H5" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I5" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="K5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="M5" t="n">
         <v>1.01</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="P5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Q5" t="n">
         <v>1.23</v>
       </c>
       <c r="R5" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="T5" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="U5" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="V5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="Y5" t="n">
         <v>1000</v>
@@ -1144,7 +1144,7 @@
         <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AE5" t="n">
         <v>1000</v>
@@ -1153,10 +1153,10 @@
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
       <c r="AH5" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AI5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.95</v>
+        <v>4.1</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G6" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="H6" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="I6" t="n">
         <v>1.69</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K6" t="n">
         <v>4.4</v>
@@ -1237,19 +1237,19 @@
         <v>1.38</v>
       </c>
       <c r="P6" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S6" t="n">
-        <v>3.7</v>
+        <v>3.85</v>
       </c>
       <c r="T6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="U6" t="n">
         <v>1.75</v>
@@ -1258,13 +1258,13 @@
         <v>2.44</v>
       </c>
       <c r="W6" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="X6" t="n">
         <v>14.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>13.5</v>
+        <v>7.4</v>
       </c>
       <c r="Z6" t="n">
         <v>9.199999999999999</v>
@@ -1342,19 +1342,19 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.72</v>
+        <v>3.05</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="H7" t="n">
-        <v>2.8</v>
+        <v>2.56</v>
       </c>
       <c r="I7" t="n">
-        <v>3.15</v>
+        <v>2.78</v>
       </c>
       <c r="J7" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="K7" t="n">
         <v>3.3</v>
@@ -1372,7 +1372,7 @@
         <v>1.52</v>
       </c>
       <c r="P7" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="Q7" t="n">
         <v>2.58</v>
@@ -1384,58 +1384,58 @@
         <v>5.2</v>
       </c>
       <c r="T7" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="V7" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="W7" t="n">
-        <v>1.51</v>
+        <v>1.43</v>
       </c>
       <c r="X7" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>900</v>
+        <v>75</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC7" t="n">
         <v>7.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AF7" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AG7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH7" t="n">
         <v>23</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AJ7" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK7" t="n">
         <v>55</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>120</v>
       </c>
       <c r="AL7" t="n">
         <v>190</v>
@@ -1444,10 +1444,10 @@
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>600</v>
+        <v>65</v>
       </c>
       <c r="AO7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8">
@@ -1477,31 +1477,31 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.88</v>
+        <v>3.05</v>
       </c>
       <c r="G8" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="H8" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="I8" t="n">
-        <v>2.74</v>
+        <v>2.48</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.28</v>
@@ -1510,7 +1510,7 @@
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="R8" t="n">
         <v>1.4</v>
@@ -1519,70 +1519,70 @@
         <v>3.1</v>
       </c>
       <c r="T8" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.67</v>
       </c>
-      <c r="U8" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.58</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>19.5</v>
+        <v>12.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>38</v>
+        <v>18.5</v>
       </c>
       <c r="AA8" t="n">
         <v>120</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AG8" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>200</v>
+        <v>900</v>
       </c>
       <c r="AK8" t="n">
-        <v>95</v>
+        <v>220</v>
       </c>
       <c r="AL8" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
         <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>42</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
@@ -1618,19 +1618,19 @@
         <v>3.75</v>
       </c>
       <c r="H9" t="n">
-        <v>2.62</v>
+        <v>2.68</v>
       </c>
       <c r="I9" t="n">
-        <v>2.9</v>
+        <v>2.96</v>
       </c>
       <c r="J9" t="n">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="K9" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="L9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="M9" t="n">
         <v>1.18</v>
@@ -1639,13 +1639,13 @@
         <v>2.12</v>
       </c>
       <c r="O9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="P9" t="n">
         <v>1.36</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="R9" t="n">
         <v>1.12</v>
@@ -1654,7 +1654,7 @@
         <v>7.8</v>
       </c>
       <c r="T9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="U9" t="n">
         <v>1.58</v>
@@ -1678,22 +1678,22 @@
         <v>55</v>
       </c>
       <c r="AB9" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC9" t="n">
         <v>7.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE9" t="n">
         <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH9" t="n">
         <v>32</v>
@@ -1702,7 +1702,7 @@
         <v>260</v>
       </c>
       <c r="AJ9" t="n">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="AK9" t="n">
         <v>190</v>
@@ -1717,7 +1717,7 @@
         <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
     </row>
     <row r="10">
@@ -1750,94 +1750,94 @@
         <v>10</v>
       </c>
       <c r="G10" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="H10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="I10" t="n">
         <v>1.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="M10" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P10" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q10" t="n">
         <v>1.86</v>
       </c>
       <c r="R10" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="T10" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="V10" t="n">
         <v>3.5</v>
       </c>
       <c r="W10" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="X10" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB10" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
         <v>12</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF10" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AG10" t="n">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="AH10" t="n">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>46</v>
       </c>
       <c r="AJ10" t="n">
-        <v>500</v>
+        <v>570</v>
       </c>
       <c r="AK10" t="n">
         <v>230</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1882,49 +1882,49 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="G11" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="H11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="I11" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="J11" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L11" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M11" t="n">
         <v>1.15</v>
       </c>
       <c r="N11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="P11" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="S11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="U11" t="n">
         <v>1.45</v>
@@ -1933,43 +1933,43 @@
         <v>1.13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.4</v>
+        <v>2.36</v>
       </c>
       <c r="X11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z11" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AE11" t="n">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG11" t="n">
         <v>12.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="AI11" t="n">
-        <v>380</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
         <v>17.5</v>
@@ -1978,16 +1978,16 @@
         <v>30</v>
       </c>
       <c r="AL11" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="n">
-        <v>630</v>
+        <v>660</v>
       </c>
       <c r="AN11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>960</v>
       </c>
     </row>
     <row r="12">
@@ -2017,46 +2017,46 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="G12" t="n">
         <v>2.98</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
         <v>3.6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="K12" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="L12" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="M12" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="N12" t="n">
-        <v>2.3</v>
+        <v>2.24</v>
       </c>
       <c r="O12" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="P12" t="n">
         <v>1.39</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="R12" t="n">
         <v>1.13</v>
       </c>
       <c r="S12" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="T12" t="n">
         <v>2.32</v>
@@ -2065,10 +2065,10 @@
         <v>1.64</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W12" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
         <v>7</v>
@@ -2107,7 +2107,7 @@
         <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>230</v>
+        <v>420</v>
       </c>
       <c r="AK12" t="n">
         <v>1000</v>
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.94</v>
+        <v>1.84</v>
       </c>
       <c r="G13" t="n">
-        <v>2.04</v>
+        <v>1.92</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="I13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K13" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="L13" t="n">
         <v>1.33</v>
@@ -2185,25 +2185,25 @@
         <v>2.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="R13" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="S13" t="n">
-        <v>2.78</v>
+        <v>2.76</v>
       </c>
       <c r="T13" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="U13" t="n">
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="W13" t="n">
-        <v>1.96</v>
+        <v>2.08</v>
       </c>
       <c r="X13" t="n">
         <v>40</v>
@@ -2212,34 +2212,34 @@
         <v>34</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
         <v>11.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AI13" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ13" t="n">
         <v>44</v>
@@ -2248,13 +2248,13 @@
         <v>36</v>
       </c>
       <c r="AL13" t="n">
-        <v>180</v>
+        <v>75</v>
       </c>
       <c r="AM13" t="n">
-        <v>580</v>
+        <v>330</v>
       </c>
       <c r="AN13" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO13" t="n">
         <v>44</v>
@@ -2296,7 +2296,7 @@
         <v>6</v>
       </c>
       <c r="I14" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2305,16 +2305,16 @@
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N14" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P14" t="n">
         <v>1.71</v>
@@ -2323,19 +2323,19 @@
         <v>2.36</v>
       </c>
       <c r="R14" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S14" t="n">
         <v>4.6</v>
       </c>
       <c r="T14" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V14" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W14" t="n">
         <v>2.3</v>
@@ -2344,28 +2344,28 @@
         <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Z14" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA14" t="n">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="AB14" t="n">
         <v>6.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD14" t="n">
         <v>24</v>
       </c>
       <c r="AE14" t="n">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG14" t="n">
         <v>10.5</v>
@@ -2374,7 +2374,7 @@
         <v>27</v>
       </c>
       <c r="AI14" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AJ14" t="n">
         <v>17.5</v>
@@ -2386,10 +2386,10 @@
         <v>50</v>
       </c>
       <c r="AM14" t="n">
-        <v>580</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>170</v>
@@ -2422,16 +2422,16 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="G15" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
         <v>3.7</v>
@@ -2446,7 +2446,7 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2458,34 +2458,34 @@
         <v>1.8</v>
       </c>
       <c r="R15" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z15" t="n">
         <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
@@ -2509,10 +2509,10 @@
         <v>16</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK15" t="n">
         <v>19.5</v>
@@ -2524,7 +2524,7 @@
         <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
         <v>40</v>
@@ -2557,22 +2557,22 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.14</v>
+        <v>2.22</v>
       </c>
       <c r="G16" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
         <v>3.75</v>
       </c>
       <c r="K16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="L16" t="n">
         <v>1.35</v>
@@ -2590,7 +2590,7 @@
         <v>2.26</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="R16" t="n">
         <v>1.5</v>
@@ -2602,28 +2602,28 @@
         <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="X16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z16" t="n">
         <v>27</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AB16" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC16" t="n">
         <v>8.6</v>
@@ -2638,16 +2638,16 @@
         <v>15</v>
       </c>
       <c r="AG16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI16" t="n">
         <v>42</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK16" t="n">
         <v>21</v>
@@ -2656,10 +2656,10 @@
         <v>32</v>
       </c>
       <c r="AM16" t="n">
-        <v>200</v>
+        <v>70</v>
       </c>
       <c r="AN16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO16" t="n">
         <v>30</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="G17" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="I17" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
         <v>3.9</v>
@@ -2716,13 +2716,13 @@
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
         <v>1.2</v>
       </c>
       <c r="P17" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q17" t="n">
         <v>1.61</v>
@@ -2734,16 +2734,16 @@
         <v>2.56</v>
       </c>
       <c r="T17" t="n">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="V17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
         <v>26</v>
@@ -2755,7 +2755,7 @@
         <v>85</v>
       </c>
       <c r="AA17" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
         <v>22</v>
@@ -2827,22 +2827,22 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.76</v>
+        <v>2.84</v>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="H18" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="I18" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="L18" t="n">
         <v>1.43</v>
@@ -2860,28 +2860,28 @@
         <v>1.89</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R18" t="n">
         <v>1.34</v>
       </c>
       <c r="S18" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="T18" t="n">
         <v>1.76</v>
       </c>
       <c r="U18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W18" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="X18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>11.5</v>
@@ -2890,13 +2890,13 @@
         <v>19.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>240</v>
+        <v>50</v>
       </c>
       <c r="AB18" t="n">
         <v>11</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD18" t="n">
         <v>13</v>
@@ -2911,7 +2911,7 @@
         <v>12.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI18" t="n">
         <v>160</v>
@@ -2920,7 +2920,7 @@
         <v>46</v>
       </c>
       <c r="AK18" t="n">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="AL18" t="n">
         <v>160</v>
@@ -2932,7 +2932,7 @@
         <v>30</v>
       </c>
       <c r="AO18" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G19" t="n">
         <v>3.75</v>
@@ -2971,16 +2971,16 @@
         <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="J19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K19" t="n">
         <v>4.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
@@ -2995,64 +2995,64 @@
         <v>2.34</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="R19" t="n">
         <v>1.53</v>
       </c>
       <c r="S19" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="T19" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="U19" t="n">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W19" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="X19" t="n">
         <v>22</v>
       </c>
       <c r="Y19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA19" t="n">
         <v>28</v>
       </c>
       <c r="AB19" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD19" t="n">
         <v>11.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AF19" t="n">
         <v>65</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="AJ19" t="n">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="AK19" t="n">
         <v>210</v>
@@ -3097,22 +3097,22 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="H20" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J20" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>1.16</v>
@@ -3121,61 +3121,61 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Q20" t="n">
         <v>1.24</v>
       </c>
       <c r="R20" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="S20" t="n">
         <v>1.61</v>
       </c>
       <c r="T20" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U20" t="n">
-        <v>2.34</v>
+        <v>2.48</v>
       </c>
       <c r="V20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="X20" t="n">
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AA20" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AB20" t="n">
         <v>1000</v>
       </c>
       <c r="AC20" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AD20" t="n">
         <v>1000</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AG20" t="n">
         <v>1000</v>
@@ -3184,10 +3184,10 @@
         <v>32</v>
       </c>
       <c r="AI20" t="n">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>1000</v>
@@ -3232,19 +3232,19 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="H21" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="K21" t="n">
         <v>4.3</v>
@@ -3256,34 +3256,34 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="S21" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="T21" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>2.66</v>
       </c>
       <c r="V21" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
@@ -3298,7 +3298,7 @@
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AC21" t="n">
         <v>13.5</v>
@@ -3367,7 +3367,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="G22" t="n">
         <v>1.33</v>
@@ -3376,13 +3376,13 @@
         <v>10.5</v>
       </c>
       <c r="I22" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="J22" t="n">
         <v>6.4</v>
       </c>
       <c r="K22" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="L22" t="n">
         <v>1.22</v>
@@ -3397,22 +3397,22 @@
         <v>1.12</v>
       </c>
       <c r="P22" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="R22" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="T22" t="n">
         <v>1.75</v>
       </c>
       <c r="U22" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="V22" t="n">
         <v>1.09</v>
@@ -3421,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="X22" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="Y22" t="n">
         <v>150</v>
@@ -3433,13 +3433,13 @@
         <v>340</v>
       </c>
       <c r="AB22" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AD22" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AE22" t="n">
         <v>150</v>
@@ -3469,7 +3469,7 @@
         <v>1000</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AO22" t="n">
         <v>1000</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.24</v>
+        <v>2.32</v>
       </c>
       <c r="G23" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="H23" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K23" t="n">
         <v>4.1</v>
@@ -3526,58 +3526,58 @@
         <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="O23" t="n">
         <v>1.19</v>
       </c>
       <c r="P23" t="n">
-        <v>2.56</v>
+        <v>2.54</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="R23" t="n">
         <v>1.63</v>
       </c>
       <c r="S23" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="U23" t="n">
-        <v>2.64</v>
+        <v>2.74</v>
       </c>
       <c r="V23" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="W23" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="X23" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA23" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AB23" t="n">
         <v>15.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AD23" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF23" t="n">
         <v>21</v>
@@ -3595,19 +3595,19 @@
         <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL23" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM23" t="n">
         <v>55</v>
       </c>
       <c r="AN23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="24">
@@ -3637,22 +3637,22 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.6</v>
+        <v>6.2</v>
       </c>
       <c r="G24" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="H24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="I24" t="n">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="J24" t="n">
         <v>5.1</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="L24" t="n">
         <v>1.26</v>
@@ -3661,40 +3661,40 @@
         <v>1.02</v>
       </c>
       <c r="N24" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="O24" t="n">
         <v>1.16</v>
       </c>
       <c r="P24" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="R24" t="n">
         <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="T24" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.28</v>
       </c>
       <c r="V24" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="W24" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="X24" t="n">
         <v>1000</v>
       </c>
       <c r="Y24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Z24" t="n">
         <v>25</v>
@@ -3706,7 +3706,7 @@
         <v>1000</v>
       </c>
       <c r="AC24" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AD24" t="n">
         <v>24</v>
@@ -3718,7 +3718,7 @@
         <v>1000</v>
       </c>
       <c r="AG24" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AH24" t="n">
         <v>1000</v>
@@ -3742,7 +3742,7 @@
         <v>1000</v>
       </c>
       <c r="AO24" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="25">
@@ -3772,67 +3772,67 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="G25" t="n">
-        <v>2.52</v>
+        <v>2.42</v>
       </c>
       <c r="H25" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I25" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="J25" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="K25" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L25" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M25" t="n">
         <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="O25" t="n">
         <v>1.2</v>
       </c>
       <c r="P25" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="R25" t="n">
-        <v>1.56</v>
+        <v>1.59</v>
       </c>
       <c r="S25" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="T25" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="U25" t="n">
         <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="W25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X25" t="n">
         <v>23</v>
       </c>
       <c r="Y25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Z25" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA25" t="n">
         <v>130</v>
@@ -3841,43 +3841,43 @@
         <v>15</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD25" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF25" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AG25" t="n">
         <v>12.5</v>
       </c>
       <c r="AH25" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI25" t="n">
         <v>36</v>
       </c>
       <c r="AJ25" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL25" t="n">
         <v>32</v>
       </c>
       <c r="AM25" t="n">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="AN25" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26">
@@ -3910,49 +3910,49 @@
         <v>4.5</v>
       </c>
       <c r="G26" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="H26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N26" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="Q26" t="n">
         <v>1.8</v>
       </c>
-      <c r="I26" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.82</v>
-      </c>
       <c r="R26" t="n">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="S26" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T26" t="n">
         <v>1.75</v>
       </c>
       <c r="U26" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="V26" t="n">
         <v>2.12</v>
@@ -3961,10 +3961,10 @@
         <v>1.25</v>
       </c>
       <c r="X26" t="n">
-        <v>32</v>
+        <v>19.5</v>
       </c>
       <c r="Y26" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z26" t="n">
         <v>12.5</v>
@@ -3982,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="AE26" t="n">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="AF26" t="n">
         <v>980</v>
@@ -3991,10 +3991,10 @@
         <v>100</v>
       </c>
       <c r="AH26" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AI26" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="n">
         <v>1000</v>
@@ -4003,16 +4003,16 @@
         <v>1000</v>
       </c>
       <c r="AL26" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AM26" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN26" t="n">
-        <v>260</v>
+        <v>1000</v>
       </c>
       <c r="AO26" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="27">
@@ -4042,112 +4042,112 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.66</v>
+        <v>2.7</v>
       </c>
       <c r="G27" t="n">
         <v>2.76</v>
       </c>
       <c r="H27" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="I27" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.15</v>
       </c>
       <c r="K27" t="n">
         <v>3.25</v>
       </c>
       <c r="L27" t="n">
-        <v>1.54</v>
+        <v>1.52</v>
       </c>
       <c r="M27" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N27" t="n">
-        <v>2.98</v>
+        <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="P27" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.44</v>
+        <v>2.28</v>
       </c>
       <c r="R27" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="S27" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="T27" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U27" t="n">
         <v>2</v>
-      </c>
-      <c r="U27" t="n">
-        <v>1.91</v>
       </c>
       <c r="V27" t="n">
         <v>1.46</v>
       </c>
       <c r="W27" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="X27" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y27" t="n">
         <v>10.5</v>
       </c>
-      <c r="Y27" t="n">
-        <v>9.800000000000001</v>
-      </c>
       <c r="Z27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AA27" t="n">
         <v>150</v>
       </c>
       <c r="AB27" t="n">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD27" t="n">
-        <v>25</v>
+        <v>13.5</v>
       </c>
       <c r="AE27" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AF27" t="n">
         <v>16</v>
       </c>
       <c r="AG27" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH27" t="n">
-        <v>980</v>
+        <v>18.5</v>
       </c>
       <c r="AI27" t="n">
-        <v>380</v>
+        <v>60</v>
       </c>
       <c r="AJ27" t="n">
-        <v>42</v>
+        <v>320</v>
       </c>
       <c r="AK27" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AL27" t="n">
-        <v>290</v>
+        <v>55</v>
       </c>
       <c r="AM27" t="n">
         <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AO27" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28">
@@ -4177,112 +4177,112 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="G28" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H28" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I28" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="J28" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="K28" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="L28" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N28" t="n">
-        <v>4.1</v>
+        <v>3.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="P28" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.84</v>
+        <v>2.26</v>
       </c>
       <c r="R28" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="S28" t="n">
-        <v>3.05</v>
+        <v>4.2</v>
       </c>
       <c r="T28" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="V28" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="W28" t="n">
-        <v>2.56</v>
+        <v>2.42</v>
       </c>
       <c r="X28" t="n">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Z28" t="n">
-        <v>230</v>
+        <v>65</v>
       </c>
       <c r="AA28" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
       <c r="AB28" t="n">
-        <v>9.4</v>
+        <v>6.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
         <v>540</v>
       </c>
       <c r="AF28" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG28" t="n">
         <v>10.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="AI28" t="n">
         <v>430</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK28" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AL28" t="n">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
         <v>580</v>
       </c>
       <c r="AN28" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AO28" t="n">
-        <v>170</v>
+        <v>300</v>
       </c>
     </row>
     <row r="29">
@@ -4312,16 +4312,16 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="G29" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="H29" t="n">
-        <v>1.98</v>
+        <v>1.94</v>
       </c>
       <c r="I29" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="J29" t="n">
         <v>3.3</v>
@@ -4336,7 +4336,7 @@
         <v>1.08</v>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O29" t="n">
         <v>1.37</v>
@@ -4354,31 +4354,31 @@
         <v>3.9</v>
       </c>
       <c r="T29" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U29" t="n">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="V29" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="W29" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X29" t="n">
         <v>12.5</v>
       </c>
       <c r="Y29" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="Z29" t="n">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="AA29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB29" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AC29" t="n">
         <v>8.199999999999999</v>
@@ -4387,13 +4387,13 @@
         <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="AG29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH29" t="n">
         <v>21</v>
@@ -4402,10 +4402,10 @@
         <v>44</v>
       </c>
       <c r="AJ29" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK29" t="n">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="AL29" t="n">
         <v>380</v>
@@ -4414,10 +4414,10 @@
         <v>1000</v>
       </c>
       <c r="AN29" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="AO29" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="30">
@@ -4453,106 +4453,106 @@
         <v>3.2</v>
       </c>
       <c r="H30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I30" t="n">
         <v>2.72</v>
       </c>
-      <c r="I30" t="n">
-        <v>2.78</v>
-      </c>
       <c r="J30" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L30" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N30" t="n">
         <v>3.1</v>
       </c>
-      <c r="K30" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N30" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O30" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="P30" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R30" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S30" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="T30" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U30" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V30" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="W30" t="n">
         <v>1.45</v>
       </c>
       <c r="X30" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB30" t="n">
         <v>11</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>12</v>
       </c>
       <c r="AC30" t="n">
         <v>7</v>
       </c>
       <c r="AD30" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE30" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK30" t="n">
         <v>42</v>
       </c>
-      <c r="AF30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI30" t="n">
+      <c r="AL30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM30" t="n">
         <v>130</v>
       </c>
-      <c r="AJ30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>580</v>
-      </c>
       <c r="AN30" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AO30" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31">
@@ -4582,16 +4582,16 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="G31" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="H31" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J31" t="n">
         <v>4.9</v>
@@ -4609,10 +4609,10 @@
         <v>6</v>
       </c>
       <c r="O31" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P31" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="Q31" t="n">
         <v>1.56</v>
@@ -4621,73 +4621,73 @@
         <v>1.68</v>
       </c>
       <c r="S31" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="T31" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="U31" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W31" t="n">
-        <v>2.74</v>
+        <v>2.64</v>
       </c>
       <c r="X31" t="n">
         <v>26</v>
       </c>
       <c r="Y31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z31" t="n">
         <v>55</v>
       </c>
       <c r="AA31" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AB31" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AC31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF31" t="n">
         <v>11.5</v>
       </c>
-      <c r="AD31" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>11</v>
-      </c>
       <c r="AG31" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH31" t="n">
-        <v>19</v>
+        <v>17.5</v>
       </c>
       <c r="AI31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL31" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AM31" t="n">
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="AO31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32">
@@ -4717,13 +4717,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="G32" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H32" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="I32" t="n">
         <v>2.5</v>
@@ -4735,7 +4735,7 @@
         <v>3.45</v>
       </c>
       <c r="L32" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="M32" t="n">
         <v>1.09</v>
@@ -4750,16 +4750,16 @@
         <v>1.81</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
         <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -4768,13 +4768,13 @@
         <v>1.67</v>
       </c>
       <c r="W32" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X32" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y32" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="Z32" t="n">
         <v>1000</v>
@@ -4783,7 +4783,7 @@
         <v>1000</v>
       </c>
       <c r="AB32" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AC32" t="n">
         <v>14</v>
@@ -4792,7 +4792,7 @@
         <v>1000</v>
       </c>
       <c r="AE32" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AF32" t="n">
         <v>1000</v>
@@ -4801,13 +4801,13 @@
         <v>1000</v>
       </c>
       <c r="AH32" t="n">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="AI32" t="n">
         <v>1000</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AK32" t="n">
         <v>1000</v>
@@ -4852,7 +4852,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="G33" t="n">
         <v>4.5</v>
@@ -4861,52 +4861,52 @@
         <v>1.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="J33" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="K33" t="n">
         <v>4.2</v>
       </c>
       <c r="L33" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="M33" t="n">
         <v>1.05</v>
       </c>
       <c r="N33" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P33" t="n">
         <v>2.28</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R33" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="S33" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="T33" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="U33" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="V33" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="W33" t="n">
         <v>1.29</v>
       </c>
       <c r="X33" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
         <v>11.5</v>
@@ -4957,7 +4957,7 @@
         <v>980</v>
       </c>
       <c r="AO33" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="34">
@@ -5011,28 +5011,28 @@
         <v>1.11</v>
       </c>
       <c r="N34" t="n">
-        <v>2.98</v>
+        <v>2.92</v>
       </c>
       <c r="O34" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P34" t="n">
         <v>1.65</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="R34" t="n">
         <v>1.23</v>
       </c>
       <c r="S34" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T34" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="U34" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V34" t="n">
         <v>1.29</v>
@@ -5044,7 +5044,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Z34" t="n">
         <v>29</v>
@@ -5053,10 +5053,10 @@
         <v>110</v>
       </c>
       <c r="AB34" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC34" t="n">
         <v>7.4</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD34" t="n">
         <v>17.5</v>
@@ -5125,61 +5125,61 @@
         <v>6</v>
       </c>
       <c r="G35" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="H35" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="I35" t="n">
         <v>1.66</v>
       </c>
       <c r="J35" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K35" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="L35" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M35" t="n">
         <v>1.06</v>
       </c>
       <c r="N35" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O35" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P35" t="n">
         <v>2.04</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R35" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S35" t="n">
         <v>3.35</v>
       </c>
       <c r="T35" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W35" t="n">
         <v>1.18</v>
       </c>
       <c r="X35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z35" t="n">
         <v>9.6</v>
@@ -5188,10 +5188,10 @@
         <v>15.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AC35" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AD35" t="n">
         <v>9.6</v>
@@ -5218,16 +5218,16 @@
         <v>90</v>
       </c>
       <c r="AL35" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AM35" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN35" t="n">
         <v>1000</v>
       </c>
       <c r="AO35" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="36">
@@ -5257,22 +5257,22 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="G36" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="H36" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="J36" t="n">
         <v>4.2</v>
       </c>
       <c r="K36" t="n">
-        <v>4.8</v>
+        <v>4.6</v>
       </c>
       <c r="L36" t="n">
         <v>1.29</v>
@@ -5281,22 +5281,22 @@
         <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.19</v>
       </c>
       <c r="P36" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="Q36" t="n">
         <v>1.56</v>
       </c>
       <c r="R36" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="S36" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="T36" t="n">
         <v>1.64</v>
@@ -5305,64 +5305,64 @@
         <v>2.4</v>
       </c>
       <c r="V36" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W36" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="X36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="Y36" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Z36" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA36" t="n">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="AB36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AC36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD36" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE36" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AF36" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG36" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH36" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI36" t="n">
         <v>130</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK36" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AL36" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>330</v>
+        <v>65</v>
       </c>
       <c r="AN36" t="n">
-        <v>6.8</v>
+        <v>7.4</v>
       </c>
       <c r="AO36" t="n">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO36"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Azerbaijan Premier League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>04:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Kapaz Ganja</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Brisbane Roar</t>
+          <t>PFK Turan Tovuz</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>3.6</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>2.68</v>
+        <v>1.02</v>
       </c>
       <c r="I2" t="n">
-        <v>2.74</v>
+        <v>1.03</v>
       </c>
       <c r="J2" t="n">
-        <v>2.84</v>
+        <v>34</v>
       </c>
       <c r="K2" t="n">
-        <v>2.86</v>
+        <v>65</v>
       </c>
       <c r="L2" t="n">
-        <v>3.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.04</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.28</v>
+        <v>2.42</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.4</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="S2" t="n">
-        <v>11.5</v>
+        <v>4.6</v>
       </c>
       <c r="T2" t="n">
-        <v>2.92</v>
+        <v>3.85</v>
       </c>
       <c r="U2" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="V2" t="n">
-        <v>1.56</v>
+        <v>34</v>
       </c>
       <c r="W2" t="n">
-        <v>1.39</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
-        <v>5.7</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>2.66</v>
       </c>
       <c r="AA2" t="n">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
-        <v>65</v>
+        <v>16.5</v>
       </c>
       <c r="AF2" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AI2" t="n">
-        <v>160</v>
+        <v>990</v>
       </c>
       <c r="AJ2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>230</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>170</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>110</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Friendly Matches</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>06:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Western Sydney Wanderers</t>
+          <t>TPS</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Auckland FC</t>
+          <t>KaPa</t>
         </is>
       </c>
       <c r="F3" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N3" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="S3" t="n">
         <v>2.6</v>
       </c>
-      <c r="G3" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P3" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
       <c r="T3" t="n">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.44</v>
+        <v>2.42</v>
       </c>
       <c r="V3" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="W3" t="n">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="X3" t="n">
-        <v>17.5</v>
+        <v>32</v>
       </c>
       <c r="Y3" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AA3" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AB3" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.199999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>12.5</v>
+        <v>16</v>
       </c>
       <c r="AE3" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AI3" t="n">
         <v>36</v>
       </c>
       <c r="AJ3" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL3" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AM3" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,108 +923,108 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kapaz Ganja</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6</v>
+        <v>6.8</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H4" t="n">
-        <v>1.75</v>
+        <v>1.59</v>
       </c>
       <c r="I4" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P4" t="n">
         <v>1.82</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.66</v>
-      </c>
       <c r="Q4" t="n">
-        <v>2.38</v>
+        <v>2.12</v>
       </c>
       <c r="R4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S4" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="U4" t="n">
-        <v>1.68</v>
+        <v>1.78</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.54</v>
       </c>
       <c r="W4" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AA4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AB4" t="n">
         <v>19.5</v>
       </c>
-      <c r="AB4" t="n">
-        <v>16</v>
-      </c>
       <c r="AC4" t="n">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AF4" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="n">
         <v>29</v>
       </c>
       <c r="AH4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,126 +1058,126 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:10:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KaPa</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P5" t="n">
         <v>1.58</v>
       </c>
-      <c r="G5" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="H5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>5</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K5" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="P5" t="n">
-        <v>4.3</v>
-      </c>
       <c r="Q5" t="n">
-        <v>1.23</v>
+        <v>2.58</v>
       </c>
       <c r="R5" t="n">
-        <v>2.4</v>
+        <v>1.2</v>
       </c>
       <c r="S5" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.37</v>
+        <v>2.06</v>
       </c>
       <c r="U5" t="n">
-        <v>3.1</v>
+        <v>1.81</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="W5" t="n">
-        <v>2.42</v>
+        <v>1.43</v>
       </c>
       <c r="X5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL5" t="n">
         <v>110</v>
       </c>
-      <c r="Y5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD5" t="n">
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO5" t="n">
         <v>55</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>28</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="G6" t="n">
-        <v>7.6</v>
+        <v>3.5</v>
       </c>
       <c r="H6" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T6" t="n">
         <v>1.69</v>
       </c>
-      <c r="J6" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.75</v>
+        <v>2.24</v>
       </c>
       <c r="V6" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="W6" t="n">
-        <v>1.15</v>
+        <v>1.42</v>
       </c>
       <c r="X6" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG6" t="n">
         <v>14.5</v>
       </c>
-      <c r="Y6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K7" t="n">
         <v>3.05</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L7" t="n">
-        <v>1.56</v>
+        <v>1.68</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.68</v>
+        <v>2.38</v>
       </c>
       <c r="O7" t="n">
-        <v>1.52</v>
+        <v>1.69</v>
       </c>
       <c r="P7" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.58</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.19</v>
+        <v>1.14</v>
       </c>
       <c r="S7" t="n">
-        <v>5.2</v>
+        <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="U7" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="V7" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="X7" t="n">
-        <v>9.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="Y7" t="n">
-        <v>8.4</v>
+        <v>7.6</v>
       </c>
       <c r="Z7" t="n">
         <v>16.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="AB7" t="n">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="AI7" t="n">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="AJ7" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>95</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>290</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO7" t="n">
         <v>65</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>190</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>44</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,126 +1463,126 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>3.05</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>3.3</v>
+        <v>18</v>
       </c>
       <c r="H8" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="I8" t="n">
-        <v>2.48</v>
+        <v>1.33</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>5.7</v>
       </c>
       <c r="K8" t="n">
-        <v>3.75</v>
+        <v>6.4</v>
       </c>
       <c r="L8" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="S8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U8" t="n">
         <v>1.66</v>
       </c>
-      <c r="U8" t="n">
-        <v>2.22</v>
-      </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>4</v>
       </c>
       <c r="W8" t="n">
-        <v>1.43</v>
+        <v>1.06</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA8" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>8.4</v>
+        <v>42</v>
       </c>
       <c r="AD8" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AF8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>38</v>
       </c>
       <c r="AI8" t="n">
         <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>900</v>
+        <v>790</v>
       </c>
       <c r="AK8" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>21</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="9">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.3</v>
+        <v>1.67</v>
       </c>
       <c r="G9" t="n">
-        <v>3.75</v>
+        <v>1.71</v>
       </c>
       <c r="H9" t="n">
-        <v>2.68</v>
+        <v>7.2</v>
       </c>
       <c r="I9" t="n">
-        <v>2.96</v>
+        <v>8.6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.64</v>
+        <v>3.35</v>
       </c>
       <c r="K9" t="n">
-        <v>2.92</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="M9" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="N9" t="n">
-        <v>2.12</v>
+        <v>2.28</v>
       </c>
       <c r="O9" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>1.36</v>
+        <v>1.43</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.12</v>
+        <v>1.15</v>
       </c>
       <c r="S9" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="X9" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>460</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF9" t="n">
         <v>7.8</v>
       </c>
-      <c r="T9" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="X9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>23</v>
-      </c>
       <c r="AG9" t="n">
-        <v>19</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="AI9" t="n">
-        <v>260</v>
+        <v>350</v>
       </c>
       <c r="AJ9" t="n">
-        <v>190</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>190</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="n">
         <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO9" t="n">
-        <v>210</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,126 +1733,126 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>1.73</v>
       </c>
       <c r="G10" t="n">
-        <v>12.5</v>
+        <v>1.74</v>
       </c>
       <c r="H10" t="n">
-        <v>1.37</v>
+        <v>6</v>
       </c>
       <c r="I10" t="n">
-        <v>1.4</v>
+        <v>6.4</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>3.9</v>
       </c>
       <c r="L10" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="M10" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="O10" t="n">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="P10" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>3.15</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
         <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.71</v>
+        <v>1.81</v>
       </c>
       <c r="V10" t="n">
-        <v>3.5</v>
+        <v>1.19</v>
       </c>
       <c r="W10" t="n">
-        <v>1.08</v>
+        <v>2.34</v>
       </c>
       <c r="X10" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y10" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>7.6</v>
-      </c>
       <c r="Z10" t="n">
-        <v>7.4</v>
+        <v>55</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>190</v>
       </c>
       <c r="AB10" t="n">
-        <v>34</v>
+        <v>7.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>12</v>
+        <v>8.6</v>
       </c>
       <c r="AD10" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AG10" t="n">
         <v>10.5</v>
       </c>
-      <c r="AE10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>44</v>
-      </c>
       <c r="AH10" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="AJ10" t="n">
-        <v>570</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>520</v>
+        <v>48</v>
       </c>
       <c r="AM10" t="n">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
-        <v>7</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.66</v>
+        <v>2.62</v>
       </c>
       <c r="G11" t="n">
-        <v>1.73</v>
+        <v>2.94</v>
       </c>
       <c r="H11" t="n">
-        <v>7.2</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>8.800000000000001</v>
+        <v>3.75</v>
       </c>
       <c r="J11" t="n">
-        <v>3.3</v>
+        <v>2.68</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="M11" t="n">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="N11" t="n">
         <v>2.24</v>
       </c>
       <c r="O11" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="P11" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="Q11" t="n">
         <v>3.15</v>
       </c>
       <c r="R11" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="S11" t="n">
         <v>7</v>
       </c>
       <c r="T11" t="n">
-        <v>2.82</v>
+        <v>2.3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="V11" t="n">
-        <v>1.13</v>
+        <v>1.37</v>
       </c>
       <c r="W11" t="n">
-        <v>2.36</v>
+        <v>1.52</v>
       </c>
       <c r="X11" t="n">
-        <v>7.6</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
-        <v>16</v>
+        <v>8.6</v>
       </c>
       <c r="Z11" t="n">
-        <v>75</v>
+        <v>22</v>
       </c>
       <c r="AA11" t="n">
         <v>1000</v>
       </c>
       <c r="AB11" t="n">
-        <v>5</v>
+        <v>7.4</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>7.8</v>
+        <v>16.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AI11" t="n">
         <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17.5</v>
+        <v>420</v>
       </c>
       <c r="AK11" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>660</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>960</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2008,127 +2008,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.68</v>
+        <v>1.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.98</v>
+        <v>1.98</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>3.95</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="J12" t="n">
-        <v>2.68</v>
+        <v>3.9</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.72</v>
+        <v>1.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>2.24</v>
+        <v>5</v>
       </c>
       <c r="O12" t="n">
-        <v>1.71</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>1.39</v>
+        <v>2.32</v>
       </c>
       <c r="Q12" t="n">
-        <v>3.2</v>
+        <v>1.68</v>
       </c>
       <c r="R12" t="n">
-        <v>1.13</v>
+        <v>1.52</v>
       </c>
       <c r="S12" t="n">
-        <v>7.2</v>
+        <v>2.74</v>
       </c>
       <c r="T12" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.32</v>
       </c>
-      <c r="U12" t="n">
-        <v>1.64</v>
-      </c>
       <c r="V12" t="n">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="W12" t="n">
-        <v>1.5</v>
+        <v>2.02</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.6</v>
+        <v>34</v>
       </c>
       <c r="Z12" t="n">
-        <v>22</v>
+        <v>100</v>
       </c>
       <c r="AA12" t="n">
         <v>1000</v>
       </c>
       <c r="AB12" t="n">
-        <v>7.4</v>
+        <v>17</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="AD12" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AE12" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AF12" t="n">
-        <v>17</v>
+        <v>13.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AJ12" t="n">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM12" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN12" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="G13" t="n">
-        <v>1.92</v>
+        <v>2.12</v>
       </c>
       <c r="H13" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="I13" t="n">
         <v>4.1</v>
       </c>
-      <c r="I13" t="n">
-        <v>4.6</v>
-      </c>
       <c r="J13" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="K13" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="L13" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="O13" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.69</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="S13" t="n">
-        <v>2.76</v>
+        <v>3.1</v>
       </c>
       <c r="T13" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="U13" t="n">
         <v>2.28</v>
       </c>
       <c r="V13" t="n">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="W13" t="n">
-        <v>2.08</v>
+        <v>1.89</v>
       </c>
       <c r="X13" t="n">
-        <v>40</v>
+        <v>16.5</v>
       </c>
       <c r="Y13" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>75</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>44</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>34</v>
       </c>
-      <c r="Z13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>75</v>
-      </c>
       <c r="AM13" t="n">
-        <v>330</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.800000000000001</v>
+        <v>13.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,30 +2273,30 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.73</v>
+        <v>2.2</v>
       </c>
       <c r="G14" t="n">
-        <v>1.76</v>
+        <v>2.24</v>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>3.45</v>
       </c>
       <c r="I14" t="n">
-        <v>6.2</v>
+        <v>3.55</v>
       </c>
       <c r="J14" t="n">
         <v>3.75</v>
@@ -2305,100 +2305,100 @@
         <v>3.85</v>
       </c>
       <c r="L14" t="n">
-        <v>1.54</v>
+        <v>1.35</v>
       </c>
       <c r="M14" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N14" t="n">
-        <v>3.05</v>
+        <v>4.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="P14" t="n">
-        <v>1.71</v>
+        <v>2.28</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.36</v>
+        <v>1.76</v>
       </c>
       <c r="R14" t="n">
-        <v>1.26</v>
+        <v>1.5</v>
       </c>
       <c r="S14" t="n">
-        <v>4.6</v>
+        <v>2.92</v>
       </c>
       <c r="T14" t="n">
-        <v>2.22</v>
+        <v>1.65</v>
       </c>
       <c r="U14" t="n">
-        <v>1.77</v>
+        <v>2.46</v>
       </c>
       <c r="V14" t="n">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="W14" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>18.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>190</v>
+        <v>60</v>
       </c>
       <c r="AB14" t="n">
-        <v>6.8</v>
+        <v>12.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AD14" t="n">
-        <v>24</v>
+        <v>14.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.800000000000001</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="AJ14" t="n">
-        <v>17.5</v>
+        <v>28</v>
       </c>
       <c r="AK14" t="n">
         <v>21</v>
       </c>
       <c r="AL14" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AN14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO14" t="n">
-        <v>170</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="I15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K15" t="n">
         <v>4.2</v>
       </c>
-      <c r="J15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.75</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>4.6</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>2.2</v>
+        <v>2.52</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>2.54</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AF15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AJ15" t="n">
         <v>24</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO15" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.22</v>
+        <v>3.1</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>3.2</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>2.62</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>2.68</v>
       </c>
       <c r="J16" t="n">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="K16" t="n">
-        <v>3.85</v>
+        <v>3.35</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>2.26</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.75</v>
+        <v>2.14</v>
       </c>
       <c r="R16" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="S16" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.59</v>
       </c>
       <c r="W16" t="n">
-        <v>1.81</v>
+        <v>1.45</v>
       </c>
       <c r="X16" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Z16" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA16" t="n">
-        <v>60</v>
+        <v>980</v>
       </c>
       <c r="AB16" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
       <c r="AF16" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AH16" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AI16" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AJ16" t="n">
-        <v>28</v>
+        <v>980</v>
       </c>
       <c r="AK16" t="n">
-        <v>21</v>
+        <v>980</v>
       </c>
       <c r="AL16" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AM16" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN16" t="n">
-        <v>13.5</v>
+        <v>980</v>
       </c>
       <c r="AO16" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.99</v>
+        <v>3.4</v>
       </c>
       <c r="G17" t="n">
-        <v>2.04</v>
+        <v>3.65</v>
       </c>
       <c r="H17" t="n">
-        <v>3.85</v>
+        <v>2.12</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="J17" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>4.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.36</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.55</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.72</v>
       </c>
       <c r="T17" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="U17" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="V17" t="n">
-        <v>1.33</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="X17" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Y17" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>85</v>
+        <v>16.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AB17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE17" t="n">
         <v>22</v>
       </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>1000</v>
-      </c>
       <c r="AF17" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG17" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH17" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>440</v>
       </c>
       <c r="AK17" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="AO17" t="n">
-        <v>34</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.84</v>
+        <v>6.2</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94</v>
+        <v>7.2</v>
       </c>
       <c r="H18" t="n">
-        <v>2.84</v>
+        <v>1.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.94</v>
+        <v>1.54</v>
       </c>
       <c r="J18" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="K18" t="n">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.43</v>
+        <v>1.26</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N18" t="n">
-        <v>3.7</v>
+        <v>6.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="P18" t="n">
-        <v>1.89</v>
+        <v>2.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.06</v>
+        <v>1.49</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="T18" t="n">
-        <v>1.76</v>
+        <v>1.65</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>2.28</v>
       </c>
       <c r="V18" t="n">
-        <v>1.51</v>
+        <v>2.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.51</v>
+        <v>1.16</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AA18" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AB18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD18" t="n">
         <v>11</v>
       </c>
-      <c r="AC18" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
       <c r="AE18" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AF18" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AG18" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH18" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ18" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AK18" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AL18" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AM18" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>32</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,126 +2948,126 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.4</v>
+        <v>2.36</v>
       </c>
       <c r="G19" t="n">
-        <v>3.75</v>
+        <v>2.46</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.96</v>
       </c>
       <c r="I19" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J19" t="n">
         <v>3.75</v>
       </c>
       <c r="K19" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M19" t="n">
         <v>1.04</v>
       </c>
       <c r="N19" t="n">
-        <v>4.9</v>
+        <v>5.7</v>
       </c>
       <c r="O19" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P19" t="n">
-        <v>2.34</v>
+        <v>2.58</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.67</v>
+        <v>1.59</v>
       </c>
       <c r="R19" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="S19" t="n">
-        <v>2.68</v>
+        <v>2.46</v>
       </c>
       <c r="T19" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="U19" t="n">
-        <v>2.36</v>
+        <v>2.72</v>
       </c>
       <c r="V19" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="W19" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="X19" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AA19" t="n">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="AB19" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AD19" t="n">
-        <v>11.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>12.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="AJ19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM19" t="n">
         <v>160</v>
       </c>
-      <c r="AK19" t="n">
-        <v>210</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>580</v>
-      </c>
       <c r="AN19" t="n">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
-        <v>12.5</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="20">
@@ -3100,19 +3100,19 @@
         <v>1.23</v>
       </c>
       <c r="G20" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H20" t="n">
         <v>11</v>
       </c>
       <c r="I20" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="J20" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="L20" t="n">
         <v>1.16</v>
@@ -3121,28 +3121,28 @@
         <v>1.01</v>
       </c>
       <c r="N20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.07</v>
       </c>
       <c r="P20" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="R20" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="S20" t="n">
         <v>1.61</v>
       </c>
       <c r="T20" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="U20" t="n">
-        <v>2.48</v>
+        <v>2.52</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
@@ -3154,52 +3154,52 @@
         <v>1000</v>
       </c>
       <c r="Y20" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="Z20" t="n">
+        <v>170</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE20" t="n">
         <v>160</v>
       </c>
-      <c r="AA20" t="n">
-        <v>390</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>150</v>
-      </c>
       <c r="AF20" t="n">
-        <v>16.5</v>
+        <v>25</v>
       </c>
       <c r="AG20" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AH20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AI20" t="n">
         <v>240</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM20" t="n">
         <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.82</v>
+        <v>2.56</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,10 +3232,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="G21" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="H21" t="n">
         <v>2.9</v>
@@ -3256,85 +3256,85 @@
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
         <v>1.18</v>
       </c>
       <c r="P21" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="R21" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="S21" t="n">
-        <v>2.46</v>
+        <v>2.4</v>
       </c>
       <c r="T21" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="U21" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="V21" t="n">
         <v>1.48</v>
       </c>
       <c r="W21" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="X21" t="n">
         <v>1000</v>
       </c>
       <c r="Y21" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Z21" t="n">
-        <v>980</v>
+        <v>85</v>
       </c>
       <c r="AA21" t="n">
         <v>980</v>
       </c>
       <c r="AB21" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AC21" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD21" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AE21" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AG21" t="n">
-        <v>22</v>
+        <v>16.5</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>19.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="n">
-        <v>980</v>
+        <v>120</v>
       </c>
       <c r="AK21" t="n">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AL21" t="n">
         <v>980</v>
       </c>
       <c r="AM21" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN21" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>
@@ -3367,118 +3367,118 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="G22" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="K22" t="n">
-        <v>7</v>
+        <v>7.6</v>
       </c>
       <c r="L22" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M22" t="n">
         <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="O22" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="P22" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="R22" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="U22" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="V22" t="n">
         <v>1.09</v>
       </c>
       <c r="W22" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="X22" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="Y22" t="n">
-        <v>150</v>
+        <v>65</v>
       </c>
       <c r="Z22" t="n">
         <v>130</v>
       </c>
       <c r="AA22" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="AB22" t="n">
         <v>15.5</v>
       </c>
       <c r="AC22" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AD22" t="n">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="AE22" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AG22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK22" t="n">
         <v>13</v>
       </c>
-      <c r="AH22" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>15.5</v>
-      </c>
       <c r="AL22" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AM22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AO22" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,99 +3488,99 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.46</v>
       </c>
       <c r="H23" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="I23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K23" t="n">
-        <v>4.1</v>
+        <v>3.95</v>
       </c>
       <c r="L23" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P23" t="n">
-        <v>2.54</v>
+        <v>2.46</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R23" t="n">
         <v>1.63</v>
       </c>
       <c r="S23" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="T23" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U23" t="n">
-        <v>2.74</v>
+        <v>2.52</v>
       </c>
       <c r="V23" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="W23" t="n">
-        <v>1.71</v>
+        <v>1.69</v>
       </c>
       <c r="X23" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="Y23" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AB23" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AD23" t="n">
         <v>14.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
         <v>12.5</v>
@@ -3589,31 +3589,31 @@
         <v>15.5</v>
       </c>
       <c r="AI23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>34</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL23" t="n">
         <v>32</v>
       </c>
-      <c r="AK23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>30</v>
-      </c>
       <c r="AM23" t="n">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="AN23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO23" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>6.2</v>
+        <v>4.6</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H24" t="n">
-        <v>1.48</v>
+        <v>1.82</v>
       </c>
       <c r="I24" t="n">
-        <v>1.51</v>
+        <v>1.86</v>
       </c>
       <c r="J24" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="K24" t="n">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="L24" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O24" t="n">
         <v>1.26</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N24" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.16</v>
-      </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>2.16</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="S24" t="n">
-        <v>2.24</v>
+        <v>2.96</v>
       </c>
       <c r="T24" t="n">
-        <v>1.64</v>
+        <v>1.79</v>
       </c>
       <c r="U24" t="n">
-        <v>2.28</v>
+        <v>2.16</v>
       </c>
       <c r="V24" t="n">
-        <v>2.96</v>
+        <v>2.14</v>
       </c>
       <c r="W24" t="n">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="X24" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="Z24" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AA24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF24" t="n">
         <v>40</v>
       </c>
-      <c r="AB24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>1000</v>
-      </c>
       <c r="AG24" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AI24" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ24" t="n">
         <v>1000</v>
       </c>
       <c r="AK24" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AL24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>1000</v>
+        <v>330</v>
       </c>
       <c r="AN24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AO24" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="G25" t="n">
-        <v>2.42</v>
+        <v>1.62</v>
       </c>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>5.7</v>
       </c>
       <c r="I25" t="n">
-        <v>3.35</v>
+        <v>5.9</v>
       </c>
       <c r="J25" t="n">
-        <v>3.65</v>
+        <v>4.8</v>
       </c>
       <c r="K25" t="n">
-        <v>3.95</v>
+        <v>4.9</v>
       </c>
       <c r="L25" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N25" t="n">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="O25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R25" t="n">
-        <v>1.59</v>
+        <v>1.69</v>
       </c>
       <c r="S25" t="n">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="T25" t="n">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="U25" t="n">
         <v>2.46</v>
       </c>
       <c r="V25" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="W25" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="X25" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="Y25" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="Z25" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AA25" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AB25" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG25" t="n">
         <v>9.6</v>
       </c>
-      <c r="AD25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>15.5</v>
       </c>
-      <c r="AI25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>32</v>
-      </c>
       <c r="AK25" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AL25" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="AN25" t="n">
-        <v>13.5</v>
+        <v>6.2</v>
       </c>
       <c r="AO25" t="n">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N26" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P26" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S26" t="n">
         <v>4.5</v>
       </c>
-      <c r="G26" t="n">
-        <v>5</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S26" t="n">
-        <v>3</v>
-      </c>
       <c r="T26" t="n">
-        <v>1.75</v>
+        <v>1.94</v>
       </c>
       <c r="U26" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>2.12</v>
+        <v>1.58</v>
       </c>
       <c r="W26" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="X26" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>320</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF26" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y26" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA26" t="n">
+      <c r="AG26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN26" t="n">
         <v>46</v>
       </c>
-      <c r="AB26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>100</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO26" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4033,121 +4033,121 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="G27" t="n">
-        <v>2.76</v>
+        <v>3.85</v>
       </c>
       <c r="H27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="J27" t="n">
         <v>3.05</v>
       </c>
-      <c r="I27" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="J27" t="n">
-        <v>3.2</v>
-      </c>
       <c r="K27" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L27" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="M27" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N27" t="n">
         <v>3.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P27" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R27" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="S27" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="T27" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="U27" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="V27" t="n">
-        <v>1.46</v>
+        <v>1.65</v>
       </c>
       <c r="W27" t="n">
-        <v>1.57</v>
+        <v>1.35</v>
       </c>
       <c r="X27" t="n">
-        <v>11.5</v>
+        <v>20</v>
       </c>
       <c r="Y27" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>19</v>
+        <v>980</v>
       </c>
       <c r="AA27" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB27" t="n">
-        <v>9.4</v>
+        <v>25</v>
       </c>
       <c r="AC27" t="n">
-        <v>7.2</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>13.5</v>
+        <v>26</v>
       </c>
       <c r="AE27" t="n">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="AF27" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG27" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="AH27" t="n">
-        <v>18.5</v>
+        <v>60</v>
       </c>
       <c r="AI27" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ27" t="n">
-        <v>320</v>
+        <v>900</v>
       </c>
       <c r="AK27" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL27" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN27" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AO27" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28">
@@ -4168,121 +4168,121 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H28" t="n">
-        <v>6.6</v>
+        <v>1.94</v>
       </c>
       <c r="I28" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L28" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P28" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="W28" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC28" t="n">
         <v>8</v>
       </c>
-      <c r="J28" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N28" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P28" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8.800000000000001</v>
-      </c>
       <c r="AD28" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="AE28" t="n">
-        <v>540</v>
+        <v>24</v>
       </c>
       <c r="AF28" t="n">
-        <v>9.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="AG28" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH28" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>430</v>
+        <v>46</v>
       </c>
       <c r="AJ28" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK28" t="n">
-        <v>21</v>
+        <v>190</v>
       </c>
       <c r="AL28" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AM28" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN28" t="n">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="n">
-        <v>300</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="29">
@@ -4303,127 +4303,127 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>4.4</v>
+        <v>1.58</v>
       </c>
       <c r="G29" t="n">
-        <v>5.2</v>
+        <v>1.67</v>
       </c>
       <c r="H29" t="n">
-        <v>1.94</v>
+        <v>6.6</v>
       </c>
       <c r="I29" t="n">
-        <v>2.06</v>
+        <v>7.8</v>
       </c>
       <c r="J29" t="n">
-        <v>3.3</v>
+        <v>3.85</v>
       </c>
       <c r="K29" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N29" t="n">
         <v>3.7</v>
       </c>
-      <c r="L29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N29" t="n">
-        <v>3.3</v>
-      </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="P29" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="Q29" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="S29" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="T29" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="U29" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="V29" t="n">
-        <v>1.94</v>
+        <v>1.15</v>
       </c>
       <c r="W29" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="X29" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.4</v>
+        <v>22</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="AA29" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH29" t="n">
         <v>24</v>
       </c>
-      <c r="AB29" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD29" t="n">
+      <c r="AI29" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>580</v>
+      </c>
+      <c r="AN29" t="n">
         <v>11</v>
       </c>
-      <c r="AE29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>160</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>380</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>100</v>
-      </c>
       <c r="AO29" t="n">
-        <v>17.5</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4438,127 +4438,127 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="G30" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I30" t="n">
         <v>3.2</v>
       </c>
-      <c r="H30" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J30" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="L30" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M30" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N30" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P30" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="R30" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="n">
-        <v>4.6</v>
+        <v>3.65</v>
       </c>
       <c r="T30" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="U30" t="n">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="V30" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="W30" t="n">
         <v>1.58</v>
       </c>
-      <c r="W30" t="n">
-        <v>1.45</v>
-      </c>
       <c r="X30" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AA30" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AB30" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC30" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD30" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE30" t="n">
         <v>36</v>
       </c>
       <c r="AF30" t="n">
-        <v>21</v>
+        <v>16.5</v>
       </c>
       <c r="AG30" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AH30" t="n">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AJ30" t="n">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="AK30" t="n">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="AL30" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AM30" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AN30" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="AO30" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.6</v>
+        <v>4.1</v>
       </c>
       <c r="G31" t="n">
-        <v>1.61</v>
+        <v>4.4</v>
       </c>
       <c r="H31" t="n">
-        <v>5.8</v>
+        <v>1.91</v>
       </c>
       <c r="I31" t="n">
-        <v>5.9</v>
+        <v>1.95</v>
       </c>
       <c r="J31" t="n">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="K31" t="n">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="L31" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="M31" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N31" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>2.74</v>
+        <v>2.28</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="R31" t="n">
-        <v>1.68</v>
+        <v>1.48</v>
       </c>
       <c r="S31" t="n">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="T31" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U31" t="n">
         <v>2.36</v>
       </c>
       <c r="V31" t="n">
-        <v>1.2</v>
+        <v>2.04</v>
       </c>
       <c r="W31" t="n">
-        <v>2.64</v>
+        <v>1.29</v>
       </c>
       <c r="X31" t="n">
-        <v>26</v>
+        <v>19.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="Z31" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="AA31" t="n">
-        <v>150</v>
+        <v>22</v>
       </c>
       <c r="AB31" t="n">
-        <v>12.5</v>
+        <v>19.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>11</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="AE31" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AG31" t="n">
-        <v>9.800000000000001</v>
+        <v>17</v>
       </c>
       <c r="AH31" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="AJ31" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AK31" t="n">
-        <v>14.5</v>
+        <v>120</v>
       </c>
       <c r="AL31" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AM31" t="n">
         <v>85</v>
       </c>
       <c r="AN31" t="n">
-        <v>6.2</v>
+        <v>42</v>
       </c>
       <c r="AO31" t="n">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,132 +4703,132 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F32" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="G32" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="I32" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.4</v>
       </c>
-      <c r="G32" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="I32" t="n">
+      <c r="L32" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N32" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P32" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Q32" t="n">
         <v>2.5</v>
       </c>
-      <c r="J32" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K32" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N32" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P32" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R32" t="n">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="S32" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="T32" t="n">
-        <v>1.87</v>
+        <v>2.14</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V32" t="n">
-        <v>1.67</v>
+        <v>1.28</v>
       </c>
       <c r="W32" t="n">
-        <v>1.34</v>
+        <v>1.9</v>
       </c>
       <c r="X32" t="n">
-        <v>21</v>
+        <v>9.6</v>
       </c>
       <c r="Y32" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Z32" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA32" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB32" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>18</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>25</v>
       </c>
-      <c r="AC32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>900</v>
-      </c>
       <c r="AK32" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AL32" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM32" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN32" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AO32" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -4838,132 +4838,132 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F33" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="J33" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K33" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N33" t="n">
         <v>4.1</v>
       </c>
-      <c r="G33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.4</v>
-      </c>
       <c r="O33" t="n">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="P33" t="n">
-        <v>2.28</v>
+        <v>2.04</v>
       </c>
       <c r="Q33" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="R33" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
-        <v>2.92</v>
+        <v>3.3</v>
       </c>
       <c r="T33" t="n">
-        <v>1.66</v>
+        <v>1.94</v>
       </c>
       <c r="U33" t="n">
-        <v>2.36</v>
+        <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>2.04</v>
+        <v>2.56</v>
       </c>
       <c r="W33" t="n">
-        <v>1.29</v>
+        <v>1.17</v>
       </c>
       <c r="X33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y33" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z33" t="n">
-        <v>14</v>
+        <v>9.4</v>
       </c>
       <c r="AA33" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB33" t="n">
         <v>22</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>9.6</v>
       </c>
       <c r="AD33" t="n">
-        <v>11</v>
+        <v>9.6</v>
       </c>
       <c r="AE33" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AF33" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI33" t="n">
         <v>36</v>
       </c>
-      <c r="AG33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>70</v>
-      </c>
       <c r="AJ33" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AK33" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AL33" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="AM33" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="AN33" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO33" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -4973,396 +4973,126 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="G34" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P34" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S34" t="n">
         <v>2.1</v>
       </c>
-      <c r="H34" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="I34" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="J34" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P34" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R34" t="n">
+      <c r="T34" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V34" t="n">
         <v>1.23</v>
       </c>
-      <c r="S34" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.29</v>
-      </c>
       <c r="W34" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X34" t="n">
-        <v>9.800000000000001</v>
+        <v>26</v>
       </c>
       <c r="Y34" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="Z34" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL34" t="n">
         <v>29</v>
       </c>
-      <c r="AA34" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC34" t="n">
+      <c r="AM34" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN34" t="n">
         <v>7.4</v>
       </c>
-      <c r="AD34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>23</v>
-      </c>
       <c r="AO34" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>6</v>
-      </c>
-      <c r="G35" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H35" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L35" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M35" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N35" t="n">
-        <v>4</v>
-      </c>
-      <c r="O35" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R35" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T35" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U35" t="n">
-        <v>2</v>
-      </c>
-      <c r="V35" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="W35" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X35" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA35" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB35" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD35" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>9.4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G36" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J36" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L36" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N36" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U36" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V36" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W36" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X36" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>24</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH36" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI36" t="n">
-        <v>130</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK36" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM36" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN36" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO36" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO34"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Azerbaijan Premier League</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,96 +653,96 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:50:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Kapaz Ganja</t>
+          <t>Al Jubail</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>PFK Turan Tovuz</t>
+          <t>Al Jabalain</t>
         </is>
       </c>
       <c r="F2" t="n">
         <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="H2" t="n">
-        <v>1.02</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>1.03</v>
+        <v>110</v>
       </c>
       <c r="J2" t="n">
-        <v>34</v>
+        <v>1.12</v>
       </c>
       <c r="K2" t="n">
-        <v>65</v>
+        <v>1.14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="P2" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>200</v>
       </c>
       <c r="R2" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>4.6</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>3.85</v>
+        <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>34</v>
+        <v>1.13</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>1.22</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>2.66</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AC2" t="n">
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -772,13 +772,13 @@
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Friendly Matches</t>
+          <t>Saudi 1st Division</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,126 +788,126 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:10:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TPS</t>
+          <t>Al-Anwar Club</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>KaPa</t>
+          <t>Al Bukayriyah</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2.94</v>
+        <v>38</v>
       </c>
       <c r="G3" t="n">
-        <v>3.35</v>
+        <v>990</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>1.03</v>
       </c>
       <c r="I3" t="n">
-        <v>2.46</v>
+        <v>1.04</v>
       </c>
       <c r="J3" t="n">
-        <v>3.8</v>
+        <v>21</v>
       </c>
       <c r="K3" t="n">
-        <v>4.1</v>
+        <v>310</v>
       </c>
       <c r="L3" t="n">
-        <v>1.54</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.48</v>
+        <v>1.51</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.62</v>
+        <v>2.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.06</v>
       </c>
       <c r="S3" t="n">
-        <v>2.6</v>
+        <v>2.66</v>
       </c>
       <c r="T3" t="n">
-        <v>1.4</v>
+        <v>4.3</v>
       </c>
       <c r="U3" t="n">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>1.68</v>
+        <v>21</v>
       </c>
       <c r="W3" t="n">
-        <v>1.43</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>1.66</v>
       </c>
       <c r="AA3" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>29</v>
+        <v>990</v>
       </c>
       <c r="AF3" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,111 +923,111 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>09:20:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Al-Arabi Al-Saudi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Al Batin</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="G4" t="n">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
-        <v>1.59</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
-        <v>1.65</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>3.95</v>
+        <v>1.9</v>
       </c>
       <c r="K4" t="n">
-        <v>4.3</v>
+        <v>1.98</v>
       </c>
       <c r="L4" t="n">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.77</v>
       </c>
       <c r="N4" t="n">
-        <v>3.45</v>
+        <v>1.21</v>
       </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>5.2</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.12</v>
+        <v>26</v>
       </c>
       <c r="R4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>50</v>
       </c>
       <c r="T4" t="n">
-        <v>2.16</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="U4" t="n">
-        <v>1.78</v>
+        <v>1.1</v>
       </c>
       <c r="V4" t="n">
-        <v>2.54</v>
+        <v>1.31</v>
       </c>
       <c r="W4" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="X4" t="n">
-        <v>12.5</v>
+        <v>2.34</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.2</v>
+        <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="AA4" t="n">
-        <v>16.5</v>
+        <v>350</v>
       </c>
       <c r="AB4" t="n">
-        <v>19.5</v>
+        <v>5.9</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.4</v>
+        <v>15</v>
       </c>
       <c r="AD4" t="n">
-        <v>10.5</v>
+        <v>85</v>
       </c>
       <c r="AE4" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="AG4" t="n">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>420</v>
       </c>
       <c r="AK4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>10:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>MC El Bayadh</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>USM Khenchela</t>
         </is>
       </c>
       <c r="F5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H5" t="n">
         <v>3.1</v>
       </c>
-      <c r="G5" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>2.54</v>
-      </c>
       <c r="I5" t="n">
-        <v>2.72</v>
+        <v>3.25</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>2.82</v>
       </c>
       <c r="K5" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="L5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="S5" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.59</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.81</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.58</v>
+        <v>1.45</v>
       </c>
       <c r="W5" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="X5" t="n">
-        <v>9.199999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>16.5</v>
+        <v>24</v>
       </c>
       <c r="AA5" t="n">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD5" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
+        <v>80</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH5" t="n">
         <v>38</v>
       </c>
-      <c r="AF5" t="n">
-        <v>22</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
       <c r="AI5" t="n">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="AJ5" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AK5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>360</v>
       </c>
       <c r="AN5" t="n">
         <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>3.2</v>
+        <v>13</v>
       </c>
       <c r="G6" t="n">
-        <v>3.5</v>
+        <v>14.5</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="I6" t="n">
-        <v>2.46</v>
+        <v>1.33</v>
       </c>
       <c r="J6" t="n">
-        <v>3.5</v>
+        <v>5.8</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>1.39</v>
+        <v>1.34</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
-        <v>2.06</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.88</v>
+        <v>1.79</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>3.2</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
-        <v>1.69</v>
+        <v>2.22</v>
       </c>
       <c r="U6" t="n">
-        <v>2.24</v>
+        <v>1.67</v>
       </c>
       <c r="V6" t="n">
-        <v>1.68</v>
+        <v>4</v>
       </c>
       <c r="W6" t="n">
-        <v>1.42</v>
+        <v>1.07</v>
       </c>
       <c r="X6" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE6" t="n">
         <v>16</v>
       </c>
-      <c r="Y6" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>65</v>
-      </c>
       <c r="AF6" t="n">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.5</v>
+        <v>55</v>
       </c>
       <c r="AH6" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="n">
-        <v>200</v>
+        <v>720</v>
       </c>
       <c r="AK6" t="n">
-        <v>46</v>
+        <v>330</v>
       </c>
       <c r="AL6" t="n">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>250</v>
       </c>
       <c r="AN6" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>19.5</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="7">
@@ -1328,48 +1328,48 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8</v>
+      </c>
+      <c r="J7" t="n">
         <v>3.25</v>
       </c>
-      <c r="G7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="J7" t="n">
-        <v>2.78</v>
-      </c>
       <c r="K7" t="n">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="M7" t="n">
         <v>1.15</v>
       </c>
       <c r="N7" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="O7" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="P7" t="n">
         <v>1.43</v>
@@ -1384,76 +1384,76 @@
         <v>6.8</v>
       </c>
       <c r="T7" t="n">
-        <v>2.26</v>
+        <v>2.62</v>
       </c>
       <c r="U7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="V7" t="n">
-        <v>1.55</v>
+        <v>1.15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.39</v>
+        <v>2.22</v>
       </c>
       <c r="X7" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.6</v>
+        <v>16.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>70</v>
       </c>
       <c r="AA7" t="n">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>5.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="AE7" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AF7" t="n">
-        <v>23</v>
+        <v>8.4</v>
       </c>
       <c r="AG7" t="n">
-        <v>17.5</v>
+        <v>12</v>
       </c>
       <c r="AH7" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
+        <v>250</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL7" t="n">
         <v>90</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>95</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>290</v>
-      </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AN7" t="n">
-        <v>120</v>
+        <v>26</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>13</v>
+        <v>2.58</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>2.78</v>
       </c>
       <c r="H8" t="n">
-        <v>1.3</v>
+        <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>1.33</v>
+        <v>3.95</v>
       </c>
       <c r="J8" t="n">
-        <v>5.7</v>
+        <v>2.7</v>
       </c>
       <c r="K8" t="n">
-        <v>6.4</v>
+        <v>2.96</v>
       </c>
       <c r="L8" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N8" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="S8" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="T8" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.35</v>
       </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="V8" t="n">
-        <v>4</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.06</v>
+        <v>1.56</v>
       </c>
       <c r="X8" t="n">
-        <v>23</v>
+        <v>7.2</v>
       </c>
       <c r="Y8" t="n">
-        <v>13</v>
+        <v>9.4</v>
       </c>
       <c r="Z8" t="n">
-        <v>7.4</v>
+        <v>25</v>
       </c>
       <c r="AA8" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="AC8" t="n">
-        <v>42</v>
+        <v>7.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AJ8" t="n">
-        <v>790</v>
+        <v>420</v>
       </c>
       <c r="AK8" t="n">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="AL8" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AM8" t="n">
-        <v>310</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
         <v>1000</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,126 +1598,126 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="G9" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="I9" t="n">
-        <v>8.6</v>
+        <v>5.1</v>
       </c>
       <c r="J9" t="n">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="L9" t="n">
-        <v>1.67</v>
+        <v>1.37</v>
       </c>
       <c r="M9" t="n">
-        <v>1.15</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="P9" t="n">
-        <v>1.43</v>
+        <v>2.16</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="S9" t="n">
         <v>3</v>
       </c>
-      <c r="R9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="S9" t="n">
-        <v>6.4</v>
-      </c>
       <c r="T9" t="n">
-        <v>2.72</v>
+        <v>1.79</v>
       </c>
       <c r="U9" t="n">
-        <v>1.48</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="W9" t="n">
-        <v>2.4</v>
+        <v>2.24</v>
       </c>
       <c r="X9" t="n">
-        <v>8.4</v>
+        <v>17.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="Z9" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="AA9" t="n">
-        <v>460</v>
+        <v>120</v>
       </c>
       <c r="AB9" t="n">
-        <v>5.2</v>
+        <v>9.6</v>
       </c>
       <c r="AC9" t="n">
         <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>38</v>
+        <v>19.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="AG9" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="AI9" t="n">
-        <v>350</v>
+        <v>65</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN9" t="n">
-        <v>22</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO9" t="n">
-        <v>690</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="G10" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="H10" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="I10" t="n">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
         <v>3.8</v>
       </c>
       <c r="K10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L10" t="n">
         <v>1.51</v>
@@ -1780,64 +1780,64 @@
         <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="R10" t="n">
         <v>1.28</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T10" t="n">
         <v>2.14</v>
       </c>
       <c r="U10" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V10" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>2.34</v>
+        <v>2.28</v>
       </c>
       <c r="X10" t="n">
         <v>12</v>
       </c>
       <c r="Y10" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="AA10" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="AB10" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
         <v>24</v>
       </c>
       <c r="AE10" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI10" t="n">
-        <v>120</v>
+        <v>260</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
@@ -1849,16 +1849,16 @@
         <v>180</v>
       </c>
       <c r="AN10" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="G11" t="n">
-        <v>2.94</v>
+        <v>2.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K11" t="n">
         <v>3.75</v>
       </c>
-      <c r="J11" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3</v>
-      </c>
       <c r="L11" t="n">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
-        <v>2.24</v>
+        <v>4.9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="P11" t="n">
-        <v>1.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.15</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="S11" t="n">
-        <v>7</v>
+        <v>2.86</v>
       </c>
       <c r="T11" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="U11" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="V11" t="n">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="W11" t="n">
-        <v>1.52</v>
+        <v>1.91</v>
       </c>
       <c r="X11" t="n">
-        <v>7</v>
+        <v>19.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>8.6</v>
+        <v>18</v>
       </c>
       <c r="Z11" t="n">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AB11" t="n">
-        <v>7.4</v>
+        <v>12</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AF11" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AH11" t="n">
-        <v>120</v>
+        <v>15.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
-        <v>420</v>
+        <v>25</v>
       </c>
       <c r="AK11" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.9</v>
+        <v>2.22</v>
       </c>
       <c r="G12" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="H12" t="n">
-        <v>3.95</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="J12" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="K12" t="n">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.68</v>
+        <v>1.76</v>
       </c>
       <c r="R12" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="S12" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="T12" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U12" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="V12" t="n">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="W12" t="n">
-        <v>2.02</v>
+        <v>1.8</v>
       </c>
       <c r="X12" t="n">
-        <v>22</v>
+        <v>18.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB12" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AC12" t="n">
-        <v>10</v>
+        <v>8.4</v>
       </c>
       <c r="AD12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>28</v>
       </c>
-      <c r="AE12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AK12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN12" t="n">
         <v>13.5</v>
       </c>
-      <c r="AG12" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>420</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>10</v>
-      </c>
       <c r="AO12" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="G13" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="H13" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I13" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J13" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.3</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P13" t="n">
-        <v>2.14</v>
+        <v>2.58</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="n">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
-        <v>3.1</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="U13" t="n">
-        <v>2.28</v>
+        <v>2.6</v>
       </c>
       <c r="V13" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="W13" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X13" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="Z13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA13" t="n">
-        <v>75</v>
+        <v>900</v>
       </c>
       <c r="AB13" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="AD13" t="n">
         <v>16</v>
       </c>
       <c r="AE13" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AF13" t="n">
-        <v>13.5</v>
+        <v>16</v>
       </c>
       <c r="AG13" t="n">
         <v>11</v>
       </c>
       <c r="AH13" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AJ13" t="n">
         <v>25</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AN13" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.2</v>
+        <v>2.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
       <c r="H14" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="I14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J14" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N14" t="n">
         <v>3.55</v>
       </c>
-      <c r="J14" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="O14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S14" t="n">
         <v>3.85</v>
       </c>
-      <c r="L14" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.92</v>
-      </c>
       <c r="T14" t="n">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="U14" t="n">
-        <v>2.46</v>
+        <v>2.12</v>
       </c>
       <c r="V14" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
       <c r="W14" t="n">
-        <v>1.8</v>
+        <v>1.58</v>
       </c>
       <c r="X14" t="n">
-        <v>18.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AB14" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AE14" t="n">
         <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AG14" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AH14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI14" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO14" t="n">
         <v>40</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>28</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>3.45</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3.55</v>
       </c>
       <c r="H15" t="n">
-        <v>3.85</v>
+        <v>2.18</v>
       </c>
       <c r="I15" t="n">
-        <v>4.1</v>
+        <v>2.24</v>
       </c>
       <c r="J15" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K15" t="n">
         <v>3.95</v>
       </c>
-      <c r="K15" t="n">
-        <v>4.2</v>
-      </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>5.5</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.52</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.81</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>2.54</v>
+        <v>2.26</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.8</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.39</v>
       </c>
       <c r="X15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z15" t="n">
+      <c r="AF15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
         <v>34</v>
       </c>
-      <c r="AA15" t="n">
-        <v>90</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE15" t="n">
+      <c r="AJ15" t="n">
+        <v>160</v>
+      </c>
+      <c r="AK15" t="n">
         <v>40</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AL15" t="n">
+        <v>44</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO15" t="n">
         <v>15</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>27</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="G16" t="n">
-        <v>3.2</v>
+        <v>7.2</v>
       </c>
       <c r="H16" t="n">
-        <v>2.62</v>
+        <v>1.5</v>
       </c>
       <c r="I16" t="n">
-        <v>2.68</v>
+        <v>1.54</v>
       </c>
       <c r="J16" t="n">
-        <v>3.2</v>
+        <v>4.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.35</v>
+        <v>5.6</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N16" t="n">
-        <v>3.6</v>
+        <v>6.2</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.16</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>2.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.14</v>
+        <v>1.5</v>
       </c>
       <c r="R16" t="n">
-        <v>1.33</v>
+        <v>1.72</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>2.24</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="U16" t="n">
-        <v>2.08</v>
+        <v>2.28</v>
       </c>
       <c r="V16" t="n">
-        <v>1.59</v>
+        <v>2.84</v>
       </c>
       <c r="W16" t="n">
-        <v>1.45</v>
+        <v>1.16</v>
       </c>
       <c r="X16" t="n">
-        <v>1000</v>
+        <v>46</v>
       </c>
       <c r="Y16" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="Z16" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA16" t="n">
-        <v>980</v>
+        <v>30</v>
       </c>
       <c r="AB16" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.2</v>
+        <v>18</v>
       </c>
       <c r="AD16" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE16" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AF16" t="n">
         <v>1000</v>
       </c>
       <c r="AG16" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AH16" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AI16" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AL16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AM16" t="n">
-        <v>580</v>
+        <v>1000</v>
       </c>
       <c r="AN16" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AO16" t="n">
-        <v>980</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.4</v>
+        <v>2.42</v>
       </c>
       <c r="G17" t="n">
-        <v>3.65</v>
+        <v>2.52</v>
       </c>
       <c r="H17" t="n">
-        <v>2.12</v>
+        <v>2.92</v>
       </c>
       <c r="I17" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="K17" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P17" t="n">
-        <v>2.36</v>
+        <v>2.56</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R17" t="n">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="S17" t="n">
-        <v>2.72</v>
+        <v>2.48</v>
       </c>
       <c r="T17" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="U17" t="n">
-        <v>2.4</v>
+        <v>2.68</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="W17" t="n">
-        <v>1.37</v>
+        <v>1.66</v>
       </c>
       <c r="X17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Y17" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB17" t="n">
+      <c r="AE17" t="n">
+        <v>28</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO17" t="n">
         <v>17.5</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>440</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>160</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2818,121 +2818,121 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>6.2</v>
+        <v>2.34</v>
       </c>
       <c r="G18" t="n">
-        <v>7.2</v>
+        <v>2.38</v>
       </c>
       <c r="H18" t="n">
-        <v>1.5</v>
+        <v>2.94</v>
       </c>
       <c r="I18" t="n">
-        <v>1.54</v>
+        <v>3.05</v>
       </c>
       <c r="J18" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="K18" t="n">
-        <v>5.6</v>
+        <v>4.3</v>
       </c>
       <c r="L18" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="P18" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="S18" t="n">
-        <v>2.24</v>
+        <v>2.52</v>
       </c>
       <c r="T18" t="n">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="U18" t="n">
-        <v>2.28</v>
+        <v>2.74</v>
       </c>
       <c r="V18" t="n">
-        <v>2.8</v>
+        <v>1.48</v>
       </c>
       <c r="W18" t="n">
-        <v>1.16</v>
+        <v>1.72</v>
       </c>
       <c r="X18" t="n">
+        <v>46</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE18" t="n">
         <v>80</v>
       </c>
-      <c r="Y18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA18" t="n">
+      <c r="AF18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK18" t="n">
         <v>40</v>
       </c>
-      <c r="AB18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL18" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO18" t="n">
-        <v>5.3</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2953,121 +2953,121 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>2.36</v>
+        <v>1.2</v>
       </c>
       <c r="G19" t="n">
-        <v>2.46</v>
+        <v>1.23</v>
       </c>
       <c r="H19" t="n">
-        <v>2.96</v>
+        <v>13</v>
       </c>
       <c r="I19" t="n">
-        <v>3.1</v>
+        <v>14.5</v>
       </c>
       <c r="J19" t="n">
-        <v>3.75</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="L19" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="M19" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="N19" t="n">
-        <v>5.7</v>
+        <v>13.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="P19" t="n">
-        <v>2.58</v>
+        <v>5.1</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.59</v>
+        <v>1.22</v>
       </c>
       <c r="R19" t="n">
-        <v>1.63</v>
+        <v>2.62</v>
       </c>
       <c r="S19" t="n">
-        <v>2.46</v>
+        <v>1.57</v>
       </c>
       <c r="T19" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="U19" t="n">
-        <v>2.72</v>
+        <v>2.4</v>
       </c>
       <c r="V19" t="n">
-        <v>1.47</v>
+        <v>1.07</v>
       </c>
       <c r="W19" t="n">
-        <v>1.69</v>
+        <v>5.3</v>
       </c>
       <c r="X19" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="Y19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Z19" t="n">
-        <v>25</v>
+        <v>180</v>
       </c>
       <c r="AA19" t="n">
-        <v>46</v>
+        <v>460</v>
       </c>
       <c r="AB19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AK19" t="n">
         <v>16</v>
       </c>
-      <c r="AC19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>24</v>
-      </c>
       <c r="AL19" t="n">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AM19" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>13</v>
+        <v>2.48</v>
       </c>
       <c r="AO19" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
@@ -3088,127 +3088,127 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="G20" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="H20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I20" t="n">
         <v>13</v>
       </c>
       <c r="J20" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="K20" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N20" t="n">
         <v>8.4</v>
       </c>
-      <c r="K20" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N20" t="n">
-        <v>13</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="R20" t="n">
-        <v>2.56</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>1.61</v>
+        <v>1.93</v>
       </c>
       <c r="T20" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="U20" t="n">
-        <v>2.52</v>
+        <v>2.16</v>
       </c>
       <c r="V20" t="n">
         <v>1.08</v>
       </c>
       <c r="W20" t="n">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="X20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="Y20" t="n">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="Z20" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AA20" t="n">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="AB20" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC20" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AD20" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AE20" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>24</v>
+        <v>11.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>1000</v>
+        <v>26</v>
       </c>
       <c r="AI20" t="n">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="AJ20" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AL20" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="G21" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H21" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K21" t="n">
         <v>3.95</v>
       </c>
-      <c r="K21" t="n">
-        <v>4.3</v>
-      </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O21" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P21" t="n">
-        <v>2.62</v>
+        <v>2.52</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="R21" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="S21" t="n">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="T21" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U21" t="n">
-        <v>2.74</v>
+        <v>2.56</v>
       </c>
       <c r="V21" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="W21" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="X21" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="Z21" t="n">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AB21" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AC21" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AD21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AO21" t="n">
         <v>21</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.28</v>
+        <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.31</v>
+        <v>4.9</v>
       </c>
       <c r="H22" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V22" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X22" t="n">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="n">
         <v>11</v>
       </c>
-      <c r="I22" t="n">
-        <v>13</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="K22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N22" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R22" t="n">
-        <v>2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="W22" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="X22" t="n">
+      <c r="Z22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF22" t="n">
         <v>44</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="AG22" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK22" t="n">
         <v>65</v>
       </c>
-      <c r="Z22" t="n">
-        <v>130</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>420</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>140</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>13</v>
-      </c>
       <c r="AL22" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="AM22" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.35</v>
+        <v>55</v>
       </c>
       <c r="AO22" t="n">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="G23" t="n">
-        <v>2.46</v>
+        <v>1.61</v>
       </c>
       <c r="H23" t="n">
-        <v>3.05</v>
+        <v>5.9</v>
       </c>
       <c r="I23" t="n">
-        <v>3.25</v>
+        <v>6.2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="K23" t="n">
-        <v>3.95</v>
+        <v>4.8</v>
       </c>
       <c r="L23" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N23" t="n">
-        <v>5.2</v>
+        <v>6.2</v>
       </c>
       <c r="O23" t="n">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
       <c r="P23" t="n">
-        <v>2.46</v>
+        <v>2.8</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="R23" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="S23" t="n">
-        <v>2.54</v>
+        <v>2.38</v>
       </c>
       <c r="T23" t="n">
-        <v>1.58</v>
+        <v>1.68</v>
       </c>
       <c r="U23" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="V23" t="n">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="W23" t="n">
-        <v>1.69</v>
+        <v>2.62</v>
       </c>
       <c r="X23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="Y23" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Z23" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AA23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
         <v>55</v>
       </c>
-      <c r="AB23" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD23" t="n">
+      <c r="AJ23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK23" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE23" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>24</v>
-      </c>
       <c r="AL23" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM23" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN23" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="AO23" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="G24" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H24" t="n">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="I24" t="n">
-        <v>1.86</v>
+        <v>2.72</v>
       </c>
       <c r="J24" t="n">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
-        <v>4.3</v>
+        <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="O24" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R24" t="n">
         <v>1.26</v>
       </c>
-      <c r="P24" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.46</v>
-      </c>
       <c r="S24" t="n">
-        <v>2.96</v>
+        <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="U24" t="n">
-        <v>2.16</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>2.14</v>
+        <v>1.58</v>
       </c>
       <c r="W24" t="n">
-        <v>1.25</v>
+        <v>1.43</v>
       </c>
       <c r="X24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF24" t="n">
         <v>19.5</v>
       </c>
-      <c r="Y24" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB24" t="n">
+      <c r="AG24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH24" t="n">
         <v>20</v>
       </c>
-      <c r="AC24" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AI24" t="n">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="AJ24" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AK24" t="n">
-        <v>320</v>
+        <v>42</v>
       </c>
       <c r="AL24" t="n">
         <v>60</v>
       </c>
       <c r="AM24" t="n">
-        <v>330</v>
+        <v>130</v>
       </c>
       <c r="AN24" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AO24" t="n">
-        <v>10.5</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3763,127 +3763,127 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.61</v>
+        <v>3.15</v>
       </c>
       <c r="G25" t="n">
-        <v>1.62</v>
+        <v>3.45</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>2.52</v>
       </c>
       <c r="I25" t="n">
-        <v>5.9</v>
+        <v>2.78</v>
       </c>
       <c r="J25" t="n">
-        <v>4.8</v>
+        <v>2.98</v>
       </c>
       <c r="K25" t="n">
-        <v>4.9</v>
+        <v>3.35</v>
       </c>
       <c r="L25" t="n">
-        <v>1.28</v>
+        <v>1.49</v>
       </c>
       <c r="M25" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N25" t="n">
-        <v>6.2</v>
+        <v>3.05</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.42</v>
       </c>
       <c r="P25" t="n">
-        <v>2.78</v>
+        <v>1.68</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.54</v>
+        <v>2.28</v>
       </c>
       <c r="R25" t="n">
-        <v>1.69</v>
+        <v>1.26</v>
       </c>
       <c r="S25" t="n">
-        <v>2.4</v>
+        <v>4.3</v>
       </c>
       <c r="T25" t="n">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="U25" t="n">
-        <v>2.46</v>
+        <v>1.94</v>
       </c>
       <c r="V25" t="n">
-        <v>1.2</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="X25" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="Y25" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>38</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG25" t="n">
         <v>29</v>
       </c>
-      <c r="Z25" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>140</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>9.6</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>46</v>
       </c>
       <c r="AI25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15.5</v>
+        <v>500</v>
       </c>
       <c r="AK25" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AL25" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AM25" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN25" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="AO25" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3898,121 +3898,121 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>3.2</v>
+        <v>4.2</v>
       </c>
       <c r="G26" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="I26" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J26" t="n">
         <v>3.3</v>
       </c>
-      <c r="H26" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="J26" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K26" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L26" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="M26" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O26" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="P26" t="n">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.34</v>
+        <v>2.14</v>
       </c>
       <c r="R26" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="S26" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="T26" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="V26" t="n">
-        <v>1.58</v>
+        <v>1.96</v>
       </c>
       <c r="W26" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="X26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD26" t="n">
         <v>11</v>
       </c>
-      <c r="Y26" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>320</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AE26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>36</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK26" t="n">
         <v>110</v>
       </c>
-      <c r="AF26" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>42</v>
-      </c>
       <c r="AL26" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AM26" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN26" t="n">
-        <v>46</v>
+        <v>270</v>
       </c>
       <c r="AO26" t="n">
-        <v>32</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="27">
@@ -4033,127 +4033,127 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>3.4</v>
+        <v>1.59</v>
       </c>
       <c r="G27" t="n">
-        <v>3.85</v>
+        <v>1.66</v>
       </c>
       <c r="H27" t="n">
-        <v>2.32</v>
+        <v>6.6</v>
       </c>
       <c r="I27" t="n">
-        <v>2.54</v>
+        <v>8</v>
       </c>
       <c r="J27" t="n">
-        <v>3.05</v>
+        <v>3.9</v>
       </c>
       <c r="K27" t="n">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.49</v>
+        <v>1.43</v>
       </c>
       <c r="M27" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="O27" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P27" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.2</v>
+        <v>2.04</v>
       </c>
       <c r="R27" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="T27" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="U27" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>1.65</v>
+        <v>1.14</v>
       </c>
       <c r="W27" t="n">
-        <v>1.35</v>
+        <v>2.48</v>
       </c>
       <c r="X27" t="n">
-        <v>20</v>
+        <v>14.5</v>
       </c>
       <c r="Y27" t="n">
+        <v>22</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>90</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>250</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>540</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>430</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK27" t="n">
         <v>18.5</v>
       </c>
-      <c r="Z27" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>25</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>1000</v>
-      </c>
       <c r="AL27" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM27" t="n">
-        <v>1000</v>
+        <v>580</v>
       </c>
       <c r="AN27" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AO27" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4168,127 +4168,127 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="G28" t="n">
-        <v>4.9</v>
+        <v>2.68</v>
       </c>
       <c r="H28" t="n">
-        <v>1.94</v>
+        <v>3.15</v>
       </c>
       <c r="I28" t="n">
-        <v>2.04</v>
+        <v>3.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K28" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L28" t="n">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N28" t="n">
-        <v>3.3</v>
+        <v>2.92</v>
       </c>
       <c r="O28" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="P28" t="n">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.14</v>
+        <v>2.46</v>
       </c>
       <c r="R28" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="S28" t="n">
-        <v>3.9</v>
+        <v>4.8</v>
       </c>
       <c r="T28" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="U28" t="n">
         <v>1.92</v>
       </c>
       <c r="V28" t="n">
-        <v>1.96</v>
+        <v>1.45</v>
       </c>
       <c r="W28" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="X28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG28" t="n">
         <v>12.5</v>
       </c>
-      <c r="Y28" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF28" t="n">
+      <c r="AH28" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK28" t="n">
         <v>36</v>
       </c>
-      <c r="AG28" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>190</v>
-      </c>
       <c r="AL28" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM28" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN28" t="n">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="AO28" t="n">
-        <v>18.5</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -4298,132 +4298,132 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.58</v>
+        <v>4.1</v>
       </c>
       <c r="G29" t="n">
-        <v>1.67</v>
+        <v>4.3</v>
       </c>
       <c r="H29" t="n">
-        <v>6.6</v>
+        <v>1.91</v>
       </c>
       <c r="I29" t="n">
-        <v>7.8</v>
+        <v>1.99</v>
       </c>
       <c r="J29" t="n">
-        <v>3.85</v>
+        <v>3.75</v>
       </c>
       <c r="K29" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="L29" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M29" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="n">
-        <v>1.87</v>
+        <v>2.24</v>
       </c>
       <c r="Q29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S29" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="T29" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V29" t="n">
         <v>2</v>
       </c>
-      <c r="R29" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S29" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T29" t="n">
-        <v>2</v>
-      </c>
-      <c r="U29" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1.15</v>
-      </c>
       <c r="W29" t="n">
-        <v>2.48</v>
+        <v>1.3</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="Y29" t="n">
-        <v>22</v>
+        <v>11.5</v>
       </c>
       <c r="Z29" t="n">
-        <v>190</v>
+        <v>13</v>
       </c>
       <c r="AA29" t="n">
-        <v>250</v>
+        <v>23</v>
       </c>
       <c r="AB29" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="AC29" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD29" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AE29" t="n">
-        <v>540</v>
+        <v>19</v>
       </c>
       <c r="AF29" t="n">
-        <v>9.6</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH29" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
       <c r="AI29" t="n">
-        <v>430</v>
+        <v>30</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>90</v>
       </c>
       <c r="AK29" t="n">
-        <v>18.5</v>
+        <v>48</v>
       </c>
       <c r="AL29" t="n">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="AM29" t="n">
-        <v>580</v>
+        <v>80</v>
       </c>
       <c r="AN29" t="n">
+        <v>980</v>
+      </c>
+      <c r="AO29" t="n">
         <v>11</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>210</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -4433,132 +4433,132 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.62</v>
+        <v>2.08</v>
       </c>
       <c r="G30" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H30" t="n">
-        <v>3.05</v>
+        <v>4.4</v>
       </c>
       <c r="I30" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J30" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K30" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="L30" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>2.92</v>
       </c>
       <c r="O30" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="P30" t="n">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="Q30" t="n">
-        <v>2.08</v>
+        <v>2.52</v>
       </c>
       <c r="R30" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="S30" t="n">
-        <v>3.65</v>
+        <v>5.1</v>
       </c>
       <c r="T30" t="n">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="U30" t="n">
-        <v>2.18</v>
+        <v>1.81</v>
       </c>
       <c r="V30" t="n">
-        <v>1.46</v>
+        <v>1.29</v>
       </c>
       <c r="W30" t="n">
-        <v>1.58</v>
+        <v>1.91</v>
       </c>
       <c r="X30" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y30" t="n">
         <v>12</v>
       </c>
       <c r="Z30" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AA30" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL30" t="n">
         <v>55</v>
       </c>
-      <c r="AB30" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>46</v>
-      </c>
       <c r="AM30" t="n">
-        <v>110</v>
+        <v>170</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -4568,132 +4568,132 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F31" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="G31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K31" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N31" t="n">
         <v>4.1</v>
       </c>
-      <c r="G31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.5</v>
-      </c>
       <c r="O31" t="n">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.72</v>
+        <v>1.92</v>
       </c>
       <c r="R31" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S31" t="n">
-        <v>2.84</v>
+        <v>3.35</v>
       </c>
       <c r="T31" t="n">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="U31" t="n">
-        <v>2.36</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="W31" t="n">
-        <v>1.29</v>
+        <v>1.18</v>
       </c>
       <c r="X31" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.5</v>
+        <v>8.4</v>
       </c>
       <c r="Z31" t="n">
-        <v>14</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA31" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH31" t="n">
         <v>22</v>
       </c>
-      <c r="AB31" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AC31" t="n">
+      <c r="AI31" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>85</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>260</v>
+      </c>
+      <c r="AO31" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>42</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -4703,396 +4703,126 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>2.08</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="H32" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="I32" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J32" t="n">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="K32" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="L32" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="M32" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N32" t="n">
-        <v>2.96</v>
+        <v>1.1</v>
       </c>
       <c r="O32" t="n">
-        <v>1.48</v>
+        <v>1.19</v>
       </c>
       <c r="P32" t="n">
-        <v>1.65</v>
+        <v>2.36</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="R32" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S32" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T32" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U32" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V32" t="n">
         <v>1.23</v>
       </c>
-      <c r="S32" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T32" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="U32" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.28</v>
-      </c>
       <c r="W32" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="X32" t="n">
-        <v>9.6</v>
+        <v>27</v>
       </c>
       <c r="Y32" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG32" t="n">
         <v>12</v>
       </c>
-      <c r="Z32" t="n">
-        <v>30</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB32" t="n">
+      <c r="AH32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN32" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC32" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>18</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>22</v>
-      </c>
       <c r="AO32" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="G33" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="J33" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L33" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M33" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N33" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O33" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P33" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R33" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S33" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T33" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U33" t="n">
-        <v>2</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="W33" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="X33" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>190</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G34" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L34" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="M34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P34" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="R34" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="T34" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U34" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W34" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X34" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO32"/>
+  <dimension ref="A1:AO28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Bulgarian A League</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>08:50:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Al Jubail</t>
+          <t>Beroe Stara Za</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Al Jabalain</t>
+          <t>Ludogorets</t>
         </is>
       </c>
       <c r="F2" t="n">
+        <v>11</v>
+      </c>
+      <c r="G2" t="n">
+        <v>12</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="J2" t="n">
+        <v>5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N2" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T2" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC2" t="n">
         <v>11.5</v>
       </c>
-      <c r="G2" t="n">
-        <v>36</v>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="AD2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>130</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>55</v>
+      </c>
+      <c r="AI2" t="n">
         <v>110</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="O2" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>200</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>200</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>440</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:10:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Al-Anwar Club</t>
+          <t>CS Constantine</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Al Bukayriyah</t>
+          <t>Paradou</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>38</v>
+        <v>1.7</v>
       </c>
       <c r="G3" t="n">
-        <v>990</v>
+        <v>1.71</v>
       </c>
       <c r="H3" t="n">
-        <v>1.03</v>
+        <v>7.2</v>
       </c>
       <c r="I3" t="n">
-        <v>1.04</v>
+        <v>7.8</v>
       </c>
       <c r="J3" t="n">
-        <v>21</v>
+        <v>3.55</v>
       </c>
       <c r="K3" t="n">
-        <v>310</v>
+        <v>3.7</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="P3" t="n">
-        <v>1.51</v>
+        <v>1.57</v>
       </c>
       <c r="Q3" t="n">
         <v>2.66</v>
       </c>
       <c r="R3" t="n">
-        <v>1.06</v>
+        <v>1.2</v>
       </c>
       <c r="S3" t="n">
-        <v>2.66</v>
+        <v>5.6</v>
       </c>
       <c r="T3" t="n">
-        <v>4.3</v>
+        <v>2.38</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>21</v>
+        <v>1.15</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>2.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1.66</v>
+        <v>190</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE3" t="n">
         <v>1000</v>
       </c>
-      <c r="AC3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>990</v>
-      </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI3" t="n">
         <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL3" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Saudi 1st Division</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,105 +923,105 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>09:20:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Al-Arabi Al-Saudi</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Al Batin</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>4.2</v>
+        <v>2.58</v>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>2.72</v>
       </c>
       <c r="H4" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="J4" t="n">
-        <v>1.9</v>
+        <v>2.72</v>
       </c>
       <c r="K4" t="n">
-        <v>1.98</v>
+        <v>2.96</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="M4" t="n">
-        <v>1.77</v>
+        <v>1.17</v>
       </c>
       <c r="N4" t="n">
-        <v>1.21</v>
+        <v>2.28</v>
       </c>
       <c r="O4" t="n">
-        <v>5.2</v>
+        <v>1.73</v>
       </c>
       <c r="P4" t="n">
-        <v>1.02</v>
+        <v>1.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>26</v>
+        <v>3.25</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>7.6</v>
       </c>
       <c r="T4" t="n">
-        <v>8.800000000000001</v>
+        <v>2.32</v>
       </c>
       <c r="U4" t="n">
-        <v>1.1</v>
+        <v>1.64</v>
       </c>
       <c r="V4" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="W4" t="n">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="X4" t="n">
-        <v>2.34</v>
+        <v>7</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.5</v>
+        <v>9.4</v>
       </c>
       <c r="Z4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD4" t="n">
         <v>30</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>350</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>85</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AG4" t="n">
-        <v>95</v>
+        <v>14</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AI4" t="n">
         <v>1000</v>
@@ -1030,7 +1030,7 @@
         <v>420</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>300</v>
       </c>
       <c r="AL4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MC El Bayadh</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>USM Khenchela</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.88</v>
+        <v>1.71</v>
       </c>
       <c r="G5" t="n">
-        <v>3.05</v>
+        <v>1.77</v>
       </c>
       <c r="H5" t="n">
-        <v>3.1</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>3.25</v>
+        <v>5.3</v>
       </c>
       <c r="J5" t="n">
-        <v>2.82</v>
+        <v>4.2</v>
       </c>
       <c r="K5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N5" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S5" t="n">
         <v>2.98</v>
       </c>
-      <c r="L5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="S5" t="n">
-        <v>8.199999999999999</v>
-      </c>
       <c r="T5" t="n">
-        <v>2.52</v>
+        <v>1.78</v>
       </c>
       <c r="U5" t="n">
-        <v>1.59</v>
+        <v>2.08</v>
       </c>
       <c r="V5" t="n">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="W5" t="n">
-        <v>1.46</v>
+        <v>2.28</v>
       </c>
       <c r="X5" t="n">
-        <v>6.4</v>
+        <v>19</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="Z5" t="n">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="AA5" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>9.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.2</v>
+        <v>9.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE5" t="n">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AF5" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="AJ5" t="n">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="AM5" t="n">
-        <v>360</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>9.6</v>
       </c>
       <c r="AO5" t="n">
-        <v>120</v>
+        <v>600</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>13</v>
+        <v>1.71</v>
       </c>
       <c r="G6" t="n">
-        <v>14.5</v>
+        <v>1.72</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31</v>
+        <v>6.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.33</v>
+        <v>6.8</v>
       </c>
       <c r="J6" t="n">
-        <v>5.8</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>3.85</v>
       </c>
       <c r="L6" t="n">
-        <v>1.34</v>
+        <v>1.52</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.4</v>
       </c>
-      <c r="O6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P6" t="n">
+      <c r="T6" t="n">
         <v>2.18</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="U6" t="n">
         <v>1.79</v>
       </c>
-      <c r="R6" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.67</v>
-      </c>
       <c r="V6" t="n">
-        <v>4</v>
+        <v>1.17</v>
       </c>
       <c r="W6" t="n">
-        <v>1.07</v>
+        <v>2.38</v>
       </c>
       <c r="X6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>110</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>27</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>120</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK6" t="n">
         <v>21</v>
       </c>
-      <c r="Y6" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>16</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>140</v>
-      </c>
-      <c r="AG6" t="n">
+      <c r="AL6" t="n">
         <v>55</v>
       </c>
-      <c r="AH6" t="n">
-        <v>38</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>720</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>330</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>230</v>
-      </c>
       <c r="AM6" t="n">
-        <v>250</v>
+        <v>580</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AO6" t="n">
-        <v>5.6</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F7" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N7" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Q7" t="n">
         <v>1.75</v>
       </c>
-      <c r="G7" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>8</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="R7" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="T7" t="n">
         <v>1.66</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>3</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.62</v>
-      </c>
       <c r="U7" t="n">
-        <v>1.57</v>
+        <v>2.44</v>
       </c>
       <c r="V7" t="n">
-        <v>1.15</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>2.22</v>
+        <v>1.95</v>
       </c>
       <c r="X7" t="n">
-        <v>7.8</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Z7" t="n">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="AA7" t="n">
-        <v>430</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.4</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
         <v>8.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>16.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.4</v>
+        <v>14</v>
       </c>
       <c r="AG7" t="n">
-        <v>12</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>24</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AO7" t="n">
         <v>42</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>250</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>30</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>440</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="G8" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S8" t="n">
         <v>2.78</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="P8" t="n">
+      <c r="T8" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="V8" t="n">
         <v>1.39</v>
       </c>
-      <c r="Q8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="S8" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="T8" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="U8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.35</v>
-      </c>
       <c r="W8" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="X8" t="n">
-        <v>7.2</v>
+        <v>20</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.4</v>
+        <v>17.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AB8" t="n">
-        <v>7</v>
+        <v>12.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>18.5</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF8" t="n">
         <v>15.5</v>
       </c>
       <c r="AG8" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AH8" t="n">
-        <v>75</v>
+        <v>15</v>
       </c>
       <c r="AI8" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AJ8" t="n">
-        <v>420</v>
+        <v>27</v>
       </c>
       <c r="AK8" t="n">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AO8" t="n">
-        <v>1000</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="H9" t="n">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K9" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L9" t="n">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="M9" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N9" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="P9" t="n">
-        <v>2.16</v>
+        <v>2.6</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="R9" t="n">
-        <v>1.45</v>
+        <v>1.64</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2.44</v>
       </c>
       <c r="T9" t="n">
-        <v>1.79</v>
+        <v>1.58</v>
       </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>2.58</v>
       </c>
       <c r="V9" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="W9" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="X9" t="n">
-        <v>17.5</v>
+        <v>25</v>
       </c>
       <c r="Y9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Z9" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AA9" t="n">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="AB9" t="n">
-        <v>9.6</v>
+        <v>14.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>19.5</v>
+        <v>17</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>38</v>
       </c>
       <c r="AF9" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11</v>
       </c>
-      <c r="AG9" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH9" t="n">
-        <v>19</v>
+        <v>15.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>18.5</v>
+        <v>29</v>
       </c>
       <c r="AK9" t="n">
         <v>17.5</v>
       </c>
       <c r="AL9" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AM9" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AN9" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO9" t="n">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.77</v>
+        <v>2.7</v>
       </c>
       <c r="H10" t="n">
-        <v>5.8</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.9</v>
+        <v>3.3</v>
       </c>
       <c r="J10" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>3.85</v>
+        <v>3.25</v>
       </c>
       <c r="L10" t="n">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="M10" t="n">
         <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="R10" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="T10" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="U10" t="n">
-        <v>1.84</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>1.2</v>
+        <v>1.45</v>
       </c>
       <c r="W10" t="n">
-        <v>2.28</v>
+        <v>1.59</v>
       </c>
       <c r="X10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="Y10" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>46</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>24</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>10</v>
-      </c>
       <c r="AH10" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
-        <v>260</v>
+        <v>55</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17.5</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO10" t="n">
         <v>48</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.08</v>
+        <v>3.55</v>
       </c>
       <c r="G11" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K11" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P11" t="n">
         <v>2.1</v>
       </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L11" t="n">
+      <c r="Q11" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U11" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="W11" t="n">
         <v>1.37</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N11" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="S11" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X11" t="n">
-        <v>19.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Z11" t="n">
-        <v>30</v>
+        <v>14.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AB11" t="n">
-        <v>12</v>
+        <v>15.5</v>
       </c>
       <c r="AC11" t="n">
         <v>8.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>40</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>36</v>
+      </c>
+      <c r="AO11" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>30</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.22</v>
+        <v>7.2</v>
       </c>
       <c r="G12" t="n">
-        <v>2.24</v>
+        <v>7.8</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>1.48</v>
       </c>
       <c r="I12" t="n">
-        <v>3.55</v>
+        <v>1.49</v>
       </c>
       <c r="J12" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="K12" t="n">
-        <v>3.8</v>
+        <v>5.4</v>
       </c>
       <c r="L12" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>4.8</v>
+        <v>6.2</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.3</v>
+        <v>2.74</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.76</v>
+        <v>1.52</v>
       </c>
       <c r="R12" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.88</v>
+        <v>2.28</v>
       </c>
       <c r="T12" t="n">
-        <v>1.66</v>
+        <v>1.74</v>
       </c>
       <c r="U12" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.39</v>
+        <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.8</v>
+        <v>1.14</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>11.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AB12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.4</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>14.5</v>
+        <v>11</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="AI12" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AJ12" t="n">
-        <v>28</v>
+        <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM12" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN12" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.96</v>
+        <v>1.27</v>
       </c>
       <c r="G13" t="n">
-        <v>1.99</v>
+        <v>1.28</v>
       </c>
       <c r="H13" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="K13" t="n">
-        <v>4.2</v>
+        <v>7.8</v>
       </c>
       <c r="L13" t="n">
-        <v>1.3</v>
+        <v>1.21</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>5.7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="P13" t="n">
-        <v>2.58</v>
+        <v>3.6</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>2.04</v>
       </c>
       <c r="S13" t="n">
-        <v>2.48</v>
+        <v>1.91</v>
       </c>
       <c r="T13" t="n">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>2.6</v>
+        <v>2.18</v>
       </c>
       <c r="V13" t="n">
-        <v>1.33</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="X13" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y13" t="n">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="Z13" t="n">
-        <v>34</v>
+        <v>190</v>
       </c>
       <c r="AA13" t="n">
-        <v>900</v>
+        <v>410</v>
       </c>
       <c r="AB13" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AC13" t="n">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="AE13" t="n">
-        <v>38</v>
+        <v>160</v>
       </c>
       <c r="AF13" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AG13" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>15.5</v>
+        <v>27</v>
       </c>
       <c r="AI13" t="n">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AJ13" t="n">
-        <v>25</v>
+        <v>11.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AL13" t="n">
         <v>27</v>
       </c>
       <c r="AM13" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AN13" t="n">
-        <v>9.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="G14" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="H14" t="n">
         <v>2.72</v>
       </c>
-      <c r="H14" t="n">
-        <v>2.98</v>
-      </c>
       <c r="I14" t="n">
-        <v>3.15</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="K14" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L14" t="n">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>3.55</v>
+        <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="P14" t="n">
-        <v>1.84</v>
+        <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.14</v>
+        <v>1.59</v>
       </c>
       <c r="R14" t="n">
-        <v>1.32</v>
+        <v>1.64</v>
       </c>
       <c r="S14" t="n">
-        <v>3.85</v>
+        <v>2.48</v>
       </c>
       <c r="T14" t="n">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="U14" t="n">
-        <v>2.12</v>
+        <v>2.7</v>
       </c>
       <c r="V14" t="n">
-        <v>1.46</v>
+        <v>1.55</v>
       </c>
       <c r="W14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>24</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>17.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD14" t="n">
         <v>13.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>17</v>
+        <v>14.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AJ14" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AN14" t="n">
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>3.45</v>
+        <v>1.26</v>
       </c>
       <c r="G15" t="n">
-        <v>3.55</v>
+        <v>1.28</v>
       </c>
       <c r="H15" t="n">
-        <v>2.18</v>
+        <v>10.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.24</v>
+        <v>12.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>8</v>
       </c>
       <c r="K15" t="n">
-        <v>3.95</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>13.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.07</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.81</v>
+        <v>1.22</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>2.62</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>1.59</v>
       </c>
       <c r="T15" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="U15" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="V15" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="W15" t="n">
-        <v>1.39</v>
+        <v>4.6</v>
       </c>
       <c r="X15" t="n">
-        <v>17.5</v>
+        <v>110</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
+        <v>150</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>410</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>290</v>
+      </c>
+      <c r="AF15" t="n">
         <v>15</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AG15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH15" t="n">
         <v>46</v>
       </c>
-      <c r="AB15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ15" t="n">
-        <v>160</v>
+        <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>40</v>
+        <v>13.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>34</v>
+        <v>2.66</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2548,67 +2548,67 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>6.2</v>
+        <v>2.42</v>
       </c>
       <c r="G16" t="n">
-        <v>7.2</v>
+        <v>2.48</v>
       </c>
       <c r="H16" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="I16" t="n">
-        <v>1.54</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="K16" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N16" t="n">
         <v>5.6</v>
       </c>
-      <c r="L16" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N16" t="n">
-        <v>6.2</v>
-      </c>
       <c r="O16" t="n">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="P16" t="n">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="S16" t="n">
-        <v>2.24</v>
+        <v>2.56</v>
       </c>
       <c r="T16" t="n">
-        <v>1.66</v>
+        <v>1.56</v>
       </c>
       <c r="U16" t="n">
-        <v>2.28</v>
+        <v>2.62</v>
       </c>
       <c r="V16" t="n">
-        <v>2.84</v>
+        <v>1.52</v>
       </c>
       <c r="W16" t="n">
-        <v>1.16</v>
+        <v>1.67</v>
       </c>
       <c r="X16" t="n">
         <v>46</v>
@@ -2617,58 +2617,58 @@
         <v>30</v>
       </c>
       <c r="Z16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>980</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH16" t="n">
         <v>19</v>
       </c>
-      <c r="AA16" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>36</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AF16" t="n">
+      <c r="AI16" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>250</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>14</v>
+      </c>
+      <c r="AO16" t="n">
         <v>1000</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>5.3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G17" t="n">
         <v>2.42</v>
       </c>
-      <c r="G17" t="n">
-        <v>2.52</v>
-      </c>
       <c r="H17" t="n">
-        <v>2.92</v>
+        <v>3.1</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="J17" t="n">
-        <v>3.85</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="M17" t="n">
         <v>1.04</v>
       </c>
       <c r="N17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="O17" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="S17" t="n">
         <v>2.56</v>
       </c>
-      <c r="Q17" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.48</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="U17" t="n">
-        <v>2.68</v>
+        <v>2.54</v>
       </c>
       <c r="V17" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W17" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="X17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Y17" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AA17" t="n">
-        <v>46</v>
+        <v>90</v>
       </c>
       <c r="AB17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AC17" t="n">
         <v>9.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF17" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AG17" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH17" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>32</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>34</v>
       </c>
       <c r="AK17" t="n">
         <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AM17" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>2.34</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>2.38</v>
+        <v>5.3</v>
       </c>
       <c r="H18" t="n">
-        <v>2.94</v>
+        <v>1.75</v>
       </c>
       <c r="I18" t="n">
-        <v>3.05</v>
+        <v>1.76</v>
       </c>
       <c r="J18" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K18" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>5.7</v>
+        <v>4.6</v>
       </c>
       <c r="O18" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P18" t="n">
-        <v>2.58</v>
+        <v>2.22</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="R18" t="n">
-        <v>1.64</v>
+        <v>1.47</v>
       </c>
       <c r="S18" t="n">
-        <v>2.52</v>
+        <v>2.98</v>
       </c>
       <c r="T18" t="n">
-        <v>1.56</v>
+        <v>1.79</v>
       </c>
       <c r="U18" t="n">
-        <v>2.74</v>
+        <v>2.16</v>
       </c>
       <c r="V18" t="n">
-        <v>1.48</v>
+        <v>2.3</v>
       </c>
       <c r="W18" t="n">
-        <v>1.72</v>
+        <v>1.23</v>
       </c>
       <c r="X18" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="Y18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>42</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI18" t="n">
         <v>32</v>
       </c>
-      <c r="Z18" t="n">
-        <v>25</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>50</v>
-      </c>
       <c r="AJ18" t="n">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="AK18" t="n">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AL18" t="n">
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>200</v>
+        <v>580</v>
       </c>
       <c r="AN18" t="n">
-        <v>12.5</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="G19" t="n">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="H19" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="I19" t="n">
-        <v>14.5</v>
+        <v>6.2</v>
       </c>
       <c r="J19" t="n">
-        <v>8.800000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="K19" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="L19" t="n">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="M19" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N19" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S19" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="X19" t="n">
+        <v>29</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>32</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>55</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AB19" t="n">
         <v>13.5</v>
       </c>
-      <c r="O19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W19" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="X19" t="n">
-        <v>100</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>460</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>1000</v>
-      </c>
       <c r="AC19" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AE19" t="n">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AG19" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="AJ19" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL19" t="n">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="AM19" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AN19" t="n">
-        <v>2.48</v>
+        <v>5.6</v>
       </c>
       <c r="AO19" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.27</v>
+        <v>3.25</v>
       </c>
       <c r="G20" t="n">
-        <v>1.3</v>
+        <v>3.35</v>
       </c>
       <c r="H20" t="n">
-        <v>12</v>
+        <v>2.62</v>
       </c>
       <c r="I20" t="n">
-        <v>13</v>
+        <v>2.68</v>
       </c>
       <c r="J20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="W20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
         <v>6.8</v>
       </c>
-      <c r="K20" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="R20" t="n">
-        <v>2</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U20" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W20" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="X20" t="n">
+      <c r="AD20" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK20" t="n">
         <v>44</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="AL20" t="n">
         <v>65</v>
       </c>
-      <c r="Z20" t="n">
-        <v>140</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>410</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>150</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>13</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>27</v>
-      </c>
       <c r="AM20" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.35</v>
+        <v>60</v>
       </c>
       <c r="AO20" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,132 +3218,132 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>2.96</v>
       </c>
       <c r="G21" t="n">
-        <v>2.38</v>
+        <v>3.2</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="I21" t="n">
-        <v>3.25</v>
+        <v>2.84</v>
       </c>
       <c r="J21" t="n">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="K21" t="n">
-        <v>3.95</v>
+        <v>3.3</v>
       </c>
       <c r="L21" t="n">
-        <v>1.31</v>
+        <v>1.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="O21" t="n">
-        <v>1.21</v>
+        <v>1.43</v>
       </c>
       <c r="P21" t="n">
-        <v>2.52</v>
+        <v>1.67</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.63</v>
+        <v>2.28</v>
       </c>
       <c r="R21" t="n">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="S21" t="n">
-        <v>2.58</v>
+        <v>4.2</v>
       </c>
       <c r="T21" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="U21" t="n">
-        <v>2.56</v>
+        <v>1.93</v>
       </c>
       <c r="V21" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="W21" t="n">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="X21" t="n">
         <v>23</v>
       </c>
       <c r="Y21" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AE21" t="n">
         <v>55</v>
       </c>
-      <c r="AB21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>32</v>
-      </c>
       <c r="AF21" t="n">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="AG21" t="n">
-        <v>12.5</v>
+        <v>23</v>
       </c>
       <c r="AH21" t="n">
-        <v>15.5</v>
+        <v>60</v>
       </c>
       <c r="AI21" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>32</v>
+        <v>500</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>13.5</v>
+        <v>600</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3353,132 +3353,132 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>4.6</v>
       </c>
       <c r="G22" t="n">
-        <v>4.9</v>
+        <v>5.5</v>
       </c>
       <c r="H22" t="n">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="I22" t="n">
-        <v>1.83</v>
+        <v>2.02</v>
       </c>
       <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S22" t="n">
         <v>4</v>
       </c>
-      <c r="K22" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P22" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3</v>
-      </c>
       <c r="T22" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="U22" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V22" t="n">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="W22" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="X22" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y22" t="n">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z22" t="n">
         <v>12</v>
       </c>
       <c r="AA22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH22" t="n">
         <v>20</v>
       </c>
-      <c r="AB22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE22" t="n">
+      <c r="AI22" t="n">
+        <v>44</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>200</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>120</v>
+      </c>
+      <c r="AO22" t="n">
         <v>18</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3493,127 +3493,127 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="G23" t="n">
-        <v>1.61</v>
+        <v>1.66</v>
       </c>
       <c r="H23" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="I23" t="n">
-        <v>6.2</v>
+        <v>7.8</v>
       </c>
       <c r="J23" t="n">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="K23" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="L23" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="M23" t="n">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>6.2</v>
+        <v>3.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="P23" t="n">
-        <v>2.8</v>
+        <v>1.94</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="R23" t="n">
-        <v>1.7</v>
+        <v>1.33</v>
       </c>
       <c r="S23" t="n">
-        <v>2.38</v>
+        <v>3.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="U23" t="n">
-        <v>2.44</v>
+        <v>1.83</v>
       </c>
       <c r="V23" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="W23" t="n">
-        <v>2.62</v>
+        <v>2.48</v>
       </c>
       <c r="X23" t="n">
-        <v>29</v>
+        <v>14.5</v>
       </c>
       <c r="Y23" t="n">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="Z23" t="n">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AA23" t="n">
-        <v>150</v>
+        <v>250</v>
       </c>
       <c r="AB23" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE23" t="n">
-        <v>65</v>
+        <v>540</v>
       </c>
       <c r="AF23" t="n">
-        <v>11.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG23" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH23" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="AI23" t="n">
-        <v>55</v>
+        <v>430</v>
       </c>
       <c r="AJ23" t="n">
         <v>15.5</v>
       </c>
       <c r="AK23" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AL23" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AM23" t="n">
-        <v>70</v>
+        <v>580</v>
       </c>
       <c r="AN23" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="AO23" t="n">
-        <v>60</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3628,127 +3628,127 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F24" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I24" t="n">
         <v>3.2</v>
       </c>
-      <c r="G24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.72</v>
-      </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K24" t="n">
         <v>3.2</v>
       </c>
       <c r="L24" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N24" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="O24" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="P24" t="n">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.34</v>
+        <v>2.42</v>
       </c>
       <c r="R24" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S24" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="T24" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="U24" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V24" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="W24" t="n">
         <v>1.58</v>
       </c>
-      <c r="W24" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X24" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z24" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AF24" t="n">
         <v>16.5</v>
       </c>
-      <c r="AA24" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD24" t="n">
+      <c r="AG24" t="n">
         <v>12.5</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AH24" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AK24" t="n">
         <v>34</v>
       </c>
-      <c r="AF24" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI24" t="n">
+      <c r="AL24" t="n">
         <v>55</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>60</v>
-      </c>
       <c r="AM24" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN24" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="AO24" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>3.15</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>3.45</v>
+        <v>4.3</v>
       </c>
       <c r="H25" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="I25" t="n">
-        <v>2.78</v>
+        <v>2.04</v>
       </c>
       <c r="J25" t="n">
-        <v>2.98</v>
+        <v>3.75</v>
       </c>
       <c r="K25" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>1.49</v>
+        <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>3.05</v>
+        <v>4.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.42</v>
+        <v>1.26</v>
       </c>
       <c r="P25" t="n">
-        <v>1.68</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.28</v>
+        <v>1.73</v>
       </c>
       <c r="R25" t="n">
-        <v>1.26</v>
+        <v>1.48</v>
       </c>
       <c r="S25" t="n">
-        <v>4.3</v>
+        <v>2.88</v>
       </c>
       <c r="T25" t="n">
-        <v>1.88</v>
+        <v>1.72</v>
       </c>
       <c r="U25" t="n">
-        <v>1.94</v>
+        <v>2.32</v>
       </c>
       <c r="V25" t="n">
-        <v>1.57</v>
+        <v>1.96</v>
       </c>
       <c r="W25" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="X25" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="Z25" t="n">
-        <v>38</v>
+        <v>13.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB25" t="n">
-        <v>24</v>
+        <v>18.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>12.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD25" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
-        <v>95</v>
+        <v>19.5</v>
       </c>
       <c r="AF25" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AG25" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AH25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN25" t="n">
         <v>46</v>
       </c>
-      <c r="AI25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>500</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO25" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,132 +3893,132 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>4.2</v>
+        <v>2.08</v>
       </c>
       <c r="G26" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
-        <v>1.93</v>
+        <v>4.3</v>
       </c>
       <c r="I26" t="n">
-        <v>2.04</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K26" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="L26" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N26" t="n">
-        <v>3.3</v>
+        <v>2.94</v>
       </c>
       <c r="O26" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="P26" t="n">
-        <v>1.76</v>
+        <v>1.64</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.14</v>
+        <v>2.5</v>
       </c>
       <c r="R26" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="S26" t="n">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="T26" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U26" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="W26" t="n">
         <v>1.91</v>
       </c>
-      <c r="U26" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W26" t="n">
-        <v>1.25</v>
-      </c>
       <c r="X26" t="n">
-        <v>12.5</v>
+        <v>9.4</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.4</v>
+        <v>12</v>
       </c>
       <c r="Z26" t="n">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="AA26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>90</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK26" t="n">
         <v>26</v>
       </c>
-      <c r="AB26" t="n">
-        <v>15</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK26" t="n">
+      <c r="AL26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>170</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO26" t="n">
         <v>110</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>270</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>18.5</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -4028,132 +4028,132 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>1.59</v>
+        <v>6.2</v>
       </c>
       <c r="G27" t="n">
-        <v>1.66</v>
+        <v>6.4</v>
       </c>
       <c r="H27" t="n">
-        <v>6.6</v>
+        <v>1.61</v>
       </c>
       <c r="I27" t="n">
-        <v>8</v>
+        <v>1.63</v>
       </c>
       <c r="J27" t="n">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="K27" t="n">
         <v>4.5</v>
       </c>
       <c r="L27" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="O27" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P27" t="n">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.04</v>
+        <v>1.88</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="S27" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="T27" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>2.02</v>
       </c>
       <c r="V27" t="n">
-        <v>1.14</v>
+        <v>2.58</v>
       </c>
       <c r="W27" t="n">
-        <v>2.48</v>
+        <v>1.18</v>
       </c>
       <c r="X27" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="Y27" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB27" t="n">
         <v>22</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AC27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>36</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>180</v>
+      </c>
+      <c r="AK27" t="n">
         <v>90</v>
       </c>
-      <c r="AA27" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>540</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>430</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AL27" t="n">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="AM27" t="n">
-        <v>580</v>
+        <v>120</v>
       </c>
       <c r="AN27" t="n">
-        <v>11</v>
+        <v>150</v>
       </c>
       <c r="AO27" t="n">
-        <v>240</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -4163,665 +4163,125 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>2.66</v>
+        <v>1.72</v>
       </c>
       <c r="G28" t="n">
-        <v>2.68</v>
+        <v>1.76</v>
       </c>
       <c r="H28" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="I28" t="n">
-        <v>3.2</v>
+        <v>5.2</v>
       </c>
       <c r="J28" t="n">
-        <v>3.15</v>
+        <v>4.2</v>
       </c>
       <c r="K28" t="n">
-        <v>3.2</v>
+        <v>4.6</v>
       </c>
       <c r="L28" t="n">
-        <v>1.55</v>
+        <v>1.23</v>
       </c>
       <c r="M28" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N28" t="n">
-        <v>2.92</v>
+        <v>1.1</v>
       </c>
       <c r="O28" t="n">
-        <v>1.5</v>
+        <v>1.19</v>
       </c>
       <c r="P28" t="n">
-        <v>1.67</v>
+        <v>2.38</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.46</v>
+        <v>1.53</v>
       </c>
       <c r="R28" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="T28" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U28" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="V28" t="n">
         <v>1.24</v>
       </c>
-      <c r="S28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="T28" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U28" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.45</v>
-      </c>
       <c r="W28" t="n">
-        <v>1.59</v>
+        <v>2.3</v>
       </c>
       <c r="X28" t="n">
-        <v>9.199999999999999</v>
+        <v>26</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Z28" t="n">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="AA28" t="n">
-        <v>60</v>
+        <v>900</v>
       </c>
       <c r="AB28" t="n">
-        <v>8.800000000000001</v>
+        <v>14</v>
       </c>
       <c r="AC28" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN28" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>140</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>36</v>
-      </c>
       <c r="AO28" t="n">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="G29" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I29" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="J29" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L29" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M29" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P29" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R29" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S29" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T29" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U29" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2</v>
-      </c>
-      <c r="W29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X29" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>130</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>980</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Mallorca</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H30" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I30" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L30" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="O30" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="R30" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="W30" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="X30" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>7</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>22</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G31" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L31" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N31" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O31" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P31" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="R31" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S31" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T31" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U31" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="W31" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X31" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AB31" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC31" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG31" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI31" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ31" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM31" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN31" t="n">
-        <v>260</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>9.199999999999999</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="G32" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I32" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M32" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N32" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O32" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P32" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R32" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S32" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T32" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="U32" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V32" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="W32" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X32" t="n">
-        <v>27</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF32" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG32" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH32" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI32" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ32" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO32" t="n">
         <v>42</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO28"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Bulgarian A League</t>
+          <t>Algerian Ligue 1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,132 +653,132 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Beroe Stara Za</t>
+          <t>ES Setif</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ludogorets</t>
+          <t>Kabylie</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11</v>
+        <v>3.8</v>
       </c>
       <c r="G2" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="I2" t="n">
-        <v>1.41</v>
+        <v>4.9</v>
       </c>
       <c r="J2" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O2" t="n">
         <v>5</v>
       </c>
-      <c r="K2" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N2" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.49</v>
-      </c>
       <c r="P2" t="n">
-        <v>1.7</v>
+        <v>1.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>5.1</v>
+        <v>95</v>
       </c>
       <c r="T2" t="n">
-        <v>2.96</v>
+        <v>7.4</v>
       </c>
       <c r="U2" t="n">
-        <v>1.48</v>
+        <v>1.12</v>
       </c>
       <c r="V2" t="n">
-        <v>3.7</v>
+        <v>1.25</v>
       </c>
       <c r="W2" t="n">
-        <v>1.08</v>
+        <v>1.35</v>
       </c>
       <c r="X2" t="n">
-        <v>12.5</v>
+        <v>2.26</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.3</v>
+        <v>6.6</v>
       </c>
       <c r="Z2" t="n">
-        <v>6</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>26</v>
+        <v>6.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11.5</v>
+        <v>990</v>
       </c>
       <c r="AE2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>130</v>
+        <v>980</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AH2" t="n">
-        <v>55</v>
+        <v>990</v>
       </c>
       <c r="AI2" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>440</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
         <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,123 +788,123 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CS Constantine</t>
+          <t>Erokspor A.S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Paradou</t>
+          <t>Sariyer G.K.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.7</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
-        <v>1.71</v>
+        <v>7</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>4.5</v>
       </c>
       <c r="I3" t="n">
-        <v>7.8</v>
+        <v>4.7</v>
       </c>
       <c r="J3" t="n">
-        <v>3.55</v>
+        <v>1.57</v>
       </c>
       <c r="K3" t="n">
-        <v>3.7</v>
+        <v>1.58</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.68</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.66</v>
+        <v>2.6</v>
       </c>
       <c r="R3" t="n">
-        <v>1.2</v>
+        <v>1.08</v>
       </c>
       <c r="S3" t="n">
-        <v>5.6</v>
+        <v>13</v>
       </c>
       <c r="T3" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="W3" t="n">
-        <v>2.4</v>
+        <v>1.16</v>
       </c>
       <c r="X3" t="n">
-        <v>9</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.6</v>
+        <v>1.59</v>
       </c>
       <c r="AD3" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AH3" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ3" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>23</v>
+        <v>110</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
         <v>1000</v>
@@ -913,7 +913,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Turkish Super League</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -928,118 +928,118 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>Kocaelispor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.58</v>
+        <v>1.13</v>
       </c>
       <c r="G4" t="n">
-        <v>2.72</v>
+        <v>1.14</v>
       </c>
       <c r="H4" t="n">
-        <v>3.55</v>
+        <v>95</v>
       </c>
       <c r="I4" t="n">
-        <v>3.9</v>
+        <v>140</v>
       </c>
       <c r="J4" t="n">
-        <v>2.72</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>2.96</v>
+        <v>9.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.14</v>
+        <v>1.67</v>
       </c>
       <c r="S4" t="n">
-        <v>7.6</v>
+        <v>2.46</v>
       </c>
       <c r="T4" t="n">
-        <v>2.32</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1.35</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>1.58</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>1.65</v>
       </c>
       <c r="AH4" t="n">
-        <v>65</v>
+        <v>9.6</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AJ4" t="n">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>300</v>
+        <v>5.2</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM4" t="n">
-        <v>1000</v>
+        <v>570</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.71</v>
+        <v>2.4</v>
       </c>
       <c r="G5" t="n">
-        <v>1.77</v>
+        <v>2.42</v>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.2</v>
+        <v>2.66</v>
       </c>
       <c r="K5" t="n">
-        <v>4.5</v>
+        <v>2.68</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.27</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>1.81</v>
       </c>
       <c r="O5" t="n">
-        <v>1.27</v>
+        <v>2.2</v>
       </c>
       <c r="P5" t="n">
-        <v>2.2</v>
+        <v>1.23</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.79</v>
+        <v>5.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.06</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>15</v>
       </c>
       <c r="T5" t="n">
-        <v>1.78</v>
+        <v>3.4</v>
       </c>
       <c r="U5" t="n">
-        <v>2.08</v>
+        <v>1.39</v>
       </c>
       <c r="V5" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W5" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="X5" t="n">
-        <v>19</v>
+        <v>4.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>21</v>
+        <v>8.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="AA5" t="n">
-        <v>130</v>
+        <v>240</v>
       </c>
       <c r="AB5" t="n">
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="AD5" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AE5" t="n">
-        <v>65</v>
+        <v>270</v>
       </c>
       <c r="AF5" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH5" t="n">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="AI5" t="n">
-        <v>65</v>
+        <v>510</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AK5" t="n">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="AL5" t="n">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="AM5" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>9.6</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>German Bundesliga 2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>14:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Paderborn</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>SV Darmstadt</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.71</v>
+        <v>21</v>
       </c>
       <c r="G6" t="n">
-        <v>1.72</v>
+        <v>23</v>
       </c>
       <c r="H6" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8</v>
+      </c>
+      <c r="K6" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="V6" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6.4</v>
       </c>
-      <c r="I6" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="S6" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X6" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>55</v>
-      </c>
       <c r="AA6" t="n">
-        <v>260</v>
+        <v>7.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>5.8</v>
       </c>
       <c r="AE6" t="n">
-        <v>110</v>
+        <v>8</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>27</v>
-      </c>
       <c r="AI6" t="n">
-        <v>120</v>
+        <v>15.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="AM6" t="n">
-        <v>580</v>
+        <v>48</v>
       </c>
       <c r="AN6" t="n">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>German 3 Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>Cottbus</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>Jahn Regensburg</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.04</v>
+        <v>1.51</v>
       </c>
       <c r="G7" t="n">
-        <v>2.06</v>
+        <v>1.54</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="L7" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>4.9</v>
+        <v>13.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>2.3</v>
+        <v>3.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="R7" t="n">
-        <v>1.51</v>
+        <v>1.96</v>
       </c>
       <c r="S7" t="n">
-        <v>2.86</v>
+        <v>1.99</v>
       </c>
       <c r="T7" t="n">
-        <v>1.66</v>
+        <v>1.77</v>
       </c>
       <c r="U7" t="n">
-        <v>2.44</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.31</v>
+        <v>1.42</v>
       </c>
       <c r="W7" t="n">
-        <v>1.95</v>
+        <v>1.71</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.4</v>
+        <v>980</v>
       </c>
       <c r="AD7" t="n">
-        <v>16.5</v>
+        <v>980</v>
       </c>
       <c r="AE7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>14</v>
+        <v>980</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>990</v>
       </c>
       <c r="AH7" t="n">
-        <v>15.5</v>
+        <v>990</v>
       </c>
       <c r="AI7" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Romanian Liga I</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Botosani</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>CFR Cluj</t>
         </is>
       </c>
       <c r="F8" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V8" t="n">
         <v>2.2</v>
       </c>
-      <c r="G8" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="H8" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I8" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N8" t="n">
+      <c r="W8" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC8" t="n">
         <v>5.1</v>
       </c>
-      <c r="O8" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S8" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="X8" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
       <c r="AD8" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AF8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AI8" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK8" t="n">
         <v>42</v>
       </c>
-      <c r="AJ8" t="n">
-        <v>27</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>20</v>
-      </c>
       <c r="AL8" t="n">
-        <v>29</v>
+        <v>980</v>
       </c>
       <c r="AM8" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>12.5</v>
+        <v>110</v>
       </c>
       <c r="AO8" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>15:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Neuchatel Xamax</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="G9" t="n">
-        <v>2.02</v>
+        <v>3.65</v>
       </c>
       <c r="H9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="K9" t="n">
         <v>3.8</v>
       </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="S9" t="n">
         <v>4</v>
       </c>
-      <c r="J9" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.44</v>
-      </c>
       <c r="T9" t="n">
-        <v>1.58</v>
+        <v>1.87</v>
       </c>
       <c r="U9" t="n">
-        <v>2.58</v>
+        <v>2.08</v>
       </c>
       <c r="V9" t="n">
-        <v>1.33</v>
+        <v>1.81</v>
       </c>
       <c r="W9" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="X9" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AE9" t="n">
         <v>25</v>
       </c>
-      <c r="Y9" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z9" t="n">
+      <c r="AF9" t="n">
         <v>32</v>
       </c>
-      <c r="AA9" t="n">
-        <v>75</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG9" t="n">
-        <v>11</v>
-      </c>
       <c r="AH9" t="n">
-        <v>15.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AJ9" t="n">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="AK9" t="n">
-        <v>17.5</v>
+        <v>60</v>
       </c>
       <c r="AL9" t="n">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="AM9" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN9" t="n">
         <v>60</v>
       </c>
-      <c r="AN9" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AO9" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F10" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="G10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N10" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="P10" t="n">
         <v>2.6</v>
       </c>
-      <c r="G10" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.75</v>
-      </c>
       <c r="Q10" t="n">
-        <v>2.26</v>
+        <v>1.59</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="S10" t="n">
-        <v>4.2</v>
+        <v>2.44</v>
       </c>
       <c r="T10" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="U10" t="n">
-        <v>2.06</v>
+        <v>2.74</v>
       </c>
       <c r="V10" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="W10" t="n">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="X10" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>29</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>32</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>27</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN10" t="n">
         <v>11.5</v>
       </c>
-      <c r="Y10" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>14</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>16</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>18</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>42</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>30</v>
-      </c>
       <c r="AO10" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,126 +1868,126 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>3.55</v>
+        <v>1.26</v>
       </c>
       <c r="G11" t="n">
-        <v>3.65</v>
+        <v>1.27</v>
       </c>
       <c r="H11" t="n">
-        <v>2.18</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>2.22</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>3.7</v>
+        <v>7.4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.8</v>
+        <v>8</v>
       </c>
       <c r="L11" t="n">
-        <v>1.38</v>
+        <v>1.21</v>
       </c>
       <c r="M11" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N11" t="n">
-        <v>4.3</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>1.27</v>
+        <v>1.11</v>
       </c>
       <c r="P11" t="n">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.86</v>
+        <v>1.37</v>
       </c>
       <c r="R11" t="n">
-        <v>1.43</v>
+        <v>2.02</v>
       </c>
       <c r="S11" t="n">
-        <v>3.1</v>
+        <v>1.93</v>
       </c>
       <c r="T11" t="n">
-        <v>1.72</v>
+        <v>1.79</v>
       </c>
       <c r="U11" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="V11" t="n">
-        <v>1.81</v>
+        <v>1.08</v>
       </c>
       <c r="W11" t="n">
-        <v>1.37</v>
+        <v>4.7</v>
       </c>
       <c r="X11" t="n">
-        <v>17.5</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>65</v>
       </c>
       <c r="Z11" t="n">
-        <v>14.5</v>
+        <v>140</v>
       </c>
       <c r="AA11" t="n">
-        <v>46</v>
+        <v>390</v>
       </c>
       <c r="AB11" t="n">
         <v>15.5</v>
       </c>
       <c r="AC11" t="n">
-        <v>8.4</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
+        <v>44</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>160</v>
+      </c>
+      <c r="AF11" t="n">
         <v>11</v>
       </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH11" t="n">
         <v>27</v>
       </c>
-      <c r="AG11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>17</v>
-      </c>
       <c r="AI11" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AL11" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AN11" t="n">
-        <v>36</v>
+        <v>3.25</v>
       </c>
       <c r="AO11" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="G12" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="H12" t="n">
-        <v>1.48</v>
+        <v>1.46</v>
       </c>
       <c r="I12" t="n">
         <v>1.49</v>
       </c>
       <c r="J12" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.27</v>
@@ -2047,7 +2047,7 @@
         <v>1.16</v>
       </c>
       <c r="P12" t="n">
-        <v>2.74</v>
+        <v>2.72</v>
       </c>
       <c r="Q12" t="n">
         <v>1.52</v>
@@ -2056,10 +2056,10 @@
         <v>1.7</v>
       </c>
       <c r="S12" t="n">
-        <v>2.28</v>
+        <v>2.36</v>
       </c>
       <c r="T12" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="U12" t="n">
         <v>2.2</v>
@@ -2068,52 +2068,52 @@
         <v>3</v>
       </c>
       <c r="W12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X12" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="Y12" t="n">
-        <v>30</v>
+        <v>12.5</v>
       </c>
       <c r="Z12" t="n">
         <v>11.5</v>
       </c>
       <c r="AA12" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>16</v>
       </c>
-      <c r="AB12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>28</v>
-      </c>
       <c r="AF12" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="n">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="AH12" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
-        <v>1000</v>
+        <v>240</v>
       </c>
       <c r="AL12" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AM12" t="n">
         <v>1000</v>
@@ -2122,7 +2122,7 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
@@ -2143,121 +2143,121 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="G13" t="n">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="H13" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K13" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N13" t="n">
+        <v>14</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="X13" t="n">
+        <v>85</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>480</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>42</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>180</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>13</v>
       </c>
-      <c r="J13" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="W13" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X13" t="n">
-        <v>60</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>150</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>190</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>410</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>11.5</v>
-      </c>
       <c r="AK13" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AL13" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AM13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
@@ -2278,31 +2278,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="G14" t="n">
-        <v>2.68</v>
+        <v>2.58</v>
       </c>
       <c r="H14" t="n">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J14" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.3</v>
@@ -2314,64 +2314,64 @@
         <v>5.7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
         <v>2.56</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S14" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="V14" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="W14" t="n">
         <v>1.64</v>
       </c>
-      <c r="S14" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W14" t="n">
-        <v>1.6</v>
-      </c>
       <c r="X14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y14" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z14" t="n">
         <v>22</v>
       </c>
       <c r="AA14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
         <v>26</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AG14" t="n">
         <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>32</v>
@@ -2380,25 +2380,25 @@
         <v>38</v>
       </c>
       <c r="AK14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AO14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.26</v>
+        <v>2.34</v>
       </c>
       <c r="G15" t="n">
-        <v>1.28</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
-        <v>10.5</v>
+        <v>3.1</v>
       </c>
       <c r="I15" t="n">
-        <v>12.5</v>
+        <v>3.3</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
-        <v>8.800000000000001</v>
+        <v>3.9</v>
       </c>
       <c r="L15" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>13.5</v>
+        <v>5.5</v>
       </c>
       <c r="O15" t="n">
-        <v>1.07</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>2.54</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.22</v>
+        <v>1.61</v>
       </c>
       <c r="R15" t="n">
-        <v>2.62</v>
+        <v>1.6</v>
       </c>
       <c r="S15" t="n">
-        <v>1.59</v>
+        <v>2.54</v>
       </c>
       <c r="T15" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="U15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="V15" t="n">
-        <v>1.08</v>
+        <v>1.43</v>
       </c>
       <c r="W15" t="n">
-        <v>4.6</v>
+        <v>1.71</v>
       </c>
       <c r="X15" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="Y15" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>150</v>
+        <v>26</v>
       </c>
       <c r="AA15" t="n">
-        <v>410</v>
+        <v>60</v>
       </c>
       <c r="AB15" t="n">
-        <v>42</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>1000</v>
+        <v>9.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>290</v>
+        <v>32</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AG15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
-        <v>46</v>
+        <v>14.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AJ15" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>13.5</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>75</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.66</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.42</v>
+        <v>5.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.48</v>
+        <v>5.6</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>1.71</v>
       </c>
       <c r="I16" t="n">
-        <v>2.92</v>
+        <v>1.73</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95</v>
+        <v>4.2</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="L16" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="M16" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N16" t="n">
-        <v>5.6</v>
+        <v>4.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P16" t="n">
-        <v>2.5</v>
+        <v>2.24</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.62</v>
+        <v>1.76</v>
       </c>
       <c r="R16" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="S16" t="n">
-        <v>2.56</v>
+        <v>2.96</v>
       </c>
       <c r="T16" t="n">
-        <v>1.56</v>
+        <v>1.8</v>
       </c>
       <c r="U16" t="n">
-        <v>2.62</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.52</v>
+        <v>2.36</v>
       </c>
       <c r="W16" t="n">
-        <v>1.67</v>
+        <v>1.22</v>
       </c>
       <c r="X16" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
         <v>46</v>
       </c>
-      <c r="Y16" t="n">
-        <v>30</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>85</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>980</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>50</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>30</v>
-      </c>
       <c r="AG16" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AH16" t="n">
         <v>19</v>
       </c>
       <c r="AI16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>900</v>
+      </c>
+      <c r="AK16" t="n">
         <v>70</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>24</v>
-      </c>
       <c r="AL16" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM16" t="n">
-        <v>250</v>
+        <v>95</v>
       </c>
       <c r="AN16" t="n">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="AO16" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2.32</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>2.42</v>
+        <v>1.55</v>
       </c>
       <c r="H17" t="n">
-        <v>3.1</v>
+        <v>6.2</v>
       </c>
       <c r="I17" t="n">
-        <v>3.25</v>
+        <v>6.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="K17" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="L17" t="n">
-        <v>1.31</v>
+        <v>1.26</v>
       </c>
       <c r="M17" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="O17" t="n">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="P17" t="n">
-        <v>2.52</v>
+        <v>2.92</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="R17" t="n">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="S17" t="n">
-        <v>2.56</v>
+        <v>2.26</v>
       </c>
       <c r="T17" t="n">
-        <v>1.58</v>
+        <v>1.66</v>
       </c>
       <c r="U17" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="V17" t="n">
-        <v>1.44</v>
+        <v>1.17</v>
       </c>
       <c r="W17" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="X17" t="n">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="Z17" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AA17" t="n">
-        <v>90</v>
+        <v>160</v>
       </c>
       <c r="AB17" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.4</v>
+        <v>12</v>
       </c>
       <c r="AD17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE17" t="n">
-        <v>32</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>32</v>
-      </c>
       <c r="AK17" t="n">
-        <v>23</v>
+        <v>13.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="AM17" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO17" t="n">
         <v>60</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="G18" t="n">
-        <v>5.3</v>
+        <v>3.75</v>
       </c>
       <c r="H18" t="n">
-        <v>1.75</v>
+        <v>2.44</v>
       </c>
       <c r="I18" t="n">
-        <v>1.76</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>4.2</v>
+        <v>3.05</v>
       </c>
       <c r="K18" t="n">
-        <v>4.4</v>
+        <v>3.15</v>
       </c>
       <c r="L18" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="S18" t="n">
         <v>4.6</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.98</v>
-      </c>
       <c r="T18" t="n">
-        <v>1.79</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="V18" t="n">
-        <v>2.3</v>
+        <v>1.68</v>
       </c>
       <c r="W18" t="n">
-        <v>1.23</v>
+        <v>1.37</v>
       </c>
       <c r="X18" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>18</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>22</v>
-      </c>
       <c r="AC18" t="n">
-        <v>9.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="AG18" t="n">
-        <v>19.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>70</v>
+      </c>
+      <c r="AM18" t="n">
         <v>140</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AN18" t="n">
         <v>65</v>
       </c>
-      <c r="AL18" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>60</v>
-      </c>
       <c r="AO18" t="n">
-        <v>9.199999999999999</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,127 +2953,127 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.58</v>
+        <v>3.15</v>
       </c>
       <c r="G19" t="n">
-        <v>1.59</v>
+        <v>3.45</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>2.54</v>
       </c>
       <c r="I19" t="n">
-        <v>6.2</v>
+        <v>2.78</v>
       </c>
       <c r="J19" t="n">
-        <v>4.8</v>
+        <v>2.96</v>
       </c>
       <c r="K19" t="n">
-        <v>4.9</v>
+        <v>3.25</v>
       </c>
       <c r="L19" t="n">
-        <v>1.27</v>
+        <v>1.51</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="N19" t="n">
-        <v>6.8</v>
+        <v>3.15</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
       <c r="P19" t="n">
-        <v>2.92</v>
+        <v>1.69</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.51</v>
+        <v>2.28</v>
       </c>
       <c r="R19" t="n">
-        <v>1.76</v>
+        <v>1.26</v>
       </c>
       <c r="S19" t="n">
-        <v>2.28</v>
+        <v>4.2</v>
       </c>
       <c r="T19" t="n">
-        <v>1.66</v>
+        <v>1.86</v>
       </c>
       <c r="U19" t="n">
-        <v>2.46</v>
+        <v>1.96</v>
       </c>
       <c r="V19" t="n">
-        <v>1.19</v>
+        <v>1.56</v>
       </c>
       <c r="W19" t="n">
-        <v>2.68</v>
+        <v>1.41</v>
       </c>
       <c r="X19" t="n">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="Y19" t="n">
-        <v>32</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z19" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="AA19" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AB19" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>11.5</v>
+        <v>7.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AE19" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AF19" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>60</v>
       </c>
       <c r="AI19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AJ19" t="n">
-        <v>15</v>
+        <v>900</v>
       </c>
       <c r="AK19" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AL19" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AM19" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AN19" t="n">
-        <v>5.6</v>
+        <v>1000</v>
       </c>
       <c r="AO19" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3088,121 +3088,121 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3.25</v>
+        <v>4.7</v>
       </c>
       <c r="G20" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N20" t="n">
         <v>3.35</v>
       </c>
-      <c r="H20" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.15</v>
-      </c>
       <c r="O20" t="n">
-        <v>1.45</v>
+        <v>1.39</v>
       </c>
       <c r="P20" t="n">
-        <v>1.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.34</v>
+        <v>2.12</v>
       </c>
       <c r="R20" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="S20" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="U20" t="n">
         <v>1.96</v>
       </c>
-      <c r="U20" t="n">
-        <v>1.98</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.59</v>
+        <v>1.96</v>
       </c>
       <c r="W20" t="n">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z20" t="n">
-        <v>15.5</v>
+        <v>12</v>
       </c>
       <c r="AA20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF20" t="n">
         <v>40</v>
       </c>
-      <c r="AB20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>21</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>20</v>
       </c>
       <c r="AI20" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AJ20" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AK20" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="AL20" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="AM20" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO20" t="n">
-        <v>32</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="21">
@@ -3223,127 +3223,127 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>FC Giugliano</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Casertana</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.96</v>
+        <v>1.58</v>
       </c>
       <c r="G21" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H21" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="W21" t="n">
         <v>2.66</v>
       </c>
-      <c r="I21" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="S21" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W21" t="n">
-        <v>1.47</v>
-      </c>
       <c r="X21" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="Y21" t="n">
-        <v>15.5</v>
+        <v>22</v>
       </c>
       <c r="Z21" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AA21" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AB21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC21" t="n">
         <v>10.5</v>
       </c>
-      <c r="AC21" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AD21" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AE21" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AF21" t="n">
-        <v>36</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG21" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="AI21" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="n">
-        <v>500</v>
+        <v>15</v>
       </c>
       <c r="AK21" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AM21" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN21" t="n">
-        <v>600</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -3358,127 +3358,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Audace Cerignola</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Benevento</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>4.6</v>
+        <v>2.48</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>2.52</v>
       </c>
       <c r="H22" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>2.02</v>
+        <v>3.7</v>
       </c>
       <c r="J22" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K22" t="n">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="M22" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N22" t="n">
-        <v>3.35</v>
+        <v>2.66</v>
       </c>
       <c r="O22" t="n">
-        <v>1.39</v>
+        <v>1.58</v>
       </c>
       <c r="P22" t="n">
-        <v>1.78</v>
+        <v>1.56</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.12</v>
+        <v>2.72</v>
       </c>
       <c r="R22" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="S22" t="n">
-        <v>4</v>
+        <v>5.6</v>
       </c>
       <c r="T22" t="n">
-        <v>1.86</v>
+        <v>2.16</v>
       </c>
       <c r="U22" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="V22" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="W22" t="n">
-        <v>1.24</v>
+        <v>1.65</v>
       </c>
       <c r="X22" t="n">
-        <v>12</v>
+        <v>7.8</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z22" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AA22" t="n">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="n">
-        <v>16.5</v>
+        <v>7.4</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="AF22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>38</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN22" t="n">
         <v>40</v>
       </c>
-      <c r="AG22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>120</v>
-      </c>
       <c r="AO22" t="n">
-        <v>18</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Italian Serie C</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -3488,132 +3488,132 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Cosenza</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Cavese 1919</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.58</v>
+        <v>4.4</v>
       </c>
       <c r="G23" t="n">
-        <v>1.66</v>
+        <v>4.8</v>
       </c>
       <c r="H23" t="n">
-        <v>6.6</v>
+        <v>1.86</v>
       </c>
       <c r="I23" t="n">
-        <v>7.8</v>
+        <v>1.91</v>
       </c>
       <c r="J23" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="K23" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="L23" t="n">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>1.94</v>
+        <v>2.26</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="R23" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="S23" t="n">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="T23" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="U23" t="n">
-        <v>1.83</v>
+        <v>2.32</v>
       </c>
       <c r="V23" t="n">
-        <v>1.14</v>
+        <v>2.08</v>
       </c>
       <c r="W23" t="n">
-        <v>2.48</v>
+        <v>1.27</v>
       </c>
       <c r="X23" t="n">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="Y23" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="Z23" t="n">
-        <v>90</v>
+        <v>12.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="AC23" t="n">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD23" t="n">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>540</v>
+        <v>18</v>
       </c>
       <c r="AF23" t="n">
-        <v>9.199999999999999</v>
+        <v>36</v>
       </c>
       <c r="AG23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>240</v>
+      </c>
+      <c r="AO23" t="n">
         <v>10.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>430</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>44</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>580</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>220</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Spanish Segunda Division</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -3623,132 +3623,132 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.68</v>
+        <v>2.08</v>
       </c>
       <c r="G24" t="n">
-        <v>2.72</v>
+        <v>2.1</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>4.4</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="K24" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L24" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="M24" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="N24" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="P24" t="n">
-        <v>1.68</v>
+        <v>1.63</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.42</v>
+        <v>2.54</v>
       </c>
       <c r="R24" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="S24" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="T24" t="n">
-        <v>1.99</v>
+        <v>2.2</v>
       </c>
       <c r="U24" t="n">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="V24" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="W24" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="X24" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA24" t="n">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="AB24" t="n">
-        <v>8.800000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="AC24" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>14</v>
+        <v>18.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>42</v>
+        <v>70</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="AG24" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AH24" t="n">
-        <v>19.5</v>
+        <v>24</v>
       </c>
       <c r="AI24" t="n">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="AJ24" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="AK24" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL24" t="n">
         <v>55</v>
       </c>
       <c r="AM24" t="n">
-        <v>140</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO24" t="n">
-        <v>48</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>English National League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -3758,132 +3758,132 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Altrincham</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Rochdale</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>4</v>
+        <v>6.2</v>
       </c>
       <c r="G25" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J25" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="K25" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N25" t="n">
         <v>4.3</v>
       </c>
-      <c r="H25" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="I25" t="n">
+      <c r="O25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T25" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U25" t="n">
         <v>2.04</v>
       </c>
-      <c r="J25" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.32</v>
-      </c>
       <c r="V25" t="n">
-        <v>1.96</v>
+        <v>2.58</v>
       </c>
       <c r="W25" t="n">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="X25" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>11</v>
+        <v>8.6</v>
       </c>
       <c r="Z25" t="n">
-        <v>13.5</v>
+        <v>9.4</v>
       </c>
       <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>22</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG25" t="n">
         <v>23</v>
       </c>
-      <c r="AB25" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>17</v>
-      </c>
       <c r="AH25" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AI25" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
+        <v>850</v>
+      </c>
+      <c r="AK25" t="n">
         <v>85</v>
       </c>
-      <c r="AK25" t="n">
-        <v>48</v>
-      </c>
       <c r="AL25" t="n">
-        <v>250</v>
+        <v>85</v>
       </c>
       <c r="AM25" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
-        <v>46</v>
+        <v>150</v>
       </c>
       <c r="AO25" t="n">
-        <v>11.5</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Spanish La Liga</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -3893,395 +3893,125 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>17:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="H26" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="J26" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="K26" t="n">
-        <v>3.45</v>
+        <v>4.6</v>
       </c>
       <c r="L26" t="n">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="M26" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>2.94</v>
+        <v>1.1</v>
       </c>
       <c r="O26" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>1.64</v>
+        <v>2.32</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.5</v>
+        <v>1.52</v>
       </c>
       <c r="R26" t="n">
-        <v>1.23</v>
+        <v>1.6</v>
       </c>
       <c r="S26" t="n">
-        <v>5.1</v>
+        <v>2.26</v>
       </c>
       <c r="T26" t="n">
-        <v>2.16</v>
+        <v>1.67</v>
       </c>
       <c r="U26" t="n">
-        <v>1.81</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="W26" t="n">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="X26" t="n">
-        <v>9.4</v>
+        <v>26</v>
       </c>
       <c r="Y26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AH26" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AL26" t="n">
         <v>29</v>
       </c>
-      <c r="AA26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB26" t="n">
+      <c r="AM26" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN26" t="n">
         <v>7.2</v>
       </c>
-      <c r="AC26" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>90</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>170</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>23</v>
-      </c>
       <c r="AO26" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G27" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J27" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L27" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R27" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S27" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="T27" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V27" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W27" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X27" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>24</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>180</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>90</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G28" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J28" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L28" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M28" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N28" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P28" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R28" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S28" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="T28" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="U28" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="V28" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W28" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X28" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO28" t="n">
         <v>42</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Algerian Ligue 1</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,78 +653,78 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>ES Setif</t>
+          <t>ADO Den Haag</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kabylie</t>
+          <t>Jong PSV Eindhoven</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3.8</v>
+        <v>2.98</v>
       </c>
       <c r="G2" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="H2" t="n">
-        <v>4.6</v>
+        <v>12.5</v>
       </c>
       <c r="I2" t="n">
-        <v>4.9</v>
+        <v>13.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.85</v>
+        <v>1.64</v>
       </c>
       <c r="K2" t="n">
-        <v>1.9</v>
+        <v>1.69</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.04</v>
+        <v>1.78</v>
       </c>
       <c r="Q2" t="n">
-        <v>22</v>
+        <v>2.22</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="S2" t="n">
-        <v>95</v>
+        <v>2.84</v>
       </c>
       <c r="T2" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.25</v>
+        <v>2.48</v>
       </c>
       <c r="W2" t="n">
-        <v>1.35</v>
+        <v>1.02</v>
       </c>
       <c r="X2" t="n">
-        <v>2.26</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.6</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
         <v>1000</v>
@@ -733,28 +733,28 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>990</v>
+        <v>1.79</v>
       </c>
       <c r="AE2" t="n">
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
         <v>980</v>
       </c>
-      <c r="AG2" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>990</v>
-      </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Erokspor A.S</t>
+          <t>FC Eindhoven</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Sariyer G.K.</t>
+          <t>Jong AZ Alkmaar</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>4.9</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>180</v>
       </c>
       <c r="H3" t="n">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="I3" t="n">
-        <v>4.7</v>
+        <v>6</v>
       </c>
       <c r="J3" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -832,16 +832,16 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.59</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -850,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.16</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
@@ -871,10 +871,10 @@
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.59</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
@@ -883,37 +883,37 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>900</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>990</v>
+      </c>
+      <c r="AN3" t="n">
         <v>980</v>
       </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish Super League</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Cambuur Leeuwarden</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>MVV Maastricht</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
       <c r="H4" t="n">
-        <v>95</v>
+        <v>250</v>
       </c>
       <c r="I4" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>8.800000000000001</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -973,22 +973,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>8.199999999999999</v>
+        <v>100</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1018,28 +1018,28 @@
         <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>1.65</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>570</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
         <v>1000</v>
@@ -1048,7 +1048,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Dutch Eerste Divisie</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,123 +1058,123 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Hertha Berlin</t>
+          <t>VVV Venlo</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Arminia Bielefeld</t>
+          <t>FC Dordrecht</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.4</v>
+        <v>1.02</v>
       </c>
       <c r="G5" t="n">
-        <v>2.42</v>
+        <v>1.04</v>
       </c>
       <c r="H5" t="n">
-        <v>4.8</v>
+        <v>80</v>
       </c>
       <c r="I5" t="n">
-        <v>4.9</v>
+        <v>1000</v>
       </c>
       <c r="J5" t="n">
-        <v>2.66</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>2.68</v>
+        <v>48</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>1.81</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="W5" t="n">
-        <v>1.7</v>
+        <v>34</v>
       </c>
       <c r="X5" t="n">
-        <v>4.6</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="Z5" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA5" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
-        <v>4.8</v>
+        <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AE5" t="n">
-        <v>270</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
-        <v>510</v>
+        <v>1000</v>
       </c>
       <c r="AJ5" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>1.64</v>
       </c>
       <c r="AL5" t="n">
-        <v>300</v>
+        <v>6.2</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>5.4</v>
       </c>
       <c r="AO5" t="n">
         <v>1000</v>
@@ -1183,7 +1183,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>German Bundesliga 2</t>
+          <t>Hungarian NB I</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:30:00</t>
+          <t>16:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Paderborn</t>
+          <t>Diosgyori</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>SV Darmstadt</t>
+          <t>Ferencvaros</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>21</v>
+        <v>500</v>
       </c>
       <c r="G6" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="H6" t="n">
-        <v>1.2</v>
+        <v>1.03</v>
       </c>
       <c r="I6" t="n">
-        <v>1.21</v>
+        <v>1.07</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K6" t="n">
-        <v>8.4</v>
+        <v>150</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1231,46 +1231,46 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="P6" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.18</v>
+        <v>9.4</v>
       </c>
       <c r="R6" t="n">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
       <c r="S6" t="n">
-        <v>1.87</v>
+        <v>100</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="U6" t="n">
-        <v>2.76</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>5.9</v>
+        <v>11</v>
       </c>
       <c r="W6" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>1.25</v>
       </c>
       <c r="Z6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>7.8</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
         <v>1000</v>
@@ -1279,10 +1279,10 @@
         <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>5.8</v>
+        <v>980</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>1000</v>
@@ -1291,10 +1291,10 @@
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>1000</v>
@@ -1303,22 +1303,22 @@
         <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.4</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>German 3 Liga</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,36 +1328,36 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Cottbus</t>
+          <t>FC Vaduz</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Jahn Regensburg</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.51</v>
+        <v>3</v>
       </c>
       <c r="G7" t="n">
-        <v>1.54</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>7.6</v>
+        <v>15.5</v>
       </c>
       <c r="J7" t="n">
-        <v>4.8</v>
+        <v>1.32</v>
       </c>
       <c r="K7" t="n">
-        <v>5</v>
+        <v>2.36</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1366,34 +1366,34 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3.85</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>1.96</v>
+        <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.99</v>
+        <v>1.04</v>
       </c>
       <c r="T7" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>1.01</v>
       </c>
       <c r="W7" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1408,43 +1408,43 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL7" t="n">
         <v>980</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AM7" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN7" t="n">
         <v>980</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>980</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Romanian Liga I</t>
+          <t>Swiss Challenge League</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,36 +1463,36 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>16:15:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Botosani</t>
+          <t>Etoile Carouge</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CFR Cluj</t>
+          <t>Stade Lausanne-Ouchy</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>5.9</v>
+        <v>38</v>
       </c>
       <c r="G8" t="n">
-        <v>6.4</v>
+        <v>990</v>
       </c>
       <c r="H8" t="n">
-        <v>1.8</v>
+        <v>1.08</v>
       </c>
       <c r="I8" t="n">
-        <v>1.83</v>
+        <v>1.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.45</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>3.55</v>
+        <v>15</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1501,94 +1501,94 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="S8" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>2.2</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="X8" t="n">
         <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
         <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>8</v>
+        <v>1.34</v>
       </c>
       <c r="AE8" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>1000</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH8" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI8" t="n">
-        <v>65</v>
+        <v>240</v>
       </c>
       <c r="AJ8" t="n">
         <v>1000</v>
       </c>
       <c r="AK8" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AL8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO8" t="n">
         <v>980</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>48</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Spanish Segunda Division</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>15:30:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Neuchatel Xamax</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>3.65</v>
+        <v>1.01</v>
       </c>
       <c r="H9" t="n">
-        <v>2.18</v>
+        <v>140</v>
       </c>
       <c r="I9" t="n">
-        <v>2.24</v>
+        <v>1000</v>
       </c>
       <c r="J9" t="n">
-        <v>3.75</v>
+        <v>100</v>
       </c>
       <c r="K9" t="n">
-        <v>3.8</v>
+        <v>1000</v>
       </c>
       <c r="L9" t="n">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="R9" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S9" t="n">
+        <v>2</v>
+      </c>
+      <c r="T9" t="n">
         <v>1.32</v>
       </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.87</v>
-      </c>
       <c r="U9" t="n">
-        <v>2.08</v>
+        <v>1.01</v>
       </c>
       <c r="V9" t="n">
-        <v>1.81</v>
+        <v>1.01</v>
       </c>
       <c r="W9" t="n">
-        <v>1.37</v>
+        <v>100</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="Z9" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AD9" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AE9" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AH9" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI9" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>90</v>
+        <v>2.14</v>
       </c>
       <c r="AK9" t="n">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="AL9" t="n">
-        <v>70</v>
+        <v>990</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>60</v>
+        <v>3.95</v>
       </c>
       <c r="AO9" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,132 +1733,132 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VVV Venlo</t>
+          <t>Cosenza</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>FC Dordrecht</t>
+          <t>Cavese 1919</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.34</v>
+        <v>1.04</v>
       </c>
       <c r="G10" t="n">
-        <v>2.4</v>
+        <v>1.05</v>
       </c>
       <c r="H10" t="n">
-        <v>3.05</v>
+        <v>150</v>
       </c>
       <c r="I10" t="n">
-        <v>3.2</v>
+        <v>400</v>
       </c>
       <c r="J10" t="n">
-        <v>3.85</v>
+        <v>26</v>
       </c>
       <c r="K10" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="L10" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.6</v>
+        <v>2.44</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.59</v>
+        <v>1.63</v>
       </c>
       <c r="R10" t="n">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>2.44</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.53</v>
+        <v>2.96</v>
       </c>
       <c r="U10" t="n">
-        <v>2.74</v>
+        <v>1.46</v>
       </c>
       <c r="V10" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="W10" t="n">
-        <v>1.71</v>
+        <v>26</v>
       </c>
       <c r="X10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>18.5</v>
+        <v>2.8</v>
       </c>
       <c r="AG10" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>440</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AK10" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH10" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>32</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>22</v>
-      </c>
       <c r="AL10" t="n">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="AM10" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cambuur Leeuwarden</t>
+          <t>Audace Cerignola</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>MVV Maastricht</t>
+          <t>Benevento</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.26</v>
+        <v>110</v>
       </c>
       <c r="G11" t="n">
-        <v>1.27</v>
+        <v>1000</v>
       </c>
       <c r="H11" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="J11" t="n">
         <v>12</v>
       </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="K11" t="n">
-        <v>8</v>
+        <v>240</v>
       </c>
       <c r="L11" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8.800000000000001</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>2.02</v>
+        <v>2.56</v>
       </c>
       <c r="S11" t="n">
-        <v>1.93</v>
+        <v>1.54</v>
       </c>
       <c r="T11" t="n">
-        <v>1.79</v>
+        <v>2.52</v>
       </c>
       <c r="U11" t="n">
-        <v>2.24</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>1.08</v>
+        <v>48</v>
       </c>
       <c r="W11" t="n">
-        <v>4.7</v>
+        <v>1.01</v>
       </c>
       <c r="X11" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="Y11" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="Z11" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AA11" t="n">
-        <v>390</v>
+        <v>2.78</v>
       </c>
       <c r="AB11" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AD11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AE11" t="n">
-        <v>160</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AI11" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>110</v>
+        <v>380</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.25</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hungarian NB I</t>
+          <t>Italian Serie B</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,118 +2003,118 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Diosgyori</t>
+          <t>SSD Bari</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Ferencvaros</t>
+          <t>Catanzaro</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>7.6</v>
+        <v>110</v>
       </c>
       <c r="G12" t="n">
-        <v>8.4</v>
+        <v>240</v>
       </c>
       <c r="H12" t="n">
-        <v>1.46</v>
+        <v>1.05</v>
       </c>
       <c r="I12" t="n">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K12" t="n">
-        <v>5.3</v>
+        <v>22</v>
       </c>
       <c r="L12" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.72</v>
+        <v>2.44</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.52</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V12" t="n">
-        <v>3</v>
+        <v>17.5</v>
       </c>
       <c r="W12" t="n">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="X12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="Y12" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.5</v>
+        <v>2.46</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.5</v>
+        <v>5.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="AD12" t="n">
-        <v>10.5</v>
+        <v>5.6</v>
       </c>
       <c r="AE12" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG12" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI12" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="n">
         <v>1000</v>
       </c>
       <c r="AK12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL12" t="n">
         <v>240</v>
       </c>
-      <c r="AL12" t="n">
-        <v>190</v>
-      </c>
       <c r="AM12" t="n">
         <v>1000</v>
       </c>
@@ -2122,13 +2122,13 @@
         <v>1000</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.2</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>German Bundesliga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,123 +2138,123 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ADO Den Haag</t>
+          <t>Dortmund</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Jong PSV Eindhoven</t>
+          <t>Mgladbach</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
       <c r="G13" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="H13" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="I13" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="J13" t="n">
-        <v>9.199999999999999</v>
+        <v>6</v>
       </c>
       <c r="K13" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="S13" t="n">
+        <v>6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W13" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>280</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>36</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>320</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>9.800000000000001</v>
       </c>
-      <c r="L13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N13" t="n">
-        <v>14</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="R13" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="W13" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X13" t="n">
-        <v>85</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>480</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>180</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>13</v>
-      </c>
       <c r="AK13" t="n">
-        <v>13.5</v>
+        <v>21</v>
       </c>
       <c r="AL13" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AM13" t="n">
         <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.5</v>
+        <v>17.5</v>
       </c>
       <c r="AO13" t="n">
         <v>1000</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dutch Eerste Divisie</t>
+          <t>Italian Serie C</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>16:00:00</t>
+          <t>16:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>FC Eindhoven</t>
+          <t>FC Giugliano</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Jong AZ Alkmaar</t>
+          <t>Casertana</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.52</v>
+        <v>70</v>
       </c>
       <c r="G14" t="n">
-        <v>2.58</v>
+        <v>980</v>
       </c>
       <c r="H14" t="n">
-        <v>2.76</v>
+        <v>1.06</v>
       </c>
       <c r="I14" t="n">
-        <v>2.84</v>
+        <v>1.08</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="K14" t="n">
-        <v>4.2</v>
+        <v>22</v>
       </c>
       <c r="L14" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5.7</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="S14" t="n">
-        <v>2.54</v>
+        <v>3.3</v>
       </c>
       <c r="T14" t="n">
-        <v>1.56</v>
+        <v>2.42</v>
       </c>
       <c r="U14" t="n">
-        <v>2.66</v>
+        <v>1.66</v>
       </c>
       <c r="V14" t="n">
-        <v>1.54</v>
+        <v>14.5</v>
       </c>
       <c r="W14" t="n">
-        <v>1.64</v>
+        <v>1.01</v>
       </c>
       <c r="X14" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Z14" t="n">
-        <v>22</v>
+        <v>3.15</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>5.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC14" t="n">
-        <v>9.6</v>
+        <v>1000</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>5.9</v>
       </c>
       <c r="AE14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH14" t="n">
         <v>26</v>
       </c>
-      <c r="AF14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>15</v>
-      </c>
       <c r="AI14" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AJ14" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AL14" t="n">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="AO14" t="n">
-        <v>16.5</v>
+        <v>990</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>English National League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>FC Vaduz</t>
+          <t>Altrincham</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Rochdale</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.34</v>
+        <v>60</v>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>110</v>
       </c>
       <c r="H15" t="n">
-        <v>3.1</v>
+        <v>1.07</v>
       </c>
       <c r="I15" t="n">
-        <v>3.3</v>
+        <v>1.08</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>16.5</v>
       </c>
       <c r="K15" t="n">
-        <v>3.9</v>
+        <v>18.5</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>5.5</v>
       </c>
-      <c r="O15" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.54</v>
-      </c>
       <c r="Q15" t="n">
-        <v>1.61</v>
+        <v>1.21</v>
       </c>
       <c r="R15" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>2.54</v>
+        <v>1.97</v>
       </c>
       <c r="T15" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U15" t="n">
-        <v>2.64</v>
+        <v>1.86</v>
       </c>
       <c r="V15" t="n">
-        <v>1.43</v>
+        <v>13.5</v>
       </c>
       <c r="W15" t="n">
-        <v>1.71</v>
+        <v>1.01</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="Z15" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="AA15" t="n">
-        <v>60</v>
+        <v>5.4</v>
       </c>
       <c r="AB15" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.4</v>
+        <v>1000</v>
       </c>
       <c r="AD15" t="n">
-        <v>14.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE15" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI15" t="n">
         <v>32</v>
       </c>
-      <c r="AF15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>36</v>
-      </c>
       <c r="AJ15" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL15" t="n">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="AM15" t="n">
-        <v>75</v>
+        <v>140</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>980</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Swiss Challenge League</t>
+          <t>Spanish La Liga</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:15:00</t>
+          <t>17:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Etoile Carouge</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Stade Lausanne-Ouchy</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>5.3</v>
+        <v>6</v>
       </c>
       <c r="G16" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="H16" t="n">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="I16" t="n">
-        <v>1.73</v>
+        <v>1.89</v>
       </c>
       <c r="J16" t="n">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="K16" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="L16" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="R16" t="n">
-        <v>1.47</v>
+        <v>1.16</v>
       </c>
       <c r="S16" t="n">
-        <v>2.96</v>
+        <v>6.8</v>
       </c>
       <c r="T16" t="n">
-        <v>1.8</v>
+        <v>1.63</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.52</v>
       </c>
       <c r="V16" t="n">
-        <v>2.36</v>
+        <v>2.1</v>
       </c>
       <c r="W16" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="X16" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>3.95</v>
       </c>
       <c r="Z16" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="AA16" t="n">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="AB16" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AC16" t="n">
-        <v>9.800000000000001</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AE16" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AF16" t="n">
-        <v>46</v>
+        <v>1000</v>
       </c>
       <c r="AG16" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH16" t="n">
         <v>21</v>
       </c>
-      <c r="AH16" t="n">
-        <v>19</v>
-      </c>
       <c r="AI16" t="n">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="AJ16" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AK16" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AL16" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM16" t="n">
-        <v>95</v>
+        <v>390</v>
       </c>
       <c r="AN16" t="n">
-        <v>70</v>
+        <v>160</v>
       </c>
       <c r="AO16" t="n">
-        <v>8.800000000000001</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>German Bundesliga</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,132 +2678,132 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>17:15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Dortmund</t>
+          <t>Estoril Praia</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mgladbach</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>4.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.55</v>
+        <v>4.9</v>
       </c>
       <c r="H17" t="n">
-        <v>6.2</v>
+        <v>2.06</v>
       </c>
       <c r="I17" t="n">
-        <v>6.6</v>
+        <v>2.08</v>
       </c>
       <c r="J17" t="n">
-        <v>5</v>
+        <v>3.15</v>
       </c>
       <c r="K17" t="n">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="L17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="S17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W17" t="n">
         <v>1.26</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T17" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U17" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="W17" t="n">
-        <v>2.8</v>
-      </c>
       <c r="X17" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
         <v>30</v>
       </c>
-      <c r="Y17" t="n">
-        <v>34</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>160</v>
-      </c>
       <c r="AB17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD17" t="n">
         <v>13.5</v>
       </c>
-      <c r="AC17" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>22</v>
-      </c>
       <c r="AE17" t="n">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="AF17" t="n">
-        <v>11.5</v>
+        <v>30</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="AI17" t="n">
-        <v>55</v>
+        <v>130</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14.5</v>
+        <v>150</v>
       </c>
       <c r="AK17" t="n">
-        <v>13.5</v>
+        <v>110</v>
       </c>
       <c r="AL17" t="n">
-        <v>24</v>
+        <v>220</v>
       </c>
       <c r="AM17" t="n">
-        <v>70</v>
+        <v>470</v>
       </c>
       <c r="AN17" t="n">
-        <v>5.3</v>
+        <v>220</v>
       </c>
       <c r="AO17" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Italian Serie B</t>
+          <t>Ecuadorian Serie A</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -2813,1205 +2813,125 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SSD Bari</t>
+          <t>El Nacional</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Catanzaro</t>
+          <t>Delfin</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.6</v>
+        <v>1.69</v>
       </c>
       <c r="G18" t="n">
-        <v>3.75</v>
+        <v>1.87</v>
       </c>
       <c r="H18" t="n">
-        <v>2.44</v>
+        <v>4.5</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>5.3</v>
       </c>
       <c r="J18" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K18" t="n">
-        <v>3.15</v>
+        <v>4.6</v>
       </c>
       <c r="L18" t="n">
-        <v>1.51</v>
+        <v>1.3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>3.15</v>
+        <v>4.7</v>
       </c>
       <c r="O18" t="n">
-        <v>1.45</v>
+        <v>1.21</v>
       </c>
       <c r="P18" t="n">
-        <v>1.69</v>
+        <v>2.38</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.36</v>
+        <v>1.53</v>
       </c>
       <c r="R18" t="n">
-        <v>1.26</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>4.6</v>
+        <v>2.38</v>
       </c>
       <c r="T18" t="n">
-        <v>1.94</v>
+        <v>1.66</v>
       </c>
       <c r="U18" t="n">
-        <v>1.98</v>
+        <v>2.4</v>
       </c>
       <c r="V18" t="n">
-        <v>1.68</v>
+        <v>1.23</v>
       </c>
       <c r="W18" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="X18" t="n">
-        <v>10.5</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.800000000000001</v>
+        <v>25</v>
       </c>
       <c r="Z18" t="n">
+        <v>44</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>900</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF18" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB18" t="n">
+      <c r="AG18" t="n">
         <v>11.5</v>
       </c>
-      <c r="AC18" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>30</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>16</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>70</v>
+        <v>19.5</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>17.5</v>
       </c>
       <c r="AL18" t="n">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="AN18" t="n">
-        <v>65</v>
+        <v>7.2</v>
       </c>
       <c r="AO18" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>FC Giugliano</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Casertana</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="H19" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L19" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="M19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P19" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="U19" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="W19" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="X19" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>30</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>900</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Audace Cerignola</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Benevento</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="G20" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="S20" t="n">
-        <v>4</v>
-      </c>
-      <c r="T20" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="X20" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>44</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>120</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Italian Serie C</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Cosenza</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Cavese 1919</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N21" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="X21" t="n">
-        <v>14</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>27</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>42</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>10</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Spanish Segunda Division</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>16:30:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="H22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N22" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X22" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>24</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>38</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>220</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>English National League</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Altrincham</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Rochdale</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="G23" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U23" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="X23" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>10</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>36</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>17</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>240</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Spanish La Liga</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>17:00:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Mallorca</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="G24" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="N24" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="P24" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="X24" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>110</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>24</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:15:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Estoril Praia</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="J25" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N25" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S25" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="W25" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X25" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>8.6</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>34</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>850</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>85</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="H26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X26" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>900</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>14</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AO26" t="n">
         <v>42</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO2"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,141 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Ecuadorian Serie A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-19</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>El Nacional</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Delfin</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="I2" t="n">
-        <v>980</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" t="n">
-        <v>950</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="S2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>980</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>80</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>980</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>980</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
